--- a/obrasQ.xlsx
+++ b/obrasQ.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Sociocav\Trabajo\Proyectos\Coincidencias\Culture\Impresionismo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Desktop\Impresionismo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7302F0-B66D-4F66-BF31-90095DC7864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B8CBCB-5E50-4511-B2CD-8E3002E5D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="210" windowWidth="25260" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="obrasQ xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'obrasQ xlsx'!$A$1:$L$703</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="4212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="4211">
   <si>
     <t>Autor</t>
   </si>
@@ -12656,9 +12653,6 @@
   </si>
   <si>
     <t>Notre Dame by Maximilien Luce, San Diego Museum of Art.JPG</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -13030,24 +13024,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L703"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222:F693"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="F414" sqref="F414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="42.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="118.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13085,7 +13077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -13123,7 +13115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -13161,7 +13153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -13199,7 +13191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -13237,7 +13229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -13275,7 +13267,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -13313,7 +13305,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -13351,7 +13343,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -13389,7 +13381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -13427,7 +13419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -13456,7 +13448,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -13472,9 +13464,6 @@
       <c r="E12" t="s">
         <v>100</v>
       </c>
-      <c r="F12" t="s">
-        <v>4211</v>
-      </c>
       <c r="G12" t="s">
         <v>101</v>
       </c>
@@ -13494,7 +13483,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -13532,7 +13521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -13570,7 +13559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -13602,7 +13591,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -13640,7 +13629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -13678,7 +13667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -13716,7 +13705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>147</v>
       </c>
@@ -13754,7 +13743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -13770,9 +13759,6 @@
       <c r="E20" t="s">
         <v>158</v>
       </c>
-      <c r="F20" t="s">
-        <v>4211</v>
-      </c>
       <c r="G20" t="s">
         <v>159</v>
       </c>
@@ -13792,7 +13778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>147</v>
       </c>
@@ -13830,7 +13816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -13846,9 +13832,6 @@
       <c r="E22" t="s">
         <v>171</v>
       </c>
-      <c r="F22" t="s">
-        <v>4211</v>
-      </c>
       <c r="G22" t="s">
         <v>172</v>
       </c>
@@ -13868,7 +13851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -13906,7 +13889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -13944,7 +13927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -13982,7 +13965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -14020,7 +14003,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -14058,7 +14041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -14096,7 +14079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -14134,7 +14117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -14172,7 +14155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -14207,7 +14190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -14245,7 +14228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -14283,7 +14266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -14321,12 +14304,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -14364,7 +14347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -14402,7 +14385,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -14440,7 +14423,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -14478,7 +14461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -14516,7 +14499,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -14554,7 +14537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>295</v>
       </c>
@@ -14592,7 +14575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -14630,7 +14613,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -14668,7 +14651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -14706,7 +14689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -14744,7 +14727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -14782,7 +14765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -14820,7 +14803,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -14858,7 +14841,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -14896,7 +14879,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>359</v>
       </c>
@@ -14934,7 +14917,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -14972,7 +14955,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>359</v>
       </c>
@@ -15010,7 +14993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -15048,7 +15031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -15086,7 +15069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -15124,7 +15107,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>398</v>
       </c>
@@ -15162,7 +15145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -15200,7 +15183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -15238,7 +15221,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -15276,7 +15259,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -15314,7 +15297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -15352,7 +15335,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -15390,7 +15373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -15428,7 +15411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>452</v>
       </c>
@@ -15466,7 +15449,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>460</v>
       </c>
@@ -15504,7 +15487,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -15542,7 +15525,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -15580,7 +15563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -15615,7 +15598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -15650,7 +15633,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>494</v>
       </c>
@@ -15682,7 +15665,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>359</v>
       </c>
@@ -15720,7 +15703,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -15758,7 +15741,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -15796,7 +15779,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>359</v>
       </c>
@@ -15825,7 +15808,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -15857,7 +15840,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>530</v>
       </c>
@@ -15892,7 +15875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>295</v>
       </c>
@@ -15930,7 +15913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>398</v>
       </c>
@@ -15968,7 +15951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>548</v>
       </c>
@@ -16006,7 +15989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>398</v>
       </c>
@@ -16044,12 +16027,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>565</v>
       </c>
@@ -16087,7 +16070,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>573</v>
       </c>
@@ -16125,7 +16108,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -16163,7 +16146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -16201,7 +16184,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>595</v>
       </c>
@@ -16239,7 +16222,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -16271,7 +16254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -16309,7 +16292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>452</v>
       </c>
@@ -16325,9 +16308,6 @@
       <c r="E90" t="s">
         <v>614</v>
       </c>
-      <c r="F90" t="s">
-        <v>4211</v>
-      </c>
       <c r="G90" t="s">
         <v>615</v>
       </c>
@@ -16347,7 +16327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>618</v>
       </c>
@@ -16385,7 +16365,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -16423,7 +16403,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>595</v>
       </c>
@@ -16461,7 +16441,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -16499,7 +16479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>565</v>
       </c>
@@ -16537,7 +16517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>565</v>
       </c>
@@ -16575,7 +16555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>565</v>
       </c>
@@ -16613,7 +16593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -16651,7 +16631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>565</v>
       </c>
@@ -16683,7 +16663,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>565</v>
       </c>
@@ -16718,7 +16698,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>398</v>
       </c>
@@ -16756,7 +16736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -16794,7 +16774,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>573</v>
       </c>
@@ -16832,7 +16812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>573</v>
       </c>
@@ -16870,7 +16850,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>398</v>
       </c>
@@ -16902,7 +16882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>595</v>
       </c>
@@ -16934,7 +16914,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>398</v>
       </c>
@@ -16963,7 +16943,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -17001,7 +16981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -17039,7 +17019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -17077,12 +17057,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -17120,7 +17100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -17158,7 +17138,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>398</v>
       </c>
@@ -17196,7 +17176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>34</v>
       </c>
@@ -17234,7 +17214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -17266,7 +17246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -17304,7 +17284,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>774</v>
       </c>
@@ -17333,7 +17313,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -17371,7 +17351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -17409,7 +17389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>573</v>
       </c>
@@ -17447,7 +17427,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>573</v>
       </c>
@@ -17485,7 +17465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>595</v>
       </c>
@@ -17523,7 +17503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -17561,7 +17541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -17587,7 +17567,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>819</v>
       </c>
@@ -17603,9 +17583,6 @@
       <c r="E126" t="s">
         <v>822</v>
       </c>
-      <c r="F126" t="s">
-        <v>4211</v>
-      </c>
       <c r="G126" t="s">
         <v>823</v>
       </c>
@@ -17625,7 +17602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>819</v>
       </c>
@@ -17657,7 +17634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>819</v>
       </c>
@@ -17695,7 +17672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>398</v>
       </c>
@@ -17727,7 +17704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>398</v>
       </c>
@@ -17765,7 +17742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -17803,7 +17780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -17841,7 +17818,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -17879,7 +17856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>860</v>
       </c>
@@ -17917,7 +17894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>867</v>
       </c>
@@ -17955,7 +17932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>867</v>
       </c>
@@ -17993,7 +17970,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>884</v>
       </c>
@@ -18022,7 +17999,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -18060,7 +18037,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -18098,7 +18075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -18136,7 +18113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -18174,7 +18151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -18212,7 +18189,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -18250,7 +18227,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>565</v>
       </c>
@@ -18288,7 +18265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -18326,7 +18303,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -18364,7 +18341,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -18402,7 +18379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -18440,7 +18417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -18478,7 +18455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -18516,7 +18493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -18554,7 +18531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -18592,7 +18569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>595</v>
       </c>
@@ -18630,7 +18607,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -18668,7 +18645,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -18703,7 +18680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>991</v>
       </c>
@@ -18741,7 +18718,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1000</v>
       </c>
@@ -18779,7 +18756,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>452</v>
       </c>
@@ -18795,9 +18772,6 @@
       <c r="E158" t="s">
         <v>1011</v>
       </c>
-      <c r="F158" t="s">
-        <v>4211</v>
-      </c>
       <c r="G158" t="s">
         <v>1012</v>
       </c>
@@ -18817,7 +18791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>398</v>
       </c>
@@ -18855,7 +18829,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>398</v>
       </c>
@@ -18893,7 +18867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>860</v>
       </c>
@@ -18922,7 +18896,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>565</v>
       </c>
@@ -18960,7 +18934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>565</v>
       </c>
@@ -18998,7 +18972,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -19033,7 +19007,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -19071,7 +19045,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -19109,7 +19083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -19147,7 +19121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -19185,7 +19159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>867</v>
       </c>
@@ -19217,7 +19191,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>34</v>
       </c>
@@ -19255,7 +19229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1080</v>
       </c>
@@ -19293,7 +19267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1088</v>
       </c>
@@ -19325,7 +19299,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1095</v>
       </c>
@@ -19363,7 +19337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>860</v>
       </c>
@@ -19401,7 +19375,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>860</v>
       </c>
@@ -19439,7 +19413,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>34</v>
       </c>
@@ -19477,7 +19451,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -19515,7 +19489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -19553,7 +19527,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -19591,7 +19565,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>565</v>
       </c>
@@ -19629,7 +19603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>398</v>
       </c>
@@ -19667,7 +19641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>398</v>
       </c>
@@ -19705,7 +19679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -19743,7 +19717,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>398</v>
       </c>
@@ -19781,7 +19755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -19819,7 +19793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -19857,12 +19831,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -19900,7 +19874,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -19938,7 +19912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -19970,7 +19944,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1206</v>
       </c>
@@ -19999,7 +19973,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>34</v>
       </c>
@@ -20037,12 +20011,12 @@
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>860</v>
       </c>
@@ -20080,7 +20054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>565</v>
       </c>
@@ -20118,7 +20092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>860</v>
       </c>
@@ -20153,7 +20127,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>860</v>
       </c>
@@ -20191,7 +20165,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -20223,7 +20197,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -20255,7 +20229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1252</v>
       </c>
@@ -20293,7 +20267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1260</v>
       </c>
@@ -20331,7 +20305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1260</v>
       </c>
@@ -20369,7 +20343,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>398</v>
       </c>
@@ -20407,7 +20381,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>398</v>
       </c>
@@ -20445,7 +20419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>595</v>
       </c>
@@ -20483,7 +20457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -20521,7 +20495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1288</v>
       </c>
@@ -20559,7 +20533,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -20597,7 +20571,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -20635,7 +20609,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>573</v>
       </c>
@@ -20667,7 +20641,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -20705,7 +20679,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1288</v>
       </c>
@@ -20743,7 +20717,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -20781,7 +20755,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1335</v>
       </c>
@@ -20797,9 +20771,6 @@
       <c r="E214" t="s">
         <v>1338</v>
       </c>
-      <c r="F214" t="s">
-        <v>4211</v>
-      </c>
       <c r="G214" t="s">
         <v>1339</v>
       </c>
@@ -20819,7 +20790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -20857,12 +20828,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>860</v>
       </c>
@@ -20894,7 +20865,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>460</v>
       </c>
@@ -20920,7 +20891,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>460</v>
       </c>
@@ -20955,7 +20926,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1360</v>
       </c>
@@ -20984,7 +20955,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>398</v>
       </c>
@@ -21022,7 +20993,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>452</v>
       </c>
@@ -21038,9 +21009,6 @@
       <c r="E222" t="s">
         <v>1372</v>
       </c>
-      <c r="F222" t="s">
-        <v>4211</v>
-      </c>
       <c r="G222" t="s">
         <v>1373</v>
       </c>
@@ -21060,7 +21028,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1377</v>
       </c>
@@ -21098,7 +21066,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>860</v>
       </c>
@@ -21136,7 +21104,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>860</v>
       </c>
@@ -21165,7 +21133,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1395</v>
       </c>
@@ -21203,7 +21171,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1206</v>
       </c>
@@ -21235,7 +21203,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1206</v>
       </c>
@@ -21267,7 +21235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -21296,7 +21264,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -21334,7 +21302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1095</v>
       </c>
@@ -21372,7 +21340,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -21410,7 +21378,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>398</v>
       </c>
@@ -21442,7 +21410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>398</v>
       </c>
@@ -21474,7 +21442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>398</v>
       </c>
@@ -21512,7 +21480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -21550,7 +21518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -21588,7 +21556,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -21626,7 +21594,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -21664,7 +21632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>573</v>
       </c>
@@ -21702,7 +21670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>573</v>
       </c>
@@ -21740,7 +21708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>398</v>
       </c>
@@ -21778,7 +21746,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1493</v>
       </c>
@@ -21816,7 +21784,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>860</v>
       </c>
@@ -21845,7 +21813,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>860</v>
       </c>
@@ -21874,7 +21842,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>24</v>
       </c>
@@ -21912,12 +21880,12 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F247" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -21955,7 +21923,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -21993,7 +21961,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -22031,7 +21999,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -22069,7 +22037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>42</v>
       </c>
@@ -22098,7 +22066,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>42</v>
       </c>
@@ -22136,7 +22104,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>42</v>
       </c>
@@ -22174,7 +22142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>42</v>
       </c>
@@ -22212,7 +22180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>34</v>
       </c>
@@ -22244,7 +22212,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>42</v>
       </c>
@@ -22282,7 +22250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1395</v>
       </c>
@@ -22320,7 +22288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1582</v>
       </c>
@@ -22349,7 +22317,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1582</v>
       </c>
@@ -22381,7 +22349,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>34</v>
       </c>
@@ -22419,7 +22387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1493</v>
       </c>
@@ -22454,7 +22422,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>860</v>
       </c>
@@ -22492,7 +22460,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -22530,7 +22498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1395</v>
       </c>
@@ -22556,7 +22524,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>452</v>
       </c>
@@ -22588,7 +22556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>34</v>
       </c>
@@ -22604,9 +22572,6 @@
       <c r="E267" t="s">
         <v>1627</v>
       </c>
-      <c r="F267" t="s">
-        <v>4211</v>
-      </c>
       <c r="G267" t="s">
         <v>1628</v>
       </c>
@@ -22626,7 +22591,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -22664,7 +22629,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1640</v>
       </c>
@@ -22702,7 +22667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1647</v>
       </c>
@@ -22740,7 +22705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1655</v>
       </c>
@@ -22778,7 +22743,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1664</v>
       </c>
@@ -22810,7 +22775,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1664</v>
       </c>
@@ -22848,7 +22813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1664</v>
       </c>
@@ -22877,7 +22842,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1655</v>
       </c>
@@ -22915,7 +22880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1664</v>
       </c>
@@ -22953,7 +22918,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1664</v>
       </c>
@@ -22991,7 +22956,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1664</v>
       </c>
@@ -23029,7 +22994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>34</v>
       </c>
@@ -23061,7 +23026,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1206</v>
       </c>
@@ -23093,7 +23058,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1711</v>
       </c>
@@ -23122,7 +23087,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1717</v>
       </c>
@@ -23157,7 +23122,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1377</v>
       </c>
@@ -23195,7 +23160,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1655</v>
       </c>
@@ -23233,12 +23198,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F285" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1655</v>
       </c>
@@ -23276,12 +23241,12 @@
         <v>923</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F287" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1655</v>
       </c>
@@ -23319,7 +23284,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1655</v>
       </c>
@@ -23357,7 +23322,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1664</v>
       </c>
@@ -23395,7 +23360,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1664</v>
       </c>
@@ -23433,7 +23398,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>24</v>
       </c>
@@ -23471,7 +23436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1664</v>
       </c>
@@ -23503,7 +23468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1655</v>
       </c>
@@ -23541,7 +23506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1664</v>
       </c>
@@ -23579,7 +23544,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1785</v>
       </c>
@@ -23595,9 +23560,6 @@
       <c r="E296" t="s">
         <v>1788</v>
       </c>
-      <c r="F296" t="s">
-        <v>4211</v>
-      </c>
       <c r="G296" t="s">
         <v>1789</v>
       </c>
@@ -23617,7 +23579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>398</v>
       </c>
@@ -23655,7 +23617,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>398</v>
       </c>
@@ -23693,7 +23655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1801</v>
       </c>
@@ -23728,7 +23690,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1801</v>
       </c>
@@ -23766,7 +23728,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1493</v>
       </c>
@@ -23804,7 +23766,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1801</v>
       </c>
@@ -23842,7 +23804,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1655</v>
       </c>
@@ -23880,7 +23842,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1801</v>
       </c>
@@ -23918,7 +23880,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1801</v>
       </c>
@@ -23956,7 +23918,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1801</v>
       </c>
@@ -23994,7 +23956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1801</v>
       </c>
@@ -24032,7 +23994,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1801</v>
       </c>
@@ -24070,7 +24032,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1801</v>
       </c>
@@ -24105,7 +24067,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1872</v>
       </c>
@@ -24143,7 +24105,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1877</v>
       </c>
@@ -24181,7 +24143,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1801</v>
       </c>
@@ -24219,7 +24181,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1801</v>
       </c>
@@ -24257,7 +24219,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1895</v>
       </c>
@@ -24283,7 +24245,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1801</v>
       </c>
@@ -24321,7 +24283,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1901</v>
       </c>
@@ -24353,7 +24315,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1907</v>
       </c>
@@ -24385,7 +24347,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>24</v>
       </c>
@@ -24417,7 +24379,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -24455,7 +24417,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>24</v>
       </c>
@@ -24493,7 +24455,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1664</v>
       </c>
@@ -24531,7 +24493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1664</v>
       </c>
@@ -24569,7 +24531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1664</v>
       </c>
@@ -24607,7 +24569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1664</v>
       </c>
@@ -24645,7 +24607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1664</v>
       </c>
@@ -24683,7 +24645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1664</v>
       </c>
@@ -24718,7 +24680,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1377</v>
       </c>
@@ -24756,7 +24718,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1377</v>
       </c>
@@ -24794,7 +24756,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1377</v>
       </c>
@@ -24832,12 +24794,12 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F330" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>42</v>
       </c>
@@ -24875,7 +24837,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>42</v>
       </c>
@@ -24904,7 +24866,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1996</v>
       </c>
@@ -24942,7 +24904,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1907</v>
       </c>
@@ -24980,7 +24942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>573</v>
       </c>
@@ -25018,7 +24980,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>573</v>
       </c>
@@ -25056,12 +25018,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F337" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>452</v>
       </c>
@@ -25099,7 +25061,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2030</v>
       </c>
@@ -25115,9 +25077,6 @@
       <c r="E339" t="s">
         <v>2033</v>
       </c>
-      <c r="F339" t="s">
-        <v>4211</v>
-      </c>
       <c r="G339" t="s">
         <v>2034</v>
       </c>
@@ -25137,7 +25096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2036</v>
       </c>
@@ -25166,7 +25125,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>398</v>
       </c>
@@ -25204,7 +25163,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>398</v>
       </c>
@@ -25242,7 +25201,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>565</v>
       </c>
@@ -25258,9 +25217,6 @@
       <c r="E343" t="s">
         <v>2054</v>
       </c>
-      <c r="F343" t="s">
-        <v>4211</v>
-      </c>
       <c r="G343" t="s">
         <v>4186</v>
       </c>
@@ -25277,7 +25233,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1801</v>
       </c>
@@ -25315,12 +25271,12 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F345" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1801</v>
       </c>
@@ -25358,7 +25314,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>860</v>
       </c>
@@ -25396,7 +25352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>860</v>
       </c>
@@ -25428,7 +25384,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1664</v>
       </c>
@@ -25466,7 +25422,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1664</v>
       </c>
@@ -25504,7 +25460,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1655</v>
       </c>
@@ -25536,7 +25492,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1664</v>
       </c>
@@ -25568,7 +25524,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2098</v>
       </c>
@@ -25606,7 +25562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1655</v>
       </c>
@@ -25644,7 +25600,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2113</v>
       </c>
@@ -25682,7 +25638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2113</v>
       </c>
@@ -25711,7 +25667,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1493</v>
       </c>
@@ -25749,7 +25705,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1493</v>
       </c>
@@ -25787,7 +25743,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1996</v>
       </c>
@@ -25825,7 +25781,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1493</v>
       </c>
@@ -25854,7 +25810,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1493</v>
       </c>
@@ -25883,7 +25839,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1664</v>
       </c>
@@ -25915,7 +25871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1664</v>
       </c>
@@ -25953,7 +25909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -25988,7 +25944,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -26026,7 +25982,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>24</v>
       </c>
@@ -26064,7 +26020,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1377</v>
       </c>
@@ -26102,7 +26058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1377</v>
       </c>
@@ -26140,7 +26096,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1377</v>
       </c>
@@ -26178,7 +26134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1206</v>
       </c>
@@ -26216,7 +26172,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>398</v>
       </c>
@@ -26254,7 +26210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2206</v>
       </c>
@@ -26283,7 +26239,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>565</v>
       </c>
@@ -26321,7 +26277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>2216</v>
       </c>
@@ -26359,7 +26315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2224</v>
       </c>
@@ -26391,7 +26347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2229</v>
       </c>
@@ -26429,7 +26385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -26467,7 +26423,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -26505,7 +26461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>24</v>
       </c>
@@ -26543,7 +26499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>24</v>
       </c>
@@ -26581,7 +26537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -26619,7 +26575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1493</v>
       </c>
@@ -26657,7 +26613,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1493</v>
       </c>
@@ -26695,7 +26651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>42</v>
       </c>
@@ -26724,7 +26680,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>573</v>
       </c>
@@ -26762,7 +26718,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>573</v>
       </c>
@@ -26800,7 +26756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>573</v>
       </c>
@@ -26838,7 +26794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2292</v>
       </c>
@@ -26873,7 +26829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>452</v>
       </c>
@@ -26889,9 +26845,6 @@
       <c r="E389" t="s">
         <v>2300</v>
       </c>
-      <c r="F389" t="s">
-        <v>4211</v>
-      </c>
       <c r="G389" t="s">
         <v>2301</v>
       </c>
@@ -26911,7 +26864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>452</v>
       </c>
@@ -26927,9 +26880,6 @@
       <c r="E390" t="s">
         <v>2305</v>
       </c>
-      <c r="F390" t="s">
-        <v>4211</v>
-      </c>
       <c r="G390" t="s">
         <v>2306</v>
       </c>
@@ -26949,7 +26899,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1377</v>
       </c>
@@ -26987,7 +26937,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1377</v>
       </c>
@@ -27025,7 +26975,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>210</v>
       </c>
@@ -27063,7 +27013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>398</v>
       </c>
@@ -27101,7 +27051,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -27139,7 +27089,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -27177,7 +27127,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -27215,7 +27165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -27253,7 +27203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -27282,7 +27232,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2363</v>
       </c>
@@ -27311,7 +27261,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>24</v>
       </c>
@@ -27349,7 +27299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>24</v>
       </c>
@@ -27387,7 +27337,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>24</v>
       </c>
@@ -27425,7 +27375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>24</v>
       </c>
@@ -27463,7 +27413,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>24</v>
       </c>
@@ -27501,7 +27451,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1655</v>
       </c>
@@ -27539,7 +27489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>573</v>
       </c>
@@ -27577,12 +27527,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F408" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>573</v>
       </c>
@@ -27620,7 +27570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>2414</v>
       </c>
@@ -27646,7 +27596,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2419</v>
       </c>
@@ -27684,7 +27634,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>2419</v>
       </c>
@@ -27722,7 +27672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>2433</v>
       </c>
@@ -27760,7 +27710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>2441</v>
       </c>
@@ -27792,7 +27742,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>2441</v>
       </c>
@@ -27821,7 +27771,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2441</v>
       </c>
@@ -27853,7 +27803,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2292</v>
       </c>
@@ -27882,7 +27832,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1377</v>
       </c>
@@ -27920,7 +27870,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2292</v>
       </c>
@@ -27949,7 +27899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>2459</v>
       </c>
@@ -27978,7 +27928,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2459</v>
       </c>
@@ -28007,7 +27957,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2467</v>
       </c>
@@ -28020,9 +27970,6 @@
       <c r="E422" t="s">
         <v>2470</v>
       </c>
-      <c r="F422" t="s">
-        <v>4211</v>
-      </c>
       <c r="G422" t="s">
         <v>2471</v>
       </c>
@@ -28039,7 +27986,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>2113</v>
       </c>
@@ -28077,7 +28024,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2480</v>
       </c>
@@ -28106,7 +28053,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>2484</v>
       </c>
@@ -28135,7 +28082,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>2489</v>
       </c>
@@ -28173,7 +28120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2113</v>
       </c>
@@ -28202,7 +28149,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1901</v>
       </c>
@@ -28240,7 +28187,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2506</v>
       </c>
@@ -28269,7 +28216,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2506</v>
       </c>
@@ -28298,7 +28245,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1655</v>
       </c>
@@ -28336,7 +28283,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>2113</v>
       </c>
@@ -28374,7 +28321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>42</v>
       </c>
@@ -28406,7 +28353,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>42</v>
       </c>
@@ -28441,7 +28388,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>24</v>
       </c>
@@ -28479,7 +28426,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>24</v>
       </c>
@@ -28517,7 +28464,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2547</v>
       </c>
@@ -28549,7 +28496,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2553</v>
       </c>
@@ -28565,9 +28512,6 @@
       <c r="E438" t="s">
         <v>2556</v>
       </c>
-      <c r="F438" t="s">
-        <v>4211</v>
-      </c>
       <c r="G438" t="s">
         <v>2557</v>
       </c>
@@ -28587,7 +28531,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>2562</v>
       </c>
@@ -28616,7 +28560,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2566</v>
       </c>
@@ -28654,7 +28598,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2575</v>
       </c>
@@ -28692,7 +28636,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>2562</v>
       </c>
@@ -28721,7 +28665,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>2562</v>
       </c>
@@ -28737,9 +28681,6 @@
       <c r="E443" t="s">
         <v>2584</v>
       </c>
-      <c r="F443" t="s">
-        <v>4211</v>
-      </c>
       <c r="G443" t="s">
         <v>2585</v>
       </c>
@@ -28759,7 +28700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>2588</v>
       </c>
@@ -28791,7 +28732,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>2593</v>
       </c>
@@ -28829,7 +28770,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>2601</v>
       </c>
@@ -28867,7 +28808,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>2609</v>
       </c>
@@ -28905,7 +28846,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>2609</v>
       </c>
@@ -28921,9 +28862,6 @@
       <c r="E448" t="s">
         <v>2617</v>
       </c>
-      <c r="F448" t="s">
-        <v>4211</v>
-      </c>
       <c r="G448" t="s">
         <v>2618</v>
       </c>
@@ -28943,7 +28881,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>2609</v>
       </c>
@@ -28981,7 +28919,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>2547</v>
       </c>
@@ -29019,7 +28957,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>2547</v>
       </c>
@@ -29057,7 +28995,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>2643</v>
       </c>
@@ -29073,9 +29011,6 @@
       <c r="E452" t="s">
         <v>2646</v>
       </c>
-      <c r="F452" t="s">
-        <v>4211</v>
-      </c>
       <c r="G452" t="s">
         <v>2647</v>
       </c>
@@ -29095,7 +29030,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>2649</v>
       </c>
@@ -29130,7 +29065,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>2657</v>
       </c>
@@ -29159,7 +29094,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2662</v>
       </c>
@@ -29197,7 +29132,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>2672</v>
       </c>
@@ -29213,9 +29148,6 @@
       <c r="E456" t="s">
         <v>2675</v>
       </c>
-      <c r="F456" t="s">
-        <v>4211</v>
-      </c>
       <c r="G456" t="s">
         <v>2676</v>
       </c>
@@ -29235,7 +29167,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>2681</v>
       </c>
@@ -29273,7 +29205,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>2689</v>
       </c>
@@ -29305,7 +29237,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>2695</v>
       </c>
@@ -29343,7 +29275,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>2695</v>
       </c>
@@ -29375,7 +29307,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>2681</v>
       </c>
@@ -29407,7 +29339,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>2681</v>
       </c>
@@ -29445,7 +29377,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>2715</v>
       </c>
@@ -29483,7 +29415,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>2715</v>
       </c>
@@ -29521,7 +29453,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>2730</v>
       </c>
@@ -29553,7 +29485,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>2735</v>
       </c>
@@ -29591,7 +29523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>2735</v>
       </c>
@@ -29626,7 +29558,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>2748</v>
       </c>
@@ -29664,7 +29596,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>2755</v>
       </c>
@@ -29702,7 +29634,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>2748</v>
       </c>
@@ -29740,7 +29672,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>2748</v>
       </c>
@@ -29778,7 +29710,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>2776</v>
       </c>
@@ -29816,7 +29748,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>2776</v>
       </c>
@@ -29854,7 +29786,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>2776</v>
       </c>
@@ -29892,7 +29824,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>2776</v>
       </c>
@@ -29924,7 +29856,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>2803</v>
       </c>
@@ -29962,12 +29894,12 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F477" t="s">
         <v>2810</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>2803</v>
       </c>
@@ -29999,7 +29931,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>2748</v>
       </c>
@@ -30037,7 +29969,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>2748</v>
       </c>
@@ -30075,7 +30007,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>2748</v>
       </c>
@@ -30107,7 +30039,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>2829</v>
       </c>
@@ -30142,7 +30074,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>2829</v>
       </c>
@@ -30180,7 +30112,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>2829</v>
       </c>
@@ -30218,7 +30150,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>2847</v>
       </c>
@@ -30250,7 +30182,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>2854</v>
       </c>
@@ -30288,7 +30220,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>2862</v>
       </c>
@@ -30320,7 +30252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>2829</v>
       </c>
@@ -30358,7 +30290,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>2829</v>
       </c>
@@ -30393,7 +30325,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>2847</v>
       </c>
@@ -30431,7 +30363,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>2748</v>
       </c>
@@ -30463,7 +30395,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>2748</v>
       </c>
@@ -30501,7 +30433,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>2748</v>
       </c>
@@ -30539,7 +30471,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>2829</v>
       </c>
@@ -30577,7 +30509,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>2847</v>
       </c>
@@ -30615,7 +30547,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>2748</v>
       </c>
@@ -30647,7 +30579,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>2914</v>
       </c>
@@ -30679,7 +30611,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>2919</v>
       </c>
@@ -30711,7 +30643,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>2847</v>
       </c>
@@ -30749,7 +30681,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>2748</v>
       </c>
@@ -30781,7 +30713,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>2776</v>
       </c>
@@ -30819,7 +30751,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>2847</v>
       </c>
@@ -30848,7 +30780,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>2748</v>
       </c>
@@ -30877,7 +30809,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>2847</v>
       </c>
@@ -30906,7 +30838,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>2829</v>
       </c>
@@ -30944,7 +30876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>2829</v>
       </c>
@@ -30973,7 +30905,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>2829</v>
       </c>
@@ -31011,7 +30943,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>2967</v>
       </c>
@@ -31049,7 +30981,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>2977</v>
       </c>
@@ -31087,7 +31019,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>2986</v>
       </c>
@@ -31125,12 +31057,12 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F511" t="s">
         <v>2994</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>2995</v>
       </c>
@@ -31168,7 +31100,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>3005</v>
       </c>
@@ -31200,7 +31132,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>3012</v>
       </c>
@@ -31232,7 +31164,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>3019</v>
       </c>
@@ -31270,7 +31202,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>2986</v>
       </c>
@@ -31308,7 +31240,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>3033</v>
       </c>
@@ -31346,7 +31278,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>3043</v>
       </c>
@@ -31384,7 +31316,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>3043</v>
       </c>
@@ -31422,7 +31354,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>2986</v>
       </c>
@@ -31460,7 +31392,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>3065</v>
       </c>
@@ -31498,7 +31430,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>3073</v>
       </c>
@@ -31536,12 +31468,12 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F523" t="s">
         <v>3081</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>3033</v>
       </c>
@@ -31579,7 +31511,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>3089</v>
       </c>
@@ -31617,7 +31549,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>3097</v>
       </c>
@@ -31655,7 +31587,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>3105</v>
       </c>
@@ -31693,12 +31625,12 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F528" t="s">
         <v>3113</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>3114</v>
       </c>
@@ -31736,7 +31668,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>2967</v>
       </c>
@@ -31774,7 +31706,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>3019</v>
       </c>
@@ -31812,7 +31744,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>3132</v>
       </c>
@@ -31850,7 +31782,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>2995</v>
       </c>
@@ -31888,7 +31820,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>3148</v>
       </c>
@@ -31920,7 +31852,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>3154</v>
       </c>
@@ -31952,7 +31884,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>3159</v>
       </c>
@@ -31987,12 +31919,12 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F537" t="s">
         <v>3164</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>3159</v>
       </c>
@@ -32030,7 +31962,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>3043</v>
       </c>
@@ -32062,7 +31994,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>3089</v>
       </c>
@@ -32100,7 +32032,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>3182</v>
       </c>
@@ -32138,7 +32070,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>3182</v>
       </c>
@@ -32176,7 +32108,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>2986</v>
       </c>
@@ -32214,7 +32146,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>3202</v>
       </c>
@@ -32240,7 +32172,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>3202</v>
       </c>
@@ -32278,7 +32210,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>3202</v>
       </c>
@@ -32316,7 +32248,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>3202</v>
       </c>
@@ -32354,7 +32286,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>3202</v>
       </c>
@@ -32392,7 +32324,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>3230</v>
       </c>
@@ -32430,7 +32362,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>3239</v>
       </c>
@@ -32468,7 +32400,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>3247</v>
       </c>
@@ -32506,7 +32438,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>3255</v>
       </c>
@@ -32538,7 +32470,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>3247</v>
       </c>
@@ -32576,7 +32508,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>3266</v>
       </c>
@@ -32608,7 +32540,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>3272</v>
       </c>
@@ -32646,7 +32578,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>3282</v>
       </c>
@@ -32684,7 +32616,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>3282</v>
       </c>
@@ -32722,12 +32654,12 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F558" t="s">
         <v>3297</v>
       </c>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>3298</v>
       </c>
@@ -32759,7 +32691,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>3282</v>
       </c>
@@ -32797,7 +32729,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>3310</v>
       </c>
@@ -32829,7 +32761,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>3318</v>
       </c>
@@ -32867,7 +32799,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>3326</v>
       </c>
@@ -32899,7 +32831,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>3332</v>
       </c>
@@ -32931,7 +32863,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>3318</v>
       </c>
@@ -32963,7 +32895,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>3339</v>
       </c>
@@ -33001,7 +32933,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>3348</v>
       </c>
@@ -33039,7 +32971,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>3339</v>
       </c>
@@ -33077,7 +33009,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>3348</v>
       </c>
@@ -33115,7 +33047,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>3368</v>
       </c>
@@ -33147,7 +33079,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>3375</v>
       </c>
@@ -33179,7 +33111,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>3383</v>
       </c>
@@ -33195,9 +33127,6 @@
       <c r="E572" t="s">
         <v>3386</v>
       </c>
-      <c r="F572" t="s">
-        <v>4211</v>
-      </c>
       <c r="G572" t="s">
         <v>3387</v>
       </c>
@@ -33217,7 +33146,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>3390</v>
       </c>
@@ -33255,7 +33184,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>3368</v>
       </c>
@@ -33287,7 +33216,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>3400</v>
       </c>
@@ -33319,7 +33248,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>3407</v>
       </c>
@@ -33351,7 +33280,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>3413</v>
       </c>
@@ -33383,7 +33312,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>3420</v>
       </c>
@@ -33415,7 +33344,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>3425</v>
       </c>
@@ -33447,7 +33376,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>3430</v>
       </c>
@@ -33485,7 +33414,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>3440</v>
       </c>
@@ -33517,7 +33446,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3445</v>
       </c>
@@ -33549,7 +33478,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>3450</v>
       </c>
@@ -33587,7 +33516,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>3458</v>
       </c>
@@ -33619,7 +33548,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>3450</v>
       </c>
@@ -33651,7 +33580,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>3458</v>
       </c>
@@ -33689,7 +33618,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>3458</v>
       </c>
@@ -33718,7 +33647,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>3478</v>
       </c>
@@ -33756,12 +33685,12 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F589" t="s">
         <v>3486</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>3487</v>
       </c>
@@ -33799,7 +33728,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>3495</v>
       </c>
@@ -33825,7 +33754,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>3478</v>
       </c>
@@ -33860,7 +33789,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>3495</v>
       </c>
@@ -33898,7 +33827,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>3478</v>
       </c>
@@ -33927,7 +33856,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>3478</v>
       </c>
@@ -33965,7 +33894,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>3487</v>
       </c>
@@ -34003,7 +33932,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>3525</v>
       </c>
@@ -34035,7 +33964,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>3530</v>
       </c>
@@ -34073,7 +34002,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>3530</v>
       </c>
@@ -34111,7 +34040,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>3478</v>
       </c>
@@ -34140,7 +34069,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>3478</v>
       </c>
@@ -34169,7 +34098,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>3550</v>
       </c>
@@ -34198,7 +34127,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>3555</v>
       </c>
@@ -34230,7 +34159,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>3561</v>
       </c>
@@ -34259,7 +34188,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>3566</v>
       </c>
@@ -34297,7 +34226,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>3575</v>
       </c>
@@ -34335,7 +34264,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>3584</v>
       </c>
@@ -34351,9 +34280,6 @@
       <c r="E607" t="s">
         <v>3586</v>
       </c>
-      <c r="F607" t="s">
-        <v>4211</v>
-      </c>
       <c r="G607" t="s">
         <v>3587</v>
       </c>
@@ -34373,7 +34299,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>3575</v>
       </c>
@@ -34411,7 +34337,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>3596</v>
       </c>
@@ -34427,9 +34353,6 @@
       <c r="E609" t="s">
         <v>3598</v>
       </c>
-      <c r="F609" t="s">
-        <v>4211</v>
-      </c>
       <c r="G609" t="s">
         <v>3600</v>
       </c>
@@ -34449,7 +34372,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>3602</v>
       </c>
@@ -34465,9 +34388,6 @@
       <c r="E610" t="s">
         <v>3605</v>
       </c>
-      <c r="F610" t="s">
-        <v>4211</v>
-      </c>
       <c r="G610" t="s">
         <v>3606</v>
       </c>
@@ -34487,7 +34407,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>3608</v>
       </c>
@@ -34525,7 +34445,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>3602</v>
       </c>
@@ -34563,7 +34483,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>3620</v>
       </c>
@@ -34589,7 +34509,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>3620</v>
       </c>
@@ -34621,7 +34541,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>3629</v>
       </c>
@@ -34637,9 +34557,6 @@
       <c r="E615" t="s">
         <v>3632</v>
       </c>
-      <c r="F615" t="s">
-        <v>4211</v>
-      </c>
       <c r="G615" t="s">
         <v>3633</v>
       </c>
@@ -34659,7 +34576,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>3636</v>
       </c>
@@ -34675,9 +34592,6 @@
       <c r="E616" t="s">
         <v>3639</v>
       </c>
-      <c r="F616" t="s">
-        <v>4211</v>
-      </c>
       <c r="G616" t="s">
         <v>3640</v>
       </c>
@@ -34697,7 +34611,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>3642</v>
       </c>
@@ -34735,12 +34649,12 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F618" t="s">
         <v>3648</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>3649</v>
       </c>
@@ -34778,7 +34692,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>3656</v>
       </c>
@@ -34816,7 +34730,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>3663</v>
       </c>
@@ -34848,7 +34762,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>3668</v>
       </c>
@@ -34861,9 +34775,6 @@
       <c r="E622" t="s">
         <v>3671</v>
       </c>
-      <c r="F622" t="s">
-        <v>4211</v>
-      </c>
       <c r="G622" t="s">
         <v>3672</v>
       </c>
@@ -34883,7 +34794,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>3656</v>
       </c>
@@ -34921,7 +34832,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>3680</v>
       </c>
@@ -34959,7 +34870,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>3687</v>
       </c>
@@ -34991,7 +34902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>3693</v>
       </c>
@@ -35029,7 +34940,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>3693</v>
       </c>
@@ -35067,7 +34978,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>3687</v>
       </c>
@@ -35083,9 +34994,6 @@
       <c r="E628" t="s">
         <v>3712</v>
       </c>
-      <c r="F628" t="s">
-        <v>4211</v>
-      </c>
       <c r="G628" t="s">
         <v>3713</v>
       </c>
@@ -35105,7 +35013,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>3716</v>
       </c>
@@ -35137,7 +35045,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>3723</v>
       </c>
@@ -35175,7 +35083,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>3731</v>
       </c>
@@ -35204,7 +35112,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>3736</v>
       </c>
@@ -35220,9 +35128,6 @@
       <c r="E632" t="s">
         <v>3740</v>
       </c>
-      <c r="F632" t="s">
-        <v>4211</v>
-      </c>
       <c r="G632" t="s">
         <v>3741</v>
       </c>
@@ -35242,7 +35147,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>3746</v>
       </c>
@@ -35280,12 +35185,12 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F634" t="s">
         <v>3754</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>3687</v>
       </c>
@@ -35301,9 +35206,6 @@
       <c r="E635" t="s">
         <v>3756</v>
       </c>
-      <c r="F635" t="s">
-        <v>4211</v>
-      </c>
       <c r="G635" t="s">
         <v>3757</v>
       </c>
@@ -35323,7 +35225,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>3761</v>
       </c>
@@ -35339,9 +35241,6 @@
       <c r="E636" t="s">
         <v>3764</v>
       </c>
-      <c r="F636" t="s">
-        <v>4211</v>
-      </c>
       <c r="G636" t="s">
         <v>3765</v>
       </c>
@@ -35361,7 +35260,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>3770</v>
       </c>
@@ -35393,7 +35292,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>3777</v>
       </c>
@@ -35431,7 +35330,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>3785</v>
       </c>
@@ -35463,7 +35362,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>3792</v>
       </c>
@@ -35479,9 +35378,6 @@
       <c r="E640" t="s">
         <v>3795</v>
       </c>
-      <c r="F640" t="s">
-        <v>4211</v>
-      </c>
       <c r="G640" t="s">
         <v>3796</v>
       </c>
@@ -35501,7 +35397,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>3799</v>
       </c>
@@ -35533,7 +35429,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>3799</v>
       </c>
@@ -35562,7 +35458,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>3731</v>
       </c>
@@ -35578,9 +35474,6 @@
       <c r="E643" t="s">
         <v>3811</v>
       </c>
-      <c r="F643" t="s">
-        <v>4211</v>
-      </c>
       <c r="G643" t="s">
         <v>3812</v>
       </c>
@@ -35600,7 +35493,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>3817</v>
       </c>
@@ -35635,7 +35528,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>3823</v>
       </c>
@@ -35673,7 +35566,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>3831</v>
       </c>
@@ -35711,12 +35604,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F647" t="s">
         <v>3839</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>3823</v>
       </c>
@@ -35754,7 +35647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>3823</v>
       </c>
@@ -35792,7 +35685,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>3823</v>
       </c>
@@ -35830,7 +35723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>3823</v>
       </c>
@@ -35865,7 +35758,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>3823</v>
       </c>
@@ -35903,7 +35796,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>3823</v>
       </c>
@@ -35941,7 +35834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>3823</v>
       </c>
@@ -35970,7 +35863,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>3831</v>
       </c>
@@ -36008,7 +35901,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>3831</v>
       </c>
@@ -36046,7 +35939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>3831</v>
       </c>
@@ -36084,7 +35977,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>3823</v>
       </c>
@@ -36122,7 +36015,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>3823</v>
       </c>
@@ -36160,7 +36053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>3823</v>
       </c>
@@ -36198,7 +36091,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>3823</v>
       </c>
@@ -36236,7 +36129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>2553</v>
       </c>
@@ -36274,7 +36167,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>2553</v>
       </c>
@@ -36312,7 +36205,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>3831</v>
       </c>
@@ -36350,7 +36243,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>3944</v>
       </c>
@@ -36382,7 +36275,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>3950</v>
       </c>
@@ -36420,7 +36313,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>3957</v>
       </c>
@@ -36452,7 +36345,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>3831</v>
       </c>
@@ -36490,7 +36383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>3831</v>
       </c>
@@ -36528,7 +36421,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>3974</v>
       </c>
@@ -36566,7 +36459,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>3982</v>
       </c>
@@ -36598,7 +36491,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>3988</v>
       </c>
@@ -36636,7 +36529,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>3996</v>
       </c>
@@ -36674,7 +36567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>3988</v>
       </c>
@@ -36706,7 +36599,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>3988</v>
       </c>
@@ -36738,7 +36631,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>4011</v>
       </c>
@@ -36770,7 +36663,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>3823</v>
       </c>
@@ -36808,7 +36701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>3996</v>
       </c>
@@ -36837,7 +36730,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>2553</v>
       </c>
@@ -36875,7 +36768,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>3944</v>
       </c>
@@ -36913,7 +36806,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>4036</v>
       </c>
@@ -36945,7 +36838,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>4042</v>
       </c>
@@ -36977,7 +36870,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>4046</v>
       </c>
@@ -37015,7 +36908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>4054</v>
       </c>
@@ -37053,7 +36946,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>3996</v>
       </c>
@@ -37085,7 +36978,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>4065</v>
       </c>
@@ -37101,9 +36994,6 @@
       <c r="E686" t="s">
         <v>4068</v>
       </c>
-      <c r="F686" t="s">
-        <v>4211</v>
-      </c>
       <c r="G686" t="s">
         <v>4069</v>
       </c>
@@ -37123,7 +37013,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>4072</v>
       </c>
@@ -37158,7 +37048,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>4079</v>
       </c>
@@ -37190,7 +37080,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>4084</v>
       </c>
@@ -37219,7 +37109,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>3823</v>
       </c>
@@ -37251,7 +37141,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>3823</v>
       </c>
@@ -37289,7 +37179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>4099</v>
       </c>
@@ -37327,7 +37217,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>4107</v>
       </c>
@@ -37343,9 +37233,6 @@
       <c r="E693" t="s">
         <v>4110</v>
       </c>
-      <c r="F693" t="s">
-        <v>4211</v>
-      </c>
       <c r="G693" t="s">
         <v>4111</v>
       </c>
@@ -37365,7 +37252,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>4115</v>
       </c>
@@ -37403,7 +37290,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>2553</v>
       </c>
@@ -37432,7 +37319,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>4128</v>
       </c>
@@ -37464,7 +37351,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>4099</v>
       </c>
@@ -37502,7 +37389,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>3831</v>
       </c>
@@ -37531,7 +37418,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>4142</v>
       </c>
@@ -37563,7 +37450,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>4149</v>
       </c>
@@ -37601,7 +37488,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>2553</v>
       </c>
@@ -37639,7 +37526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>4161</v>
       </c>
@@ -37677,7 +37564,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>4170</v>
       </c>
@@ -37710,13 +37597,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L703" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/obrasQ.xlsx
+++ b/obrasQ.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Desktop\Impresionismo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Sociocav\Trabajo\Proyectos\Coincidencias\Culture\Impresionismo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B8CBCB-5E50-4511-B2CD-8E3002E5D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F7302F0-B66D-4F66-BF31-90095DC7864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="210" windowWidth="25260" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="obrasQ xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'obrasQ xlsx'!$A$1:$L$703</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="4211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7165" uniqueCount="4212">
   <si>
     <t>Autor</t>
   </si>
@@ -12653,6 +12656,9 @@
   </si>
   <si>
     <t>Notre Dame by Maximilien Luce, San Diego Museum of Art.JPG</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -13024,22 +13030,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="F414" sqref="F414"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F222" sqref="F222:F693"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="42.7265625" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13077,7 +13085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -13115,7 +13123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -13153,7 +13161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -13191,7 +13199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -13229,7 +13237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -13267,7 +13275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -13305,7 +13313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -13343,7 +13351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -13381,7 +13389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -13419,7 +13427,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -13448,7 +13456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -13464,6 +13472,9 @@
       <c r="E12" t="s">
         <v>100</v>
       </c>
+      <c r="F12" t="s">
+        <v>4211</v>
+      </c>
       <c r="G12" t="s">
         <v>101</v>
       </c>
@@ -13483,7 +13494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -13521,7 +13532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -13559,7 +13570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -13591,7 +13602,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -13629,7 +13640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -13667,7 +13678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -13705,7 +13716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>147</v>
       </c>
@@ -13743,7 +13754,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -13759,6 +13770,9 @@
       <c r="E20" t="s">
         <v>158</v>
       </c>
+      <c r="F20" t="s">
+        <v>4211</v>
+      </c>
       <c r="G20" t="s">
         <v>159</v>
       </c>
@@ -13778,7 +13792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>147</v>
       </c>
@@ -13816,7 +13830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -13832,6 +13846,9 @@
       <c r="E22" t="s">
         <v>171</v>
       </c>
+      <c r="F22" t="s">
+        <v>4211</v>
+      </c>
       <c r="G22" t="s">
         <v>172</v>
       </c>
@@ -13851,7 +13868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -13889,7 +13906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -13927,7 +13944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -13965,7 +13982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -14003,7 +14020,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -14041,7 +14058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>210</v>
       </c>
@@ -14079,7 +14096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>210</v>
       </c>
@@ -14117,7 +14134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -14155,7 +14172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -14190,7 +14207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -14228,7 +14245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -14266,7 +14283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -14304,12 +14321,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -14347,7 +14364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -14385,7 +14402,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -14423,7 +14440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -14461,7 +14478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -14499,7 +14516,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -14537,7 +14554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>295</v>
       </c>
@@ -14575,7 +14592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -14613,7 +14630,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -14651,7 +14668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -14689,7 +14706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -14727,7 +14744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -14765,7 +14782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -14803,7 +14820,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -14841,7 +14858,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -14879,7 +14896,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>359</v>
       </c>
@@ -14917,7 +14934,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -14955,7 +14972,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>359</v>
       </c>
@@ -14993,7 +15010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -15031,7 +15048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -15069,7 +15086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -15107,7 +15124,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>398</v>
       </c>
@@ -15145,7 +15162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -15183,7 +15200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
@@ -15221,7 +15238,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -15259,7 +15276,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -15297,7 +15314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -15335,7 +15352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -15373,7 +15390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -15411,7 +15428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>452</v>
       </c>
@@ -15449,7 +15466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>460</v>
       </c>
@@ -15487,7 +15504,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -15525,7 +15542,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -15563,7 +15580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -15598,7 +15615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -15633,7 +15650,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>494</v>
       </c>
@@ -15665,7 +15682,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>359</v>
       </c>
@@ -15703,7 +15720,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -15741,7 +15758,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -15779,7 +15796,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>359</v>
       </c>
@@ -15808,7 +15825,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -15840,7 +15857,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>530</v>
       </c>
@@ -15875,7 +15892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>295</v>
       </c>
@@ -15913,7 +15930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>398</v>
       </c>
@@ -15951,7 +15968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>548</v>
       </c>
@@ -15989,7 +16006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>398</v>
       </c>
@@ -16027,12 +16044,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F82" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>565</v>
       </c>
@@ -16070,7 +16087,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>573</v>
       </c>
@@ -16108,7 +16125,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -16146,7 +16163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>34</v>
       </c>
@@ -16184,7 +16201,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>595</v>
       </c>
@@ -16222,7 +16239,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -16254,7 +16271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -16292,7 +16309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>452</v>
       </c>
@@ -16308,6 +16325,9 @@
       <c r="E90" t="s">
         <v>614</v>
       </c>
+      <c r="F90" t="s">
+        <v>4211</v>
+      </c>
       <c r="G90" t="s">
         <v>615</v>
       </c>
@@ -16327,7 +16347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>618</v>
       </c>
@@ -16365,7 +16385,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>42</v>
       </c>
@@ -16403,7 +16423,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>595</v>
       </c>
@@ -16441,7 +16461,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -16479,7 +16499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>565</v>
       </c>
@@ -16517,7 +16537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>565</v>
       </c>
@@ -16555,7 +16575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>565</v>
       </c>
@@ -16593,7 +16613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>34</v>
       </c>
@@ -16631,7 +16651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>565</v>
       </c>
@@ -16663,7 +16683,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>565</v>
       </c>
@@ -16698,7 +16718,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>398</v>
       </c>
@@ -16736,7 +16756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -16774,7 +16794,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>573</v>
       </c>
@@ -16812,7 +16832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>573</v>
       </c>
@@ -16850,7 +16870,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>398</v>
       </c>
@@ -16882,7 +16902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>595</v>
       </c>
@@ -16914,7 +16934,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>398</v>
       </c>
@@ -16943,7 +16963,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -16981,7 +17001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -17019,7 +17039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -17057,12 +17077,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F111" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -17100,7 +17120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -17138,7 +17158,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>398</v>
       </c>
@@ -17176,7 +17196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>34</v>
       </c>
@@ -17214,7 +17234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -17246,7 +17266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>34</v>
       </c>
@@ -17284,7 +17304,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>774</v>
       </c>
@@ -17313,7 +17333,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -17351,7 +17371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -17389,7 +17409,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>573</v>
       </c>
@@ -17427,7 +17447,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>573</v>
       </c>
@@ -17465,7 +17485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>595</v>
       </c>
@@ -17503,7 +17523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -17541,7 +17561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>34</v>
       </c>
@@ -17567,7 +17587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>819</v>
       </c>
@@ -17583,6 +17603,9 @@
       <c r="E126" t="s">
         <v>822</v>
       </c>
+      <c r="F126" t="s">
+        <v>4211</v>
+      </c>
       <c r="G126" t="s">
         <v>823</v>
       </c>
@@ -17602,7 +17625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>819</v>
       </c>
@@ -17634,7 +17657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>819</v>
       </c>
@@ -17672,7 +17695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>398</v>
       </c>
@@ -17704,7 +17727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>398</v>
       </c>
@@ -17742,7 +17765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>34</v>
       </c>
@@ -17780,7 +17803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -17818,7 +17841,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -17856,7 +17879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>860</v>
       </c>
@@ -17894,7 +17917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>867</v>
       </c>
@@ -17932,7 +17955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>867</v>
       </c>
@@ -17970,7 +17993,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>884</v>
       </c>
@@ -17999,7 +18022,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -18037,7 +18060,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -18075,7 +18098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -18113,7 +18136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -18151,7 +18174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -18189,7 +18212,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -18227,7 +18250,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>565</v>
       </c>
@@ -18265,7 +18288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -18303,7 +18326,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -18341,7 +18364,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -18379,7 +18402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -18417,7 +18440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -18455,7 +18478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -18493,7 +18516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -18531,7 +18554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -18569,7 +18592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>595</v>
       </c>
@@ -18607,7 +18630,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -18645,7 +18668,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -18680,7 +18703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>991</v>
       </c>
@@ -18718,7 +18741,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1000</v>
       </c>
@@ -18756,7 +18779,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>452</v>
       </c>
@@ -18772,6 +18795,9 @@
       <c r="E158" t="s">
         <v>1011</v>
       </c>
+      <c r="F158" t="s">
+        <v>4211</v>
+      </c>
       <c r="G158" t="s">
         <v>1012</v>
       </c>
@@ -18791,7 +18817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>398</v>
       </c>
@@ -18829,7 +18855,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>398</v>
       </c>
@@ -18867,7 +18893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>860</v>
       </c>
@@ -18896,7 +18922,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>565</v>
       </c>
@@ -18934,7 +18960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>565</v>
       </c>
@@ -18972,7 +18998,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -19007,7 +19033,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -19045,7 +19071,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -19083,7 +19109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -19121,7 +19147,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -19159,7 +19185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>867</v>
       </c>
@@ -19191,7 +19217,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>34</v>
       </c>
@@ -19229,7 +19255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1080</v>
       </c>
@@ -19267,7 +19293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1088</v>
       </c>
@@ -19299,7 +19325,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1095</v>
       </c>
@@ -19337,7 +19363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>860</v>
       </c>
@@ -19375,7 +19401,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>860</v>
       </c>
@@ -19413,7 +19439,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>34</v>
       </c>
@@ -19451,7 +19477,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>24</v>
       </c>
@@ -19489,7 +19515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -19527,7 +19553,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -19565,7 +19591,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>565</v>
       </c>
@@ -19603,7 +19629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>398</v>
       </c>
@@ -19641,7 +19667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>398</v>
       </c>
@@ -19679,7 +19705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -19717,7 +19743,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>398</v>
       </c>
@@ -19755,7 +19781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -19793,7 +19819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -19831,12 +19857,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F187" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -19874,7 +19900,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -19912,7 +19938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -19944,7 +19970,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1206</v>
       </c>
@@ -19973,7 +19999,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>34</v>
       </c>
@@ -20011,12 +20037,12 @@
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F193" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>860</v>
       </c>
@@ -20054,7 +20080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>565</v>
       </c>
@@ -20092,7 +20118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>860</v>
       </c>
@@ -20127,7 +20153,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>860</v>
       </c>
@@ -20165,7 +20191,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -20197,7 +20223,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -20229,7 +20255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1252</v>
       </c>
@@ -20267,7 +20293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1260</v>
       </c>
@@ -20305,7 +20331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1260</v>
       </c>
@@ -20343,7 +20369,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>398</v>
       </c>
@@ -20381,7 +20407,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>398</v>
       </c>
@@ -20419,7 +20445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>595</v>
       </c>
@@ -20457,7 +20483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>42</v>
       </c>
@@ -20495,7 +20521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1288</v>
       </c>
@@ -20533,7 +20559,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -20571,7 +20597,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -20609,7 +20635,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>573</v>
       </c>
@@ -20641,7 +20667,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -20679,7 +20705,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1288</v>
       </c>
@@ -20717,7 +20743,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -20755,7 +20781,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>1335</v>
       </c>
@@ -20771,6 +20797,9 @@
       <c r="E214" t="s">
         <v>1338</v>
       </c>
+      <c r="F214" t="s">
+        <v>4211</v>
+      </c>
       <c r="G214" t="s">
         <v>1339</v>
       </c>
@@ -20790,7 +20819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -20828,12 +20857,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F216" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>860</v>
       </c>
@@ -20865,7 +20894,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>460</v>
       </c>
@@ -20891,7 +20920,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>460</v>
       </c>
@@ -20926,7 +20955,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1360</v>
       </c>
@@ -20955,7 +20984,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>398</v>
       </c>
@@ -20993,7 +21022,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>452</v>
       </c>
@@ -21009,6 +21038,9 @@
       <c r="E222" t="s">
         <v>1372</v>
       </c>
+      <c r="F222" t="s">
+        <v>4211</v>
+      </c>
       <c r="G222" t="s">
         <v>1373</v>
       </c>
@@ -21028,7 +21060,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>1377</v>
       </c>
@@ -21066,7 +21098,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>860</v>
       </c>
@@ -21104,7 +21136,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>860</v>
       </c>
@@ -21133,7 +21165,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1395</v>
       </c>
@@ -21171,7 +21203,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1206</v>
       </c>
@@ -21203,7 +21235,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1206</v>
       </c>
@@ -21235,7 +21267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -21264,7 +21296,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -21302,7 +21334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1095</v>
       </c>
@@ -21340,7 +21372,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>42</v>
       </c>
@@ -21378,7 +21410,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>398</v>
       </c>
@@ -21410,7 +21442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>398</v>
       </c>
@@ -21442,7 +21474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>398</v>
       </c>
@@ -21480,7 +21512,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -21518,7 +21550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -21556,7 +21588,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -21594,7 +21626,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -21632,7 +21664,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>573</v>
       </c>
@@ -21670,7 +21702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>573</v>
       </c>
@@ -21708,7 +21740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>398</v>
       </c>
@@ -21746,7 +21778,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1493</v>
       </c>
@@ -21784,7 +21816,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>860</v>
       </c>
@@ -21813,7 +21845,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>860</v>
       </c>
@@ -21842,7 +21874,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>24</v>
       </c>
@@ -21880,12 +21912,12 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F247" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -21923,7 +21955,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -21961,7 +21993,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -21999,7 +22031,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -22037,7 +22069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>42</v>
       </c>
@@ -22066,7 +22098,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>42</v>
       </c>
@@ -22104,7 +22136,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>42</v>
       </c>
@@ -22142,7 +22174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>42</v>
       </c>
@@ -22180,7 +22212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>34</v>
       </c>
@@ -22212,7 +22244,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>42</v>
       </c>
@@ -22250,7 +22282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1395</v>
       </c>
@@ -22288,7 +22320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1582</v>
       </c>
@@ -22317,7 +22349,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1582</v>
       </c>
@@ -22349,7 +22381,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>34</v>
       </c>
@@ -22387,7 +22419,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1493</v>
       </c>
@@ -22422,7 +22454,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>860</v>
       </c>
@@ -22460,7 +22492,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -22498,7 +22530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1395</v>
       </c>
@@ -22524,7 +22556,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>452</v>
       </c>
@@ -22556,7 +22588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>34</v>
       </c>
@@ -22572,6 +22604,9 @@
       <c r="E267" t="s">
         <v>1627</v>
       </c>
+      <c r="F267" t="s">
+        <v>4211</v>
+      </c>
       <c r="G267" t="s">
         <v>1628</v>
       </c>
@@ -22591,7 +22626,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -22629,7 +22664,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1640</v>
       </c>
@@ -22667,7 +22702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1647</v>
       </c>
@@ -22705,7 +22740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1655</v>
       </c>
@@ -22743,7 +22778,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1664</v>
       </c>
@@ -22775,7 +22810,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1664</v>
       </c>
@@ -22813,7 +22848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1664</v>
       </c>
@@ -22842,7 +22877,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1655</v>
       </c>
@@ -22880,7 +22915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1664</v>
       </c>
@@ -22918,7 +22953,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1664</v>
       </c>
@@ -22956,7 +22991,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1664</v>
       </c>
@@ -22994,7 +23029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>34</v>
       </c>
@@ -23026,7 +23061,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1206</v>
       </c>
@@ -23058,7 +23093,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1711</v>
       </c>
@@ -23087,7 +23122,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1717</v>
       </c>
@@ -23122,7 +23157,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1377</v>
       </c>
@@ -23160,7 +23195,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1655</v>
       </c>
@@ -23198,12 +23233,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F285" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1655</v>
       </c>
@@ -23241,12 +23276,12 @@
         <v>923</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F287" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1655</v>
       </c>
@@ -23284,7 +23319,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1655</v>
       </c>
@@ -23322,7 +23357,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1664</v>
       </c>
@@ -23360,7 +23395,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1664</v>
       </c>
@@ -23398,7 +23433,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>24</v>
       </c>
@@ -23436,7 +23471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1664</v>
       </c>
@@ -23468,7 +23503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1655</v>
       </c>
@@ -23506,7 +23541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1664</v>
       </c>
@@ -23544,7 +23579,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1785</v>
       </c>
@@ -23560,6 +23595,9 @@
       <c r="E296" t="s">
         <v>1788</v>
       </c>
+      <c r="F296" t="s">
+        <v>4211</v>
+      </c>
       <c r="G296" t="s">
         <v>1789</v>
       </c>
@@ -23579,7 +23617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>398</v>
       </c>
@@ -23617,7 +23655,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>398</v>
       </c>
@@ -23655,7 +23693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1801</v>
       </c>
@@ -23690,7 +23728,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1801</v>
       </c>
@@ -23728,7 +23766,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1493</v>
       </c>
@@ -23766,7 +23804,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1801</v>
       </c>
@@ -23804,7 +23842,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1655</v>
       </c>
@@ -23842,7 +23880,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1801</v>
       </c>
@@ -23880,7 +23918,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1801</v>
       </c>
@@ -23918,7 +23956,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1801</v>
       </c>
@@ -23956,7 +23994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1801</v>
       </c>
@@ -23994,7 +24032,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1801</v>
       </c>
@@ -24032,7 +24070,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1801</v>
       </c>
@@ -24067,7 +24105,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1872</v>
       </c>
@@ -24105,7 +24143,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1877</v>
       </c>
@@ -24143,7 +24181,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1801</v>
       </c>
@@ -24181,7 +24219,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1801</v>
       </c>
@@ -24219,7 +24257,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1895</v>
       </c>
@@ -24245,7 +24283,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1801</v>
       </c>
@@ -24283,7 +24321,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1901</v>
       </c>
@@ -24315,7 +24353,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1907</v>
       </c>
@@ -24347,7 +24385,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>24</v>
       </c>
@@ -24379,7 +24417,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>24</v>
       </c>
@@ -24417,7 +24455,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>24</v>
       </c>
@@ -24455,7 +24493,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1664</v>
       </c>
@@ -24493,7 +24531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1664</v>
       </c>
@@ -24531,7 +24569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1664</v>
       </c>
@@ -24569,7 +24607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1664</v>
       </c>
@@ -24607,7 +24645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1664</v>
       </c>
@@ -24645,7 +24683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1664</v>
       </c>
@@ -24680,7 +24718,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1377</v>
       </c>
@@ -24718,7 +24756,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1377</v>
       </c>
@@ -24756,7 +24794,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1377</v>
       </c>
@@ -24794,12 +24832,12 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F330" t="s">
         <v>1985</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>42</v>
       </c>
@@ -24837,7 +24875,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>42</v>
       </c>
@@ -24866,7 +24904,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1996</v>
       </c>
@@ -24904,7 +24942,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1907</v>
       </c>
@@ -24942,7 +24980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>573</v>
       </c>
@@ -24980,7 +25018,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>573</v>
       </c>
@@ -25018,12 +25056,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F337" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>452</v>
       </c>
@@ -25061,7 +25099,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>2030</v>
       </c>
@@ -25077,6 +25115,9 @@
       <c r="E339" t="s">
         <v>2033</v>
       </c>
+      <c r="F339" t="s">
+        <v>4211</v>
+      </c>
       <c r="G339" t="s">
         <v>2034</v>
       </c>
@@ -25096,7 +25137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>2036</v>
       </c>
@@ -25125,7 +25166,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>398</v>
       </c>
@@ -25163,7 +25204,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>398</v>
       </c>
@@ -25201,7 +25242,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>565</v>
       </c>
@@ -25217,6 +25258,9 @@
       <c r="E343" t="s">
         <v>2054</v>
       </c>
+      <c r="F343" t="s">
+        <v>4211</v>
+      </c>
       <c r="G343" t="s">
         <v>4186</v>
       </c>
@@ -25233,7 +25277,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1801</v>
       </c>
@@ -25271,12 +25315,12 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F345" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1801</v>
       </c>
@@ -25314,7 +25358,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>860</v>
       </c>
@@ -25352,7 +25396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>860</v>
       </c>
@@ -25384,7 +25428,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1664</v>
       </c>
@@ -25422,7 +25466,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1664</v>
       </c>
@@ -25460,7 +25504,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1655</v>
       </c>
@@ -25492,7 +25536,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1664</v>
       </c>
@@ -25524,7 +25568,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>2098</v>
       </c>
@@ -25562,7 +25606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1655</v>
       </c>
@@ -25600,7 +25644,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>2113</v>
       </c>
@@ -25638,7 +25682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>2113</v>
       </c>
@@ -25667,7 +25711,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1493</v>
       </c>
@@ -25705,7 +25749,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1493</v>
       </c>
@@ -25743,7 +25787,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1996</v>
       </c>
@@ -25781,7 +25825,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1493</v>
       </c>
@@ -25810,7 +25854,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1493</v>
       </c>
@@ -25839,7 +25883,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1664</v>
       </c>
@@ -25871,7 +25915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1664</v>
       </c>
@@ -25909,7 +25953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>24</v>
       </c>
@@ -25944,7 +25988,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>24</v>
       </c>
@@ -25982,7 +26026,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>24</v>
       </c>
@@ -26020,7 +26064,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1377</v>
       </c>
@@ -26058,7 +26102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1377</v>
       </c>
@@ -26096,7 +26140,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1377</v>
       </c>
@@ -26134,7 +26178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1206</v>
       </c>
@@ -26172,7 +26216,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>398</v>
       </c>
@@ -26210,7 +26254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>2206</v>
       </c>
@@ -26239,7 +26283,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>565</v>
       </c>
@@ -26277,7 +26321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>2216</v>
       </c>
@@ -26315,7 +26359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>2224</v>
       </c>
@@ -26347,7 +26391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>2229</v>
       </c>
@@ -26385,7 +26429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -26423,7 +26467,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -26461,7 +26505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>24</v>
       </c>
@@ -26499,7 +26543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>24</v>
       </c>
@@ -26537,7 +26581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>24</v>
       </c>
@@ -26575,7 +26619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1493</v>
       </c>
@@ -26613,7 +26657,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1493</v>
       </c>
@@ -26651,7 +26695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>42</v>
       </c>
@@ -26680,7 +26724,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>573</v>
       </c>
@@ -26718,7 +26762,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>573</v>
       </c>
@@ -26756,7 +26800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>573</v>
       </c>
@@ -26794,7 +26838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>2292</v>
       </c>
@@ -26829,7 +26873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>452</v>
       </c>
@@ -26845,6 +26889,9 @@
       <c r="E389" t="s">
         <v>2300</v>
       </c>
+      <c r="F389" t="s">
+        <v>4211</v>
+      </c>
       <c r="G389" t="s">
         <v>2301</v>
       </c>
@@ -26864,7 +26911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>452</v>
       </c>
@@ -26880,6 +26927,9 @@
       <c r="E390" t="s">
         <v>2305</v>
       </c>
+      <c r="F390" t="s">
+        <v>4211</v>
+      </c>
       <c r="G390" t="s">
         <v>2306</v>
       </c>
@@ -26899,7 +26949,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1377</v>
       </c>
@@ -26937,7 +26987,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1377</v>
       </c>
@@ -26975,7 +27025,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>210</v>
       </c>
@@ -27013,7 +27063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>398</v>
       </c>
@@ -27051,7 +27101,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -27089,7 +27139,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -27127,7 +27177,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -27165,7 +27215,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -27203,7 +27253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -27232,7 +27282,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>2363</v>
       </c>
@@ -27261,7 +27311,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>24</v>
       </c>
@@ -27299,7 +27349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>24</v>
       </c>
@@ -27337,7 +27387,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>24</v>
       </c>
@@ -27375,7 +27425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>24</v>
       </c>
@@ -27413,7 +27463,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>24</v>
       </c>
@@ -27451,7 +27501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1655</v>
       </c>
@@ -27489,7 +27539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>573</v>
       </c>
@@ -27527,12 +27577,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F408" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>573</v>
       </c>
@@ -27570,7 +27620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>2414</v>
       </c>
@@ -27596,7 +27646,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>2419</v>
       </c>
@@ -27634,7 +27684,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>2419</v>
       </c>
@@ -27672,7 +27722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>2433</v>
       </c>
@@ -27710,7 +27760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>2441</v>
       </c>
@@ -27742,7 +27792,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>2441</v>
       </c>
@@ -27771,7 +27821,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>2441</v>
       </c>
@@ -27803,7 +27853,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>2292</v>
       </c>
@@ -27832,7 +27882,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1377</v>
       </c>
@@ -27870,7 +27920,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>2292</v>
       </c>
@@ -27899,7 +27949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>2459</v>
       </c>
@@ -27928,7 +27978,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>2459</v>
       </c>
@@ -27957,7 +28007,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>2467</v>
       </c>
@@ -27970,6 +28020,9 @@
       <c r="E422" t="s">
         <v>2470</v>
       </c>
+      <c r="F422" t="s">
+        <v>4211</v>
+      </c>
       <c r="G422" t="s">
         <v>2471</v>
       </c>
@@ -27986,7 +28039,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2113</v>
       </c>
@@ -28024,7 +28077,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>2480</v>
       </c>
@@ -28053,7 +28106,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>2484</v>
       </c>
@@ -28082,7 +28135,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>2489</v>
       </c>
@@ -28120,7 +28173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>2113</v>
       </c>
@@ -28149,7 +28202,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1901</v>
       </c>
@@ -28187,7 +28240,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>2506</v>
       </c>
@@ -28216,7 +28269,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>2506</v>
       </c>
@@ -28245,7 +28298,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1655</v>
       </c>
@@ -28283,7 +28336,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>2113</v>
       </c>
@@ -28321,7 +28374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>42</v>
       </c>
@@ -28353,7 +28406,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>42</v>
       </c>
@@ -28388,7 +28441,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>24</v>
       </c>
@@ -28426,7 +28479,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>24</v>
       </c>
@@ -28464,7 +28517,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>2547</v>
       </c>
@@ -28496,7 +28549,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>2553</v>
       </c>
@@ -28512,6 +28565,9 @@
       <c r="E438" t="s">
         <v>2556</v>
       </c>
+      <c r="F438" t="s">
+        <v>4211</v>
+      </c>
       <c r="G438" t="s">
         <v>2557</v>
       </c>
@@ -28531,7 +28587,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>2562</v>
       </c>
@@ -28560,7 +28616,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>2566</v>
       </c>
@@ -28598,7 +28654,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>2575</v>
       </c>
@@ -28636,7 +28692,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>2562</v>
       </c>
@@ -28665,7 +28721,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>2562</v>
       </c>
@@ -28681,6 +28737,9 @@
       <c r="E443" t="s">
         <v>2584</v>
       </c>
+      <c r="F443" t="s">
+        <v>4211</v>
+      </c>
       <c r="G443" t="s">
         <v>2585</v>
       </c>
@@ -28700,7 +28759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>2588</v>
       </c>
@@ -28732,7 +28791,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>2593</v>
       </c>
@@ -28770,7 +28829,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>2601</v>
       </c>
@@ -28808,7 +28867,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>2609</v>
       </c>
@@ -28846,7 +28905,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>2609</v>
       </c>
@@ -28862,6 +28921,9 @@
       <c r="E448" t="s">
         <v>2617</v>
       </c>
+      <c r="F448" t="s">
+        <v>4211</v>
+      </c>
       <c r="G448" t="s">
         <v>2618</v>
       </c>
@@ -28881,7 +28943,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>2609</v>
       </c>
@@ -28919,7 +28981,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>2547</v>
       </c>
@@ -28957,7 +29019,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>2547</v>
       </c>
@@ -28995,7 +29057,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>2643</v>
       </c>
@@ -29011,6 +29073,9 @@
       <c r="E452" t="s">
         <v>2646</v>
       </c>
+      <c r="F452" t="s">
+        <v>4211</v>
+      </c>
       <c r="G452" t="s">
         <v>2647</v>
       </c>
@@ -29030,7 +29095,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>2649</v>
       </c>
@@ -29065,7 +29130,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>2657</v>
       </c>
@@ -29094,7 +29159,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>2662</v>
       </c>
@@ -29132,7 +29197,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>2672</v>
       </c>
@@ -29148,6 +29213,9 @@
       <c r="E456" t="s">
         <v>2675</v>
       </c>
+      <c r="F456" t="s">
+        <v>4211</v>
+      </c>
       <c r="G456" t="s">
         <v>2676</v>
       </c>
@@ -29167,7 +29235,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>2681</v>
       </c>
@@ -29205,7 +29273,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>2689</v>
       </c>
@@ -29237,7 +29305,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>2695</v>
       </c>
@@ -29275,7 +29343,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>2695</v>
       </c>
@@ -29307,7 +29375,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>2681</v>
       </c>
@@ -29339,7 +29407,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>2681</v>
       </c>
@@ -29377,7 +29445,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>2715</v>
       </c>
@@ -29415,7 +29483,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>2715</v>
       </c>
@@ -29453,7 +29521,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>2730</v>
       </c>
@@ -29485,7 +29553,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>2735</v>
       </c>
@@ -29523,7 +29591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>2735</v>
       </c>
@@ -29558,7 +29626,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>2748</v>
       </c>
@@ -29596,7 +29664,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>2755</v>
       </c>
@@ -29634,7 +29702,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>2748</v>
       </c>
@@ -29672,7 +29740,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>2748</v>
       </c>
@@ -29710,7 +29778,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>2776</v>
       </c>
@@ -29748,7 +29816,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>2776</v>
       </c>
@@ -29786,7 +29854,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>2776</v>
       </c>
@@ -29824,7 +29892,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>2776</v>
       </c>
@@ -29856,7 +29924,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>2803</v>
       </c>
@@ -29894,12 +29962,12 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F477" t="s">
         <v>2810</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>2803</v>
       </c>
@@ -29931,7 +29999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>2748</v>
       </c>
@@ -29969,7 +30037,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>2748</v>
       </c>
@@ -30007,7 +30075,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>2748</v>
       </c>
@@ -30039,7 +30107,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>2829</v>
       </c>
@@ -30074,7 +30142,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>2829</v>
       </c>
@@ -30112,7 +30180,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>2829</v>
       </c>
@@ -30150,7 +30218,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>2847</v>
       </c>
@@ -30182,7 +30250,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>2854</v>
       </c>
@@ -30220,7 +30288,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>2862</v>
       </c>
@@ -30252,7 +30320,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>2829</v>
       </c>
@@ -30290,7 +30358,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>2829</v>
       </c>
@@ -30325,7 +30393,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>2847</v>
       </c>
@@ -30363,7 +30431,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>2748</v>
       </c>
@@ -30395,7 +30463,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>2748</v>
       </c>
@@ -30433,7 +30501,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>2748</v>
       </c>
@@ -30471,7 +30539,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>2829</v>
       </c>
@@ -30509,7 +30577,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>2847</v>
       </c>
@@ -30547,7 +30615,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>2748</v>
       </c>
@@ -30579,7 +30647,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>2914</v>
       </c>
@@ -30611,7 +30679,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>2919</v>
       </c>
@@ -30643,7 +30711,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>2847</v>
       </c>
@@ -30681,7 +30749,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>2748</v>
       </c>
@@ -30713,7 +30781,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>2776</v>
       </c>
@@ -30751,7 +30819,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>2847</v>
       </c>
@@ -30780,7 +30848,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>2748</v>
       </c>
@@ -30809,7 +30877,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>2847</v>
       </c>
@@ -30838,7 +30906,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>2829</v>
       </c>
@@ -30876,7 +30944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>2829</v>
       </c>
@@ -30905,7 +30973,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>2829</v>
       </c>
@@ -30943,7 +31011,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>2967</v>
       </c>
@@ -30981,7 +31049,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>2977</v>
       </c>
@@ -31019,7 +31087,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>2986</v>
       </c>
@@ -31057,12 +31125,12 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F511" t="s">
         <v>2994</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>2995</v>
       </c>
@@ -31100,7 +31168,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>3005</v>
       </c>
@@ -31132,7 +31200,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>3012</v>
       </c>
@@ -31164,7 +31232,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>3019</v>
       </c>
@@ -31202,7 +31270,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>2986</v>
       </c>
@@ -31240,7 +31308,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>3033</v>
       </c>
@@ -31278,7 +31346,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>3043</v>
       </c>
@@ -31316,7 +31384,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>3043</v>
       </c>
@@ -31354,7 +31422,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>2986</v>
       </c>
@@ -31392,7 +31460,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>3065</v>
       </c>
@@ -31430,7 +31498,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>3073</v>
       </c>
@@ -31468,12 +31536,12 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F523" t="s">
         <v>3081</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>3033</v>
       </c>
@@ -31511,7 +31579,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>3089</v>
       </c>
@@ -31549,7 +31617,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>3097</v>
       </c>
@@ -31587,7 +31655,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>3105</v>
       </c>
@@ -31625,12 +31693,12 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F528" t="s">
         <v>3113</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>3114</v>
       </c>
@@ -31668,7 +31736,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>2967</v>
       </c>
@@ -31706,7 +31774,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>3019</v>
       </c>
@@ -31744,7 +31812,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>3132</v>
       </c>
@@ -31782,7 +31850,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>2995</v>
       </c>
@@ -31820,7 +31888,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>3148</v>
       </c>
@@ -31852,7 +31920,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>3154</v>
       </c>
@@ -31884,7 +31952,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>3159</v>
       </c>
@@ -31919,12 +31987,12 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F537" t="s">
         <v>3164</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>3159</v>
       </c>
@@ -31962,7 +32030,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>3043</v>
       </c>
@@ -31994,7 +32062,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>3089</v>
       </c>
@@ -32032,7 +32100,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>3182</v>
       </c>
@@ -32070,7 +32138,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>3182</v>
       </c>
@@ -32108,7 +32176,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>2986</v>
       </c>
@@ -32146,7 +32214,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>3202</v>
       </c>
@@ -32172,7 +32240,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>3202</v>
       </c>
@@ -32210,7 +32278,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>3202</v>
       </c>
@@ -32248,7 +32316,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>3202</v>
       </c>
@@ -32286,7 +32354,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>3202</v>
       </c>
@@ -32324,7 +32392,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>3230</v>
       </c>
@@ -32362,7 +32430,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>3239</v>
       </c>
@@ -32400,7 +32468,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>3247</v>
       </c>
@@ -32438,7 +32506,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>3255</v>
       </c>
@@ -32470,7 +32538,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>3247</v>
       </c>
@@ -32508,7 +32576,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>3266</v>
       </c>
@@ -32540,7 +32608,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>3272</v>
       </c>
@@ -32578,7 +32646,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>3282</v>
       </c>
@@ -32616,7 +32684,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>3282</v>
       </c>
@@ -32654,12 +32722,12 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F558" t="s">
         <v>3297</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>3298</v>
       </c>
@@ -32691,7 +32759,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>3282</v>
       </c>
@@ -32729,7 +32797,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>3310</v>
       </c>
@@ -32761,7 +32829,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>3318</v>
       </c>
@@ -32799,7 +32867,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>3326</v>
       </c>
@@ -32831,7 +32899,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>3332</v>
       </c>
@@ -32863,7 +32931,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>3318</v>
       </c>
@@ -32895,7 +32963,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>3339</v>
       </c>
@@ -32933,7 +33001,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>3348</v>
       </c>
@@ -32971,7 +33039,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>3339</v>
       </c>
@@ -33009,7 +33077,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>3348</v>
       </c>
@@ -33047,7 +33115,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>3368</v>
       </c>
@@ -33079,7 +33147,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>3375</v>
       </c>
@@ -33111,7 +33179,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>3383</v>
       </c>
@@ -33127,6 +33195,9 @@
       <c r="E572" t="s">
         <v>3386</v>
       </c>
+      <c r="F572" t="s">
+        <v>4211</v>
+      </c>
       <c r="G572" t="s">
         <v>3387</v>
       </c>
@@ -33146,7 +33217,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>3390</v>
       </c>
@@ -33184,7 +33255,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>3368</v>
       </c>
@@ -33216,7 +33287,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>3400</v>
       </c>
@@ -33248,7 +33319,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>3407</v>
       </c>
@@ -33280,7 +33351,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>3413</v>
       </c>
@@ -33312,7 +33383,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>3420</v>
       </c>
@@ -33344,7 +33415,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>3425</v>
       </c>
@@ -33376,7 +33447,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>3430</v>
       </c>
@@ -33414,7 +33485,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>3440</v>
       </c>
@@ -33446,7 +33517,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>3445</v>
       </c>
@@ -33478,7 +33549,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>3450</v>
       </c>
@@ -33516,7 +33587,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>3458</v>
       </c>
@@ -33548,7 +33619,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>3450</v>
       </c>
@@ -33580,7 +33651,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>3458</v>
       </c>
@@ -33618,7 +33689,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>3458</v>
       </c>
@@ -33647,7 +33718,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>3478</v>
       </c>
@@ -33685,12 +33756,12 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F589" t="s">
         <v>3486</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>3487</v>
       </c>
@@ -33728,7 +33799,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>3495</v>
       </c>
@@ -33754,7 +33825,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>3478</v>
       </c>
@@ -33789,7 +33860,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>3495</v>
       </c>
@@ -33827,7 +33898,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>3478</v>
       </c>
@@ -33856,7 +33927,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>3478</v>
       </c>
@@ -33894,7 +33965,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>3487</v>
       </c>
@@ -33932,7 +34003,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>3525</v>
       </c>
@@ -33964,7 +34035,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>3530</v>
       </c>
@@ -34002,7 +34073,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>3530</v>
       </c>
@@ -34040,7 +34111,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>3478</v>
       </c>
@@ -34069,7 +34140,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>3478</v>
       </c>
@@ -34098,7 +34169,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>3550</v>
       </c>
@@ -34127,7 +34198,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>3555</v>
       </c>
@@ -34159,7 +34230,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>3561</v>
       </c>
@@ -34188,7 +34259,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>3566</v>
       </c>
@@ -34226,7 +34297,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>3575</v>
       </c>
@@ -34264,7 +34335,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>3584</v>
       </c>
@@ -34280,6 +34351,9 @@
       <c r="E607" t="s">
         <v>3586</v>
       </c>
+      <c r="F607" t="s">
+        <v>4211</v>
+      </c>
       <c r="G607" t="s">
         <v>3587</v>
       </c>
@@ -34299,7 +34373,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>3575</v>
       </c>
@@ -34337,7 +34411,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>3596</v>
       </c>
@@ -34353,6 +34427,9 @@
       <c r="E609" t="s">
         <v>3598</v>
       </c>
+      <c r="F609" t="s">
+        <v>4211</v>
+      </c>
       <c r="G609" t="s">
         <v>3600</v>
       </c>
@@ -34372,7 +34449,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>3602</v>
       </c>
@@ -34388,6 +34465,9 @@
       <c r="E610" t="s">
         <v>3605</v>
       </c>
+      <c r="F610" t="s">
+        <v>4211</v>
+      </c>
       <c r="G610" t="s">
         <v>3606</v>
       </c>
@@ -34407,7 +34487,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>3608</v>
       </c>
@@ -34445,7 +34525,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>3602</v>
       </c>
@@ -34483,7 +34563,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>3620</v>
       </c>
@@ -34509,7 +34589,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>3620</v>
       </c>
@@ -34541,7 +34621,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>3629</v>
       </c>
@@ -34557,6 +34637,9 @@
       <c r="E615" t="s">
         <v>3632</v>
       </c>
+      <c r="F615" t="s">
+        <v>4211</v>
+      </c>
       <c r="G615" t="s">
         <v>3633</v>
       </c>
@@ -34576,7 +34659,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>3636</v>
       </c>
@@ -34592,6 +34675,9 @@
       <c r="E616" t="s">
         <v>3639</v>
       </c>
+      <c r="F616" t="s">
+        <v>4211</v>
+      </c>
       <c r="G616" t="s">
         <v>3640</v>
       </c>
@@ -34611,7 +34697,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>3642</v>
       </c>
@@ -34649,12 +34735,12 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F618" t="s">
         <v>3648</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>3649</v>
       </c>
@@ -34692,7 +34778,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>3656</v>
       </c>
@@ -34730,7 +34816,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>3663</v>
       </c>
@@ -34762,7 +34848,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>3668</v>
       </c>
@@ -34775,6 +34861,9 @@
       <c r="E622" t="s">
         <v>3671</v>
       </c>
+      <c r="F622" t="s">
+        <v>4211</v>
+      </c>
       <c r="G622" t="s">
         <v>3672</v>
       </c>
@@ -34794,7 +34883,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>3656</v>
       </c>
@@ -34832,7 +34921,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>3680</v>
       </c>
@@ -34870,7 +34959,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>3687</v>
       </c>
@@ -34902,7 +34991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>3693</v>
       </c>
@@ -34940,7 +35029,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>3693</v>
       </c>
@@ -34978,7 +35067,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>3687</v>
       </c>
@@ -34994,6 +35083,9 @@
       <c r="E628" t="s">
         <v>3712</v>
       </c>
+      <c r="F628" t="s">
+        <v>4211</v>
+      </c>
       <c r="G628" t="s">
         <v>3713</v>
       </c>
@@ -35013,7 +35105,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>3716</v>
       </c>
@@ -35045,7 +35137,7 @@
         <v>3722</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>3723</v>
       </c>
@@ -35083,7 +35175,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>3731</v>
       </c>
@@ -35112,7 +35204,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>3736</v>
       </c>
@@ -35128,6 +35220,9 @@
       <c r="E632" t="s">
         <v>3740</v>
       </c>
+      <c r="F632" t="s">
+        <v>4211</v>
+      </c>
       <c r="G632" t="s">
         <v>3741</v>
       </c>
@@ -35147,7 +35242,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>3746</v>
       </c>
@@ -35185,12 +35280,12 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F634" t="s">
         <v>3754</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>3687</v>
       </c>
@@ -35206,6 +35301,9 @@
       <c r="E635" t="s">
         <v>3756</v>
       </c>
+      <c r="F635" t="s">
+        <v>4211</v>
+      </c>
       <c r="G635" t="s">
         <v>3757</v>
       </c>
@@ -35225,7 +35323,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>3761</v>
       </c>
@@ -35241,6 +35339,9 @@
       <c r="E636" t="s">
         <v>3764</v>
       </c>
+      <c r="F636" t="s">
+        <v>4211</v>
+      </c>
       <c r="G636" t="s">
         <v>3765</v>
       </c>
@@ -35260,7 +35361,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>3770</v>
       </c>
@@ -35292,7 +35393,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>3777</v>
       </c>
@@ -35330,7 +35431,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>3785</v>
       </c>
@@ -35362,7 +35463,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>3792</v>
       </c>
@@ -35378,6 +35479,9 @@
       <c r="E640" t="s">
         <v>3795</v>
       </c>
+      <c r="F640" t="s">
+        <v>4211</v>
+      </c>
       <c r="G640" t="s">
         <v>3796</v>
       </c>
@@ -35397,7 +35501,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>3799</v>
       </c>
@@ -35429,7 +35533,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>3799</v>
       </c>
@@ -35458,7 +35562,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>3731</v>
       </c>
@@ -35474,6 +35578,9 @@
       <c r="E643" t="s">
         <v>3811</v>
       </c>
+      <c r="F643" t="s">
+        <v>4211</v>
+      </c>
       <c r="G643" t="s">
         <v>3812</v>
       </c>
@@ -35493,7 +35600,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>3817</v>
       </c>
@@ -35528,7 +35635,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>3823</v>
       </c>
@@ -35566,7 +35673,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>3831</v>
       </c>
@@ -35604,12 +35711,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="F647" t="s">
         <v>3839</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>3823</v>
       </c>
@@ -35647,7 +35754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>3823</v>
       </c>
@@ -35685,7 +35792,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>3823</v>
       </c>
@@ -35723,7 +35830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>3823</v>
       </c>
@@ -35758,7 +35865,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>3823</v>
       </c>
@@ -35796,7 +35903,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>3823</v>
       </c>
@@ -35834,7 +35941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>3823</v>
       </c>
@@ -35863,7 +35970,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>3831</v>
       </c>
@@ -35901,7 +36008,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>3831</v>
       </c>
@@ -35939,7 +36046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>3831</v>
       </c>
@@ -35977,7 +36084,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>3823</v>
       </c>
@@ -36015,7 +36122,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>3823</v>
       </c>
@@ -36053,7 +36160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>3823</v>
       </c>
@@ -36091,7 +36198,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>3823</v>
       </c>
@@ -36129,7 +36236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>2553</v>
       </c>
@@ -36167,7 +36274,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>2553</v>
       </c>
@@ -36205,7 +36312,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>3831</v>
       </c>
@@ -36243,7 +36350,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>3944</v>
       </c>
@@ -36275,7 +36382,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>3950</v>
       </c>
@@ -36313,7 +36420,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>3957</v>
       </c>
@@ -36345,7 +36452,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>3831</v>
       </c>
@@ -36383,7 +36490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>3831</v>
       </c>
@@ -36421,7 +36528,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>3974</v>
       </c>
@@ -36459,7 +36566,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>3982</v>
       </c>
@@ -36491,7 +36598,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>3988</v>
       </c>
@@ -36529,7 +36636,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>3996</v>
       </c>
@@ -36567,7 +36674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>3988</v>
       </c>
@@ -36599,7 +36706,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>3988</v>
       </c>
@@ -36631,7 +36738,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>4011</v>
       </c>
@@ -36663,7 +36770,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>3823</v>
       </c>
@@ -36701,7 +36808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>3996</v>
       </c>
@@ -36730,7 +36837,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>2553</v>
       </c>
@@ -36768,7 +36875,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>3944</v>
       </c>
@@ -36806,7 +36913,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>4036</v>
       </c>
@@ -36838,7 +36945,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>4042</v>
       </c>
@@ -36870,7 +36977,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>4046</v>
       </c>
@@ -36908,7 +37015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>4054</v>
       </c>
@@ -36946,7 +37053,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>3996</v>
       </c>
@@ -36978,7 +37085,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>4065</v>
       </c>
@@ -36994,6 +37101,9 @@
       <c r="E686" t="s">
         <v>4068</v>
       </c>
+      <c r="F686" t="s">
+        <v>4211</v>
+      </c>
       <c r="G686" t="s">
         <v>4069</v>
       </c>
@@ -37013,7 +37123,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>4072</v>
       </c>
@@ -37048,7 +37158,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>4079</v>
       </c>
@@ -37080,7 +37190,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>4084</v>
       </c>
@@ -37109,7 +37219,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>3823</v>
       </c>
@@ -37141,7 +37251,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>3823</v>
       </c>
@@ -37179,7 +37289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>4099</v>
       </c>
@@ -37217,7 +37327,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>4107</v>
       </c>
@@ -37233,6 +37343,9 @@
       <c r="E693" t="s">
         <v>4110</v>
       </c>
+      <c r="F693" t="s">
+        <v>4211</v>
+      </c>
       <c r="G693" t="s">
         <v>4111</v>
       </c>
@@ -37252,7 +37365,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>4115</v>
       </c>
@@ -37290,7 +37403,7 @@
         <v>4124</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>2553</v>
       </c>
@@ -37319,7 +37432,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>4128</v>
       </c>
@@ -37351,7 +37464,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>4099</v>
       </c>
@@ -37389,7 +37502,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>3831</v>
       </c>
@@ -37418,7 +37531,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>4142</v>
       </c>
@@ -37450,7 +37563,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>4149</v>
       </c>
@@ -37488,7 +37601,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>2553</v>
       </c>
@@ -37526,7 +37639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>4161</v>
       </c>
@@ -37564,7 +37677,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>4170</v>
       </c>
@@ -37597,6 +37710,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L703" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/obrasQ.xlsx
+++ b/obrasQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Desktop\Impresionismo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B8CBCB-5E50-4511-B2CD-8E3002E5D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176544FB-814B-400B-9C5B-F5ADE25888DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="4211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7130" uniqueCount="4212">
   <si>
     <t>Autor</t>
   </si>
@@ -12653,19 +12653,28 @@
   </si>
   <si>
     <t>Notre Dame by Maximilien Luce, San Diego Museum of Art.JPG</t>
+  </si>
+  <si>
+    <t>Nue (Anna)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12688,8 +12697,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13026,8 +13036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L703"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="F414" sqref="F414"/>
+    <sheetView tabSelected="1" topLeftCell="F143" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13146,8 +13156,8 @@
       <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>32</v>
+      <c r="K3" s="1" t="s">
+        <v>4211</v>
       </c>
       <c r="L3" t="s">
         <v>33</v>
@@ -37606,2889 +37616,2888 @@
     <hyperlink ref="A3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="E3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="I3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K7" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L7" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E8" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K8" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L8" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A9" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I9" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A10" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="I10" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="L10" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A11" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="I11" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K11" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E12" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I12" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K12" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L12" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A13" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E13" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I13" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K13" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L13" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A14" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I14" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K14" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L14" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="L15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A16" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E16" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="I16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="L16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A17" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I17" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K17" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="L17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A18" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E18" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="I18" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K18" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="L18" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A19" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E19" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="I19" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K19" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="L19" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A20" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E20" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="K20" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="L20" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A21" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E21" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I21" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="K21" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="L21" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A22" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E22" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I22" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="K22" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="L22" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A23" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E23" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="I23" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="K23" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="L23" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A24" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E24" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="I24" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="K24" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="L24" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A25" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E25" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="I25" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="K25" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="L25" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="A26" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E26" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="I26" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="K26" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="L26" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="A27" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E27" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="I27" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="K27" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="L27" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="A28" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E28" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="K28" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="L28" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="A29" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E29" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="K29" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="L29" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="A30" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E30" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="I30" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="K30" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="L30" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="A31" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E31" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="I31" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="K31" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="L31" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="A32" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E32" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="I32" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="K32" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="L32" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="A33" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E33" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="I33" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="K33" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="L33" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="A34" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E34" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="I34" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="K34" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="L34" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="A36" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E36" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="I36" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="K36" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="L36" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="A37" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E37" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="I37" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="K37" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="L37" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="A38" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E38" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="I38" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="K38" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="L38" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="A39" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E39" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="I39" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="K39" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="L39" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="A40" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E40" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="I40" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="K40" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="L40" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="A41" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E41" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="I41" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="K41" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="L41" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="A42" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E42" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="I42" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="K42" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="L42" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="A43" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="E43" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="I43" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="K43" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="L43" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="A44" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E44" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="I44" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="K44" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="L44" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="A45" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="E45" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="I45" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="K45" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="L45" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="A46" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="E46" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="I46" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="K46" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="L46" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="A47" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E47" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="I47" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="K47" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="L47" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="A48" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E48" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="I48" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="K48" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="L48" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="A49" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="E49" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="I49" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="K49" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="L49" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="A50" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E50" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="I50" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="K50" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="L50" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="A51" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="E51" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="I51" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="K51" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="L51" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="A52" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="E52" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="I52" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="K52" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="L52" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="A53" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="E53" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="I53" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="K53" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="L53" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="A54" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E54" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="I54" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="K54" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="L54" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="A55" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E55" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="I55" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="K55" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="L55" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="A56" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E56" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="I56" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="K56" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="L56" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="A57" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E57" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="I57" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="K57" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="L57" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="A58" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="E58" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="I58" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="K58" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="L58" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="A59" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="E59" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="I59" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="K59" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="L59" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="A60" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="E60" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="I60" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="K60" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="L60" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="A61" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="E61" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="I61" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="K61" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="L61" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="A62" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="E62" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="I62" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="K62" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="L62" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="A63" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="E63" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="I63" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="K63" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="L63" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="A64" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="E64" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="I64" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="K64" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="L64" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="A65" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="E65" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="I65" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="K65" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="L65" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="A66" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="E66" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="I66" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="K66" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="L66" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="A67" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="E67" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="I67" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="K67" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="L67" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="A68" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="E68" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="I68" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="K68" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="L68" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="A69" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="E69" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="I69" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="K69" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="L69" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="A70" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="E70" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="I70" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="K70" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="L70" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="A71" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="C71" r:id="rId337" display="Ono Waterfall on the Kisokaidō" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="A72" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="E72" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="I72" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="K72" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="L72" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="A73" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="E73" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="I73" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="K73" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="L73" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="A74" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="E74" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="I74" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="K74" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="L74" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="A75" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="I75" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="L75" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="A76" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="I76" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="K76" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="L76" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="E77" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="I77" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="K77" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="L77" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="A78" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="E78" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="I78" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="K78" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="L78" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="A79" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="E79" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="I79" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="K79" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="L79" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="A80" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="E80" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="I80" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="K80" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="L80" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="A81" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="E81" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="I81" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="K81" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="L81" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="A83" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="E83" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="I83" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="K83" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="L83" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="A84" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="E84" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="I84" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="K84" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="L84" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="A85" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="E85" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="K85" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="L85" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="A86" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="E86" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="I86" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="K86" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="L86" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="A87" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="E87" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="I87" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="K87" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="L87" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="A88" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="I88" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="K88" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="L88" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="A89" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="E89" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="I89" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="K89" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="L89" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="A90" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="E90" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="I90" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="K90" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="L90" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="A91" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="E91" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="K91" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="A92" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="E92" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="I92" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="K92" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="L92" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="A93" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="E93" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="I93" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="K93" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="L93" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="A94" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="E94" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="I94" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="K94" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="L94" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="A95" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="E95" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="I95" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="K95" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="L95" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="A96" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="E96" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="I96" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="K96" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="L96" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="A97" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="E97" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="I97" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="K97" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="L97" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="A98" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="E98" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="I98" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="K98" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="L98" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="A99" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="I99" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="K99" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="L99" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="A100" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="E100" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="I100" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="K100" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="L100" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="A101" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="E101" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="I101" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="K101" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="L101" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="A102" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="E102" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="I102" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="K102" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="L102" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="A103" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="E103" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="I103" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="K103" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="L103" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="A104" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="E104" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="I104" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="K104" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="L104" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="A105" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="I105" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="K105" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="L105" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="A106" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="I106" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="K106" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="L106" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="A107" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="I107" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="L107" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="A108" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="E108" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="I108" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="K108" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="L108" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="A109" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="E109" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="I109" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="K109" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="L109" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="A110" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="E110" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="I110" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="K110" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="L110" r:id="rId514" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="A112" r:id="rId515" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="E112" r:id="rId516" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="I112" r:id="rId517" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="K112" r:id="rId518" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="L112" r:id="rId519" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="A113" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="E113" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="I113" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="K113" r:id="rId523" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="L113" r:id="rId524" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="A114" r:id="rId525" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="E114" r:id="rId526" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="I114" r:id="rId527" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="K114" r:id="rId528" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="L114" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="A115" r:id="rId530" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="E115" r:id="rId531" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="I115" r:id="rId532" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="K115" r:id="rId533" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="L115" r:id="rId534" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="A116" r:id="rId535" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="I116" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="K116" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="L116" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="A117" r:id="rId539" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="E117" r:id="rId540" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="I117" r:id="rId541" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="K117" r:id="rId542" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="L117" r:id="rId543" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="A118" r:id="rId544" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="I118" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="L118" r:id="rId546" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="A119" r:id="rId547" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="E119" r:id="rId548" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="I119" r:id="rId549" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="K119" r:id="rId550" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
-    <hyperlink ref="L119" r:id="rId551" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
-    <hyperlink ref="A120" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="E120" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="I120" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="K120" r:id="rId555" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="L120" r:id="rId556" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="A121" r:id="rId557" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="E121" r:id="rId558" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="I121" r:id="rId559" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="K121" r:id="rId560" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="L121" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="A122" r:id="rId562" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="E122" r:id="rId563" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="I122" r:id="rId564" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="K122" r:id="rId565" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="L122" r:id="rId566" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="A123" r:id="rId567" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="E123" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="I123" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="K123" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="L123" r:id="rId571" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="A124" r:id="rId572" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="E124" r:id="rId573" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="I124" r:id="rId574" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="K124" r:id="rId575" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="L124" r:id="rId576" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="A125" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="K125" r:id="rId578" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="L125" r:id="rId579" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="A126" r:id="rId580" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="E126" r:id="rId581" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="I126" r:id="rId582" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="K126" r:id="rId583" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="L126" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="A127" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="I127" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="K127" r:id="rId587" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="L127" r:id="rId588" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="A128" r:id="rId589" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="E128" r:id="rId590" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="I128" r:id="rId591" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="K128" r:id="rId592" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="L128" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="A129" r:id="rId594" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="I129" r:id="rId595" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="K129" r:id="rId596" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="L129" r:id="rId597" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="A130" r:id="rId598" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
-    <hyperlink ref="E130" r:id="rId599" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
-    <hyperlink ref="I130" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
-    <hyperlink ref="K130" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
-    <hyperlink ref="L130" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
-    <hyperlink ref="A131" r:id="rId603" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
-    <hyperlink ref="E131" r:id="rId604" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
-    <hyperlink ref="I131" r:id="rId605" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
-    <hyperlink ref="K131" r:id="rId606" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
-    <hyperlink ref="L131" r:id="rId607" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
-    <hyperlink ref="A132" r:id="rId608" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
-    <hyperlink ref="E132" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
-    <hyperlink ref="I132" r:id="rId610" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
-    <hyperlink ref="K132" r:id="rId611" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
-    <hyperlink ref="L132" r:id="rId612" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
-    <hyperlink ref="A133" r:id="rId613" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
-    <hyperlink ref="E133" r:id="rId614" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
-    <hyperlink ref="K133" r:id="rId615" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
-    <hyperlink ref="L133" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
-    <hyperlink ref="A134" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
-    <hyperlink ref="E134" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
-    <hyperlink ref="I134" r:id="rId619" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
-    <hyperlink ref="K134" r:id="rId620" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
-    <hyperlink ref="L134" r:id="rId621" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
-    <hyperlink ref="A135" r:id="rId622" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
-    <hyperlink ref="E135" r:id="rId623" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
-    <hyperlink ref="I135" r:id="rId624" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
-    <hyperlink ref="K135" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
-    <hyperlink ref="L135" r:id="rId626" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
-    <hyperlink ref="A136" r:id="rId627" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
-    <hyperlink ref="E136" r:id="rId628" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
-    <hyperlink ref="I136" r:id="rId629" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
-    <hyperlink ref="K136" r:id="rId630" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
-    <hyperlink ref="L136" r:id="rId631" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
-    <hyperlink ref="A137" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
-    <hyperlink ref="I137" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
-    <hyperlink ref="L137" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
-    <hyperlink ref="A138" r:id="rId635" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
-    <hyperlink ref="E138" r:id="rId636" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
-    <hyperlink ref="I138" r:id="rId637" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
-    <hyperlink ref="K138" r:id="rId638" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
-    <hyperlink ref="L138" r:id="rId639" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
-    <hyperlink ref="A139" r:id="rId640" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
-    <hyperlink ref="E139" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
-    <hyperlink ref="I139" r:id="rId642" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
-    <hyperlink ref="K139" r:id="rId643" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
-    <hyperlink ref="L139" r:id="rId644" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
-    <hyperlink ref="A140" r:id="rId645" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
-    <hyperlink ref="E140" r:id="rId646" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
-    <hyperlink ref="I140" r:id="rId647" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
-    <hyperlink ref="K140" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
-    <hyperlink ref="L140" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
-    <hyperlink ref="A141" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
-    <hyperlink ref="E141" r:id="rId651" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
-    <hyperlink ref="I141" r:id="rId652" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
-    <hyperlink ref="K141" r:id="rId653" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
-    <hyperlink ref="L141" r:id="rId654" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
-    <hyperlink ref="A142" r:id="rId655" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
-    <hyperlink ref="E142" r:id="rId656" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
-    <hyperlink ref="I142" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
-    <hyperlink ref="K142" r:id="rId658" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
-    <hyperlink ref="L142" r:id="rId659" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
-    <hyperlink ref="A143" r:id="rId660" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
-    <hyperlink ref="E143" r:id="rId661" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
-    <hyperlink ref="I143" r:id="rId662" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
-    <hyperlink ref="K143" r:id="rId663" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
-    <hyperlink ref="L143" r:id="rId664" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
-    <hyperlink ref="A144" r:id="rId665" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
-    <hyperlink ref="E144" r:id="rId666" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
-    <hyperlink ref="I144" r:id="rId667" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
-    <hyperlink ref="K144" r:id="rId668" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
-    <hyperlink ref="L144" r:id="rId669" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
-    <hyperlink ref="A145" r:id="rId670" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
-    <hyperlink ref="E145" r:id="rId671" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
-    <hyperlink ref="I145" r:id="rId672" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
-    <hyperlink ref="K145" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
-    <hyperlink ref="L145" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
-    <hyperlink ref="A146" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
-    <hyperlink ref="E146" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
-    <hyperlink ref="I146" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
-    <hyperlink ref="K146" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
-    <hyperlink ref="A147" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
-    <hyperlink ref="E147" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
-    <hyperlink ref="I147" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
-    <hyperlink ref="K147" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
-    <hyperlink ref="L147" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
-    <hyperlink ref="A148" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
-    <hyperlink ref="E148" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
-    <hyperlink ref="I148" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
-    <hyperlink ref="K148" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
-    <hyperlink ref="L148" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
-    <hyperlink ref="A149" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
-    <hyperlink ref="E149" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
-    <hyperlink ref="I149" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
-    <hyperlink ref="K149" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
-    <hyperlink ref="L149" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
-    <hyperlink ref="A150" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
-    <hyperlink ref="E150" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
-    <hyperlink ref="I150" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
-    <hyperlink ref="K150" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
-    <hyperlink ref="L150" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
-    <hyperlink ref="A151" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
-    <hyperlink ref="E151" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
-    <hyperlink ref="I151" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
-    <hyperlink ref="K151" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
-    <hyperlink ref="L151" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
-    <hyperlink ref="A152" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
-    <hyperlink ref="E152" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
-    <hyperlink ref="I152" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
-    <hyperlink ref="K152" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
-    <hyperlink ref="L152" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
-    <hyperlink ref="A153" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
-    <hyperlink ref="E153" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
-    <hyperlink ref="I153" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
-    <hyperlink ref="K153" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
-    <hyperlink ref="L153" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
-    <hyperlink ref="A154" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
-    <hyperlink ref="E154" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
-    <hyperlink ref="I154" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
-    <hyperlink ref="K154" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
-    <hyperlink ref="L154" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
-    <hyperlink ref="A155" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
-    <hyperlink ref="E155" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
-    <hyperlink ref="I155" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
-    <hyperlink ref="K155" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
-    <hyperlink ref="L155" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
-    <hyperlink ref="A156" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
-    <hyperlink ref="E156" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
-    <hyperlink ref="I156" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
-    <hyperlink ref="K156" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
-    <hyperlink ref="L156" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
-    <hyperlink ref="A157" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
-    <hyperlink ref="E157" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
-    <hyperlink ref="I157" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
-    <hyperlink ref="K157" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
-    <hyperlink ref="L157" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
-    <hyperlink ref="A158" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
-    <hyperlink ref="E158" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
-    <hyperlink ref="I158" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
-    <hyperlink ref="K158" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
-    <hyperlink ref="L158" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
-    <hyperlink ref="A159" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
-    <hyperlink ref="E159" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
-    <hyperlink ref="I159" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
-    <hyperlink ref="K159" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
-    <hyperlink ref="L159" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
-    <hyperlink ref="A160" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
-    <hyperlink ref="E160" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
-    <hyperlink ref="I160" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
-    <hyperlink ref="K160" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
-    <hyperlink ref="L160" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
-    <hyperlink ref="A161" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
-    <hyperlink ref="I161" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
-    <hyperlink ref="L161" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
-    <hyperlink ref="A162" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
-    <hyperlink ref="E162" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
-    <hyperlink ref="I162" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
-    <hyperlink ref="K162" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
-    <hyperlink ref="L162" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
-    <hyperlink ref="A163" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
-    <hyperlink ref="E163" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
-    <hyperlink ref="I163" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
-    <hyperlink ref="K163" r:id="rId760" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
-    <hyperlink ref="L163" r:id="rId761" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
-    <hyperlink ref="A164" r:id="rId762" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
-    <hyperlink ref="I164" r:id="rId763" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
-    <hyperlink ref="K164" r:id="rId764" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
-    <hyperlink ref="L164" r:id="rId765" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
-    <hyperlink ref="A165" r:id="rId766" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
-    <hyperlink ref="E165" r:id="rId767" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
-    <hyperlink ref="K165" r:id="rId768" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
-    <hyperlink ref="L165" r:id="rId769" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
-    <hyperlink ref="A166" r:id="rId770" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
-    <hyperlink ref="E166" r:id="rId771" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
-    <hyperlink ref="I166" r:id="rId772" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
-    <hyperlink ref="K166" r:id="rId773" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
-    <hyperlink ref="L166" r:id="rId774" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
-    <hyperlink ref="A167" r:id="rId775" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
-    <hyperlink ref="I167" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
-    <hyperlink ref="K167" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
-    <hyperlink ref="L167" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
-    <hyperlink ref="A168" r:id="rId779" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
-    <hyperlink ref="E168" r:id="rId780" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
-    <hyperlink ref="I168" r:id="rId781" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
-    <hyperlink ref="K168" r:id="rId782" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
-    <hyperlink ref="L168" r:id="rId783" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
-    <hyperlink ref="A169" r:id="rId784" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
-    <hyperlink ref="K169" r:id="rId785" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
-    <hyperlink ref="L169" r:id="rId786" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
-    <hyperlink ref="A170" r:id="rId787" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
-    <hyperlink ref="E170" r:id="rId788" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
-    <hyperlink ref="I170" r:id="rId789" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
-    <hyperlink ref="K170" r:id="rId790" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
-    <hyperlink ref="L170" r:id="rId791" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
-    <hyperlink ref="A171" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
-    <hyperlink ref="E171" r:id="rId793" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
-    <hyperlink ref="I171" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
-    <hyperlink ref="K171" r:id="rId795" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
-    <hyperlink ref="L171" r:id="rId796" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
-    <hyperlink ref="A172" r:id="rId797" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
-    <hyperlink ref="I172" r:id="rId798" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
-    <hyperlink ref="A173" r:id="rId799" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
-    <hyperlink ref="E173" r:id="rId800" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
-    <hyperlink ref="I173" r:id="rId801" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
-    <hyperlink ref="K173" r:id="rId802" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
-    <hyperlink ref="L173" r:id="rId803" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
-    <hyperlink ref="A174" r:id="rId804" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
-    <hyperlink ref="E174" r:id="rId805" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
-    <hyperlink ref="I174" r:id="rId806" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
-    <hyperlink ref="K174" r:id="rId807" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
-    <hyperlink ref="L174" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
-    <hyperlink ref="A175" r:id="rId809" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
-    <hyperlink ref="E175" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
-    <hyperlink ref="I175" r:id="rId811" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
-    <hyperlink ref="K175" r:id="rId812" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
-    <hyperlink ref="L175" r:id="rId813" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
-    <hyperlink ref="A176" r:id="rId814" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
-    <hyperlink ref="E176" r:id="rId815" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
-    <hyperlink ref="I176" r:id="rId816" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
-    <hyperlink ref="K176" r:id="rId817" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
-    <hyperlink ref="L176" r:id="rId818" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
-    <hyperlink ref="A177" r:id="rId819" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
-    <hyperlink ref="E177" r:id="rId820" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
-    <hyperlink ref="I177" r:id="rId821" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
-    <hyperlink ref="K177" r:id="rId822" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
-    <hyperlink ref="L177" r:id="rId823" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
-    <hyperlink ref="A178" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
-    <hyperlink ref="E178" r:id="rId825" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
-    <hyperlink ref="I178" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
-    <hyperlink ref="K178" r:id="rId827" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
-    <hyperlink ref="L178" r:id="rId828" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
-    <hyperlink ref="A179" r:id="rId829" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
-    <hyperlink ref="E179" r:id="rId830" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
-    <hyperlink ref="I179" r:id="rId831" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
-    <hyperlink ref="K179" r:id="rId832" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
-    <hyperlink ref="L179" r:id="rId833" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
-    <hyperlink ref="A180" r:id="rId834" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
-    <hyperlink ref="E180" r:id="rId835" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
-    <hyperlink ref="I180" r:id="rId836" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
-    <hyperlink ref="K180" r:id="rId837" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
-    <hyperlink ref="L180" r:id="rId838" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
-    <hyperlink ref="A181" r:id="rId839" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
-    <hyperlink ref="E181" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
-    <hyperlink ref="I181" r:id="rId841" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
-    <hyperlink ref="K181" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
-    <hyperlink ref="L181" r:id="rId843" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
-    <hyperlink ref="A182" r:id="rId844" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
-    <hyperlink ref="E182" r:id="rId845" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
-    <hyperlink ref="I182" r:id="rId846" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
-    <hyperlink ref="K182" r:id="rId847" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
-    <hyperlink ref="L182" r:id="rId848" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
-    <hyperlink ref="A183" r:id="rId849" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
-    <hyperlink ref="E183" r:id="rId850" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
-    <hyperlink ref="I183" r:id="rId851" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
-    <hyperlink ref="K183" r:id="rId852" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
-    <hyperlink ref="L183" r:id="rId853" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
-    <hyperlink ref="A184" r:id="rId854" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
-    <hyperlink ref="E184" r:id="rId855" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
-    <hyperlink ref="I184" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
-    <hyperlink ref="K184" r:id="rId857" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
-    <hyperlink ref="L184" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
-    <hyperlink ref="A185" r:id="rId859" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
-    <hyperlink ref="E185" r:id="rId860" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
-    <hyperlink ref="I185" r:id="rId861" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
-    <hyperlink ref="K185" r:id="rId862" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
-    <hyperlink ref="L185" r:id="rId863" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
-    <hyperlink ref="A186" r:id="rId864" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
-    <hyperlink ref="E186" r:id="rId865" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
-    <hyperlink ref="I186" r:id="rId866" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
-    <hyperlink ref="K186" r:id="rId867" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
-    <hyperlink ref="L186" r:id="rId868" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
-    <hyperlink ref="A188" r:id="rId869" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
-    <hyperlink ref="E188" r:id="rId870" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
-    <hyperlink ref="I188" r:id="rId871" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
-    <hyperlink ref="K188" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
-    <hyperlink ref="L188" r:id="rId873" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
-    <hyperlink ref="A189" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
-    <hyperlink ref="E189" r:id="rId875" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
-    <hyperlink ref="I189" r:id="rId876" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
-    <hyperlink ref="K189" r:id="rId877" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="L189" r:id="rId878" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="A190" r:id="rId879" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
-    <hyperlink ref="L190" r:id="rId880" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
-    <hyperlink ref="A191" r:id="rId881" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="L191" r:id="rId882" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="A192" r:id="rId883" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="E192" r:id="rId884" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="K192" r:id="rId885" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
-    <hyperlink ref="L192" r:id="rId886" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
-    <hyperlink ref="A194" r:id="rId887" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
-    <hyperlink ref="E194" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
-    <hyperlink ref="I194" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
-    <hyperlink ref="K194" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
-    <hyperlink ref="L194" r:id="rId891" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
-    <hyperlink ref="A195" r:id="rId892" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
-    <hyperlink ref="E195" r:id="rId893" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
-    <hyperlink ref="I195" r:id="rId894" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
-    <hyperlink ref="K195" r:id="rId895" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
-    <hyperlink ref="L195" r:id="rId896" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
-    <hyperlink ref="A196" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
-    <hyperlink ref="E196" r:id="rId898" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
-    <hyperlink ref="I196" r:id="rId899" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
-    <hyperlink ref="L196" r:id="rId900" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
-    <hyperlink ref="A197" r:id="rId901" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
-    <hyperlink ref="E197" r:id="rId902" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
-    <hyperlink ref="I197" r:id="rId903" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="K197" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="L197" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
-    <hyperlink ref="A198" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
-    <hyperlink ref="K198" r:id="rId907" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
-    <hyperlink ref="L198" r:id="rId908" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
-    <hyperlink ref="A199" r:id="rId909" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
-    <hyperlink ref="K199" r:id="rId910" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
-    <hyperlink ref="L199" r:id="rId911" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
-    <hyperlink ref="A200" r:id="rId912" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
-    <hyperlink ref="E200" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
-    <hyperlink ref="I200" r:id="rId914" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
-    <hyperlink ref="K200" r:id="rId915" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
-    <hyperlink ref="L200" r:id="rId916" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
-    <hyperlink ref="A201" r:id="rId917" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="E201" r:id="rId918" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="I201" r:id="rId919" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
-    <hyperlink ref="K201" r:id="rId920" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
-    <hyperlink ref="L201" r:id="rId921" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
-    <hyperlink ref="A202" r:id="rId922" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
-    <hyperlink ref="E202" r:id="rId923" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
-    <hyperlink ref="I202" r:id="rId924" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
-    <hyperlink ref="K202" r:id="rId925" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
-    <hyperlink ref="L202" r:id="rId926" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
-    <hyperlink ref="A203" r:id="rId927" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
-    <hyperlink ref="E203" r:id="rId928" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
-    <hyperlink ref="I203" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
-    <hyperlink ref="K203" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
-    <hyperlink ref="L203" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
-    <hyperlink ref="A204" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
-    <hyperlink ref="E204" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
-    <hyperlink ref="I204" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
-    <hyperlink ref="K204" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
-    <hyperlink ref="L204" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
-    <hyperlink ref="A205" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="E205" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="I205" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
-    <hyperlink ref="K205" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
-    <hyperlink ref="L205" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
-    <hyperlink ref="A206" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
-    <hyperlink ref="E206" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
-    <hyperlink ref="I206" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
-    <hyperlink ref="K206" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
-    <hyperlink ref="L206" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
-    <hyperlink ref="A207" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="E207" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="I207" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="K207" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="L207" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="A208" r:id="rId952" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="E208" r:id="rId953" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="I208" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="K208" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="L208" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="A209" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="E209" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="I209" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="K209" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="L209" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="A210" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="I210" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
-    <hyperlink ref="K210" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
-    <hyperlink ref="L210" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
-    <hyperlink ref="A211" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
-    <hyperlink ref="E211" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="I211" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="K211" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
-    <hyperlink ref="L211" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="A212" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="E212" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="I212" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="K212" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="L212" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="A213" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E213" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
-    <hyperlink ref="I213" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
-    <hyperlink ref="K213" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
-    <hyperlink ref="L213" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
-    <hyperlink ref="A214" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
-    <hyperlink ref="E214" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000DE030000}"/>
-    <hyperlink ref="I214" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000DF030000}"/>
-    <hyperlink ref="K214" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000E0030000}"/>
-    <hyperlink ref="L214" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000E1030000}"/>
-    <hyperlink ref="A215" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000E2030000}"/>
-    <hyperlink ref="E215" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000E3030000}"/>
-    <hyperlink ref="I215" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000E4030000}"/>
-    <hyperlink ref="K215" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000E5030000}"/>
-    <hyperlink ref="L215" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000E6030000}"/>
-    <hyperlink ref="A217" r:id="rId991" xr:uid="{00000000-0004-0000-0000-0000E7030000}"/>
-    <hyperlink ref="I217" r:id="rId992" xr:uid="{00000000-0004-0000-0000-0000E8030000}"/>
-    <hyperlink ref="K217" r:id="rId993" xr:uid="{00000000-0004-0000-0000-0000E9030000}"/>
-    <hyperlink ref="L217" r:id="rId994" xr:uid="{00000000-0004-0000-0000-0000EA030000}"/>
-    <hyperlink ref="A218" r:id="rId995" xr:uid="{00000000-0004-0000-0000-0000EB030000}"/>
-    <hyperlink ref="I218" r:id="rId996" xr:uid="{00000000-0004-0000-0000-0000EC030000}"/>
-    <hyperlink ref="L218" r:id="rId997" xr:uid="{00000000-0004-0000-0000-0000ED030000}"/>
-    <hyperlink ref="A219" r:id="rId998" xr:uid="{00000000-0004-0000-0000-0000EE030000}"/>
-    <hyperlink ref="E219" r:id="rId999" xr:uid="{00000000-0004-0000-0000-0000EF030000}"/>
-    <hyperlink ref="I219" r:id="rId1000" xr:uid="{00000000-0004-0000-0000-0000F0030000}"/>
-    <hyperlink ref="L219" r:id="rId1001" xr:uid="{00000000-0004-0000-0000-0000F1030000}"/>
-    <hyperlink ref="A220" r:id="rId1002" xr:uid="{00000000-0004-0000-0000-0000F2030000}"/>
-    <hyperlink ref="I220" r:id="rId1003" xr:uid="{00000000-0004-0000-0000-0000F3030000}"/>
-    <hyperlink ref="L220" r:id="rId1004" xr:uid="{00000000-0004-0000-0000-0000F4030000}"/>
-    <hyperlink ref="A221" r:id="rId1005" xr:uid="{00000000-0004-0000-0000-0000F5030000}"/>
-    <hyperlink ref="E221" r:id="rId1006" xr:uid="{00000000-0004-0000-0000-0000F6030000}"/>
-    <hyperlink ref="I221" r:id="rId1007" xr:uid="{00000000-0004-0000-0000-0000F7030000}"/>
-    <hyperlink ref="K221" r:id="rId1008" xr:uid="{00000000-0004-0000-0000-0000F8030000}"/>
-    <hyperlink ref="L221" r:id="rId1009" xr:uid="{00000000-0004-0000-0000-0000F9030000}"/>
-    <hyperlink ref="A222" r:id="rId1010" xr:uid="{00000000-0004-0000-0000-0000FA030000}"/>
-    <hyperlink ref="E222" r:id="rId1011" xr:uid="{00000000-0004-0000-0000-0000FB030000}"/>
-    <hyperlink ref="I222" r:id="rId1012" xr:uid="{00000000-0004-0000-0000-0000FC030000}"/>
-    <hyperlink ref="K222" r:id="rId1013" xr:uid="{00000000-0004-0000-0000-0000FD030000}"/>
-    <hyperlink ref="L222" r:id="rId1014" xr:uid="{00000000-0004-0000-0000-0000FE030000}"/>
-    <hyperlink ref="A223" r:id="rId1015" xr:uid="{00000000-0004-0000-0000-0000FF030000}"/>
-    <hyperlink ref="E223" r:id="rId1016" xr:uid="{00000000-0004-0000-0000-000000040000}"/>
-    <hyperlink ref="I223" r:id="rId1017" xr:uid="{00000000-0004-0000-0000-000001040000}"/>
-    <hyperlink ref="K223" r:id="rId1018" xr:uid="{00000000-0004-0000-0000-000002040000}"/>
-    <hyperlink ref="L223" r:id="rId1019" xr:uid="{00000000-0004-0000-0000-000003040000}"/>
-    <hyperlink ref="A224" r:id="rId1020" xr:uid="{00000000-0004-0000-0000-000004040000}"/>
-    <hyperlink ref="E224" r:id="rId1021" xr:uid="{00000000-0004-0000-0000-000005040000}"/>
-    <hyperlink ref="I224" r:id="rId1022" xr:uid="{00000000-0004-0000-0000-000006040000}"/>
-    <hyperlink ref="K224" r:id="rId1023" xr:uid="{00000000-0004-0000-0000-000007040000}"/>
-    <hyperlink ref="L224" r:id="rId1024" xr:uid="{00000000-0004-0000-0000-000008040000}"/>
-    <hyperlink ref="A225" r:id="rId1025" xr:uid="{00000000-0004-0000-0000-000009040000}"/>
-    <hyperlink ref="I225" r:id="rId1026" xr:uid="{00000000-0004-0000-0000-00000A040000}"/>
-    <hyperlink ref="L225" r:id="rId1027" xr:uid="{00000000-0004-0000-0000-00000B040000}"/>
-    <hyperlink ref="A226" r:id="rId1028" xr:uid="{00000000-0004-0000-0000-00000C040000}"/>
-    <hyperlink ref="E226" r:id="rId1029" xr:uid="{00000000-0004-0000-0000-00000D040000}"/>
-    <hyperlink ref="I226" r:id="rId1030" xr:uid="{00000000-0004-0000-0000-00000E040000}"/>
-    <hyperlink ref="K226" r:id="rId1031" xr:uid="{00000000-0004-0000-0000-00000F040000}"/>
-    <hyperlink ref="L226" r:id="rId1032" xr:uid="{00000000-0004-0000-0000-000010040000}"/>
-    <hyperlink ref="A227" r:id="rId1033" xr:uid="{00000000-0004-0000-0000-000011040000}"/>
-    <hyperlink ref="K227" r:id="rId1034" xr:uid="{00000000-0004-0000-0000-000012040000}"/>
-    <hyperlink ref="L227" r:id="rId1035" xr:uid="{00000000-0004-0000-0000-000013040000}"/>
-    <hyperlink ref="A228" r:id="rId1036" xr:uid="{00000000-0004-0000-0000-000014040000}"/>
-    <hyperlink ref="I228" r:id="rId1037" xr:uid="{00000000-0004-0000-0000-000015040000}"/>
-    <hyperlink ref="K228" r:id="rId1038" xr:uid="{00000000-0004-0000-0000-000016040000}"/>
-    <hyperlink ref="L228" r:id="rId1039" xr:uid="{00000000-0004-0000-0000-000017040000}"/>
-    <hyperlink ref="A229" r:id="rId1040" xr:uid="{00000000-0004-0000-0000-000018040000}"/>
-    <hyperlink ref="I229" r:id="rId1041" xr:uid="{00000000-0004-0000-0000-000019040000}"/>
-    <hyperlink ref="L229" r:id="rId1042" xr:uid="{00000000-0004-0000-0000-00001A040000}"/>
-    <hyperlink ref="A230" r:id="rId1043" xr:uid="{00000000-0004-0000-0000-00001B040000}"/>
-    <hyperlink ref="E230" r:id="rId1044" xr:uid="{00000000-0004-0000-0000-00001C040000}"/>
-    <hyperlink ref="K230" r:id="rId1045" xr:uid="{00000000-0004-0000-0000-00001D040000}"/>
-    <hyperlink ref="L230" r:id="rId1046" xr:uid="{00000000-0004-0000-0000-00001E040000}"/>
-    <hyperlink ref="A231" r:id="rId1047" xr:uid="{00000000-0004-0000-0000-00001F040000}"/>
-    <hyperlink ref="E231" r:id="rId1048" xr:uid="{00000000-0004-0000-0000-000020040000}"/>
-    <hyperlink ref="I231" r:id="rId1049" xr:uid="{00000000-0004-0000-0000-000021040000}"/>
-    <hyperlink ref="L231" r:id="rId1050" xr:uid="{00000000-0004-0000-0000-000022040000}"/>
-    <hyperlink ref="A232" r:id="rId1051" xr:uid="{00000000-0004-0000-0000-000023040000}"/>
-    <hyperlink ref="E232" r:id="rId1052" xr:uid="{00000000-0004-0000-0000-000024040000}"/>
-    <hyperlink ref="I232" r:id="rId1053" xr:uid="{00000000-0004-0000-0000-000025040000}"/>
-    <hyperlink ref="K232" r:id="rId1054" xr:uid="{00000000-0004-0000-0000-000026040000}"/>
-    <hyperlink ref="L232" r:id="rId1055" xr:uid="{00000000-0004-0000-0000-000027040000}"/>
-    <hyperlink ref="A233" r:id="rId1056" xr:uid="{00000000-0004-0000-0000-000028040000}"/>
-    <hyperlink ref="I233" r:id="rId1057" xr:uid="{00000000-0004-0000-0000-000029040000}"/>
-    <hyperlink ref="K233" r:id="rId1058" xr:uid="{00000000-0004-0000-0000-00002A040000}"/>
-    <hyperlink ref="L233" r:id="rId1059" xr:uid="{00000000-0004-0000-0000-00002B040000}"/>
-    <hyperlink ref="A234" r:id="rId1060" xr:uid="{00000000-0004-0000-0000-00002C040000}"/>
-    <hyperlink ref="I234" r:id="rId1061" xr:uid="{00000000-0004-0000-0000-00002D040000}"/>
-    <hyperlink ref="K234" r:id="rId1062" xr:uid="{00000000-0004-0000-0000-00002E040000}"/>
-    <hyperlink ref="L234" r:id="rId1063" xr:uid="{00000000-0004-0000-0000-00002F040000}"/>
-    <hyperlink ref="A235" r:id="rId1064" xr:uid="{00000000-0004-0000-0000-000030040000}"/>
-    <hyperlink ref="E235" r:id="rId1065" xr:uid="{00000000-0004-0000-0000-000031040000}"/>
-    <hyperlink ref="I235" r:id="rId1066" xr:uid="{00000000-0004-0000-0000-000032040000}"/>
-    <hyperlink ref="K235" r:id="rId1067" xr:uid="{00000000-0004-0000-0000-000033040000}"/>
-    <hyperlink ref="L235" r:id="rId1068" xr:uid="{00000000-0004-0000-0000-000034040000}"/>
-    <hyperlink ref="A236" r:id="rId1069" xr:uid="{00000000-0004-0000-0000-000035040000}"/>
-    <hyperlink ref="E236" r:id="rId1070" xr:uid="{00000000-0004-0000-0000-000036040000}"/>
-    <hyperlink ref="I236" r:id="rId1071" xr:uid="{00000000-0004-0000-0000-000037040000}"/>
-    <hyperlink ref="K236" r:id="rId1072" xr:uid="{00000000-0004-0000-0000-000038040000}"/>
-    <hyperlink ref="L236" r:id="rId1073" xr:uid="{00000000-0004-0000-0000-000039040000}"/>
-    <hyperlink ref="A237" r:id="rId1074" xr:uid="{00000000-0004-0000-0000-00003A040000}"/>
-    <hyperlink ref="E237" r:id="rId1075" xr:uid="{00000000-0004-0000-0000-00003B040000}"/>
-    <hyperlink ref="I237" r:id="rId1076" xr:uid="{00000000-0004-0000-0000-00003C040000}"/>
-    <hyperlink ref="K237" r:id="rId1077" xr:uid="{00000000-0004-0000-0000-00003D040000}"/>
-    <hyperlink ref="L237" r:id="rId1078" xr:uid="{00000000-0004-0000-0000-00003E040000}"/>
-    <hyperlink ref="A238" r:id="rId1079" xr:uid="{00000000-0004-0000-0000-00003F040000}"/>
-    <hyperlink ref="E238" r:id="rId1080" xr:uid="{00000000-0004-0000-0000-000040040000}"/>
-    <hyperlink ref="I238" r:id="rId1081" xr:uid="{00000000-0004-0000-0000-000041040000}"/>
-    <hyperlink ref="K238" r:id="rId1082" xr:uid="{00000000-0004-0000-0000-000042040000}"/>
-    <hyperlink ref="L238" r:id="rId1083" xr:uid="{00000000-0004-0000-0000-000043040000}"/>
-    <hyperlink ref="A239" r:id="rId1084" xr:uid="{00000000-0004-0000-0000-000044040000}"/>
-    <hyperlink ref="E239" r:id="rId1085" xr:uid="{00000000-0004-0000-0000-000045040000}"/>
-    <hyperlink ref="I239" r:id="rId1086" xr:uid="{00000000-0004-0000-0000-000046040000}"/>
-    <hyperlink ref="K239" r:id="rId1087" xr:uid="{00000000-0004-0000-0000-000047040000}"/>
-    <hyperlink ref="L239" r:id="rId1088" xr:uid="{00000000-0004-0000-0000-000048040000}"/>
-    <hyperlink ref="A240" r:id="rId1089" xr:uid="{00000000-0004-0000-0000-000049040000}"/>
-    <hyperlink ref="E240" r:id="rId1090" xr:uid="{00000000-0004-0000-0000-00004A040000}"/>
-    <hyperlink ref="I240" r:id="rId1091" xr:uid="{00000000-0004-0000-0000-00004B040000}"/>
-    <hyperlink ref="K240" r:id="rId1092" xr:uid="{00000000-0004-0000-0000-00004C040000}"/>
-    <hyperlink ref="L240" r:id="rId1093" xr:uid="{00000000-0004-0000-0000-00004D040000}"/>
-    <hyperlink ref="A241" r:id="rId1094" xr:uid="{00000000-0004-0000-0000-00004E040000}"/>
-    <hyperlink ref="E241" r:id="rId1095" xr:uid="{00000000-0004-0000-0000-00004F040000}"/>
-    <hyperlink ref="I241" r:id="rId1096" xr:uid="{00000000-0004-0000-0000-000050040000}"/>
-    <hyperlink ref="K241" r:id="rId1097" xr:uid="{00000000-0004-0000-0000-000051040000}"/>
-    <hyperlink ref="L241" r:id="rId1098" xr:uid="{00000000-0004-0000-0000-000052040000}"/>
-    <hyperlink ref="A242" r:id="rId1099" xr:uid="{00000000-0004-0000-0000-000053040000}"/>
-    <hyperlink ref="E242" r:id="rId1100" xr:uid="{00000000-0004-0000-0000-000054040000}"/>
-    <hyperlink ref="I242" r:id="rId1101" xr:uid="{00000000-0004-0000-0000-000055040000}"/>
-    <hyperlink ref="L242" r:id="rId1102" xr:uid="{00000000-0004-0000-0000-000056040000}"/>
-    <hyperlink ref="A243" r:id="rId1103" xr:uid="{00000000-0004-0000-0000-000057040000}"/>
-    <hyperlink ref="E243" r:id="rId1104" xr:uid="{00000000-0004-0000-0000-000058040000}"/>
-    <hyperlink ref="I243" r:id="rId1105" xr:uid="{00000000-0004-0000-0000-000059040000}"/>
-    <hyperlink ref="K243" r:id="rId1106" xr:uid="{00000000-0004-0000-0000-00005A040000}"/>
-    <hyperlink ref="L243" r:id="rId1107" xr:uid="{00000000-0004-0000-0000-00005B040000}"/>
-    <hyperlink ref="A244" r:id="rId1108" xr:uid="{00000000-0004-0000-0000-00005C040000}"/>
-    <hyperlink ref="I244" r:id="rId1109" xr:uid="{00000000-0004-0000-0000-00005D040000}"/>
-    <hyperlink ref="L244" r:id="rId1110" xr:uid="{00000000-0004-0000-0000-00005E040000}"/>
-    <hyperlink ref="A245" r:id="rId1111" xr:uid="{00000000-0004-0000-0000-00005F040000}"/>
-    <hyperlink ref="I245" r:id="rId1112" xr:uid="{00000000-0004-0000-0000-000060040000}"/>
-    <hyperlink ref="L245" r:id="rId1113" xr:uid="{00000000-0004-0000-0000-000061040000}"/>
-    <hyperlink ref="A246" r:id="rId1114" xr:uid="{00000000-0004-0000-0000-000062040000}"/>
-    <hyperlink ref="E246" r:id="rId1115" xr:uid="{00000000-0004-0000-0000-000063040000}"/>
-    <hyperlink ref="I246" r:id="rId1116" xr:uid="{00000000-0004-0000-0000-000064040000}"/>
-    <hyperlink ref="K246" r:id="rId1117" xr:uid="{00000000-0004-0000-0000-000065040000}"/>
-    <hyperlink ref="L246" r:id="rId1118" xr:uid="{00000000-0004-0000-0000-000066040000}"/>
-    <hyperlink ref="A248" r:id="rId1119" xr:uid="{00000000-0004-0000-0000-000067040000}"/>
-    <hyperlink ref="E248" r:id="rId1120" xr:uid="{00000000-0004-0000-0000-000068040000}"/>
-    <hyperlink ref="I248" r:id="rId1121" xr:uid="{00000000-0004-0000-0000-000069040000}"/>
-    <hyperlink ref="K248" r:id="rId1122" xr:uid="{00000000-0004-0000-0000-00006A040000}"/>
-    <hyperlink ref="L248" r:id="rId1123" xr:uid="{00000000-0004-0000-0000-00006B040000}"/>
-    <hyperlink ref="A249" r:id="rId1124" xr:uid="{00000000-0004-0000-0000-00006C040000}"/>
-    <hyperlink ref="E249" r:id="rId1125" xr:uid="{00000000-0004-0000-0000-00006D040000}"/>
-    <hyperlink ref="I249" r:id="rId1126" xr:uid="{00000000-0004-0000-0000-00006E040000}"/>
-    <hyperlink ref="K249" r:id="rId1127" xr:uid="{00000000-0004-0000-0000-00006F040000}"/>
-    <hyperlink ref="L249" r:id="rId1128" xr:uid="{00000000-0004-0000-0000-000070040000}"/>
-    <hyperlink ref="A250" r:id="rId1129" xr:uid="{00000000-0004-0000-0000-000071040000}"/>
-    <hyperlink ref="E250" r:id="rId1130" xr:uid="{00000000-0004-0000-0000-000072040000}"/>
-    <hyperlink ref="I250" r:id="rId1131" xr:uid="{00000000-0004-0000-0000-000073040000}"/>
-    <hyperlink ref="K250" r:id="rId1132" xr:uid="{00000000-0004-0000-0000-000074040000}"/>
-    <hyperlink ref="L250" r:id="rId1133" xr:uid="{00000000-0004-0000-0000-000075040000}"/>
-    <hyperlink ref="A251" r:id="rId1134" xr:uid="{00000000-0004-0000-0000-000076040000}"/>
-    <hyperlink ref="E251" r:id="rId1135" xr:uid="{00000000-0004-0000-0000-000077040000}"/>
-    <hyperlink ref="I251" r:id="rId1136" xr:uid="{00000000-0004-0000-0000-000078040000}"/>
-    <hyperlink ref="K251" r:id="rId1137" xr:uid="{00000000-0004-0000-0000-000079040000}"/>
-    <hyperlink ref="L251" r:id="rId1138" xr:uid="{00000000-0004-0000-0000-00007A040000}"/>
-    <hyperlink ref="A252" r:id="rId1139" xr:uid="{00000000-0004-0000-0000-00007B040000}"/>
-    <hyperlink ref="I252" r:id="rId1140" xr:uid="{00000000-0004-0000-0000-00007C040000}"/>
-    <hyperlink ref="L252" r:id="rId1141" xr:uid="{00000000-0004-0000-0000-00007D040000}"/>
-    <hyperlink ref="A253" r:id="rId1142" xr:uid="{00000000-0004-0000-0000-00007E040000}"/>
-    <hyperlink ref="E253" r:id="rId1143" xr:uid="{00000000-0004-0000-0000-00007F040000}"/>
-    <hyperlink ref="I253" r:id="rId1144" xr:uid="{00000000-0004-0000-0000-000080040000}"/>
-    <hyperlink ref="K253" r:id="rId1145" xr:uid="{00000000-0004-0000-0000-000081040000}"/>
-    <hyperlink ref="L253" r:id="rId1146" xr:uid="{00000000-0004-0000-0000-000082040000}"/>
-    <hyperlink ref="A254" r:id="rId1147" xr:uid="{00000000-0004-0000-0000-000083040000}"/>
-    <hyperlink ref="E254" r:id="rId1148" xr:uid="{00000000-0004-0000-0000-000084040000}"/>
-    <hyperlink ref="I254" r:id="rId1149" xr:uid="{00000000-0004-0000-0000-000085040000}"/>
-    <hyperlink ref="K254" r:id="rId1150" xr:uid="{00000000-0004-0000-0000-000086040000}"/>
-    <hyperlink ref="L254" r:id="rId1151" xr:uid="{00000000-0004-0000-0000-000087040000}"/>
-    <hyperlink ref="A255" r:id="rId1152" xr:uid="{00000000-0004-0000-0000-000088040000}"/>
-    <hyperlink ref="E255" r:id="rId1153" xr:uid="{00000000-0004-0000-0000-000089040000}"/>
-    <hyperlink ref="I255" r:id="rId1154" xr:uid="{00000000-0004-0000-0000-00008A040000}"/>
-    <hyperlink ref="K255" r:id="rId1155" xr:uid="{00000000-0004-0000-0000-00008B040000}"/>
-    <hyperlink ref="L255" r:id="rId1156" xr:uid="{00000000-0004-0000-0000-00008C040000}"/>
-    <hyperlink ref="A256" r:id="rId1157" xr:uid="{00000000-0004-0000-0000-00008D040000}"/>
-    <hyperlink ref="E256" r:id="rId1158" xr:uid="{00000000-0004-0000-0000-00008E040000}"/>
-    <hyperlink ref="A257" r:id="rId1159" xr:uid="{00000000-0004-0000-0000-00008F040000}"/>
-    <hyperlink ref="E257" r:id="rId1160" xr:uid="{00000000-0004-0000-0000-000090040000}"/>
-    <hyperlink ref="I257" r:id="rId1161" xr:uid="{00000000-0004-0000-0000-000091040000}"/>
-    <hyperlink ref="K257" r:id="rId1162" xr:uid="{00000000-0004-0000-0000-000092040000}"/>
-    <hyperlink ref="L257" r:id="rId1163" xr:uid="{00000000-0004-0000-0000-000093040000}"/>
-    <hyperlink ref="A258" r:id="rId1164" xr:uid="{00000000-0004-0000-0000-000094040000}"/>
-    <hyperlink ref="E258" r:id="rId1165" xr:uid="{00000000-0004-0000-0000-000095040000}"/>
-    <hyperlink ref="K258" r:id="rId1166" xr:uid="{00000000-0004-0000-0000-000096040000}"/>
-    <hyperlink ref="L258" r:id="rId1167" xr:uid="{00000000-0004-0000-0000-000097040000}"/>
-    <hyperlink ref="A259" r:id="rId1168" xr:uid="{00000000-0004-0000-0000-000098040000}"/>
-    <hyperlink ref="K259" r:id="rId1169" xr:uid="{00000000-0004-0000-0000-000099040000}"/>
-    <hyperlink ref="L259" r:id="rId1170" xr:uid="{00000000-0004-0000-0000-00009A040000}"/>
-    <hyperlink ref="A260" r:id="rId1171" xr:uid="{00000000-0004-0000-0000-00009B040000}"/>
-    <hyperlink ref="K260" r:id="rId1172" xr:uid="{00000000-0004-0000-0000-00009C040000}"/>
-    <hyperlink ref="L260" r:id="rId1173" xr:uid="{00000000-0004-0000-0000-00009D040000}"/>
-    <hyperlink ref="A261" r:id="rId1174" xr:uid="{00000000-0004-0000-0000-00009E040000}"/>
-    <hyperlink ref="E261" r:id="rId1175" xr:uid="{00000000-0004-0000-0000-00009F040000}"/>
-    <hyperlink ref="I261" r:id="rId1176" xr:uid="{00000000-0004-0000-0000-0000A0040000}"/>
-    <hyperlink ref="K261" r:id="rId1177" xr:uid="{00000000-0004-0000-0000-0000A1040000}"/>
-    <hyperlink ref="L261" r:id="rId1178" xr:uid="{00000000-0004-0000-0000-0000A2040000}"/>
-    <hyperlink ref="A262" r:id="rId1179" xr:uid="{00000000-0004-0000-0000-0000A3040000}"/>
-    <hyperlink ref="E262" r:id="rId1180" xr:uid="{00000000-0004-0000-0000-0000A4040000}"/>
-    <hyperlink ref="I262" r:id="rId1181" xr:uid="{00000000-0004-0000-0000-0000A5040000}"/>
-    <hyperlink ref="L262" r:id="rId1182" xr:uid="{00000000-0004-0000-0000-0000A6040000}"/>
-    <hyperlink ref="A263" r:id="rId1183" xr:uid="{00000000-0004-0000-0000-0000A7040000}"/>
-    <hyperlink ref="E263" r:id="rId1184" xr:uid="{00000000-0004-0000-0000-0000A8040000}"/>
-    <hyperlink ref="I263" r:id="rId1185" xr:uid="{00000000-0004-0000-0000-0000A9040000}"/>
-    <hyperlink ref="A264" r:id="rId1186" xr:uid="{00000000-0004-0000-0000-0000AA040000}"/>
-    <hyperlink ref="E264" r:id="rId1187" xr:uid="{00000000-0004-0000-0000-0000AB040000}"/>
-    <hyperlink ref="I264" r:id="rId1188" xr:uid="{00000000-0004-0000-0000-0000AC040000}"/>
-    <hyperlink ref="K264" r:id="rId1189" xr:uid="{00000000-0004-0000-0000-0000AD040000}"/>
-    <hyperlink ref="L264" r:id="rId1190" xr:uid="{00000000-0004-0000-0000-0000AE040000}"/>
-    <hyperlink ref="A265" r:id="rId1191" xr:uid="{00000000-0004-0000-0000-0000AF040000}"/>
-    <hyperlink ref="I265" r:id="rId1192" xr:uid="{00000000-0004-0000-0000-0000B0040000}"/>
-    <hyperlink ref="L265" r:id="rId1193" xr:uid="{00000000-0004-0000-0000-0000B1040000}"/>
-    <hyperlink ref="A266" r:id="rId1194" xr:uid="{00000000-0004-0000-0000-0000B2040000}"/>
-    <hyperlink ref="I266" r:id="rId1195" xr:uid="{00000000-0004-0000-0000-0000B3040000}"/>
-    <hyperlink ref="K266" r:id="rId1196" xr:uid="{00000000-0004-0000-0000-0000B4040000}"/>
-    <hyperlink ref="L266" r:id="rId1197" xr:uid="{00000000-0004-0000-0000-0000B5040000}"/>
-    <hyperlink ref="A267" r:id="rId1198" xr:uid="{00000000-0004-0000-0000-0000B6040000}"/>
-    <hyperlink ref="E267" r:id="rId1199" xr:uid="{00000000-0004-0000-0000-0000B7040000}"/>
-    <hyperlink ref="K267" r:id="rId1200" xr:uid="{00000000-0004-0000-0000-0000B8040000}"/>
-    <hyperlink ref="L267" r:id="rId1201" xr:uid="{00000000-0004-0000-0000-0000B9040000}"/>
-    <hyperlink ref="A268" r:id="rId1202" xr:uid="{00000000-0004-0000-0000-0000BA040000}"/>
-    <hyperlink ref="E268" r:id="rId1203" xr:uid="{00000000-0004-0000-0000-0000BB040000}"/>
-    <hyperlink ref="K268" r:id="rId1204" xr:uid="{00000000-0004-0000-0000-0000BC040000}"/>
-    <hyperlink ref="L268" r:id="rId1205" xr:uid="{00000000-0004-0000-0000-0000BD040000}"/>
-    <hyperlink ref="A269" r:id="rId1206" xr:uid="{00000000-0004-0000-0000-0000BE040000}"/>
-    <hyperlink ref="E269" r:id="rId1207" xr:uid="{00000000-0004-0000-0000-0000BF040000}"/>
-    <hyperlink ref="I269" r:id="rId1208" xr:uid="{00000000-0004-0000-0000-0000C0040000}"/>
-    <hyperlink ref="K269" r:id="rId1209" xr:uid="{00000000-0004-0000-0000-0000C1040000}"/>
-    <hyperlink ref="L269" r:id="rId1210" xr:uid="{00000000-0004-0000-0000-0000C2040000}"/>
-    <hyperlink ref="A270" r:id="rId1211" xr:uid="{00000000-0004-0000-0000-0000C3040000}"/>
-    <hyperlink ref="E270" r:id="rId1212" xr:uid="{00000000-0004-0000-0000-0000C4040000}"/>
-    <hyperlink ref="I270" r:id="rId1213" xr:uid="{00000000-0004-0000-0000-0000C5040000}"/>
-    <hyperlink ref="K270" r:id="rId1214" xr:uid="{00000000-0004-0000-0000-0000C6040000}"/>
-    <hyperlink ref="L270" r:id="rId1215" xr:uid="{00000000-0004-0000-0000-0000C7040000}"/>
-    <hyperlink ref="A271" r:id="rId1216" xr:uid="{00000000-0004-0000-0000-0000C8040000}"/>
-    <hyperlink ref="E271" r:id="rId1217" xr:uid="{00000000-0004-0000-0000-0000C9040000}"/>
-    <hyperlink ref="I271" r:id="rId1218" xr:uid="{00000000-0004-0000-0000-0000CA040000}"/>
-    <hyperlink ref="K271" r:id="rId1219" xr:uid="{00000000-0004-0000-0000-0000CB040000}"/>
-    <hyperlink ref="L271" r:id="rId1220" xr:uid="{00000000-0004-0000-0000-0000CC040000}"/>
-    <hyperlink ref="A272" r:id="rId1221" xr:uid="{00000000-0004-0000-0000-0000CD040000}"/>
-    <hyperlink ref="I272" r:id="rId1222" xr:uid="{00000000-0004-0000-0000-0000CE040000}"/>
-    <hyperlink ref="L272" r:id="rId1223" xr:uid="{00000000-0004-0000-0000-0000CF040000}"/>
-    <hyperlink ref="A273" r:id="rId1224" xr:uid="{00000000-0004-0000-0000-0000D0040000}"/>
-    <hyperlink ref="E273" r:id="rId1225" xr:uid="{00000000-0004-0000-0000-0000D1040000}"/>
-    <hyperlink ref="I273" r:id="rId1226" xr:uid="{00000000-0004-0000-0000-0000D2040000}"/>
-    <hyperlink ref="K273" r:id="rId1227" xr:uid="{00000000-0004-0000-0000-0000D3040000}"/>
-    <hyperlink ref="L273" r:id="rId1228" xr:uid="{00000000-0004-0000-0000-0000D4040000}"/>
-    <hyperlink ref="A274" r:id="rId1229" xr:uid="{00000000-0004-0000-0000-0000D5040000}"/>
-    <hyperlink ref="I274" r:id="rId1230" xr:uid="{00000000-0004-0000-0000-0000D6040000}"/>
-    <hyperlink ref="L274" r:id="rId1231" xr:uid="{00000000-0004-0000-0000-0000D7040000}"/>
-    <hyperlink ref="A275" r:id="rId1232" xr:uid="{00000000-0004-0000-0000-0000D8040000}"/>
-    <hyperlink ref="E275" r:id="rId1233" xr:uid="{00000000-0004-0000-0000-0000D9040000}"/>
-    <hyperlink ref="I275" r:id="rId1234" xr:uid="{00000000-0004-0000-0000-0000DA040000}"/>
-    <hyperlink ref="K275" r:id="rId1235" xr:uid="{00000000-0004-0000-0000-0000DB040000}"/>
-    <hyperlink ref="L275" r:id="rId1236" xr:uid="{00000000-0004-0000-0000-0000DC040000}"/>
-    <hyperlink ref="A276" r:id="rId1237" xr:uid="{00000000-0004-0000-0000-0000DD040000}"/>
-    <hyperlink ref="E276" r:id="rId1238" xr:uid="{00000000-0004-0000-0000-0000DE040000}"/>
-    <hyperlink ref="I276" r:id="rId1239" xr:uid="{00000000-0004-0000-0000-0000DF040000}"/>
-    <hyperlink ref="K276" r:id="rId1240" xr:uid="{00000000-0004-0000-0000-0000E0040000}"/>
-    <hyperlink ref="A277" r:id="rId1241" xr:uid="{00000000-0004-0000-0000-0000E1040000}"/>
-    <hyperlink ref="E277" r:id="rId1242" xr:uid="{00000000-0004-0000-0000-0000E2040000}"/>
-    <hyperlink ref="I277" r:id="rId1243" xr:uid="{00000000-0004-0000-0000-0000E3040000}"/>
-    <hyperlink ref="K277" r:id="rId1244" xr:uid="{00000000-0004-0000-0000-0000E4040000}"/>
-    <hyperlink ref="L277" r:id="rId1245" xr:uid="{00000000-0004-0000-0000-0000E5040000}"/>
-    <hyperlink ref="A278" r:id="rId1246" xr:uid="{00000000-0004-0000-0000-0000E6040000}"/>
-    <hyperlink ref="E278" r:id="rId1247" xr:uid="{00000000-0004-0000-0000-0000E7040000}"/>
-    <hyperlink ref="I278" r:id="rId1248" xr:uid="{00000000-0004-0000-0000-0000E8040000}"/>
-    <hyperlink ref="K278" r:id="rId1249" xr:uid="{00000000-0004-0000-0000-0000E9040000}"/>
-    <hyperlink ref="L278" r:id="rId1250" xr:uid="{00000000-0004-0000-0000-0000EA040000}"/>
-    <hyperlink ref="A279" r:id="rId1251" xr:uid="{00000000-0004-0000-0000-0000EB040000}"/>
-    <hyperlink ref="K279" r:id="rId1252" xr:uid="{00000000-0004-0000-0000-0000EC040000}"/>
-    <hyperlink ref="L279" r:id="rId1253" xr:uid="{00000000-0004-0000-0000-0000ED040000}"/>
-    <hyperlink ref="A280" r:id="rId1254" xr:uid="{00000000-0004-0000-0000-0000EE040000}"/>
-    <hyperlink ref="I280" r:id="rId1255" xr:uid="{00000000-0004-0000-0000-0000EF040000}"/>
-    <hyperlink ref="K280" r:id="rId1256" xr:uid="{00000000-0004-0000-0000-0000F0040000}"/>
-    <hyperlink ref="L280" r:id="rId1257" xr:uid="{00000000-0004-0000-0000-0000F1040000}"/>
-    <hyperlink ref="A281" r:id="rId1258" xr:uid="{00000000-0004-0000-0000-0000F2040000}"/>
-    <hyperlink ref="L281" r:id="rId1259" xr:uid="{00000000-0004-0000-0000-0000F3040000}"/>
-    <hyperlink ref="A282" r:id="rId1260" xr:uid="{00000000-0004-0000-0000-0000F4040000}"/>
-    <hyperlink ref="E282" r:id="rId1261" xr:uid="{00000000-0004-0000-0000-0000F5040000}"/>
-    <hyperlink ref="I282" r:id="rId1262" xr:uid="{00000000-0004-0000-0000-0000F6040000}"/>
-    <hyperlink ref="L282" r:id="rId1263" xr:uid="{00000000-0004-0000-0000-0000F7040000}"/>
-    <hyperlink ref="A283" r:id="rId1264" xr:uid="{00000000-0004-0000-0000-0000F8040000}"/>
-    <hyperlink ref="E283" r:id="rId1265" xr:uid="{00000000-0004-0000-0000-0000F9040000}"/>
-    <hyperlink ref="I283" r:id="rId1266" xr:uid="{00000000-0004-0000-0000-0000FA040000}"/>
-    <hyperlink ref="K283" r:id="rId1267" xr:uid="{00000000-0004-0000-0000-0000FB040000}"/>
-    <hyperlink ref="L283" r:id="rId1268" xr:uid="{00000000-0004-0000-0000-0000FC040000}"/>
-    <hyperlink ref="A284" r:id="rId1269" xr:uid="{00000000-0004-0000-0000-0000FD040000}"/>
-    <hyperlink ref="E284" r:id="rId1270" xr:uid="{00000000-0004-0000-0000-0000FE040000}"/>
-    <hyperlink ref="I284" r:id="rId1271" xr:uid="{00000000-0004-0000-0000-0000FF040000}"/>
-    <hyperlink ref="K284" r:id="rId1272" xr:uid="{00000000-0004-0000-0000-000000050000}"/>
-    <hyperlink ref="L284" r:id="rId1273" xr:uid="{00000000-0004-0000-0000-000001050000}"/>
-    <hyperlink ref="A286" r:id="rId1274" xr:uid="{00000000-0004-0000-0000-000002050000}"/>
-    <hyperlink ref="E286" r:id="rId1275" xr:uid="{00000000-0004-0000-0000-000003050000}"/>
-    <hyperlink ref="I286" r:id="rId1276" xr:uid="{00000000-0004-0000-0000-000004050000}"/>
-    <hyperlink ref="K286" r:id="rId1277" xr:uid="{00000000-0004-0000-0000-000005050000}"/>
-    <hyperlink ref="L286" r:id="rId1278" xr:uid="{00000000-0004-0000-0000-000006050000}"/>
-    <hyperlink ref="A288" r:id="rId1279" xr:uid="{00000000-0004-0000-0000-000007050000}"/>
-    <hyperlink ref="E288" r:id="rId1280" xr:uid="{00000000-0004-0000-0000-000008050000}"/>
-    <hyperlink ref="I288" r:id="rId1281" xr:uid="{00000000-0004-0000-0000-000009050000}"/>
-    <hyperlink ref="K288" r:id="rId1282" xr:uid="{00000000-0004-0000-0000-00000A050000}"/>
-    <hyperlink ref="L288" r:id="rId1283" xr:uid="{00000000-0004-0000-0000-00000B050000}"/>
-    <hyperlink ref="A289" r:id="rId1284" xr:uid="{00000000-0004-0000-0000-00000C050000}"/>
-    <hyperlink ref="E289" r:id="rId1285" xr:uid="{00000000-0004-0000-0000-00000D050000}"/>
-    <hyperlink ref="I289" r:id="rId1286" xr:uid="{00000000-0004-0000-0000-00000E050000}"/>
-    <hyperlink ref="K289" r:id="rId1287" xr:uid="{00000000-0004-0000-0000-00000F050000}"/>
-    <hyperlink ref="L289" r:id="rId1288" xr:uid="{00000000-0004-0000-0000-000010050000}"/>
-    <hyperlink ref="A290" r:id="rId1289" xr:uid="{00000000-0004-0000-0000-000011050000}"/>
-    <hyperlink ref="E290" r:id="rId1290" xr:uid="{00000000-0004-0000-0000-000012050000}"/>
-    <hyperlink ref="I290" r:id="rId1291" xr:uid="{00000000-0004-0000-0000-000013050000}"/>
-    <hyperlink ref="K290" r:id="rId1292" xr:uid="{00000000-0004-0000-0000-000014050000}"/>
-    <hyperlink ref="L290" r:id="rId1293" xr:uid="{00000000-0004-0000-0000-000015050000}"/>
-    <hyperlink ref="A291" r:id="rId1294" xr:uid="{00000000-0004-0000-0000-000016050000}"/>
-    <hyperlink ref="E291" r:id="rId1295" xr:uid="{00000000-0004-0000-0000-000017050000}"/>
-    <hyperlink ref="I291" r:id="rId1296" xr:uid="{00000000-0004-0000-0000-000018050000}"/>
-    <hyperlink ref="K291" r:id="rId1297" xr:uid="{00000000-0004-0000-0000-000019050000}"/>
-    <hyperlink ref="L291" r:id="rId1298" xr:uid="{00000000-0004-0000-0000-00001A050000}"/>
-    <hyperlink ref="A292" r:id="rId1299" xr:uid="{00000000-0004-0000-0000-00001B050000}"/>
-    <hyperlink ref="E292" r:id="rId1300" xr:uid="{00000000-0004-0000-0000-00001C050000}"/>
-    <hyperlink ref="I292" r:id="rId1301" xr:uid="{00000000-0004-0000-0000-00001D050000}"/>
-    <hyperlink ref="K292" r:id="rId1302" xr:uid="{00000000-0004-0000-0000-00001E050000}"/>
-    <hyperlink ref="L292" r:id="rId1303" xr:uid="{00000000-0004-0000-0000-00001F050000}"/>
-    <hyperlink ref="A293" r:id="rId1304" xr:uid="{00000000-0004-0000-0000-000020050000}"/>
-    <hyperlink ref="I293" r:id="rId1305" xr:uid="{00000000-0004-0000-0000-000021050000}"/>
-    <hyperlink ref="K293" r:id="rId1306" xr:uid="{00000000-0004-0000-0000-000022050000}"/>
-    <hyperlink ref="L293" r:id="rId1307" xr:uid="{00000000-0004-0000-0000-000023050000}"/>
-    <hyperlink ref="A294" r:id="rId1308" xr:uid="{00000000-0004-0000-0000-000024050000}"/>
-    <hyperlink ref="I294" r:id="rId1309" xr:uid="{00000000-0004-0000-0000-000025050000}"/>
-    <hyperlink ref="K294" r:id="rId1310" xr:uid="{00000000-0004-0000-0000-000026050000}"/>
-    <hyperlink ref="L294" r:id="rId1311" xr:uid="{00000000-0004-0000-0000-000027050000}"/>
-    <hyperlink ref="A295" r:id="rId1312" xr:uid="{00000000-0004-0000-0000-000028050000}"/>
-    <hyperlink ref="I295" r:id="rId1313" xr:uid="{00000000-0004-0000-0000-000029050000}"/>
-    <hyperlink ref="K295" r:id="rId1314" xr:uid="{00000000-0004-0000-0000-00002A050000}"/>
-    <hyperlink ref="L295" r:id="rId1315" xr:uid="{00000000-0004-0000-0000-00002B050000}"/>
-    <hyperlink ref="A296" r:id="rId1316" xr:uid="{00000000-0004-0000-0000-00002C050000}"/>
-    <hyperlink ref="E296" r:id="rId1317" xr:uid="{00000000-0004-0000-0000-00002D050000}"/>
-    <hyperlink ref="I296" r:id="rId1318" xr:uid="{00000000-0004-0000-0000-00002E050000}"/>
-    <hyperlink ref="K296" r:id="rId1319" xr:uid="{00000000-0004-0000-0000-00002F050000}"/>
-    <hyperlink ref="L296" r:id="rId1320" xr:uid="{00000000-0004-0000-0000-000030050000}"/>
-    <hyperlink ref="A297" r:id="rId1321" xr:uid="{00000000-0004-0000-0000-000031050000}"/>
-    <hyperlink ref="I297" r:id="rId1322" xr:uid="{00000000-0004-0000-0000-000032050000}"/>
-    <hyperlink ref="K297" r:id="rId1323" xr:uid="{00000000-0004-0000-0000-000033050000}"/>
-    <hyperlink ref="L297" r:id="rId1324" xr:uid="{00000000-0004-0000-0000-000034050000}"/>
-    <hyperlink ref="A298" r:id="rId1325" xr:uid="{00000000-0004-0000-0000-000035050000}"/>
-    <hyperlink ref="E298" r:id="rId1326" xr:uid="{00000000-0004-0000-0000-000036050000}"/>
-    <hyperlink ref="I298" r:id="rId1327" xr:uid="{00000000-0004-0000-0000-000037050000}"/>
-    <hyperlink ref="K298" r:id="rId1328" xr:uid="{00000000-0004-0000-0000-000038050000}"/>
-    <hyperlink ref="L298" r:id="rId1329" xr:uid="{00000000-0004-0000-0000-000039050000}"/>
-    <hyperlink ref="A299" r:id="rId1330" xr:uid="{00000000-0004-0000-0000-00003A050000}"/>
-    <hyperlink ref="E299" r:id="rId1331" xr:uid="{00000000-0004-0000-0000-00003B050000}"/>
-    <hyperlink ref="I299" r:id="rId1332" xr:uid="{00000000-0004-0000-0000-00003C050000}"/>
-    <hyperlink ref="K299" r:id="rId1333" xr:uid="{00000000-0004-0000-0000-00003D050000}"/>
-    <hyperlink ref="L299" r:id="rId1334" xr:uid="{00000000-0004-0000-0000-00003E050000}"/>
-    <hyperlink ref="A300" r:id="rId1335" xr:uid="{00000000-0004-0000-0000-00003F050000}"/>
-    <hyperlink ref="E300" r:id="rId1336" xr:uid="{00000000-0004-0000-0000-000040050000}"/>
-    <hyperlink ref="I300" r:id="rId1337" xr:uid="{00000000-0004-0000-0000-000041050000}"/>
-    <hyperlink ref="K300" r:id="rId1338" xr:uid="{00000000-0004-0000-0000-000042050000}"/>
-    <hyperlink ref="L300" r:id="rId1339" xr:uid="{00000000-0004-0000-0000-000043050000}"/>
-    <hyperlink ref="A301" r:id="rId1340" xr:uid="{00000000-0004-0000-0000-000044050000}"/>
-    <hyperlink ref="E301" r:id="rId1341" xr:uid="{00000000-0004-0000-0000-000045050000}"/>
-    <hyperlink ref="K301" r:id="rId1342" xr:uid="{00000000-0004-0000-0000-000046050000}"/>
-    <hyperlink ref="L301" r:id="rId1343" xr:uid="{00000000-0004-0000-0000-000047050000}"/>
-    <hyperlink ref="A302" r:id="rId1344" xr:uid="{00000000-0004-0000-0000-000048050000}"/>
-    <hyperlink ref="E302" r:id="rId1345" xr:uid="{00000000-0004-0000-0000-000049050000}"/>
-    <hyperlink ref="I302" r:id="rId1346" xr:uid="{00000000-0004-0000-0000-00004A050000}"/>
-    <hyperlink ref="K302" r:id="rId1347" xr:uid="{00000000-0004-0000-0000-00004B050000}"/>
-    <hyperlink ref="L302" r:id="rId1348" xr:uid="{00000000-0004-0000-0000-00004C050000}"/>
-    <hyperlink ref="A303" r:id="rId1349" xr:uid="{00000000-0004-0000-0000-00004D050000}"/>
-    <hyperlink ref="E303" r:id="rId1350" xr:uid="{00000000-0004-0000-0000-00004E050000}"/>
-    <hyperlink ref="I303" r:id="rId1351" xr:uid="{00000000-0004-0000-0000-00004F050000}"/>
-    <hyperlink ref="K303" r:id="rId1352" xr:uid="{00000000-0004-0000-0000-000050050000}"/>
-    <hyperlink ref="L303" r:id="rId1353" xr:uid="{00000000-0004-0000-0000-000051050000}"/>
-    <hyperlink ref="A304" r:id="rId1354" xr:uid="{00000000-0004-0000-0000-000052050000}"/>
-    <hyperlink ref="E304" r:id="rId1355" xr:uid="{00000000-0004-0000-0000-000053050000}"/>
-    <hyperlink ref="I304" r:id="rId1356" xr:uid="{00000000-0004-0000-0000-000054050000}"/>
-    <hyperlink ref="A305" r:id="rId1357" xr:uid="{00000000-0004-0000-0000-000055050000}"/>
-    <hyperlink ref="E305" r:id="rId1358" xr:uid="{00000000-0004-0000-0000-000056050000}"/>
-    <hyperlink ref="I305" r:id="rId1359" xr:uid="{00000000-0004-0000-0000-000057050000}"/>
-    <hyperlink ref="K305" r:id="rId1360" xr:uid="{00000000-0004-0000-0000-000058050000}"/>
-    <hyperlink ref="L305" r:id="rId1361" xr:uid="{00000000-0004-0000-0000-000059050000}"/>
-    <hyperlink ref="A306" r:id="rId1362" xr:uid="{00000000-0004-0000-0000-00005A050000}"/>
-    <hyperlink ref="E306" r:id="rId1363" xr:uid="{00000000-0004-0000-0000-00005B050000}"/>
-    <hyperlink ref="I306" r:id="rId1364" xr:uid="{00000000-0004-0000-0000-00005C050000}"/>
-    <hyperlink ref="K306" r:id="rId1365" xr:uid="{00000000-0004-0000-0000-00005D050000}"/>
-    <hyperlink ref="L306" r:id="rId1366" xr:uid="{00000000-0004-0000-0000-00005E050000}"/>
-    <hyperlink ref="A307" r:id="rId1367" xr:uid="{00000000-0004-0000-0000-00005F050000}"/>
-    <hyperlink ref="E307" r:id="rId1368" xr:uid="{00000000-0004-0000-0000-000060050000}"/>
-    <hyperlink ref="I307" r:id="rId1369" xr:uid="{00000000-0004-0000-0000-000061050000}"/>
-    <hyperlink ref="K307" r:id="rId1370" xr:uid="{00000000-0004-0000-0000-000062050000}"/>
-    <hyperlink ref="L307" r:id="rId1371" xr:uid="{00000000-0004-0000-0000-000063050000}"/>
-    <hyperlink ref="A308" r:id="rId1372" xr:uid="{00000000-0004-0000-0000-000064050000}"/>
-    <hyperlink ref="E308" r:id="rId1373" xr:uid="{00000000-0004-0000-0000-000065050000}"/>
-    <hyperlink ref="I308" r:id="rId1374" xr:uid="{00000000-0004-0000-0000-000066050000}"/>
-    <hyperlink ref="K308" r:id="rId1375" xr:uid="{00000000-0004-0000-0000-000067050000}"/>
-    <hyperlink ref="L308" r:id="rId1376" xr:uid="{00000000-0004-0000-0000-000068050000}"/>
-    <hyperlink ref="A309" r:id="rId1377" xr:uid="{00000000-0004-0000-0000-000069050000}"/>
-    <hyperlink ref="E309" r:id="rId1378" xr:uid="{00000000-0004-0000-0000-00006A050000}"/>
-    <hyperlink ref="I309" r:id="rId1379" xr:uid="{00000000-0004-0000-0000-00006B050000}"/>
-    <hyperlink ref="L309" r:id="rId1380" xr:uid="{00000000-0004-0000-0000-00006C050000}"/>
-    <hyperlink ref="A310" r:id="rId1381" xr:uid="{00000000-0004-0000-0000-00006D050000}"/>
-    <hyperlink ref="E310" r:id="rId1382" xr:uid="{00000000-0004-0000-0000-00006E050000}"/>
-    <hyperlink ref="K310" r:id="rId1383" xr:uid="{00000000-0004-0000-0000-00006F050000}"/>
-    <hyperlink ref="L310" r:id="rId1384" xr:uid="{00000000-0004-0000-0000-000070050000}"/>
-    <hyperlink ref="A311" r:id="rId1385" xr:uid="{00000000-0004-0000-0000-000071050000}"/>
-    <hyperlink ref="E311" r:id="rId1386" xr:uid="{00000000-0004-0000-0000-000072050000}"/>
-    <hyperlink ref="I311" r:id="rId1387" xr:uid="{00000000-0004-0000-0000-000073050000}"/>
-    <hyperlink ref="K311" r:id="rId1388" xr:uid="{00000000-0004-0000-0000-000074050000}"/>
-    <hyperlink ref="L311" r:id="rId1389" xr:uid="{00000000-0004-0000-0000-000075050000}"/>
-    <hyperlink ref="A312" r:id="rId1390" xr:uid="{00000000-0004-0000-0000-000076050000}"/>
-    <hyperlink ref="E312" r:id="rId1391" xr:uid="{00000000-0004-0000-0000-000077050000}"/>
-    <hyperlink ref="K312" r:id="rId1392" xr:uid="{00000000-0004-0000-0000-000078050000}"/>
-    <hyperlink ref="L312" r:id="rId1393" xr:uid="{00000000-0004-0000-0000-000079050000}"/>
-    <hyperlink ref="A313" r:id="rId1394" xr:uid="{00000000-0004-0000-0000-00007A050000}"/>
-    <hyperlink ref="E313" r:id="rId1395" xr:uid="{00000000-0004-0000-0000-00007B050000}"/>
-    <hyperlink ref="K313" r:id="rId1396" xr:uid="{00000000-0004-0000-0000-00007C050000}"/>
-    <hyperlink ref="A314" r:id="rId1397" xr:uid="{00000000-0004-0000-0000-00007D050000}"/>
-    <hyperlink ref="I314" r:id="rId1398" xr:uid="{00000000-0004-0000-0000-00007E050000}"/>
-    <hyperlink ref="L314" r:id="rId1399" xr:uid="{00000000-0004-0000-0000-00007F050000}"/>
-    <hyperlink ref="A315" r:id="rId1400" xr:uid="{00000000-0004-0000-0000-000080050000}"/>
-    <hyperlink ref="E315" r:id="rId1401" xr:uid="{00000000-0004-0000-0000-000081050000}"/>
-    <hyperlink ref="I315" r:id="rId1402" xr:uid="{00000000-0004-0000-0000-000082050000}"/>
-    <hyperlink ref="K315" r:id="rId1403" xr:uid="{00000000-0004-0000-0000-000083050000}"/>
-    <hyperlink ref="L315" r:id="rId1404" xr:uid="{00000000-0004-0000-0000-000084050000}"/>
-    <hyperlink ref="A316" r:id="rId1405" xr:uid="{00000000-0004-0000-0000-000085050000}"/>
-    <hyperlink ref="I316" r:id="rId1406" xr:uid="{00000000-0004-0000-0000-000086050000}"/>
-    <hyperlink ref="K316" r:id="rId1407" xr:uid="{00000000-0004-0000-0000-000087050000}"/>
-    <hyperlink ref="A317" r:id="rId1408" xr:uid="{00000000-0004-0000-0000-000088050000}"/>
-    <hyperlink ref="I317" r:id="rId1409" xr:uid="{00000000-0004-0000-0000-000089050000}"/>
-    <hyperlink ref="K317" r:id="rId1410" xr:uid="{00000000-0004-0000-0000-00008A050000}"/>
-    <hyperlink ref="A318" r:id="rId1411" xr:uid="{00000000-0004-0000-0000-00008B050000}"/>
-    <hyperlink ref="I318" r:id="rId1412" xr:uid="{00000000-0004-0000-0000-00008C050000}"/>
-    <hyperlink ref="K318" r:id="rId1413" xr:uid="{00000000-0004-0000-0000-00008D050000}"/>
-    <hyperlink ref="L318" r:id="rId1414" xr:uid="{00000000-0004-0000-0000-00008E050000}"/>
-    <hyperlink ref="A319" r:id="rId1415" xr:uid="{00000000-0004-0000-0000-00008F050000}"/>
-    <hyperlink ref="E319" r:id="rId1416" xr:uid="{00000000-0004-0000-0000-000090050000}"/>
-    <hyperlink ref="I319" r:id="rId1417" xr:uid="{00000000-0004-0000-0000-000091050000}"/>
-    <hyperlink ref="K319" r:id="rId1418" xr:uid="{00000000-0004-0000-0000-000092050000}"/>
-    <hyperlink ref="L319" r:id="rId1419" xr:uid="{00000000-0004-0000-0000-000093050000}"/>
-    <hyperlink ref="A320" r:id="rId1420" xr:uid="{00000000-0004-0000-0000-000094050000}"/>
-    <hyperlink ref="E320" r:id="rId1421" xr:uid="{00000000-0004-0000-0000-000095050000}"/>
-    <hyperlink ref="I320" r:id="rId1422" xr:uid="{00000000-0004-0000-0000-000096050000}"/>
-    <hyperlink ref="K320" r:id="rId1423" xr:uid="{00000000-0004-0000-0000-000097050000}"/>
-    <hyperlink ref="L320" r:id="rId1424" xr:uid="{00000000-0004-0000-0000-000098050000}"/>
-    <hyperlink ref="A321" r:id="rId1425" xr:uid="{00000000-0004-0000-0000-000099050000}"/>
-    <hyperlink ref="E321" r:id="rId1426" xr:uid="{00000000-0004-0000-0000-00009A050000}"/>
-    <hyperlink ref="K321" r:id="rId1427" xr:uid="{00000000-0004-0000-0000-00009B050000}"/>
-    <hyperlink ref="L321" r:id="rId1428" xr:uid="{00000000-0004-0000-0000-00009C050000}"/>
-    <hyperlink ref="A322" r:id="rId1429" xr:uid="{00000000-0004-0000-0000-00009D050000}"/>
-    <hyperlink ref="E322" r:id="rId1430" xr:uid="{00000000-0004-0000-0000-00009E050000}"/>
-    <hyperlink ref="K322" r:id="rId1431" xr:uid="{00000000-0004-0000-0000-00009F050000}"/>
-    <hyperlink ref="L322" r:id="rId1432" xr:uid="{00000000-0004-0000-0000-0000A0050000}"/>
-    <hyperlink ref="A323" r:id="rId1433" xr:uid="{00000000-0004-0000-0000-0000A1050000}"/>
-    <hyperlink ref="E323" r:id="rId1434" xr:uid="{00000000-0004-0000-0000-0000A2050000}"/>
-    <hyperlink ref="K323" r:id="rId1435" xr:uid="{00000000-0004-0000-0000-0000A3050000}"/>
-    <hyperlink ref="L323" r:id="rId1436" xr:uid="{00000000-0004-0000-0000-0000A4050000}"/>
-    <hyperlink ref="A324" r:id="rId1437" xr:uid="{00000000-0004-0000-0000-0000A5050000}"/>
-    <hyperlink ref="E324" r:id="rId1438" xr:uid="{00000000-0004-0000-0000-0000A6050000}"/>
-    <hyperlink ref="K324" r:id="rId1439" xr:uid="{00000000-0004-0000-0000-0000A7050000}"/>
-    <hyperlink ref="L324" r:id="rId1440" xr:uid="{00000000-0004-0000-0000-0000A8050000}"/>
-    <hyperlink ref="A325" r:id="rId1441" xr:uid="{00000000-0004-0000-0000-0000A9050000}"/>
-    <hyperlink ref="E325" r:id="rId1442" xr:uid="{00000000-0004-0000-0000-0000AA050000}"/>
-    <hyperlink ref="I325" r:id="rId1443" xr:uid="{00000000-0004-0000-0000-0000AB050000}"/>
-    <hyperlink ref="K325" r:id="rId1444" xr:uid="{00000000-0004-0000-0000-0000AC050000}"/>
-    <hyperlink ref="L325" r:id="rId1445" xr:uid="{00000000-0004-0000-0000-0000AD050000}"/>
-    <hyperlink ref="A326" r:id="rId1446" xr:uid="{00000000-0004-0000-0000-0000AE050000}"/>
-    <hyperlink ref="E326" r:id="rId1447" xr:uid="{00000000-0004-0000-0000-0000AF050000}"/>
-    <hyperlink ref="I326" r:id="rId1448" xr:uid="{00000000-0004-0000-0000-0000B0050000}"/>
-    <hyperlink ref="L326" r:id="rId1449" xr:uid="{00000000-0004-0000-0000-0000B1050000}"/>
-    <hyperlink ref="A327" r:id="rId1450" xr:uid="{00000000-0004-0000-0000-0000B2050000}"/>
-    <hyperlink ref="E327" r:id="rId1451" xr:uid="{00000000-0004-0000-0000-0000B3050000}"/>
-    <hyperlink ref="K327" r:id="rId1452" xr:uid="{00000000-0004-0000-0000-0000B4050000}"/>
-    <hyperlink ref="L327" r:id="rId1453" xr:uid="{00000000-0004-0000-0000-0000B5050000}"/>
-    <hyperlink ref="A328" r:id="rId1454" xr:uid="{00000000-0004-0000-0000-0000B6050000}"/>
-    <hyperlink ref="E328" r:id="rId1455" xr:uid="{00000000-0004-0000-0000-0000B7050000}"/>
-    <hyperlink ref="I328" r:id="rId1456" xr:uid="{00000000-0004-0000-0000-0000B8050000}"/>
-    <hyperlink ref="K328" r:id="rId1457" xr:uid="{00000000-0004-0000-0000-0000B9050000}"/>
-    <hyperlink ref="L328" r:id="rId1458" xr:uid="{00000000-0004-0000-0000-0000BA050000}"/>
-    <hyperlink ref="A329" r:id="rId1459" xr:uid="{00000000-0004-0000-0000-0000BB050000}"/>
-    <hyperlink ref="E329" r:id="rId1460" xr:uid="{00000000-0004-0000-0000-0000BC050000}"/>
-    <hyperlink ref="I329" r:id="rId1461" xr:uid="{00000000-0004-0000-0000-0000BD050000}"/>
-    <hyperlink ref="K329" r:id="rId1462" xr:uid="{00000000-0004-0000-0000-0000BE050000}"/>
-    <hyperlink ref="L329" r:id="rId1463" xr:uid="{00000000-0004-0000-0000-0000BF050000}"/>
-    <hyperlink ref="A331" r:id="rId1464" xr:uid="{00000000-0004-0000-0000-0000C0050000}"/>
-    <hyperlink ref="E331" r:id="rId1465" xr:uid="{00000000-0004-0000-0000-0000C1050000}"/>
-    <hyperlink ref="I331" r:id="rId1466" xr:uid="{00000000-0004-0000-0000-0000C2050000}"/>
-    <hyperlink ref="K331" r:id="rId1467" xr:uid="{00000000-0004-0000-0000-0000C3050000}"/>
-    <hyperlink ref="L331" r:id="rId1468" xr:uid="{00000000-0004-0000-0000-0000C4050000}"/>
-    <hyperlink ref="A332" r:id="rId1469" xr:uid="{00000000-0004-0000-0000-0000C5050000}"/>
-    <hyperlink ref="I332" r:id="rId1470" xr:uid="{00000000-0004-0000-0000-0000C6050000}"/>
-    <hyperlink ref="L332" r:id="rId1471" xr:uid="{00000000-0004-0000-0000-0000C7050000}"/>
-    <hyperlink ref="A333" r:id="rId1472" xr:uid="{00000000-0004-0000-0000-0000C8050000}"/>
-    <hyperlink ref="E333" r:id="rId1473" xr:uid="{00000000-0004-0000-0000-0000C9050000}"/>
-    <hyperlink ref="I333" r:id="rId1474" xr:uid="{00000000-0004-0000-0000-0000CA050000}"/>
-    <hyperlink ref="K333" r:id="rId1475" xr:uid="{00000000-0004-0000-0000-0000CB050000}"/>
-    <hyperlink ref="L333" r:id="rId1476" xr:uid="{00000000-0004-0000-0000-0000CC050000}"/>
-    <hyperlink ref="A334" r:id="rId1477" xr:uid="{00000000-0004-0000-0000-0000CD050000}"/>
-    <hyperlink ref="E334" r:id="rId1478" xr:uid="{00000000-0004-0000-0000-0000CE050000}"/>
-    <hyperlink ref="I334" r:id="rId1479" xr:uid="{00000000-0004-0000-0000-0000CF050000}"/>
-    <hyperlink ref="K334" r:id="rId1480" xr:uid="{00000000-0004-0000-0000-0000D0050000}"/>
-    <hyperlink ref="L334" r:id="rId1481" xr:uid="{00000000-0004-0000-0000-0000D1050000}"/>
-    <hyperlink ref="A335" r:id="rId1482" xr:uid="{00000000-0004-0000-0000-0000D2050000}"/>
-    <hyperlink ref="E335" r:id="rId1483" xr:uid="{00000000-0004-0000-0000-0000D3050000}"/>
-    <hyperlink ref="I335" r:id="rId1484" xr:uid="{00000000-0004-0000-0000-0000D4050000}"/>
-    <hyperlink ref="K335" r:id="rId1485" xr:uid="{00000000-0004-0000-0000-0000D5050000}"/>
-    <hyperlink ref="L335" r:id="rId1486" xr:uid="{00000000-0004-0000-0000-0000D6050000}"/>
-    <hyperlink ref="A336" r:id="rId1487" xr:uid="{00000000-0004-0000-0000-0000D7050000}"/>
-    <hyperlink ref="E336" r:id="rId1488" xr:uid="{00000000-0004-0000-0000-0000D8050000}"/>
-    <hyperlink ref="I336" r:id="rId1489" xr:uid="{00000000-0004-0000-0000-0000D9050000}"/>
-    <hyperlink ref="K336" r:id="rId1490" xr:uid="{00000000-0004-0000-0000-0000DA050000}"/>
-    <hyperlink ref="L336" r:id="rId1491" xr:uid="{00000000-0004-0000-0000-0000DB050000}"/>
-    <hyperlink ref="A338" r:id="rId1492" xr:uid="{00000000-0004-0000-0000-0000DC050000}"/>
-    <hyperlink ref="E338" r:id="rId1493" xr:uid="{00000000-0004-0000-0000-0000DD050000}"/>
-    <hyperlink ref="I338" r:id="rId1494" xr:uid="{00000000-0004-0000-0000-0000DE050000}"/>
-    <hyperlink ref="A339" r:id="rId1495" xr:uid="{00000000-0004-0000-0000-0000DF050000}"/>
-    <hyperlink ref="E339" r:id="rId1496" xr:uid="{00000000-0004-0000-0000-0000E0050000}"/>
-    <hyperlink ref="I339" r:id="rId1497" xr:uid="{00000000-0004-0000-0000-0000E1050000}"/>
-    <hyperlink ref="K339" r:id="rId1498" xr:uid="{00000000-0004-0000-0000-0000E2050000}"/>
-    <hyperlink ref="L339" r:id="rId1499" xr:uid="{00000000-0004-0000-0000-0000E3050000}"/>
-    <hyperlink ref="A340" r:id="rId1500" xr:uid="{00000000-0004-0000-0000-0000E4050000}"/>
-    <hyperlink ref="L340" r:id="rId1501" xr:uid="{00000000-0004-0000-0000-0000E5050000}"/>
-    <hyperlink ref="A341" r:id="rId1502" xr:uid="{00000000-0004-0000-0000-0000E6050000}"/>
-    <hyperlink ref="E341" r:id="rId1503" xr:uid="{00000000-0004-0000-0000-0000E7050000}"/>
-    <hyperlink ref="I341" r:id="rId1504" xr:uid="{00000000-0004-0000-0000-0000E8050000}"/>
-    <hyperlink ref="L341" r:id="rId1505" xr:uid="{00000000-0004-0000-0000-0000E9050000}"/>
-    <hyperlink ref="A342" r:id="rId1506" xr:uid="{00000000-0004-0000-0000-0000EA050000}"/>
-    <hyperlink ref="E342" r:id="rId1507" xr:uid="{00000000-0004-0000-0000-0000EB050000}"/>
-    <hyperlink ref="I342" r:id="rId1508" xr:uid="{00000000-0004-0000-0000-0000EC050000}"/>
-    <hyperlink ref="K342" r:id="rId1509" xr:uid="{00000000-0004-0000-0000-0000ED050000}"/>
-    <hyperlink ref="L342" r:id="rId1510" xr:uid="{00000000-0004-0000-0000-0000EE050000}"/>
-    <hyperlink ref="A343" r:id="rId1511" xr:uid="{00000000-0004-0000-0000-0000EF050000}"/>
-    <hyperlink ref="I343" r:id="rId1512" xr:uid="{00000000-0004-0000-0000-0000F0050000}"/>
-    <hyperlink ref="L343" r:id="rId1513" xr:uid="{00000000-0004-0000-0000-0000F1050000}"/>
-    <hyperlink ref="A344" r:id="rId1514" xr:uid="{00000000-0004-0000-0000-0000F2050000}"/>
-    <hyperlink ref="E344" r:id="rId1515" xr:uid="{00000000-0004-0000-0000-0000F3050000}"/>
-    <hyperlink ref="I344" r:id="rId1516" xr:uid="{00000000-0004-0000-0000-0000F4050000}"/>
-    <hyperlink ref="K344" r:id="rId1517" xr:uid="{00000000-0004-0000-0000-0000F5050000}"/>
-    <hyperlink ref="L344" r:id="rId1518" xr:uid="{00000000-0004-0000-0000-0000F6050000}"/>
-    <hyperlink ref="A346" r:id="rId1519" xr:uid="{00000000-0004-0000-0000-0000F7050000}"/>
-    <hyperlink ref="E346" r:id="rId1520" xr:uid="{00000000-0004-0000-0000-0000F8050000}"/>
-    <hyperlink ref="I346" r:id="rId1521" xr:uid="{00000000-0004-0000-0000-0000F9050000}"/>
-    <hyperlink ref="K346" r:id="rId1522" xr:uid="{00000000-0004-0000-0000-0000FA050000}"/>
-    <hyperlink ref="L346" r:id="rId1523" xr:uid="{00000000-0004-0000-0000-0000FB050000}"/>
-    <hyperlink ref="A347" r:id="rId1524" xr:uid="{00000000-0004-0000-0000-0000FC050000}"/>
-    <hyperlink ref="E347" r:id="rId1525" xr:uid="{00000000-0004-0000-0000-0000FD050000}"/>
-    <hyperlink ref="I347" r:id="rId1526" xr:uid="{00000000-0004-0000-0000-0000FE050000}"/>
-    <hyperlink ref="K347" r:id="rId1527" xr:uid="{00000000-0004-0000-0000-0000FF050000}"/>
-    <hyperlink ref="L347" r:id="rId1528" xr:uid="{00000000-0004-0000-0000-000000060000}"/>
-    <hyperlink ref="A348" r:id="rId1529" xr:uid="{00000000-0004-0000-0000-000001060000}"/>
-    <hyperlink ref="I348" r:id="rId1530" xr:uid="{00000000-0004-0000-0000-000002060000}"/>
-    <hyperlink ref="K348" r:id="rId1531" xr:uid="{00000000-0004-0000-0000-000003060000}"/>
-    <hyperlink ref="L348" r:id="rId1532" xr:uid="{00000000-0004-0000-0000-000004060000}"/>
-    <hyperlink ref="A349" r:id="rId1533" xr:uid="{00000000-0004-0000-0000-000005060000}"/>
-    <hyperlink ref="E349" r:id="rId1534" xr:uid="{00000000-0004-0000-0000-000006060000}"/>
-    <hyperlink ref="K349" r:id="rId1535" xr:uid="{00000000-0004-0000-0000-000007060000}"/>
-    <hyperlink ref="L349" r:id="rId1536" xr:uid="{00000000-0004-0000-0000-000008060000}"/>
-    <hyperlink ref="A350" r:id="rId1537" xr:uid="{00000000-0004-0000-0000-000009060000}"/>
-    <hyperlink ref="E350" r:id="rId1538" xr:uid="{00000000-0004-0000-0000-00000A060000}"/>
-    <hyperlink ref="I350" r:id="rId1539" xr:uid="{00000000-0004-0000-0000-00000B060000}"/>
-    <hyperlink ref="K350" r:id="rId1540" xr:uid="{00000000-0004-0000-0000-00000C060000}"/>
-    <hyperlink ref="L350" r:id="rId1541" xr:uid="{00000000-0004-0000-0000-00000D060000}"/>
-    <hyperlink ref="A351" r:id="rId1542" xr:uid="{00000000-0004-0000-0000-00000E060000}"/>
-    <hyperlink ref="K351" r:id="rId1543" xr:uid="{00000000-0004-0000-0000-00000F060000}"/>
-    <hyperlink ref="A352" r:id="rId1544" xr:uid="{00000000-0004-0000-0000-000010060000}"/>
-    <hyperlink ref="L352" r:id="rId1545" xr:uid="{00000000-0004-0000-0000-000011060000}"/>
-    <hyperlink ref="A353" r:id="rId1546" xr:uid="{00000000-0004-0000-0000-000012060000}"/>
-    <hyperlink ref="E353" r:id="rId1547" xr:uid="{00000000-0004-0000-0000-000013060000}"/>
-    <hyperlink ref="K353" r:id="rId1548" xr:uid="{00000000-0004-0000-0000-000014060000}"/>
-    <hyperlink ref="L353" r:id="rId1549" xr:uid="{00000000-0004-0000-0000-000015060000}"/>
-    <hyperlink ref="A354" r:id="rId1550" xr:uid="{00000000-0004-0000-0000-000016060000}"/>
-    <hyperlink ref="E354" r:id="rId1551" xr:uid="{00000000-0004-0000-0000-000017060000}"/>
-    <hyperlink ref="I354" r:id="rId1552" xr:uid="{00000000-0004-0000-0000-000018060000}"/>
-    <hyperlink ref="K354" r:id="rId1553" xr:uid="{00000000-0004-0000-0000-000019060000}"/>
-    <hyperlink ref="L354" r:id="rId1554" xr:uid="{00000000-0004-0000-0000-00001A060000}"/>
-    <hyperlink ref="A355" r:id="rId1555" xr:uid="{00000000-0004-0000-0000-00001B060000}"/>
-    <hyperlink ref="E355" r:id="rId1556" xr:uid="{00000000-0004-0000-0000-00001C060000}"/>
-    <hyperlink ref="I355" r:id="rId1557" xr:uid="{00000000-0004-0000-0000-00001D060000}"/>
-    <hyperlink ref="K355" r:id="rId1558" xr:uid="{00000000-0004-0000-0000-00001E060000}"/>
-    <hyperlink ref="L355" r:id="rId1559" xr:uid="{00000000-0004-0000-0000-00001F060000}"/>
-    <hyperlink ref="A356" r:id="rId1560" xr:uid="{00000000-0004-0000-0000-000020060000}"/>
-    <hyperlink ref="L356" r:id="rId1561" xr:uid="{00000000-0004-0000-0000-000021060000}"/>
-    <hyperlink ref="A357" r:id="rId1562" xr:uid="{00000000-0004-0000-0000-000022060000}"/>
-    <hyperlink ref="E357" r:id="rId1563" xr:uid="{00000000-0004-0000-0000-000023060000}"/>
-    <hyperlink ref="I357" r:id="rId1564" xr:uid="{00000000-0004-0000-0000-000024060000}"/>
-    <hyperlink ref="K357" r:id="rId1565" xr:uid="{00000000-0004-0000-0000-000025060000}"/>
-    <hyperlink ref="L357" r:id="rId1566" xr:uid="{00000000-0004-0000-0000-000026060000}"/>
-    <hyperlink ref="A358" r:id="rId1567" xr:uid="{00000000-0004-0000-0000-000027060000}"/>
-    <hyperlink ref="E358" r:id="rId1568" xr:uid="{00000000-0004-0000-0000-000028060000}"/>
-    <hyperlink ref="K358" r:id="rId1569" xr:uid="{00000000-0004-0000-0000-000029060000}"/>
-    <hyperlink ref="L358" r:id="rId1570" xr:uid="{00000000-0004-0000-0000-00002A060000}"/>
-    <hyperlink ref="A359" r:id="rId1571" xr:uid="{00000000-0004-0000-0000-00002B060000}"/>
-    <hyperlink ref="E359" r:id="rId1572" xr:uid="{00000000-0004-0000-0000-00002C060000}"/>
-    <hyperlink ref="K359" r:id="rId1573" xr:uid="{00000000-0004-0000-0000-00002D060000}"/>
-    <hyperlink ref="L359" r:id="rId1574" xr:uid="{00000000-0004-0000-0000-00002E060000}"/>
-    <hyperlink ref="A360" r:id="rId1575" xr:uid="{00000000-0004-0000-0000-00002F060000}"/>
-    <hyperlink ref="L360" r:id="rId1576" xr:uid="{00000000-0004-0000-0000-000030060000}"/>
-    <hyperlink ref="A361" r:id="rId1577" xr:uid="{00000000-0004-0000-0000-000031060000}"/>
-    <hyperlink ref="L361" r:id="rId1578" xr:uid="{00000000-0004-0000-0000-000032060000}"/>
-    <hyperlink ref="A362" r:id="rId1579" xr:uid="{00000000-0004-0000-0000-000033060000}"/>
-    <hyperlink ref="I362" r:id="rId1580" xr:uid="{00000000-0004-0000-0000-000034060000}"/>
-    <hyperlink ref="K362" r:id="rId1581" xr:uid="{00000000-0004-0000-0000-000035060000}"/>
-    <hyperlink ref="L362" r:id="rId1582" xr:uid="{00000000-0004-0000-0000-000036060000}"/>
-    <hyperlink ref="A363" r:id="rId1583" xr:uid="{00000000-0004-0000-0000-000037060000}"/>
-    <hyperlink ref="E363" r:id="rId1584" xr:uid="{00000000-0004-0000-0000-000038060000}"/>
-    <hyperlink ref="I363" r:id="rId1585" xr:uid="{00000000-0004-0000-0000-000039060000}"/>
-    <hyperlink ref="K363" r:id="rId1586" xr:uid="{00000000-0004-0000-0000-00003A060000}"/>
-    <hyperlink ref="L363" r:id="rId1587" xr:uid="{00000000-0004-0000-0000-00003B060000}"/>
-    <hyperlink ref="A364" r:id="rId1588" xr:uid="{00000000-0004-0000-0000-00003C060000}"/>
-    <hyperlink ref="E364" r:id="rId1589" xr:uid="{00000000-0004-0000-0000-00003D060000}"/>
-    <hyperlink ref="I364" r:id="rId1590" xr:uid="{00000000-0004-0000-0000-00003E060000}"/>
-    <hyperlink ref="L364" r:id="rId1591" xr:uid="{00000000-0004-0000-0000-00003F060000}"/>
-    <hyperlink ref="A365" r:id="rId1592" xr:uid="{00000000-0004-0000-0000-000040060000}"/>
-    <hyperlink ref="E365" r:id="rId1593" xr:uid="{00000000-0004-0000-0000-000041060000}"/>
-    <hyperlink ref="I365" r:id="rId1594" xr:uid="{00000000-0004-0000-0000-000042060000}"/>
-    <hyperlink ref="K365" r:id="rId1595" xr:uid="{00000000-0004-0000-0000-000043060000}"/>
-    <hyperlink ref="L365" r:id="rId1596" xr:uid="{00000000-0004-0000-0000-000044060000}"/>
-    <hyperlink ref="A366" r:id="rId1597" xr:uid="{00000000-0004-0000-0000-000045060000}"/>
-    <hyperlink ref="E366" r:id="rId1598" xr:uid="{00000000-0004-0000-0000-000046060000}"/>
-    <hyperlink ref="I366" r:id="rId1599" xr:uid="{00000000-0004-0000-0000-000047060000}"/>
-    <hyperlink ref="K366" r:id="rId1600" xr:uid="{00000000-0004-0000-0000-000048060000}"/>
-    <hyperlink ref="L366" r:id="rId1601" xr:uid="{00000000-0004-0000-0000-000049060000}"/>
-    <hyperlink ref="A367" r:id="rId1602" xr:uid="{00000000-0004-0000-0000-00004A060000}"/>
-    <hyperlink ref="E367" r:id="rId1603" xr:uid="{00000000-0004-0000-0000-00004B060000}"/>
-    <hyperlink ref="I367" r:id="rId1604" xr:uid="{00000000-0004-0000-0000-00004C060000}"/>
-    <hyperlink ref="K367" r:id="rId1605" xr:uid="{00000000-0004-0000-0000-00004D060000}"/>
-    <hyperlink ref="L367" r:id="rId1606" xr:uid="{00000000-0004-0000-0000-00004E060000}"/>
-    <hyperlink ref="A368" r:id="rId1607" xr:uid="{00000000-0004-0000-0000-00004F060000}"/>
-    <hyperlink ref="E368" r:id="rId1608" xr:uid="{00000000-0004-0000-0000-000050060000}"/>
-    <hyperlink ref="I368" r:id="rId1609" xr:uid="{00000000-0004-0000-0000-000051060000}"/>
-    <hyperlink ref="K368" r:id="rId1610" xr:uid="{00000000-0004-0000-0000-000052060000}"/>
-    <hyperlink ref="L368" r:id="rId1611" xr:uid="{00000000-0004-0000-0000-000053060000}"/>
-    <hyperlink ref="A369" r:id="rId1612" xr:uid="{00000000-0004-0000-0000-000054060000}"/>
-    <hyperlink ref="E369" r:id="rId1613" xr:uid="{00000000-0004-0000-0000-000055060000}"/>
-    <hyperlink ref="I369" r:id="rId1614" xr:uid="{00000000-0004-0000-0000-000056060000}"/>
-    <hyperlink ref="K369" r:id="rId1615" xr:uid="{00000000-0004-0000-0000-000057060000}"/>
-    <hyperlink ref="L369" r:id="rId1616" xr:uid="{00000000-0004-0000-0000-000058060000}"/>
-    <hyperlink ref="A370" r:id="rId1617" xr:uid="{00000000-0004-0000-0000-000059060000}"/>
-    <hyperlink ref="E370" r:id="rId1618" xr:uid="{00000000-0004-0000-0000-00005A060000}"/>
-    <hyperlink ref="I370" r:id="rId1619" xr:uid="{00000000-0004-0000-0000-00005B060000}"/>
-    <hyperlink ref="K370" r:id="rId1620" xr:uid="{00000000-0004-0000-0000-00005C060000}"/>
-    <hyperlink ref="L370" r:id="rId1621" xr:uid="{00000000-0004-0000-0000-00005D060000}"/>
-    <hyperlink ref="A371" r:id="rId1622" xr:uid="{00000000-0004-0000-0000-00005E060000}"/>
-    <hyperlink ref="E371" r:id="rId1623" xr:uid="{00000000-0004-0000-0000-00005F060000}"/>
-    <hyperlink ref="I371" r:id="rId1624" xr:uid="{00000000-0004-0000-0000-000060060000}"/>
-    <hyperlink ref="K371" r:id="rId1625" xr:uid="{00000000-0004-0000-0000-000061060000}"/>
-    <hyperlink ref="L371" r:id="rId1626" xr:uid="{00000000-0004-0000-0000-000062060000}"/>
-    <hyperlink ref="A372" r:id="rId1627" xr:uid="{00000000-0004-0000-0000-000063060000}"/>
-    <hyperlink ref="I372" r:id="rId1628" xr:uid="{00000000-0004-0000-0000-000064060000}"/>
-    <hyperlink ref="L372" r:id="rId1629" xr:uid="{00000000-0004-0000-0000-000065060000}"/>
-    <hyperlink ref="A373" r:id="rId1630" xr:uid="{00000000-0004-0000-0000-000066060000}"/>
-    <hyperlink ref="E373" r:id="rId1631" xr:uid="{00000000-0004-0000-0000-000067060000}"/>
-    <hyperlink ref="I373" r:id="rId1632" xr:uid="{00000000-0004-0000-0000-000068060000}"/>
-    <hyperlink ref="K373" r:id="rId1633" xr:uid="{00000000-0004-0000-0000-000069060000}"/>
-    <hyperlink ref="L373" r:id="rId1634" xr:uid="{00000000-0004-0000-0000-00006A060000}"/>
-    <hyperlink ref="A374" r:id="rId1635" xr:uid="{00000000-0004-0000-0000-00006B060000}"/>
-    <hyperlink ref="E374" r:id="rId1636" xr:uid="{00000000-0004-0000-0000-00006C060000}"/>
-    <hyperlink ref="K374" r:id="rId1637" xr:uid="{00000000-0004-0000-0000-00006D060000}"/>
-    <hyperlink ref="L374" r:id="rId1638" xr:uid="{00000000-0004-0000-0000-00006E060000}"/>
-    <hyperlink ref="A375" r:id="rId1639" xr:uid="{00000000-0004-0000-0000-00006F060000}"/>
-    <hyperlink ref="I375" r:id="rId1640" xr:uid="{00000000-0004-0000-0000-000070060000}"/>
-    <hyperlink ref="K375" r:id="rId1641" xr:uid="{00000000-0004-0000-0000-000071060000}"/>
-    <hyperlink ref="L375" r:id="rId1642" xr:uid="{00000000-0004-0000-0000-000072060000}"/>
-    <hyperlink ref="A376" r:id="rId1643" xr:uid="{00000000-0004-0000-0000-000073060000}"/>
-    <hyperlink ref="E376" r:id="rId1644" xr:uid="{00000000-0004-0000-0000-000074060000}"/>
-    <hyperlink ref="I376" r:id="rId1645" xr:uid="{00000000-0004-0000-0000-000075060000}"/>
-    <hyperlink ref="K376" r:id="rId1646" xr:uid="{00000000-0004-0000-0000-000076060000}"/>
-    <hyperlink ref="L376" r:id="rId1647" xr:uid="{00000000-0004-0000-0000-000077060000}"/>
-    <hyperlink ref="A377" r:id="rId1648" xr:uid="{00000000-0004-0000-0000-000078060000}"/>
-    <hyperlink ref="I377" r:id="rId1649" xr:uid="{00000000-0004-0000-0000-000079060000}"/>
-    <hyperlink ref="K377" r:id="rId1650" xr:uid="{00000000-0004-0000-0000-00007A060000}"/>
-    <hyperlink ref="L377" r:id="rId1651" xr:uid="{00000000-0004-0000-0000-00007B060000}"/>
-    <hyperlink ref="A378" r:id="rId1652" xr:uid="{00000000-0004-0000-0000-00007C060000}"/>
-    <hyperlink ref="I378" r:id="rId1653" xr:uid="{00000000-0004-0000-0000-00007D060000}"/>
-    <hyperlink ref="K378" r:id="rId1654" xr:uid="{00000000-0004-0000-0000-00007E060000}"/>
-    <hyperlink ref="L378" r:id="rId1655" xr:uid="{00000000-0004-0000-0000-00007F060000}"/>
-    <hyperlink ref="A379" r:id="rId1656" xr:uid="{00000000-0004-0000-0000-000080060000}"/>
-    <hyperlink ref="I379" r:id="rId1657" xr:uid="{00000000-0004-0000-0000-000081060000}"/>
-    <hyperlink ref="K379" r:id="rId1658" xr:uid="{00000000-0004-0000-0000-000082060000}"/>
-    <hyperlink ref="L379" r:id="rId1659" xr:uid="{00000000-0004-0000-0000-000083060000}"/>
-    <hyperlink ref="A380" r:id="rId1660" xr:uid="{00000000-0004-0000-0000-000084060000}"/>
-    <hyperlink ref="I380" r:id="rId1661" xr:uid="{00000000-0004-0000-0000-000085060000}"/>
-    <hyperlink ref="K380" r:id="rId1662" xr:uid="{00000000-0004-0000-0000-000086060000}"/>
-    <hyperlink ref="L380" r:id="rId1663" xr:uid="{00000000-0004-0000-0000-000087060000}"/>
-    <hyperlink ref="A381" r:id="rId1664" xr:uid="{00000000-0004-0000-0000-000088060000}"/>
-    <hyperlink ref="E381" r:id="rId1665" xr:uid="{00000000-0004-0000-0000-000089060000}"/>
-    <hyperlink ref="I381" r:id="rId1666" xr:uid="{00000000-0004-0000-0000-00008A060000}"/>
-    <hyperlink ref="K381" r:id="rId1667" xr:uid="{00000000-0004-0000-0000-00008B060000}"/>
-    <hyperlink ref="L381" r:id="rId1668" xr:uid="{00000000-0004-0000-0000-00008C060000}"/>
-    <hyperlink ref="A382" r:id="rId1669" xr:uid="{00000000-0004-0000-0000-00008D060000}"/>
-    <hyperlink ref="E382" r:id="rId1670" xr:uid="{00000000-0004-0000-0000-00008E060000}"/>
-    <hyperlink ref="K382" r:id="rId1671" xr:uid="{00000000-0004-0000-0000-00008F060000}"/>
-    <hyperlink ref="L382" r:id="rId1672" xr:uid="{00000000-0004-0000-0000-000090060000}"/>
-    <hyperlink ref="A383" r:id="rId1673" xr:uid="{00000000-0004-0000-0000-000091060000}"/>
-    <hyperlink ref="E383" r:id="rId1674" xr:uid="{00000000-0004-0000-0000-000092060000}"/>
-    <hyperlink ref="K383" r:id="rId1675" xr:uid="{00000000-0004-0000-0000-000093060000}"/>
-    <hyperlink ref="L383" r:id="rId1676" xr:uid="{00000000-0004-0000-0000-000094060000}"/>
-    <hyperlink ref="A384" r:id="rId1677" xr:uid="{00000000-0004-0000-0000-000095060000}"/>
-    <hyperlink ref="L384" r:id="rId1678" xr:uid="{00000000-0004-0000-0000-000096060000}"/>
-    <hyperlink ref="A385" r:id="rId1679" xr:uid="{00000000-0004-0000-0000-000097060000}"/>
-    <hyperlink ref="E385" r:id="rId1680" xr:uid="{00000000-0004-0000-0000-000098060000}"/>
-    <hyperlink ref="I385" r:id="rId1681" xr:uid="{00000000-0004-0000-0000-000099060000}"/>
-    <hyperlink ref="K385" r:id="rId1682" xr:uid="{00000000-0004-0000-0000-00009A060000}"/>
-    <hyperlink ref="L385" r:id="rId1683" xr:uid="{00000000-0004-0000-0000-00009B060000}"/>
-    <hyperlink ref="A386" r:id="rId1684" xr:uid="{00000000-0004-0000-0000-00009C060000}"/>
-    <hyperlink ref="E386" r:id="rId1685" xr:uid="{00000000-0004-0000-0000-00009D060000}"/>
-    <hyperlink ref="I386" r:id="rId1686" xr:uid="{00000000-0004-0000-0000-00009E060000}"/>
-    <hyperlink ref="K386" r:id="rId1687" xr:uid="{00000000-0004-0000-0000-00009F060000}"/>
-    <hyperlink ref="L386" r:id="rId1688" xr:uid="{00000000-0004-0000-0000-0000A0060000}"/>
-    <hyperlink ref="A387" r:id="rId1689" xr:uid="{00000000-0004-0000-0000-0000A1060000}"/>
-    <hyperlink ref="E387" r:id="rId1690" xr:uid="{00000000-0004-0000-0000-0000A2060000}"/>
-    <hyperlink ref="I387" r:id="rId1691" xr:uid="{00000000-0004-0000-0000-0000A3060000}"/>
-    <hyperlink ref="K387" r:id="rId1692" xr:uid="{00000000-0004-0000-0000-0000A4060000}"/>
-    <hyperlink ref="L387" r:id="rId1693" xr:uid="{00000000-0004-0000-0000-0000A5060000}"/>
-    <hyperlink ref="A388" r:id="rId1694" xr:uid="{00000000-0004-0000-0000-0000A6060000}"/>
-    <hyperlink ref="E388" r:id="rId1695" xr:uid="{00000000-0004-0000-0000-0000A7060000}"/>
-    <hyperlink ref="I388" r:id="rId1696" xr:uid="{00000000-0004-0000-0000-0000A8060000}"/>
-    <hyperlink ref="K388" r:id="rId1697" xr:uid="{00000000-0004-0000-0000-0000A9060000}"/>
-    <hyperlink ref="L388" r:id="rId1698" xr:uid="{00000000-0004-0000-0000-0000AA060000}"/>
-    <hyperlink ref="A389" r:id="rId1699" xr:uid="{00000000-0004-0000-0000-0000AB060000}"/>
-    <hyperlink ref="E389" r:id="rId1700" xr:uid="{00000000-0004-0000-0000-0000AC060000}"/>
-    <hyperlink ref="I389" r:id="rId1701" xr:uid="{00000000-0004-0000-0000-0000AD060000}"/>
-    <hyperlink ref="K389" r:id="rId1702" xr:uid="{00000000-0004-0000-0000-0000AE060000}"/>
-    <hyperlink ref="L389" r:id="rId1703" xr:uid="{00000000-0004-0000-0000-0000AF060000}"/>
-    <hyperlink ref="A390" r:id="rId1704" xr:uid="{00000000-0004-0000-0000-0000B0060000}"/>
-    <hyperlink ref="E390" r:id="rId1705" xr:uid="{00000000-0004-0000-0000-0000B1060000}"/>
-    <hyperlink ref="I390" r:id="rId1706" xr:uid="{00000000-0004-0000-0000-0000B2060000}"/>
-    <hyperlink ref="K390" r:id="rId1707" xr:uid="{00000000-0004-0000-0000-0000B3060000}"/>
-    <hyperlink ref="L390" r:id="rId1708" xr:uid="{00000000-0004-0000-0000-0000B4060000}"/>
-    <hyperlink ref="A391" r:id="rId1709" xr:uid="{00000000-0004-0000-0000-0000B5060000}"/>
-    <hyperlink ref="E391" r:id="rId1710" xr:uid="{00000000-0004-0000-0000-0000B6060000}"/>
-    <hyperlink ref="I391" r:id="rId1711" xr:uid="{00000000-0004-0000-0000-0000B7060000}"/>
-    <hyperlink ref="K391" r:id="rId1712" xr:uid="{00000000-0004-0000-0000-0000B8060000}"/>
-    <hyperlink ref="L391" r:id="rId1713" xr:uid="{00000000-0004-0000-0000-0000B9060000}"/>
-    <hyperlink ref="A392" r:id="rId1714" xr:uid="{00000000-0004-0000-0000-0000BA060000}"/>
-    <hyperlink ref="E392" r:id="rId1715" xr:uid="{00000000-0004-0000-0000-0000BB060000}"/>
-    <hyperlink ref="I392" r:id="rId1716" xr:uid="{00000000-0004-0000-0000-0000BC060000}"/>
-    <hyperlink ref="K392" r:id="rId1717" xr:uid="{00000000-0004-0000-0000-0000BD060000}"/>
-    <hyperlink ref="L392" r:id="rId1718" xr:uid="{00000000-0004-0000-0000-0000BE060000}"/>
-    <hyperlink ref="A393" r:id="rId1719" xr:uid="{00000000-0004-0000-0000-0000BF060000}"/>
-    <hyperlink ref="E393" r:id="rId1720" xr:uid="{00000000-0004-0000-0000-0000C0060000}"/>
-    <hyperlink ref="K393" r:id="rId1721" xr:uid="{00000000-0004-0000-0000-0000C1060000}"/>
-    <hyperlink ref="L393" r:id="rId1722" xr:uid="{00000000-0004-0000-0000-0000C2060000}"/>
-    <hyperlink ref="A394" r:id="rId1723" xr:uid="{00000000-0004-0000-0000-0000C3060000}"/>
-    <hyperlink ref="E394" r:id="rId1724" xr:uid="{00000000-0004-0000-0000-0000C4060000}"/>
-    <hyperlink ref="I394" r:id="rId1725" xr:uid="{00000000-0004-0000-0000-0000C5060000}"/>
-    <hyperlink ref="L394" r:id="rId1726" xr:uid="{00000000-0004-0000-0000-0000C6060000}"/>
-    <hyperlink ref="A395" r:id="rId1727" xr:uid="{00000000-0004-0000-0000-0000C7060000}"/>
-    <hyperlink ref="E395" r:id="rId1728" xr:uid="{00000000-0004-0000-0000-0000C8060000}"/>
-    <hyperlink ref="I395" r:id="rId1729" xr:uid="{00000000-0004-0000-0000-0000C9060000}"/>
-    <hyperlink ref="K395" r:id="rId1730" xr:uid="{00000000-0004-0000-0000-0000CA060000}"/>
-    <hyperlink ref="L395" r:id="rId1731" xr:uid="{00000000-0004-0000-0000-0000CB060000}"/>
-    <hyperlink ref="A396" r:id="rId1732" xr:uid="{00000000-0004-0000-0000-0000CC060000}"/>
-    <hyperlink ref="E396" r:id="rId1733" xr:uid="{00000000-0004-0000-0000-0000CD060000}"/>
-    <hyperlink ref="I396" r:id="rId1734" xr:uid="{00000000-0004-0000-0000-0000CE060000}"/>
-    <hyperlink ref="K396" r:id="rId1735" xr:uid="{00000000-0004-0000-0000-0000CF060000}"/>
-    <hyperlink ref="L396" r:id="rId1736" xr:uid="{00000000-0004-0000-0000-0000D0060000}"/>
-    <hyperlink ref="A397" r:id="rId1737" xr:uid="{00000000-0004-0000-0000-0000D1060000}"/>
-    <hyperlink ref="E397" r:id="rId1738" xr:uid="{00000000-0004-0000-0000-0000D2060000}"/>
-    <hyperlink ref="I397" r:id="rId1739" xr:uid="{00000000-0004-0000-0000-0000D3060000}"/>
-    <hyperlink ref="K397" r:id="rId1740" xr:uid="{00000000-0004-0000-0000-0000D4060000}"/>
-    <hyperlink ref="L397" r:id="rId1741" xr:uid="{00000000-0004-0000-0000-0000D5060000}"/>
-    <hyperlink ref="A398" r:id="rId1742" xr:uid="{00000000-0004-0000-0000-0000D6060000}"/>
-    <hyperlink ref="E398" r:id="rId1743" xr:uid="{00000000-0004-0000-0000-0000D7060000}"/>
-    <hyperlink ref="I398" r:id="rId1744" xr:uid="{00000000-0004-0000-0000-0000D8060000}"/>
-    <hyperlink ref="K398" r:id="rId1745" xr:uid="{00000000-0004-0000-0000-0000D9060000}"/>
-    <hyperlink ref="L398" r:id="rId1746" xr:uid="{00000000-0004-0000-0000-0000DA060000}"/>
-    <hyperlink ref="A399" r:id="rId1747" xr:uid="{00000000-0004-0000-0000-0000DB060000}"/>
-    <hyperlink ref="I399" r:id="rId1748" xr:uid="{00000000-0004-0000-0000-0000DC060000}"/>
-    <hyperlink ref="L399" r:id="rId1749" xr:uid="{00000000-0004-0000-0000-0000DD060000}"/>
-    <hyperlink ref="A400" r:id="rId1750" xr:uid="{00000000-0004-0000-0000-0000DE060000}"/>
-    <hyperlink ref="I400" r:id="rId1751" xr:uid="{00000000-0004-0000-0000-0000DF060000}"/>
-    <hyperlink ref="L400" r:id="rId1752" xr:uid="{00000000-0004-0000-0000-0000E0060000}"/>
-    <hyperlink ref="A401" r:id="rId1753" xr:uid="{00000000-0004-0000-0000-0000E1060000}"/>
-    <hyperlink ref="E401" r:id="rId1754" xr:uid="{00000000-0004-0000-0000-0000E2060000}"/>
-    <hyperlink ref="I401" r:id="rId1755" xr:uid="{00000000-0004-0000-0000-0000E3060000}"/>
-    <hyperlink ref="K401" r:id="rId1756" xr:uid="{00000000-0004-0000-0000-0000E4060000}"/>
-    <hyperlink ref="L401" r:id="rId1757" xr:uid="{00000000-0004-0000-0000-0000E5060000}"/>
-    <hyperlink ref="A402" r:id="rId1758" xr:uid="{00000000-0004-0000-0000-0000E6060000}"/>
-    <hyperlink ref="E402" r:id="rId1759" xr:uid="{00000000-0004-0000-0000-0000E7060000}"/>
-    <hyperlink ref="I402" r:id="rId1760" xr:uid="{00000000-0004-0000-0000-0000E8060000}"/>
-    <hyperlink ref="L402" r:id="rId1761" xr:uid="{00000000-0004-0000-0000-0000E9060000}"/>
-    <hyperlink ref="A403" r:id="rId1762" xr:uid="{00000000-0004-0000-0000-0000EA060000}"/>
-    <hyperlink ref="E403" r:id="rId1763" xr:uid="{00000000-0004-0000-0000-0000EB060000}"/>
-    <hyperlink ref="I403" r:id="rId1764" xr:uid="{00000000-0004-0000-0000-0000EC060000}"/>
-    <hyperlink ref="K403" r:id="rId1765" xr:uid="{00000000-0004-0000-0000-0000ED060000}"/>
-    <hyperlink ref="L403" r:id="rId1766" xr:uid="{00000000-0004-0000-0000-0000EE060000}"/>
-    <hyperlink ref="A404" r:id="rId1767" xr:uid="{00000000-0004-0000-0000-0000EF060000}"/>
-    <hyperlink ref="E404" r:id="rId1768" xr:uid="{00000000-0004-0000-0000-0000F0060000}"/>
-    <hyperlink ref="I404" r:id="rId1769" xr:uid="{00000000-0004-0000-0000-0000F1060000}"/>
-    <hyperlink ref="K404" r:id="rId1770" xr:uid="{00000000-0004-0000-0000-0000F2060000}"/>
-    <hyperlink ref="L404" r:id="rId1771" xr:uid="{00000000-0004-0000-0000-0000F3060000}"/>
-    <hyperlink ref="A405" r:id="rId1772" xr:uid="{00000000-0004-0000-0000-0000F4060000}"/>
-    <hyperlink ref="E405" r:id="rId1773" xr:uid="{00000000-0004-0000-0000-0000F5060000}"/>
-    <hyperlink ref="I405" r:id="rId1774" xr:uid="{00000000-0004-0000-0000-0000F6060000}"/>
-    <hyperlink ref="K405" r:id="rId1775" xr:uid="{00000000-0004-0000-0000-0000F7060000}"/>
-    <hyperlink ref="L405" r:id="rId1776" xr:uid="{00000000-0004-0000-0000-0000F8060000}"/>
-    <hyperlink ref="A406" r:id="rId1777" xr:uid="{00000000-0004-0000-0000-0000F9060000}"/>
-    <hyperlink ref="E406" r:id="rId1778" xr:uid="{00000000-0004-0000-0000-0000FA060000}"/>
-    <hyperlink ref="I406" r:id="rId1779" xr:uid="{00000000-0004-0000-0000-0000FB060000}"/>
-    <hyperlink ref="K406" r:id="rId1780" xr:uid="{00000000-0004-0000-0000-0000FC060000}"/>
-    <hyperlink ref="L406" r:id="rId1781" xr:uid="{00000000-0004-0000-0000-0000FD060000}"/>
-    <hyperlink ref="A407" r:id="rId1782" xr:uid="{00000000-0004-0000-0000-0000FE060000}"/>
-    <hyperlink ref="E407" r:id="rId1783" xr:uid="{00000000-0004-0000-0000-0000FF060000}"/>
-    <hyperlink ref="I407" r:id="rId1784" xr:uid="{00000000-0004-0000-0000-000000070000}"/>
-    <hyperlink ref="K407" r:id="rId1785" xr:uid="{00000000-0004-0000-0000-000001070000}"/>
-    <hyperlink ref="L407" r:id="rId1786" xr:uid="{00000000-0004-0000-0000-000002070000}"/>
-    <hyperlink ref="A409" r:id="rId1787" xr:uid="{00000000-0004-0000-0000-000003070000}"/>
-    <hyperlink ref="E409" r:id="rId1788" xr:uid="{00000000-0004-0000-0000-000004070000}"/>
-    <hyperlink ref="I409" r:id="rId1789" xr:uid="{00000000-0004-0000-0000-000005070000}"/>
-    <hyperlink ref="K409" r:id="rId1790" xr:uid="{00000000-0004-0000-0000-000006070000}"/>
-    <hyperlink ref="L409" r:id="rId1791" xr:uid="{00000000-0004-0000-0000-000007070000}"/>
-    <hyperlink ref="A410" r:id="rId1792" xr:uid="{00000000-0004-0000-0000-000008070000}"/>
-    <hyperlink ref="I410" r:id="rId1793" xr:uid="{00000000-0004-0000-0000-000009070000}"/>
-    <hyperlink ref="L410" r:id="rId1794" xr:uid="{00000000-0004-0000-0000-00000A070000}"/>
-    <hyperlink ref="A411" r:id="rId1795" xr:uid="{00000000-0004-0000-0000-00000B070000}"/>
-    <hyperlink ref="E411" r:id="rId1796" xr:uid="{00000000-0004-0000-0000-00000C070000}"/>
-    <hyperlink ref="I411" r:id="rId1797" xr:uid="{00000000-0004-0000-0000-00000D070000}"/>
-    <hyperlink ref="K411" r:id="rId1798" xr:uid="{00000000-0004-0000-0000-00000E070000}"/>
-    <hyperlink ref="L411" r:id="rId1799" xr:uid="{00000000-0004-0000-0000-00000F070000}"/>
-    <hyperlink ref="A412" r:id="rId1800" xr:uid="{00000000-0004-0000-0000-000010070000}"/>
-    <hyperlink ref="E412" r:id="rId1801" xr:uid="{00000000-0004-0000-0000-000011070000}"/>
-    <hyperlink ref="I412" r:id="rId1802" xr:uid="{00000000-0004-0000-0000-000012070000}"/>
-    <hyperlink ref="K412" r:id="rId1803" xr:uid="{00000000-0004-0000-0000-000013070000}"/>
-    <hyperlink ref="L412" r:id="rId1804" xr:uid="{00000000-0004-0000-0000-000014070000}"/>
-    <hyperlink ref="A413" r:id="rId1805" xr:uid="{00000000-0004-0000-0000-000015070000}"/>
-    <hyperlink ref="E413" r:id="rId1806" xr:uid="{00000000-0004-0000-0000-000016070000}"/>
-    <hyperlink ref="I413" r:id="rId1807" xr:uid="{00000000-0004-0000-0000-000017070000}"/>
-    <hyperlink ref="K413" r:id="rId1808" xr:uid="{00000000-0004-0000-0000-000018070000}"/>
-    <hyperlink ref="L413" r:id="rId1809" xr:uid="{00000000-0004-0000-0000-000019070000}"/>
-    <hyperlink ref="A414" r:id="rId1810" xr:uid="{00000000-0004-0000-0000-00001A070000}"/>
-    <hyperlink ref="I414" r:id="rId1811" xr:uid="{00000000-0004-0000-0000-00001B070000}"/>
-    <hyperlink ref="L414" r:id="rId1812" xr:uid="{00000000-0004-0000-0000-00001C070000}"/>
-    <hyperlink ref="A415" r:id="rId1813" xr:uid="{00000000-0004-0000-0000-00001D070000}"/>
-    <hyperlink ref="I415" r:id="rId1814" xr:uid="{00000000-0004-0000-0000-00001E070000}"/>
-    <hyperlink ref="K415" r:id="rId1815" xr:uid="{00000000-0004-0000-0000-00001F070000}"/>
-    <hyperlink ref="A416" r:id="rId1816" xr:uid="{00000000-0004-0000-0000-000020070000}"/>
-    <hyperlink ref="I416" r:id="rId1817" xr:uid="{00000000-0004-0000-0000-000021070000}"/>
-    <hyperlink ref="L416" r:id="rId1818" xr:uid="{00000000-0004-0000-0000-000022070000}"/>
-    <hyperlink ref="A417" r:id="rId1819" xr:uid="{00000000-0004-0000-0000-000023070000}"/>
-    <hyperlink ref="K417" r:id="rId1820" xr:uid="{00000000-0004-0000-0000-000024070000}"/>
-    <hyperlink ref="L417" r:id="rId1821" xr:uid="{00000000-0004-0000-0000-000025070000}"/>
-    <hyperlink ref="A418" r:id="rId1822" xr:uid="{00000000-0004-0000-0000-000026070000}"/>
-    <hyperlink ref="E418" r:id="rId1823" xr:uid="{00000000-0004-0000-0000-000027070000}"/>
-    <hyperlink ref="I418" r:id="rId1824" xr:uid="{00000000-0004-0000-0000-000028070000}"/>
-    <hyperlink ref="K418" r:id="rId1825" xr:uid="{00000000-0004-0000-0000-000029070000}"/>
-    <hyperlink ref="L418" r:id="rId1826" xr:uid="{00000000-0004-0000-0000-00002A070000}"/>
-    <hyperlink ref="A419" r:id="rId1827" xr:uid="{00000000-0004-0000-0000-00002B070000}"/>
-    <hyperlink ref="I419" r:id="rId1828" xr:uid="{00000000-0004-0000-0000-00002C070000}"/>
-    <hyperlink ref="K419" r:id="rId1829" xr:uid="{00000000-0004-0000-0000-00002D070000}"/>
-    <hyperlink ref="L419" r:id="rId1830" xr:uid="{00000000-0004-0000-0000-00002E070000}"/>
-    <hyperlink ref="A420" r:id="rId1831" xr:uid="{00000000-0004-0000-0000-00002F070000}"/>
-    <hyperlink ref="I420" r:id="rId1832" xr:uid="{00000000-0004-0000-0000-000030070000}"/>
-    <hyperlink ref="L420" r:id="rId1833" xr:uid="{00000000-0004-0000-0000-000031070000}"/>
-    <hyperlink ref="A421" r:id="rId1834" xr:uid="{00000000-0004-0000-0000-000032070000}"/>
-    <hyperlink ref="I421" r:id="rId1835" xr:uid="{00000000-0004-0000-0000-000033070000}"/>
-    <hyperlink ref="L421" r:id="rId1836" xr:uid="{00000000-0004-0000-0000-000034070000}"/>
-    <hyperlink ref="A422" r:id="rId1837" xr:uid="{00000000-0004-0000-0000-000035070000}"/>
-    <hyperlink ref="E422" r:id="rId1838" xr:uid="{00000000-0004-0000-0000-000036070000}"/>
-    <hyperlink ref="I422" r:id="rId1839" xr:uid="{00000000-0004-0000-0000-000037070000}"/>
-    <hyperlink ref="L422" r:id="rId1840" xr:uid="{00000000-0004-0000-0000-000038070000}"/>
-    <hyperlink ref="A423" r:id="rId1841" xr:uid="{00000000-0004-0000-0000-000039070000}"/>
-    <hyperlink ref="E423" r:id="rId1842" xr:uid="{00000000-0004-0000-0000-00003A070000}"/>
-    <hyperlink ref="I423" r:id="rId1843" xr:uid="{00000000-0004-0000-0000-00003B070000}"/>
-    <hyperlink ref="K423" r:id="rId1844" xr:uid="{00000000-0004-0000-0000-00003C070000}"/>
-    <hyperlink ref="L423" r:id="rId1845" xr:uid="{00000000-0004-0000-0000-00003D070000}"/>
-    <hyperlink ref="A424" r:id="rId1846" xr:uid="{00000000-0004-0000-0000-00003E070000}"/>
-    <hyperlink ref="I424" r:id="rId1847" xr:uid="{00000000-0004-0000-0000-00003F070000}"/>
-    <hyperlink ref="L424" r:id="rId1848" xr:uid="{00000000-0004-0000-0000-000040070000}"/>
-    <hyperlink ref="A425" r:id="rId1849" xr:uid="{00000000-0004-0000-0000-000041070000}"/>
-    <hyperlink ref="I425" r:id="rId1850" xr:uid="{00000000-0004-0000-0000-000042070000}"/>
-    <hyperlink ref="L425" r:id="rId1851" xr:uid="{00000000-0004-0000-0000-000043070000}"/>
-    <hyperlink ref="A426" r:id="rId1852" xr:uid="{00000000-0004-0000-0000-000044070000}"/>
-    <hyperlink ref="E426" r:id="rId1853" xr:uid="{00000000-0004-0000-0000-000045070000}"/>
-    <hyperlink ref="I426" r:id="rId1854" xr:uid="{00000000-0004-0000-0000-000046070000}"/>
-    <hyperlink ref="K426" r:id="rId1855" xr:uid="{00000000-0004-0000-0000-000047070000}"/>
-    <hyperlink ref="L426" r:id="rId1856" xr:uid="{00000000-0004-0000-0000-000048070000}"/>
-    <hyperlink ref="A427" r:id="rId1857" xr:uid="{00000000-0004-0000-0000-000049070000}"/>
-    <hyperlink ref="I427" r:id="rId1858" xr:uid="{00000000-0004-0000-0000-00004A070000}"/>
-    <hyperlink ref="L427" r:id="rId1859" xr:uid="{00000000-0004-0000-0000-00004B070000}"/>
-    <hyperlink ref="A428" r:id="rId1860" xr:uid="{00000000-0004-0000-0000-00004C070000}"/>
-    <hyperlink ref="E428" r:id="rId1861" xr:uid="{00000000-0004-0000-0000-00004D070000}"/>
-    <hyperlink ref="I428" r:id="rId1862" xr:uid="{00000000-0004-0000-0000-00004E070000}"/>
-    <hyperlink ref="L428" r:id="rId1863" xr:uid="{00000000-0004-0000-0000-00004F070000}"/>
-    <hyperlink ref="A429" r:id="rId1864" xr:uid="{00000000-0004-0000-0000-000050070000}"/>
-    <hyperlink ref="I429" r:id="rId1865" xr:uid="{00000000-0004-0000-0000-000051070000}"/>
-    <hyperlink ref="L429" r:id="rId1866" xr:uid="{00000000-0004-0000-0000-000052070000}"/>
-    <hyperlink ref="A430" r:id="rId1867" xr:uid="{00000000-0004-0000-0000-000053070000}"/>
-    <hyperlink ref="I430" r:id="rId1868" xr:uid="{00000000-0004-0000-0000-000054070000}"/>
-    <hyperlink ref="L430" r:id="rId1869" xr:uid="{00000000-0004-0000-0000-000055070000}"/>
-    <hyperlink ref="A431" r:id="rId1870" xr:uid="{00000000-0004-0000-0000-000056070000}"/>
-    <hyperlink ref="E431" r:id="rId1871" xr:uid="{00000000-0004-0000-0000-000057070000}"/>
-    <hyperlink ref="I431" r:id="rId1872" xr:uid="{00000000-0004-0000-0000-000058070000}"/>
-    <hyperlink ref="K431" r:id="rId1873" xr:uid="{00000000-0004-0000-0000-000059070000}"/>
-    <hyperlink ref="L431" r:id="rId1874" xr:uid="{00000000-0004-0000-0000-00005A070000}"/>
-    <hyperlink ref="A432" r:id="rId1875" xr:uid="{00000000-0004-0000-0000-00005B070000}"/>
-    <hyperlink ref="E432" r:id="rId1876" xr:uid="{00000000-0004-0000-0000-00005C070000}"/>
-    <hyperlink ref="I432" r:id="rId1877" xr:uid="{00000000-0004-0000-0000-00005D070000}"/>
-    <hyperlink ref="K432" r:id="rId1878" xr:uid="{00000000-0004-0000-0000-00005E070000}"/>
-    <hyperlink ref="L432" r:id="rId1879" xr:uid="{00000000-0004-0000-0000-00005F070000}"/>
-    <hyperlink ref="A433" r:id="rId1880" xr:uid="{00000000-0004-0000-0000-000060070000}"/>
-    <hyperlink ref="K433" r:id="rId1881" xr:uid="{00000000-0004-0000-0000-000061070000}"/>
-    <hyperlink ref="L433" r:id="rId1882" xr:uid="{00000000-0004-0000-0000-000062070000}"/>
-    <hyperlink ref="A434" r:id="rId1883" xr:uid="{00000000-0004-0000-0000-000063070000}"/>
-    <hyperlink ref="E434" r:id="rId1884" xr:uid="{00000000-0004-0000-0000-000064070000}"/>
-    <hyperlink ref="I434" r:id="rId1885" xr:uid="{00000000-0004-0000-0000-000065070000}"/>
-    <hyperlink ref="L434" r:id="rId1886" xr:uid="{00000000-0004-0000-0000-000066070000}"/>
-    <hyperlink ref="A435" r:id="rId1887" xr:uid="{00000000-0004-0000-0000-000067070000}"/>
-    <hyperlink ref="E435" r:id="rId1888" xr:uid="{00000000-0004-0000-0000-000068070000}"/>
-    <hyperlink ref="I435" r:id="rId1889" xr:uid="{00000000-0004-0000-0000-000069070000}"/>
-    <hyperlink ref="K435" r:id="rId1890" xr:uid="{00000000-0004-0000-0000-00006A070000}"/>
-    <hyperlink ref="L435" r:id="rId1891" xr:uid="{00000000-0004-0000-0000-00006B070000}"/>
-    <hyperlink ref="A436" r:id="rId1892" xr:uid="{00000000-0004-0000-0000-00006C070000}"/>
-    <hyperlink ref="E436" r:id="rId1893" xr:uid="{00000000-0004-0000-0000-00006D070000}"/>
-    <hyperlink ref="I436" r:id="rId1894" xr:uid="{00000000-0004-0000-0000-00006E070000}"/>
-    <hyperlink ref="K436" r:id="rId1895" xr:uid="{00000000-0004-0000-0000-00006F070000}"/>
-    <hyperlink ref="L436" r:id="rId1896" xr:uid="{00000000-0004-0000-0000-000070070000}"/>
-    <hyperlink ref="A437" r:id="rId1897" xr:uid="{00000000-0004-0000-0000-000071070000}"/>
-    <hyperlink ref="I437" r:id="rId1898" xr:uid="{00000000-0004-0000-0000-000072070000}"/>
-    <hyperlink ref="K437" r:id="rId1899" xr:uid="{00000000-0004-0000-0000-000073070000}"/>
-    <hyperlink ref="L437" r:id="rId1900" xr:uid="{00000000-0004-0000-0000-000074070000}"/>
-    <hyperlink ref="A438" r:id="rId1901" xr:uid="{00000000-0004-0000-0000-000075070000}"/>
-    <hyperlink ref="E438" r:id="rId1902" xr:uid="{00000000-0004-0000-0000-000076070000}"/>
-    <hyperlink ref="I438" r:id="rId1903" xr:uid="{00000000-0004-0000-0000-000077070000}"/>
-    <hyperlink ref="L438" r:id="rId1904" xr:uid="{00000000-0004-0000-0000-000078070000}"/>
-    <hyperlink ref="A439" r:id="rId1905" xr:uid="{00000000-0004-0000-0000-000079070000}"/>
-    <hyperlink ref="I439" r:id="rId1906" xr:uid="{00000000-0004-0000-0000-00007A070000}"/>
-    <hyperlink ref="K439" r:id="rId1907" xr:uid="{00000000-0004-0000-0000-00007B070000}"/>
-    <hyperlink ref="L439" r:id="rId1908" xr:uid="{00000000-0004-0000-0000-00007C070000}"/>
-    <hyperlink ref="A440" r:id="rId1909" xr:uid="{00000000-0004-0000-0000-00007D070000}"/>
-    <hyperlink ref="E440" r:id="rId1910" xr:uid="{00000000-0004-0000-0000-00007E070000}"/>
-    <hyperlink ref="L440" r:id="rId1911" xr:uid="{00000000-0004-0000-0000-00007F070000}"/>
-    <hyperlink ref="A441" r:id="rId1912" xr:uid="{00000000-0004-0000-0000-000080070000}"/>
-    <hyperlink ref="I441" r:id="rId1913" xr:uid="{00000000-0004-0000-0000-000081070000}"/>
-    <hyperlink ref="K441" r:id="rId1914" xr:uid="{00000000-0004-0000-0000-000082070000}"/>
-    <hyperlink ref="L441" r:id="rId1915" xr:uid="{00000000-0004-0000-0000-000083070000}"/>
-    <hyperlink ref="A442" r:id="rId1916" xr:uid="{00000000-0004-0000-0000-000084070000}"/>
-    <hyperlink ref="I442" r:id="rId1917" xr:uid="{00000000-0004-0000-0000-000085070000}"/>
-    <hyperlink ref="L442" r:id="rId1918" xr:uid="{00000000-0004-0000-0000-000086070000}"/>
-    <hyperlink ref="A443" r:id="rId1919" xr:uid="{00000000-0004-0000-0000-000087070000}"/>
-    <hyperlink ref="E443" r:id="rId1920" xr:uid="{00000000-0004-0000-0000-000088070000}"/>
-    <hyperlink ref="I443" r:id="rId1921" xr:uid="{00000000-0004-0000-0000-000089070000}"/>
-    <hyperlink ref="K443" r:id="rId1922" xr:uid="{00000000-0004-0000-0000-00008A070000}"/>
-    <hyperlink ref="L443" r:id="rId1923" xr:uid="{00000000-0004-0000-0000-00008B070000}"/>
-    <hyperlink ref="A444" r:id="rId1924" xr:uid="{00000000-0004-0000-0000-00008C070000}"/>
-    <hyperlink ref="L444" r:id="rId1925" xr:uid="{00000000-0004-0000-0000-00008D070000}"/>
-    <hyperlink ref="A445" r:id="rId1926" xr:uid="{00000000-0004-0000-0000-00008E070000}"/>
-    <hyperlink ref="E445" r:id="rId1927" xr:uid="{00000000-0004-0000-0000-00008F070000}"/>
-    <hyperlink ref="I445" r:id="rId1928" xr:uid="{00000000-0004-0000-0000-000090070000}"/>
-    <hyperlink ref="K445" r:id="rId1929" xr:uid="{00000000-0004-0000-0000-000091070000}"/>
-    <hyperlink ref="L445" r:id="rId1930" xr:uid="{00000000-0004-0000-0000-000092070000}"/>
-    <hyperlink ref="A446" r:id="rId1931" xr:uid="{00000000-0004-0000-0000-000093070000}"/>
-    <hyperlink ref="E446" r:id="rId1932" xr:uid="{00000000-0004-0000-0000-000094070000}"/>
-    <hyperlink ref="I446" r:id="rId1933" xr:uid="{00000000-0004-0000-0000-000095070000}"/>
-    <hyperlink ref="K446" r:id="rId1934" xr:uid="{00000000-0004-0000-0000-000096070000}"/>
-    <hyperlink ref="L446" r:id="rId1935" xr:uid="{00000000-0004-0000-0000-000097070000}"/>
-    <hyperlink ref="A447" r:id="rId1936" xr:uid="{00000000-0004-0000-0000-000098070000}"/>
-    <hyperlink ref="E447" r:id="rId1937" xr:uid="{00000000-0004-0000-0000-000099070000}"/>
-    <hyperlink ref="K447" r:id="rId1938" xr:uid="{00000000-0004-0000-0000-00009A070000}"/>
-    <hyperlink ref="L447" r:id="rId1939" xr:uid="{00000000-0004-0000-0000-00009B070000}"/>
-    <hyperlink ref="A448" r:id="rId1940" xr:uid="{00000000-0004-0000-0000-00009C070000}"/>
-    <hyperlink ref="E448" r:id="rId1941" xr:uid="{00000000-0004-0000-0000-00009D070000}"/>
-    <hyperlink ref="I448" r:id="rId1942" xr:uid="{00000000-0004-0000-0000-00009E070000}"/>
-    <hyperlink ref="K448" r:id="rId1943" xr:uid="{00000000-0004-0000-0000-00009F070000}"/>
-    <hyperlink ref="L448" r:id="rId1944" xr:uid="{00000000-0004-0000-0000-0000A0070000}"/>
-    <hyperlink ref="A449" r:id="rId1945" xr:uid="{00000000-0004-0000-0000-0000A1070000}"/>
-    <hyperlink ref="E449" r:id="rId1946" xr:uid="{00000000-0004-0000-0000-0000A2070000}"/>
-    <hyperlink ref="I449" r:id="rId1947" xr:uid="{00000000-0004-0000-0000-0000A3070000}"/>
-    <hyperlink ref="K449" r:id="rId1948" xr:uid="{00000000-0004-0000-0000-0000A4070000}"/>
-    <hyperlink ref="L449" r:id="rId1949" xr:uid="{00000000-0004-0000-0000-0000A5070000}"/>
-    <hyperlink ref="A450" r:id="rId1950" xr:uid="{00000000-0004-0000-0000-0000A6070000}"/>
-    <hyperlink ref="E450" r:id="rId1951" xr:uid="{00000000-0004-0000-0000-0000A7070000}"/>
-    <hyperlink ref="I450" r:id="rId1952" xr:uid="{00000000-0004-0000-0000-0000A8070000}"/>
-    <hyperlink ref="L450" r:id="rId1953" xr:uid="{00000000-0004-0000-0000-0000A9070000}"/>
-    <hyperlink ref="A451" r:id="rId1954" xr:uid="{00000000-0004-0000-0000-0000AA070000}"/>
-    <hyperlink ref="E451" r:id="rId1955" xr:uid="{00000000-0004-0000-0000-0000AB070000}"/>
-    <hyperlink ref="I451" r:id="rId1956" xr:uid="{00000000-0004-0000-0000-0000AC070000}"/>
-    <hyperlink ref="A452" r:id="rId1957" xr:uid="{00000000-0004-0000-0000-0000AD070000}"/>
-    <hyperlink ref="E452" r:id="rId1958" xr:uid="{00000000-0004-0000-0000-0000AE070000}"/>
-    <hyperlink ref="I452" r:id="rId1959" xr:uid="{00000000-0004-0000-0000-0000AF070000}"/>
-    <hyperlink ref="K452" r:id="rId1960" xr:uid="{00000000-0004-0000-0000-0000B0070000}"/>
-    <hyperlink ref="L452" r:id="rId1961" xr:uid="{00000000-0004-0000-0000-0000B1070000}"/>
-    <hyperlink ref="A453" r:id="rId1962" xr:uid="{00000000-0004-0000-0000-0000B2070000}"/>
-    <hyperlink ref="E453" r:id="rId1963" xr:uid="{00000000-0004-0000-0000-0000B3070000}"/>
-    <hyperlink ref="I453" r:id="rId1964" xr:uid="{00000000-0004-0000-0000-0000B4070000}"/>
-    <hyperlink ref="L453" r:id="rId1965" xr:uid="{00000000-0004-0000-0000-0000B5070000}"/>
-    <hyperlink ref="A454" r:id="rId1966" xr:uid="{00000000-0004-0000-0000-0000B6070000}"/>
-    <hyperlink ref="I454" r:id="rId1967" xr:uid="{00000000-0004-0000-0000-0000B7070000}"/>
-    <hyperlink ref="L454" r:id="rId1968" xr:uid="{00000000-0004-0000-0000-0000B8070000}"/>
-    <hyperlink ref="A455" r:id="rId1969" xr:uid="{00000000-0004-0000-0000-0000B9070000}"/>
-    <hyperlink ref="E455" r:id="rId1970" xr:uid="{00000000-0004-0000-0000-0000BA070000}"/>
-    <hyperlink ref="I455" r:id="rId1971" xr:uid="{00000000-0004-0000-0000-0000BB070000}"/>
-    <hyperlink ref="L455" r:id="rId1972" xr:uid="{00000000-0004-0000-0000-0000BC070000}"/>
-    <hyperlink ref="A456" r:id="rId1973" xr:uid="{00000000-0004-0000-0000-0000BD070000}"/>
-    <hyperlink ref="E456" r:id="rId1974" xr:uid="{00000000-0004-0000-0000-0000BE070000}"/>
-    <hyperlink ref="I456" r:id="rId1975" xr:uid="{00000000-0004-0000-0000-0000BF070000}"/>
-    <hyperlink ref="L456" r:id="rId1976" xr:uid="{00000000-0004-0000-0000-0000C0070000}"/>
-    <hyperlink ref="A457" r:id="rId1977" xr:uid="{00000000-0004-0000-0000-0000C1070000}"/>
-    <hyperlink ref="E457" r:id="rId1978" xr:uid="{00000000-0004-0000-0000-0000C2070000}"/>
-    <hyperlink ref="I457" r:id="rId1979" xr:uid="{00000000-0004-0000-0000-0000C3070000}"/>
-    <hyperlink ref="L457" r:id="rId1980" xr:uid="{00000000-0004-0000-0000-0000C4070000}"/>
-    <hyperlink ref="A458" r:id="rId1981" xr:uid="{00000000-0004-0000-0000-0000C5070000}"/>
-    <hyperlink ref="I458" r:id="rId1982" xr:uid="{00000000-0004-0000-0000-0000C6070000}"/>
-    <hyperlink ref="L458" r:id="rId1983" xr:uid="{00000000-0004-0000-0000-0000C7070000}"/>
-    <hyperlink ref="A459" r:id="rId1984" xr:uid="{00000000-0004-0000-0000-0000C8070000}"/>
-    <hyperlink ref="E459" r:id="rId1985" xr:uid="{00000000-0004-0000-0000-0000C9070000}"/>
-    <hyperlink ref="I459" r:id="rId1986" xr:uid="{00000000-0004-0000-0000-0000CA070000}"/>
-    <hyperlink ref="K459" r:id="rId1987" xr:uid="{00000000-0004-0000-0000-0000CB070000}"/>
-    <hyperlink ref="L459" r:id="rId1988" xr:uid="{00000000-0004-0000-0000-0000CC070000}"/>
-    <hyperlink ref="A460" r:id="rId1989" xr:uid="{00000000-0004-0000-0000-0000CD070000}"/>
-    <hyperlink ref="I460" r:id="rId1990" xr:uid="{00000000-0004-0000-0000-0000CE070000}"/>
-    <hyperlink ref="K460" r:id="rId1991" xr:uid="{00000000-0004-0000-0000-0000CF070000}"/>
-    <hyperlink ref="A461" r:id="rId1992" xr:uid="{00000000-0004-0000-0000-0000D0070000}"/>
-    <hyperlink ref="I461" r:id="rId1993" xr:uid="{00000000-0004-0000-0000-0000D1070000}"/>
-    <hyperlink ref="K461" r:id="rId1994" xr:uid="{00000000-0004-0000-0000-0000D2070000}"/>
-    <hyperlink ref="L461" r:id="rId1995" xr:uid="{00000000-0004-0000-0000-0000D3070000}"/>
-    <hyperlink ref="A462" r:id="rId1996" xr:uid="{00000000-0004-0000-0000-0000D4070000}"/>
-    <hyperlink ref="E462" r:id="rId1997" xr:uid="{00000000-0004-0000-0000-0000D5070000}"/>
-    <hyperlink ref="I462" r:id="rId1998" xr:uid="{00000000-0004-0000-0000-0000D6070000}"/>
-    <hyperlink ref="K462" r:id="rId1999" xr:uid="{00000000-0004-0000-0000-0000D7070000}"/>
-    <hyperlink ref="L462" r:id="rId2000" xr:uid="{00000000-0004-0000-0000-0000D8070000}"/>
-    <hyperlink ref="A463" r:id="rId2001" xr:uid="{00000000-0004-0000-0000-0000D9070000}"/>
-    <hyperlink ref="E463" r:id="rId2002" xr:uid="{00000000-0004-0000-0000-0000DA070000}"/>
-    <hyperlink ref="I463" r:id="rId2003" xr:uid="{00000000-0004-0000-0000-0000DB070000}"/>
-    <hyperlink ref="L463" r:id="rId2004" xr:uid="{00000000-0004-0000-0000-0000DC070000}"/>
-    <hyperlink ref="A464" r:id="rId2005" xr:uid="{00000000-0004-0000-0000-0000DD070000}"/>
-    <hyperlink ref="E464" r:id="rId2006" xr:uid="{00000000-0004-0000-0000-0000DE070000}"/>
-    <hyperlink ref="I464" r:id="rId2007" xr:uid="{00000000-0004-0000-0000-0000DF070000}"/>
-    <hyperlink ref="L464" r:id="rId2008" xr:uid="{00000000-0004-0000-0000-0000E0070000}"/>
-    <hyperlink ref="A465" r:id="rId2009" xr:uid="{00000000-0004-0000-0000-0000E1070000}"/>
-    <hyperlink ref="I465" r:id="rId2010" xr:uid="{00000000-0004-0000-0000-0000E2070000}"/>
-    <hyperlink ref="L465" r:id="rId2011" xr:uid="{00000000-0004-0000-0000-0000E3070000}"/>
-    <hyperlink ref="A466" r:id="rId2012" xr:uid="{00000000-0004-0000-0000-0000E4070000}"/>
-    <hyperlink ref="E466" r:id="rId2013" xr:uid="{00000000-0004-0000-0000-0000E5070000}"/>
-    <hyperlink ref="I466" r:id="rId2014" xr:uid="{00000000-0004-0000-0000-0000E6070000}"/>
-    <hyperlink ref="K466" r:id="rId2015" xr:uid="{00000000-0004-0000-0000-0000E7070000}"/>
-    <hyperlink ref="L466" r:id="rId2016" xr:uid="{00000000-0004-0000-0000-0000E8070000}"/>
-    <hyperlink ref="A467" r:id="rId2017" xr:uid="{00000000-0004-0000-0000-0000E9070000}"/>
-    <hyperlink ref="E467" r:id="rId2018" xr:uid="{00000000-0004-0000-0000-0000EA070000}"/>
-    <hyperlink ref="I467" r:id="rId2019" xr:uid="{00000000-0004-0000-0000-0000EB070000}"/>
-    <hyperlink ref="L467" r:id="rId2020" xr:uid="{00000000-0004-0000-0000-0000EC070000}"/>
-    <hyperlink ref="A468" r:id="rId2021" xr:uid="{00000000-0004-0000-0000-0000ED070000}"/>
-    <hyperlink ref="E468" r:id="rId2022" xr:uid="{00000000-0004-0000-0000-0000EE070000}"/>
-    <hyperlink ref="K468" r:id="rId2023" xr:uid="{00000000-0004-0000-0000-0000EF070000}"/>
-    <hyperlink ref="L468" r:id="rId2024" xr:uid="{00000000-0004-0000-0000-0000F0070000}"/>
-    <hyperlink ref="A469" r:id="rId2025" xr:uid="{00000000-0004-0000-0000-0000F1070000}"/>
-    <hyperlink ref="E469" r:id="rId2026" xr:uid="{00000000-0004-0000-0000-0000F2070000}"/>
-    <hyperlink ref="I469" r:id="rId2027" xr:uid="{00000000-0004-0000-0000-0000F3070000}"/>
-    <hyperlink ref="K469" r:id="rId2028" xr:uid="{00000000-0004-0000-0000-0000F4070000}"/>
-    <hyperlink ref="L469" r:id="rId2029" xr:uid="{00000000-0004-0000-0000-0000F5070000}"/>
-    <hyperlink ref="A470" r:id="rId2030" xr:uid="{00000000-0004-0000-0000-0000F6070000}"/>
-    <hyperlink ref="E470" r:id="rId2031" xr:uid="{00000000-0004-0000-0000-0000F7070000}"/>
-    <hyperlink ref="I470" r:id="rId2032" xr:uid="{00000000-0004-0000-0000-0000F8070000}"/>
-    <hyperlink ref="K470" r:id="rId2033" xr:uid="{00000000-0004-0000-0000-0000F9070000}"/>
-    <hyperlink ref="L470" r:id="rId2034" xr:uid="{00000000-0004-0000-0000-0000FA070000}"/>
-    <hyperlink ref="A471" r:id="rId2035" xr:uid="{00000000-0004-0000-0000-0000FB070000}"/>
-    <hyperlink ref="E471" r:id="rId2036" xr:uid="{00000000-0004-0000-0000-0000FC070000}"/>
-    <hyperlink ref="I471" r:id="rId2037" xr:uid="{00000000-0004-0000-0000-0000FD070000}"/>
-    <hyperlink ref="K471" r:id="rId2038" xr:uid="{00000000-0004-0000-0000-0000FE070000}"/>
-    <hyperlink ref="L471" r:id="rId2039" xr:uid="{00000000-0004-0000-0000-0000FF070000}"/>
-    <hyperlink ref="A472" r:id="rId2040" xr:uid="{00000000-0004-0000-0000-000000080000}"/>
-    <hyperlink ref="E472" r:id="rId2041" xr:uid="{00000000-0004-0000-0000-000001080000}"/>
-    <hyperlink ref="I472" r:id="rId2042" xr:uid="{00000000-0004-0000-0000-000002080000}"/>
-    <hyperlink ref="L472" r:id="rId2043" xr:uid="{00000000-0004-0000-0000-000003080000}"/>
-    <hyperlink ref="A473" r:id="rId2044" xr:uid="{00000000-0004-0000-0000-000004080000}"/>
-    <hyperlink ref="E473" r:id="rId2045" xr:uid="{00000000-0004-0000-0000-000005080000}"/>
-    <hyperlink ref="I473" r:id="rId2046" xr:uid="{00000000-0004-0000-0000-000006080000}"/>
-    <hyperlink ref="K473" r:id="rId2047" xr:uid="{00000000-0004-0000-0000-000007080000}"/>
-    <hyperlink ref="L473" r:id="rId2048" xr:uid="{00000000-0004-0000-0000-000008080000}"/>
-    <hyperlink ref="A474" r:id="rId2049" xr:uid="{00000000-0004-0000-0000-000009080000}"/>
-    <hyperlink ref="E474" r:id="rId2050" xr:uid="{00000000-0004-0000-0000-00000A080000}"/>
-    <hyperlink ref="I474" r:id="rId2051" xr:uid="{00000000-0004-0000-0000-00000B080000}"/>
-    <hyperlink ref="K474" r:id="rId2052" xr:uid="{00000000-0004-0000-0000-00000C080000}"/>
-    <hyperlink ref="L474" r:id="rId2053" xr:uid="{00000000-0004-0000-0000-00000D080000}"/>
-    <hyperlink ref="A475" r:id="rId2054" xr:uid="{00000000-0004-0000-0000-00000E080000}"/>
-    <hyperlink ref="L475" r:id="rId2055" xr:uid="{00000000-0004-0000-0000-00000F080000}"/>
-    <hyperlink ref="A476" r:id="rId2056" xr:uid="{00000000-0004-0000-0000-000010080000}"/>
-    <hyperlink ref="E476" r:id="rId2057" xr:uid="{00000000-0004-0000-0000-000011080000}"/>
-    <hyperlink ref="I476" r:id="rId2058" xr:uid="{00000000-0004-0000-0000-000012080000}"/>
-    <hyperlink ref="K476" r:id="rId2059" xr:uid="{00000000-0004-0000-0000-000013080000}"/>
-    <hyperlink ref="L476" r:id="rId2060" xr:uid="{00000000-0004-0000-0000-000014080000}"/>
-    <hyperlink ref="A478" r:id="rId2061" xr:uid="{00000000-0004-0000-0000-000015080000}"/>
-    <hyperlink ref="I478" r:id="rId2062" xr:uid="{00000000-0004-0000-0000-000016080000}"/>
-    <hyperlink ref="K478" r:id="rId2063" xr:uid="{00000000-0004-0000-0000-000017080000}"/>
-    <hyperlink ref="L478" r:id="rId2064" xr:uid="{00000000-0004-0000-0000-000018080000}"/>
-    <hyperlink ref="A479" r:id="rId2065" xr:uid="{00000000-0004-0000-0000-000019080000}"/>
-    <hyperlink ref="E479" r:id="rId2066" xr:uid="{00000000-0004-0000-0000-00001A080000}"/>
-    <hyperlink ref="I479" r:id="rId2067" xr:uid="{00000000-0004-0000-0000-00001B080000}"/>
-    <hyperlink ref="K479" r:id="rId2068" xr:uid="{00000000-0004-0000-0000-00001C080000}"/>
-    <hyperlink ref="L479" r:id="rId2069" xr:uid="{00000000-0004-0000-0000-00001D080000}"/>
-    <hyperlink ref="A480" r:id="rId2070" xr:uid="{00000000-0004-0000-0000-00001E080000}"/>
-    <hyperlink ref="E480" r:id="rId2071" xr:uid="{00000000-0004-0000-0000-00001F080000}"/>
-    <hyperlink ref="I480" r:id="rId2072" xr:uid="{00000000-0004-0000-0000-000020080000}"/>
-    <hyperlink ref="K480" r:id="rId2073" xr:uid="{00000000-0004-0000-0000-000021080000}"/>
-    <hyperlink ref="L480" r:id="rId2074" xr:uid="{00000000-0004-0000-0000-000022080000}"/>
-    <hyperlink ref="A481" r:id="rId2075" xr:uid="{00000000-0004-0000-0000-000023080000}"/>
-    <hyperlink ref="I481" r:id="rId2076" xr:uid="{00000000-0004-0000-0000-000024080000}"/>
-    <hyperlink ref="K481" r:id="rId2077" xr:uid="{00000000-0004-0000-0000-000025080000}"/>
-    <hyperlink ref="L481" r:id="rId2078" xr:uid="{00000000-0004-0000-0000-000026080000}"/>
-    <hyperlink ref="A482" r:id="rId2079" xr:uid="{00000000-0004-0000-0000-000027080000}"/>
-    <hyperlink ref="E482" r:id="rId2080" xr:uid="{00000000-0004-0000-0000-000028080000}"/>
-    <hyperlink ref="I482" r:id="rId2081" xr:uid="{00000000-0004-0000-0000-000029080000}"/>
-    <hyperlink ref="L482" r:id="rId2082" xr:uid="{00000000-0004-0000-0000-00002A080000}"/>
-    <hyperlink ref="A483" r:id="rId2083" xr:uid="{00000000-0004-0000-0000-00002B080000}"/>
-    <hyperlink ref="E483" r:id="rId2084" xr:uid="{00000000-0004-0000-0000-00002C080000}"/>
-    <hyperlink ref="I483" r:id="rId2085" xr:uid="{00000000-0004-0000-0000-00002D080000}"/>
-    <hyperlink ref="K483" r:id="rId2086" xr:uid="{00000000-0004-0000-0000-00002E080000}"/>
-    <hyperlink ref="L483" r:id="rId2087" xr:uid="{00000000-0004-0000-0000-00002F080000}"/>
-    <hyperlink ref="A484" r:id="rId2088" xr:uid="{00000000-0004-0000-0000-000030080000}"/>
-    <hyperlink ref="I484" r:id="rId2089" xr:uid="{00000000-0004-0000-0000-000031080000}"/>
-    <hyperlink ref="L484" r:id="rId2090" xr:uid="{00000000-0004-0000-0000-000032080000}"/>
-    <hyperlink ref="A485" r:id="rId2091" xr:uid="{00000000-0004-0000-0000-000033080000}"/>
-    <hyperlink ref="I485" r:id="rId2092" xr:uid="{00000000-0004-0000-0000-000034080000}"/>
-    <hyperlink ref="L485" r:id="rId2093" xr:uid="{00000000-0004-0000-0000-000035080000}"/>
-    <hyperlink ref="A486" r:id="rId2094" xr:uid="{00000000-0004-0000-0000-000036080000}"/>
-    <hyperlink ref="E486" r:id="rId2095" xr:uid="{00000000-0004-0000-0000-000037080000}"/>
-    <hyperlink ref="I486" r:id="rId2096" xr:uid="{00000000-0004-0000-0000-000038080000}"/>
-    <hyperlink ref="K486" r:id="rId2097" xr:uid="{00000000-0004-0000-0000-000039080000}"/>
-    <hyperlink ref="L486" r:id="rId2098" xr:uid="{00000000-0004-0000-0000-00003A080000}"/>
-    <hyperlink ref="A487" r:id="rId2099" xr:uid="{00000000-0004-0000-0000-00003B080000}"/>
-    <hyperlink ref="I487" r:id="rId2100" xr:uid="{00000000-0004-0000-0000-00003C080000}"/>
-    <hyperlink ref="K487" r:id="rId2101" xr:uid="{00000000-0004-0000-0000-00003D080000}"/>
-    <hyperlink ref="L487" r:id="rId2102" xr:uid="{00000000-0004-0000-0000-00003E080000}"/>
-    <hyperlink ref="A488" r:id="rId2103" xr:uid="{00000000-0004-0000-0000-00003F080000}"/>
-    <hyperlink ref="E488" r:id="rId2104" xr:uid="{00000000-0004-0000-0000-000040080000}"/>
-    <hyperlink ref="I488" r:id="rId2105" xr:uid="{00000000-0004-0000-0000-000041080000}"/>
-    <hyperlink ref="K488" r:id="rId2106" xr:uid="{00000000-0004-0000-0000-000042080000}"/>
-    <hyperlink ref="L488" r:id="rId2107" xr:uid="{00000000-0004-0000-0000-000043080000}"/>
-    <hyperlink ref="A489" r:id="rId2108" xr:uid="{00000000-0004-0000-0000-000044080000}"/>
-    <hyperlink ref="I489" r:id="rId2109" xr:uid="{00000000-0004-0000-0000-000045080000}"/>
-    <hyperlink ref="L489" r:id="rId2110" xr:uid="{00000000-0004-0000-0000-000046080000}"/>
-    <hyperlink ref="A490" r:id="rId2111" xr:uid="{00000000-0004-0000-0000-000047080000}"/>
-    <hyperlink ref="E490" r:id="rId2112" xr:uid="{00000000-0004-0000-0000-000048080000}"/>
-    <hyperlink ref="I490" r:id="rId2113" xr:uid="{00000000-0004-0000-0000-000049080000}"/>
-    <hyperlink ref="L490" r:id="rId2114" xr:uid="{00000000-0004-0000-0000-00004A080000}"/>
-    <hyperlink ref="A491" r:id="rId2115" xr:uid="{00000000-0004-0000-0000-00004B080000}"/>
-    <hyperlink ref="I491" r:id="rId2116" xr:uid="{00000000-0004-0000-0000-00004C080000}"/>
-    <hyperlink ref="K491" r:id="rId2117" xr:uid="{00000000-0004-0000-0000-00004D080000}"/>
-    <hyperlink ref="L491" r:id="rId2118" xr:uid="{00000000-0004-0000-0000-00004E080000}"/>
-    <hyperlink ref="A492" r:id="rId2119" xr:uid="{00000000-0004-0000-0000-00004F080000}"/>
-    <hyperlink ref="E492" r:id="rId2120" xr:uid="{00000000-0004-0000-0000-000050080000}"/>
-    <hyperlink ref="I492" r:id="rId2121" xr:uid="{00000000-0004-0000-0000-000051080000}"/>
-    <hyperlink ref="L492" r:id="rId2122" xr:uid="{00000000-0004-0000-0000-000052080000}"/>
-    <hyperlink ref="A493" r:id="rId2123" xr:uid="{00000000-0004-0000-0000-000053080000}"/>
-    <hyperlink ref="E493" r:id="rId2124" xr:uid="{00000000-0004-0000-0000-000054080000}"/>
-    <hyperlink ref="I493" r:id="rId2125" xr:uid="{00000000-0004-0000-0000-000055080000}"/>
-    <hyperlink ref="K493" r:id="rId2126" xr:uid="{00000000-0004-0000-0000-000056080000}"/>
-    <hyperlink ref="L493" r:id="rId2127" xr:uid="{00000000-0004-0000-0000-000057080000}"/>
-    <hyperlink ref="A494" r:id="rId2128" xr:uid="{00000000-0004-0000-0000-000058080000}"/>
-    <hyperlink ref="E494" r:id="rId2129" xr:uid="{00000000-0004-0000-0000-000059080000}"/>
-    <hyperlink ref="I494" r:id="rId2130" xr:uid="{00000000-0004-0000-0000-00005A080000}"/>
-    <hyperlink ref="K494" r:id="rId2131" xr:uid="{00000000-0004-0000-0000-00005B080000}"/>
-    <hyperlink ref="L494" r:id="rId2132" xr:uid="{00000000-0004-0000-0000-00005C080000}"/>
-    <hyperlink ref="A495" r:id="rId2133" xr:uid="{00000000-0004-0000-0000-00005D080000}"/>
-    <hyperlink ref="E495" r:id="rId2134" xr:uid="{00000000-0004-0000-0000-00005E080000}"/>
-    <hyperlink ref="I495" r:id="rId2135" xr:uid="{00000000-0004-0000-0000-00005F080000}"/>
-    <hyperlink ref="K495" r:id="rId2136" xr:uid="{00000000-0004-0000-0000-000060080000}"/>
-    <hyperlink ref="L495" r:id="rId2137" xr:uid="{00000000-0004-0000-0000-000061080000}"/>
-    <hyperlink ref="A496" r:id="rId2138" xr:uid="{00000000-0004-0000-0000-000062080000}"/>
-    <hyperlink ref="I496" r:id="rId2139" xr:uid="{00000000-0004-0000-0000-000063080000}"/>
-    <hyperlink ref="A497" r:id="rId2140" xr:uid="{00000000-0004-0000-0000-000064080000}"/>
-    <hyperlink ref="I497" r:id="rId2141" xr:uid="{00000000-0004-0000-0000-000065080000}"/>
-    <hyperlink ref="K497" r:id="rId2142" xr:uid="{00000000-0004-0000-0000-000066080000}"/>
-    <hyperlink ref="L497" r:id="rId2143" xr:uid="{00000000-0004-0000-0000-000067080000}"/>
-    <hyperlink ref="A498" r:id="rId2144" xr:uid="{00000000-0004-0000-0000-000068080000}"/>
-    <hyperlink ref="I498" r:id="rId2145" xr:uid="{00000000-0004-0000-0000-000069080000}"/>
-    <hyperlink ref="L498" r:id="rId2146" xr:uid="{00000000-0004-0000-0000-00006A080000}"/>
-    <hyperlink ref="A499" r:id="rId2147" xr:uid="{00000000-0004-0000-0000-00006B080000}"/>
-    <hyperlink ref="E499" r:id="rId2148" xr:uid="{00000000-0004-0000-0000-00006C080000}"/>
-    <hyperlink ref="I499" r:id="rId2149" xr:uid="{00000000-0004-0000-0000-00006D080000}"/>
-    <hyperlink ref="L499" r:id="rId2150" xr:uid="{00000000-0004-0000-0000-00006E080000}"/>
-    <hyperlink ref="A500" r:id="rId2151" xr:uid="{00000000-0004-0000-0000-00006F080000}"/>
-    <hyperlink ref="K500" r:id="rId2152" xr:uid="{00000000-0004-0000-0000-000070080000}"/>
-    <hyperlink ref="L500" r:id="rId2153" xr:uid="{00000000-0004-0000-0000-000071080000}"/>
-    <hyperlink ref="A501" r:id="rId2154" xr:uid="{00000000-0004-0000-0000-000072080000}"/>
-    <hyperlink ref="E501" r:id="rId2155" xr:uid="{00000000-0004-0000-0000-000073080000}"/>
-    <hyperlink ref="I501" r:id="rId2156" xr:uid="{00000000-0004-0000-0000-000074080000}"/>
-    <hyperlink ref="K501" r:id="rId2157" xr:uid="{00000000-0004-0000-0000-000075080000}"/>
-    <hyperlink ref="L501" r:id="rId2158" xr:uid="{00000000-0004-0000-0000-000076080000}"/>
-    <hyperlink ref="A502" r:id="rId2159" xr:uid="{00000000-0004-0000-0000-000077080000}"/>
-    <hyperlink ref="I502" r:id="rId2160" xr:uid="{00000000-0004-0000-0000-000078080000}"/>
-    <hyperlink ref="L502" r:id="rId2161" xr:uid="{00000000-0004-0000-0000-000079080000}"/>
-    <hyperlink ref="A503" r:id="rId2162" xr:uid="{00000000-0004-0000-0000-00007A080000}"/>
-    <hyperlink ref="I503" r:id="rId2163" xr:uid="{00000000-0004-0000-0000-00007B080000}"/>
-    <hyperlink ref="L503" r:id="rId2164" xr:uid="{00000000-0004-0000-0000-00007C080000}"/>
-    <hyperlink ref="A504" r:id="rId2165" xr:uid="{00000000-0004-0000-0000-00007D080000}"/>
-    <hyperlink ref="I504" r:id="rId2166" xr:uid="{00000000-0004-0000-0000-00007E080000}"/>
-    <hyperlink ref="L504" r:id="rId2167" xr:uid="{00000000-0004-0000-0000-00007F080000}"/>
-    <hyperlink ref="A505" r:id="rId2168" xr:uid="{00000000-0004-0000-0000-000080080000}"/>
-    <hyperlink ref="E505" r:id="rId2169" xr:uid="{00000000-0004-0000-0000-000081080000}"/>
-    <hyperlink ref="I505" r:id="rId2170" xr:uid="{00000000-0004-0000-0000-000082080000}"/>
-    <hyperlink ref="K505" r:id="rId2171" xr:uid="{00000000-0004-0000-0000-000083080000}"/>
-    <hyperlink ref="L505" r:id="rId2172" xr:uid="{00000000-0004-0000-0000-000084080000}"/>
-    <hyperlink ref="A506" r:id="rId2173" xr:uid="{00000000-0004-0000-0000-000085080000}"/>
-    <hyperlink ref="I506" r:id="rId2174" xr:uid="{00000000-0004-0000-0000-000086080000}"/>
-    <hyperlink ref="L506" r:id="rId2175" xr:uid="{00000000-0004-0000-0000-000087080000}"/>
-    <hyperlink ref="A507" r:id="rId2176" xr:uid="{00000000-0004-0000-0000-000088080000}"/>
-    <hyperlink ref="E507" r:id="rId2177" xr:uid="{00000000-0004-0000-0000-000089080000}"/>
-    <hyperlink ref="L507" r:id="rId2178" xr:uid="{00000000-0004-0000-0000-00008A080000}"/>
-    <hyperlink ref="A508" r:id="rId2179" xr:uid="{00000000-0004-0000-0000-00008B080000}"/>
-    <hyperlink ref="E508" r:id="rId2180" xr:uid="{00000000-0004-0000-0000-00008C080000}"/>
-    <hyperlink ref="L508" r:id="rId2181" xr:uid="{00000000-0004-0000-0000-00008D080000}"/>
-    <hyperlink ref="A509" r:id="rId2182" xr:uid="{00000000-0004-0000-0000-00008E080000}"/>
-    <hyperlink ref="E509" r:id="rId2183" xr:uid="{00000000-0004-0000-0000-00008F080000}"/>
-    <hyperlink ref="L509" r:id="rId2184" xr:uid="{00000000-0004-0000-0000-000090080000}"/>
-    <hyperlink ref="A510" r:id="rId2185" xr:uid="{00000000-0004-0000-0000-000091080000}"/>
-    <hyperlink ref="E510" r:id="rId2186" xr:uid="{00000000-0004-0000-0000-000092080000}"/>
-    <hyperlink ref="I510" r:id="rId2187" xr:uid="{00000000-0004-0000-0000-000093080000}"/>
-    <hyperlink ref="L510" r:id="rId2188" xr:uid="{00000000-0004-0000-0000-000094080000}"/>
-    <hyperlink ref="A512" r:id="rId2189" xr:uid="{00000000-0004-0000-0000-000095080000}"/>
-    <hyperlink ref="E512" r:id="rId2190" xr:uid="{00000000-0004-0000-0000-000096080000}"/>
-    <hyperlink ref="K512" r:id="rId2191" xr:uid="{00000000-0004-0000-0000-000097080000}"/>
-    <hyperlink ref="L512" r:id="rId2192" xr:uid="{00000000-0004-0000-0000-000098080000}"/>
-    <hyperlink ref="A513" r:id="rId2193" xr:uid="{00000000-0004-0000-0000-000099080000}"/>
-    <hyperlink ref="I513" r:id="rId2194" xr:uid="{00000000-0004-0000-0000-00009A080000}"/>
-    <hyperlink ref="L513" r:id="rId2195" xr:uid="{00000000-0004-0000-0000-00009B080000}"/>
-    <hyperlink ref="A514" r:id="rId2196" xr:uid="{00000000-0004-0000-0000-00009C080000}"/>
-    <hyperlink ref="I514" r:id="rId2197" xr:uid="{00000000-0004-0000-0000-00009D080000}"/>
-    <hyperlink ref="L514" r:id="rId2198" xr:uid="{00000000-0004-0000-0000-00009E080000}"/>
-    <hyperlink ref="A515" r:id="rId2199" xr:uid="{00000000-0004-0000-0000-00009F080000}"/>
-    <hyperlink ref="E515" r:id="rId2200" xr:uid="{00000000-0004-0000-0000-0000A0080000}"/>
-    <hyperlink ref="I515" r:id="rId2201" xr:uid="{00000000-0004-0000-0000-0000A1080000}"/>
-    <hyperlink ref="L515" r:id="rId2202" xr:uid="{00000000-0004-0000-0000-0000A2080000}"/>
-    <hyperlink ref="A516" r:id="rId2203" xr:uid="{00000000-0004-0000-0000-0000A3080000}"/>
-    <hyperlink ref="E516" r:id="rId2204" xr:uid="{00000000-0004-0000-0000-0000A4080000}"/>
-    <hyperlink ref="I516" r:id="rId2205" xr:uid="{00000000-0004-0000-0000-0000A5080000}"/>
-    <hyperlink ref="L516" r:id="rId2206" xr:uid="{00000000-0004-0000-0000-0000A6080000}"/>
-    <hyperlink ref="A517" r:id="rId2207" xr:uid="{00000000-0004-0000-0000-0000A7080000}"/>
-    <hyperlink ref="E517" r:id="rId2208" xr:uid="{00000000-0004-0000-0000-0000A8080000}"/>
-    <hyperlink ref="A518" r:id="rId2209" xr:uid="{00000000-0004-0000-0000-0000A9080000}"/>
-    <hyperlink ref="E518" r:id="rId2210" xr:uid="{00000000-0004-0000-0000-0000AA080000}"/>
-    <hyperlink ref="I518" r:id="rId2211" xr:uid="{00000000-0004-0000-0000-0000AB080000}"/>
-    <hyperlink ref="L518" r:id="rId2212" xr:uid="{00000000-0004-0000-0000-0000AC080000}"/>
-    <hyperlink ref="A519" r:id="rId2213" xr:uid="{00000000-0004-0000-0000-0000AD080000}"/>
-    <hyperlink ref="E519" r:id="rId2214" xr:uid="{00000000-0004-0000-0000-0000AE080000}"/>
-    <hyperlink ref="I519" r:id="rId2215" xr:uid="{00000000-0004-0000-0000-0000AF080000}"/>
-    <hyperlink ref="L519" r:id="rId2216" xr:uid="{00000000-0004-0000-0000-0000B0080000}"/>
-    <hyperlink ref="A520" r:id="rId2217" xr:uid="{00000000-0004-0000-0000-0000B1080000}"/>
-    <hyperlink ref="E520" r:id="rId2218" xr:uid="{00000000-0004-0000-0000-0000B2080000}"/>
-    <hyperlink ref="I520" r:id="rId2219" xr:uid="{00000000-0004-0000-0000-0000B3080000}"/>
-    <hyperlink ref="L520" r:id="rId2220" xr:uid="{00000000-0004-0000-0000-0000B4080000}"/>
-    <hyperlink ref="A521" r:id="rId2221" xr:uid="{00000000-0004-0000-0000-0000B5080000}"/>
-    <hyperlink ref="E521" r:id="rId2222" xr:uid="{00000000-0004-0000-0000-0000B6080000}"/>
-    <hyperlink ref="I521" r:id="rId2223" xr:uid="{00000000-0004-0000-0000-0000B7080000}"/>
-    <hyperlink ref="L521" r:id="rId2224" xr:uid="{00000000-0004-0000-0000-0000B8080000}"/>
-    <hyperlink ref="A522" r:id="rId2225" xr:uid="{00000000-0004-0000-0000-0000B9080000}"/>
-    <hyperlink ref="E522" r:id="rId2226" xr:uid="{00000000-0004-0000-0000-0000BA080000}"/>
-    <hyperlink ref="I522" r:id="rId2227" xr:uid="{00000000-0004-0000-0000-0000BB080000}"/>
-    <hyperlink ref="L522" r:id="rId2228" xr:uid="{00000000-0004-0000-0000-0000BC080000}"/>
-    <hyperlink ref="A524" r:id="rId2229" xr:uid="{00000000-0004-0000-0000-0000BD080000}"/>
-    <hyperlink ref="E524" r:id="rId2230" xr:uid="{00000000-0004-0000-0000-0000BE080000}"/>
-    <hyperlink ref="I524" r:id="rId2231" xr:uid="{00000000-0004-0000-0000-0000BF080000}"/>
-    <hyperlink ref="K524" r:id="rId2232" xr:uid="{00000000-0004-0000-0000-0000C0080000}"/>
-    <hyperlink ref="L524" r:id="rId2233" xr:uid="{00000000-0004-0000-0000-0000C1080000}"/>
-    <hyperlink ref="A525" r:id="rId2234" xr:uid="{00000000-0004-0000-0000-0000C2080000}"/>
-    <hyperlink ref="E525" r:id="rId2235" xr:uid="{00000000-0004-0000-0000-0000C3080000}"/>
-    <hyperlink ref="I525" r:id="rId2236" xr:uid="{00000000-0004-0000-0000-0000C4080000}"/>
-    <hyperlink ref="K525" r:id="rId2237" xr:uid="{00000000-0004-0000-0000-0000C5080000}"/>
-    <hyperlink ref="L525" r:id="rId2238" xr:uid="{00000000-0004-0000-0000-0000C6080000}"/>
-    <hyperlink ref="A526" r:id="rId2239" xr:uid="{00000000-0004-0000-0000-0000C7080000}"/>
-    <hyperlink ref="E526" r:id="rId2240" xr:uid="{00000000-0004-0000-0000-0000C8080000}"/>
-    <hyperlink ref="I526" r:id="rId2241" xr:uid="{00000000-0004-0000-0000-0000C9080000}"/>
-    <hyperlink ref="K526" r:id="rId2242" xr:uid="{00000000-0004-0000-0000-0000CA080000}"/>
-    <hyperlink ref="L526" r:id="rId2243" xr:uid="{00000000-0004-0000-0000-0000CB080000}"/>
-    <hyperlink ref="A527" r:id="rId2244" xr:uid="{00000000-0004-0000-0000-0000CC080000}"/>
-    <hyperlink ref="E527" r:id="rId2245" xr:uid="{00000000-0004-0000-0000-0000CD080000}"/>
-    <hyperlink ref="I527" r:id="rId2246" xr:uid="{00000000-0004-0000-0000-0000CE080000}"/>
-    <hyperlink ref="L527" r:id="rId2247" xr:uid="{00000000-0004-0000-0000-0000CF080000}"/>
-    <hyperlink ref="A529" r:id="rId2248" xr:uid="{00000000-0004-0000-0000-0000D0080000}"/>
-    <hyperlink ref="E529" r:id="rId2249" xr:uid="{00000000-0004-0000-0000-0000D1080000}"/>
-    <hyperlink ref="I529" r:id="rId2250" xr:uid="{00000000-0004-0000-0000-0000D2080000}"/>
-    <hyperlink ref="L529" r:id="rId2251" xr:uid="{00000000-0004-0000-0000-0000D3080000}"/>
-    <hyperlink ref="A530" r:id="rId2252" xr:uid="{00000000-0004-0000-0000-0000D4080000}"/>
-    <hyperlink ref="E530" r:id="rId2253" xr:uid="{00000000-0004-0000-0000-0000D5080000}"/>
-    <hyperlink ref="I530" r:id="rId2254" xr:uid="{00000000-0004-0000-0000-0000D6080000}"/>
-    <hyperlink ref="L530" r:id="rId2255" xr:uid="{00000000-0004-0000-0000-0000D7080000}"/>
-    <hyperlink ref="A531" r:id="rId2256" xr:uid="{00000000-0004-0000-0000-0000D8080000}"/>
-    <hyperlink ref="E531" r:id="rId2257" xr:uid="{00000000-0004-0000-0000-0000D9080000}"/>
-    <hyperlink ref="I531" r:id="rId2258" xr:uid="{00000000-0004-0000-0000-0000DA080000}"/>
-    <hyperlink ref="L531" r:id="rId2259" xr:uid="{00000000-0004-0000-0000-0000DB080000}"/>
-    <hyperlink ref="A532" r:id="rId2260" xr:uid="{00000000-0004-0000-0000-0000DC080000}"/>
-    <hyperlink ref="E532" r:id="rId2261" xr:uid="{00000000-0004-0000-0000-0000DD080000}"/>
-    <hyperlink ref="I532" r:id="rId2262" xr:uid="{00000000-0004-0000-0000-0000DE080000}"/>
-    <hyperlink ref="L532" r:id="rId2263" xr:uid="{00000000-0004-0000-0000-0000DF080000}"/>
-    <hyperlink ref="A533" r:id="rId2264" xr:uid="{00000000-0004-0000-0000-0000E0080000}"/>
-    <hyperlink ref="E533" r:id="rId2265" xr:uid="{00000000-0004-0000-0000-0000E1080000}"/>
-    <hyperlink ref="K533" r:id="rId2266" xr:uid="{00000000-0004-0000-0000-0000E2080000}"/>
-    <hyperlink ref="L533" r:id="rId2267" xr:uid="{00000000-0004-0000-0000-0000E3080000}"/>
-    <hyperlink ref="A534" r:id="rId2268" xr:uid="{00000000-0004-0000-0000-0000E4080000}"/>
-    <hyperlink ref="I534" r:id="rId2269" xr:uid="{00000000-0004-0000-0000-0000E5080000}"/>
-    <hyperlink ref="K534" r:id="rId2270" xr:uid="{00000000-0004-0000-0000-0000E6080000}"/>
-    <hyperlink ref="L534" r:id="rId2271" xr:uid="{00000000-0004-0000-0000-0000E7080000}"/>
-    <hyperlink ref="A535" r:id="rId2272" xr:uid="{00000000-0004-0000-0000-0000E8080000}"/>
-    <hyperlink ref="I535" r:id="rId2273" xr:uid="{00000000-0004-0000-0000-0000E9080000}"/>
-    <hyperlink ref="L535" r:id="rId2274" xr:uid="{00000000-0004-0000-0000-0000EA080000}"/>
-    <hyperlink ref="A536" r:id="rId2275" xr:uid="{00000000-0004-0000-0000-0000EB080000}"/>
-    <hyperlink ref="E536" r:id="rId2276" xr:uid="{00000000-0004-0000-0000-0000EC080000}"/>
-    <hyperlink ref="I536" r:id="rId2277" xr:uid="{00000000-0004-0000-0000-0000ED080000}"/>
-    <hyperlink ref="L536" r:id="rId2278" xr:uid="{00000000-0004-0000-0000-0000EE080000}"/>
-    <hyperlink ref="A538" r:id="rId2279" xr:uid="{00000000-0004-0000-0000-0000EF080000}"/>
-    <hyperlink ref="E538" r:id="rId2280" xr:uid="{00000000-0004-0000-0000-0000F0080000}"/>
-    <hyperlink ref="I538" r:id="rId2281" xr:uid="{00000000-0004-0000-0000-0000F1080000}"/>
-    <hyperlink ref="L538" r:id="rId2282" xr:uid="{00000000-0004-0000-0000-0000F2080000}"/>
-    <hyperlink ref="A539" r:id="rId2283" xr:uid="{00000000-0004-0000-0000-0000F3080000}"/>
-    <hyperlink ref="I539" r:id="rId2284" xr:uid="{00000000-0004-0000-0000-0000F4080000}"/>
-    <hyperlink ref="K539" r:id="rId2285" xr:uid="{00000000-0004-0000-0000-0000F5080000}"/>
-    <hyperlink ref="A540" r:id="rId2286" xr:uid="{00000000-0004-0000-0000-0000F6080000}"/>
-    <hyperlink ref="E540" r:id="rId2287" xr:uid="{00000000-0004-0000-0000-0000F7080000}"/>
-    <hyperlink ref="I540" r:id="rId2288" xr:uid="{00000000-0004-0000-0000-0000F8080000}"/>
-    <hyperlink ref="K540" r:id="rId2289" xr:uid="{00000000-0004-0000-0000-0000F9080000}"/>
-    <hyperlink ref="L540" r:id="rId2290" xr:uid="{00000000-0004-0000-0000-0000FA080000}"/>
-    <hyperlink ref="A541" r:id="rId2291" xr:uid="{00000000-0004-0000-0000-0000FB080000}"/>
-    <hyperlink ref="E541" r:id="rId2292" xr:uid="{00000000-0004-0000-0000-0000FC080000}"/>
-    <hyperlink ref="I541" r:id="rId2293" xr:uid="{00000000-0004-0000-0000-0000FD080000}"/>
-    <hyperlink ref="L541" r:id="rId2294" xr:uid="{00000000-0004-0000-0000-0000FE080000}"/>
-    <hyperlink ref="A542" r:id="rId2295" xr:uid="{00000000-0004-0000-0000-0000FF080000}"/>
-    <hyperlink ref="E542" r:id="rId2296" xr:uid="{00000000-0004-0000-0000-000000090000}"/>
-    <hyperlink ref="I542" r:id="rId2297" xr:uid="{00000000-0004-0000-0000-000001090000}"/>
-    <hyperlink ref="L542" r:id="rId2298" xr:uid="{00000000-0004-0000-0000-000002090000}"/>
-    <hyperlink ref="A543" r:id="rId2299" xr:uid="{00000000-0004-0000-0000-000003090000}"/>
-    <hyperlink ref="E543" r:id="rId2300" xr:uid="{00000000-0004-0000-0000-000004090000}"/>
-    <hyperlink ref="I543" r:id="rId2301" xr:uid="{00000000-0004-0000-0000-000005090000}"/>
-    <hyperlink ref="L543" r:id="rId2302" xr:uid="{00000000-0004-0000-0000-000006090000}"/>
-    <hyperlink ref="A544" r:id="rId2303" xr:uid="{00000000-0004-0000-0000-000007090000}"/>
-    <hyperlink ref="I544" r:id="rId2304" xr:uid="{00000000-0004-0000-0000-000008090000}"/>
-    <hyperlink ref="K544" r:id="rId2305" xr:uid="{00000000-0004-0000-0000-000009090000}"/>
-    <hyperlink ref="L544" r:id="rId2306" xr:uid="{00000000-0004-0000-0000-00000A090000}"/>
-    <hyperlink ref="A545" r:id="rId2307" xr:uid="{00000000-0004-0000-0000-00000B090000}"/>
-    <hyperlink ref="E545" r:id="rId2308" xr:uid="{00000000-0004-0000-0000-00000C090000}"/>
-    <hyperlink ref="I545" r:id="rId2309" xr:uid="{00000000-0004-0000-0000-00000D090000}"/>
-    <hyperlink ref="K545" r:id="rId2310" xr:uid="{00000000-0004-0000-0000-00000E090000}"/>
-    <hyperlink ref="L545" r:id="rId2311" xr:uid="{00000000-0004-0000-0000-00000F090000}"/>
-    <hyperlink ref="A546" r:id="rId2312" xr:uid="{00000000-0004-0000-0000-000010090000}"/>
-    <hyperlink ref="E546" r:id="rId2313" xr:uid="{00000000-0004-0000-0000-000011090000}"/>
-    <hyperlink ref="I546" r:id="rId2314" xr:uid="{00000000-0004-0000-0000-000012090000}"/>
-    <hyperlink ref="K546" r:id="rId2315" xr:uid="{00000000-0004-0000-0000-000013090000}"/>
-    <hyperlink ref="L546" r:id="rId2316" xr:uid="{00000000-0004-0000-0000-000014090000}"/>
-    <hyperlink ref="A547" r:id="rId2317" xr:uid="{00000000-0004-0000-0000-000015090000}"/>
-    <hyperlink ref="E547" r:id="rId2318" xr:uid="{00000000-0004-0000-0000-000016090000}"/>
-    <hyperlink ref="I547" r:id="rId2319" xr:uid="{00000000-0004-0000-0000-000017090000}"/>
-    <hyperlink ref="K547" r:id="rId2320" xr:uid="{00000000-0004-0000-0000-000018090000}"/>
-    <hyperlink ref="L547" r:id="rId2321" xr:uid="{00000000-0004-0000-0000-000019090000}"/>
-    <hyperlink ref="A548" r:id="rId2322" xr:uid="{00000000-0004-0000-0000-00001A090000}"/>
-    <hyperlink ref="E548" r:id="rId2323" xr:uid="{00000000-0004-0000-0000-00001B090000}"/>
-    <hyperlink ref="I548" r:id="rId2324" xr:uid="{00000000-0004-0000-0000-00001C090000}"/>
-    <hyperlink ref="K548" r:id="rId2325" xr:uid="{00000000-0004-0000-0000-00001D090000}"/>
-    <hyperlink ref="L548" r:id="rId2326" xr:uid="{00000000-0004-0000-0000-00001E090000}"/>
-    <hyperlink ref="A549" r:id="rId2327" xr:uid="{00000000-0004-0000-0000-00001F090000}"/>
-    <hyperlink ref="E549" r:id="rId2328" xr:uid="{00000000-0004-0000-0000-000020090000}"/>
-    <hyperlink ref="K549" r:id="rId2329" xr:uid="{00000000-0004-0000-0000-000021090000}"/>
-    <hyperlink ref="L549" r:id="rId2330" xr:uid="{00000000-0004-0000-0000-000022090000}"/>
-    <hyperlink ref="A550" r:id="rId2331" xr:uid="{00000000-0004-0000-0000-000023090000}"/>
-    <hyperlink ref="E550" r:id="rId2332" xr:uid="{00000000-0004-0000-0000-000024090000}"/>
-    <hyperlink ref="I550" r:id="rId2333" xr:uid="{00000000-0004-0000-0000-000025090000}"/>
-    <hyperlink ref="K550" r:id="rId2334" xr:uid="{00000000-0004-0000-0000-000026090000}"/>
-    <hyperlink ref="L550" r:id="rId2335" xr:uid="{00000000-0004-0000-0000-000027090000}"/>
-    <hyperlink ref="A551" r:id="rId2336" xr:uid="{00000000-0004-0000-0000-000028090000}"/>
-    <hyperlink ref="E551" r:id="rId2337" xr:uid="{00000000-0004-0000-0000-000029090000}"/>
-    <hyperlink ref="I551" r:id="rId2338" xr:uid="{00000000-0004-0000-0000-00002A090000}"/>
-    <hyperlink ref="K551" r:id="rId2339" xr:uid="{00000000-0004-0000-0000-00002B090000}"/>
-    <hyperlink ref="L551" r:id="rId2340" xr:uid="{00000000-0004-0000-0000-00002C090000}"/>
-    <hyperlink ref="A552" r:id="rId2341" xr:uid="{00000000-0004-0000-0000-00002D090000}"/>
-    <hyperlink ref="I552" r:id="rId2342" xr:uid="{00000000-0004-0000-0000-00002E090000}"/>
-    <hyperlink ref="K552" r:id="rId2343" xr:uid="{00000000-0004-0000-0000-00002F090000}"/>
-    <hyperlink ref="L552" r:id="rId2344" xr:uid="{00000000-0004-0000-0000-000030090000}"/>
-    <hyperlink ref="A553" r:id="rId2345" xr:uid="{00000000-0004-0000-0000-000031090000}"/>
-    <hyperlink ref="E553" r:id="rId2346" xr:uid="{00000000-0004-0000-0000-000032090000}"/>
-    <hyperlink ref="I553" r:id="rId2347" xr:uid="{00000000-0004-0000-0000-000033090000}"/>
-    <hyperlink ref="K553" r:id="rId2348" xr:uid="{00000000-0004-0000-0000-000034090000}"/>
-    <hyperlink ref="L553" r:id="rId2349" xr:uid="{00000000-0004-0000-0000-000035090000}"/>
-    <hyperlink ref="A554" r:id="rId2350" xr:uid="{00000000-0004-0000-0000-000036090000}"/>
-    <hyperlink ref="I554" r:id="rId2351" xr:uid="{00000000-0004-0000-0000-000037090000}"/>
-    <hyperlink ref="K554" r:id="rId2352" xr:uid="{00000000-0004-0000-0000-000038090000}"/>
-    <hyperlink ref="L554" r:id="rId2353" xr:uid="{00000000-0004-0000-0000-000039090000}"/>
-    <hyperlink ref="A555" r:id="rId2354" xr:uid="{00000000-0004-0000-0000-00003A090000}"/>
-    <hyperlink ref="E555" r:id="rId2355" xr:uid="{00000000-0004-0000-0000-00003B090000}"/>
-    <hyperlink ref="I555" r:id="rId2356" xr:uid="{00000000-0004-0000-0000-00003C090000}"/>
-    <hyperlink ref="L555" r:id="rId2357" xr:uid="{00000000-0004-0000-0000-00003D090000}"/>
-    <hyperlink ref="A556" r:id="rId2358" xr:uid="{00000000-0004-0000-0000-00003E090000}"/>
-    <hyperlink ref="E556" r:id="rId2359" xr:uid="{00000000-0004-0000-0000-00003F090000}"/>
-    <hyperlink ref="I556" r:id="rId2360" xr:uid="{00000000-0004-0000-0000-000040090000}"/>
-    <hyperlink ref="L556" r:id="rId2361" xr:uid="{00000000-0004-0000-0000-000041090000}"/>
-    <hyperlink ref="A557" r:id="rId2362" xr:uid="{00000000-0004-0000-0000-000042090000}"/>
-    <hyperlink ref="E557" r:id="rId2363" xr:uid="{00000000-0004-0000-0000-000043090000}"/>
-    <hyperlink ref="I557" r:id="rId2364" xr:uid="{00000000-0004-0000-0000-000044090000}"/>
-    <hyperlink ref="L557" r:id="rId2365" xr:uid="{00000000-0004-0000-0000-000045090000}"/>
-    <hyperlink ref="A559" r:id="rId2366" xr:uid="{00000000-0004-0000-0000-000046090000}"/>
-    <hyperlink ref="I559" r:id="rId2367" xr:uid="{00000000-0004-0000-0000-000047090000}"/>
-    <hyperlink ref="L559" r:id="rId2368" xr:uid="{00000000-0004-0000-0000-000048090000}"/>
-    <hyperlink ref="A560" r:id="rId2369" xr:uid="{00000000-0004-0000-0000-000049090000}"/>
-    <hyperlink ref="E560" r:id="rId2370" xr:uid="{00000000-0004-0000-0000-00004A090000}"/>
-    <hyperlink ref="I560" r:id="rId2371" xr:uid="{00000000-0004-0000-0000-00004B090000}"/>
-    <hyperlink ref="L560" r:id="rId2372" xr:uid="{00000000-0004-0000-0000-00004C090000}"/>
-    <hyperlink ref="A561" r:id="rId2373" xr:uid="{00000000-0004-0000-0000-00004D090000}"/>
-    <hyperlink ref="L561" r:id="rId2374" xr:uid="{00000000-0004-0000-0000-00004E090000}"/>
-    <hyperlink ref="A562" r:id="rId2375" xr:uid="{00000000-0004-0000-0000-00004F090000}"/>
-    <hyperlink ref="E562" r:id="rId2376" xr:uid="{00000000-0004-0000-0000-000050090000}"/>
-    <hyperlink ref="I562" r:id="rId2377" xr:uid="{00000000-0004-0000-0000-000051090000}"/>
-    <hyperlink ref="L562" r:id="rId2378" xr:uid="{00000000-0004-0000-0000-000052090000}"/>
-    <hyperlink ref="A563" r:id="rId2379" xr:uid="{00000000-0004-0000-0000-000053090000}"/>
-    <hyperlink ref="L563" r:id="rId2380" xr:uid="{00000000-0004-0000-0000-000054090000}"/>
-    <hyperlink ref="A564" r:id="rId2381" xr:uid="{00000000-0004-0000-0000-000055090000}"/>
-    <hyperlink ref="I564" r:id="rId2382" xr:uid="{00000000-0004-0000-0000-000056090000}"/>
-    <hyperlink ref="L564" r:id="rId2383" xr:uid="{00000000-0004-0000-0000-000057090000}"/>
-    <hyperlink ref="A565" r:id="rId2384" xr:uid="{00000000-0004-0000-0000-000058090000}"/>
-    <hyperlink ref="I565" r:id="rId2385" xr:uid="{00000000-0004-0000-0000-000059090000}"/>
-    <hyperlink ref="L565" r:id="rId2386" xr:uid="{00000000-0004-0000-0000-00005A090000}"/>
-    <hyperlink ref="A566" r:id="rId2387" xr:uid="{00000000-0004-0000-0000-00005B090000}"/>
-    <hyperlink ref="E566" r:id="rId2388" xr:uid="{00000000-0004-0000-0000-00005C090000}"/>
-    <hyperlink ref="I566" r:id="rId2389" xr:uid="{00000000-0004-0000-0000-00005D090000}"/>
-    <hyperlink ref="K566" r:id="rId2390" xr:uid="{00000000-0004-0000-0000-00005E090000}"/>
-    <hyperlink ref="L566" r:id="rId2391" xr:uid="{00000000-0004-0000-0000-00005F090000}"/>
-    <hyperlink ref="A567" r:id="rId2392" xr:uid="{00000000-0004-0000-0000-000060090000}"/>
-    <hyperlink ref="E567" r:id="rId2393" xr:uid="{00000000-0004-0000-0000-000061090000}"/>
-    <hyperlink ref="I567" r:id="rId2394" xr:uid="{00000000-0004-0000-0000-000062090000}"/>
-    <hyperlink ref="K567" r:id="rId2395" xr:uid="{00000000-0004-0000-0000-000063090000}"/>
-    <hyperlink ref="L567" r:id="rId2396" xr:uid="{00000000-0004-0000-0000-000064090000}"/>
-    <hyperlink ref="A568" r:id="rId2397" xr:uid="{00000000-0004-0000-0000-000065090000}"/>
-    <hyperlink ref="E568" r:id="rId2398" xr:uid="{00000000-0004-0000-0000-000066090000}"/>
-    <hyperlink ref="I568" r:id="rId2399" xr:uid="{00000000-0004-0000-0000-000067090000}"/>
-    <hyperlink ref="K568" r:id="rId2400" xr:uid="{00000000-0004-0000-0000-000068090000}"/>
-    <hyperlink ref="L568" r:id="rId2401" xr:uid="{00000000-0004-0000-0000-000069090000}"/>
-    <hyperlink ref="A569" r:id="rId2402" xr:uid="{00000000-0004-0000-0000-00006A090000}"/>
-    <hyperlink ref="E569" r:id="rId2403" xr:uid="{00000000-0004-0000-0000-00006B090000}"/>
-    <hyperlink ref="I569" r:id="rId2404" xr:uid="{00000000-0004-0000-0000-00006C090000}"/>
-    <hyperlink ref="K569" r:id="rId2405" xr:uid="{00000000-0004-0000-0000-00006D090000}"/>
-    <hyperlink ref="L569" r:id="rId2406" xr:uid="{00000000-0004-0000-0000-00006E090000}"/>
-    <hyperlink ref="A570" r:id="rId2407" xr:uid="{00000000-0004-0000-0000-00006F090000}"/>
-    <hyperlink ref="I570" r:id="rId2408" xr:uid="{00000000-0004-0000-0000-000070090000}"/>
-    <hyperlink ref="A571" r:id="rId2409" xr:uid="{00000000-0004-0000-0000-000071090000}"/>
-    <hyperlink ref="I571" r:id="rId2410" xr:uid="{00000000-0004-0000-0000-000072090000}"/>
-    <hyperlink ref="A572" r:id="rId2411" xr:uid="{00000000-0004-0000-0000-000073090000}"/>
-    <hyperlink ref="E572" r:id="rId2412" xr:uid="{00000000-0004-0000-0000-000074090000}"/>
-    <hyperlink ref="K572" r:id="rId2413" xr:uid="{00000000-0004-0000-0000-000075090000}"/>
-    <hyperlink ref="L572" r:id="rId2414" xr:uid="{00000000-0004-0000-0000-000076090000}"/>
-    <hyperlink ref="A573" r:id="rId2415" xr:uid="{00000000-0004-0000-0000-000077090000}"/>
-    <hyperlink ref="E573" r:id="rId2416" xr:uid="{00000000-0004-0000-0000-000078090000}"/>
-    <hyperlink ref="I573" r:id="rId2417" xr:uid="{00000000-0004-0000-0000-000079090000}"/>
-    <hyperlink ref="L573" r:id="rId2418" xr:uid="{00000000-0004-0000-0000-00007A090000}"/>
-    <hyperlink ref="A574" r:id="rId2419" xr:uid="{00000000-0004-0000-0000-00007B090000}"/>
-    <hyperlink ref="I574" r:id="rId2420" xr:uid="{00000000-0004-0000-0000-00007C090000}"/>
-    <hyperlink ref="L574" r:id="rId2421" xr:uid="{00000000-0004-0000-0000-00007D090000}"/>
-    <hyperlink ref="A575" r:id="rId2422" xr:uid="{00000000-0004-0000-0000-00007E090000}"/>
-    <hyperlink ref="A576" r:id="rId2423" xr:uid="{00000000-0004-0000-0000-00007F090000}"/>
-    <hyperlink ref="I576" r:id="rId2424" xr:uid="{00000000-0004-0000-0000-000080090000}"/>
-    <hyperlink ref="A577" r:id="rId2425" xr:uid="{00000000-0004-0000-0000-000081090000}"/>
-    <hyperlink ref="I577" r:id="rId2426" xr:uid="{00000000-0004-0000-0000-000082090000}"/>
-    <hyperlink ref="L577" r:id="rId2427" xr:uid="{00000000-0004-0000-0000-000083090000}"/>
-    <hyperlink ref="A578" r:id="rId2428" xr:uid="{00000000-0004-0000-0000-000084090000}"/>
-    <hyperlink ref="I578" r:id="rId2429" xr:uid="{00000000-0004-0000-0000-000085090000}"/>
-    <hyperlink ref="L578" r:id="rId2430" xr:uid="{00000000-0004-0000-0000-000086090000}"/>
-    <hyperlink ref="A579" r:id="rId2431" xr:uid="{00000000-0004-0000-0000-000087090000}"/>
-    <hyperlink ref="I579" r:id="rId2432" xr:uid="{00000000-0004-0000-0000-000088090000}"/>
-    <hyperlink ref="L579" r:id="rId2433" xr:uid="{00000000-0004-0000-0000-000089090000}"/>
-    <hyperlink ref="A580" r:id="rId2434" xr:uid="{00000000-0004-0000-0000-00008A090000}"/>
-    <hyperlink ref="E580" r:id="rId2435" xr:uid="{00000000-0004-0000-0000-00008B090000}"/>
-    <hyperlink ref="I580" r:id="rId2436" xr:uid="{00000000-0004-0000-0000-00008C090000}"/>
-    <hyperlink ref="L580" r:id="rId2437" xr:uid="{00000000-0004-0000-0000-00008D090000}"/>
-    <hyperlink ref="A581" r:id="rId2438" xr:uid="{00000000-0004-0000-0000-00008E090000}"/>
-    <hyperlink ref="K581" r:id="rId2439" xr:uid="{00000000-0004-0000-0000-00008F090000}"/>
-    <hyperlink ref="L581" r:id="rId2440" xr:uid="{00000000-0004-0000-0000-000090090000}"/>
-    <hyperlink ref="A582" r:id="rId2441" xr:uid="{00000000-0004-0000-0000-000091090000}"/>
-    <hyperlink ref="I582" r:id="rId2442" xr:uid="{00000000-0004-0000-0000-000092090000}"/>
-    <hyperlink ref="L582" r:id="rId2443" xr:uid="{00000000-0004-0000-0000-000093090000}"/>
-    <hyperlink ref="A583" r:id="rId2444" xr:uid="{00000000-0004-0000-0000-000094090000}"/>
-    <hyperlink ref="E583" r:id="rId2445" xr:uid="{00000000-0004-0000-0000-000095090000}"/>
-    <hyperlink ref="K583" r:id="rId2446" xr:uid="{00000000-0004-0000-0000-000096090000}"/>
-    <hyperlink ref="L583" r:id="rId2447" xr:uid="{00000000-0004-0000-0000-000097090000}"/>
-    <hyperlink ref="A584" r:id="rId2448" xr:uid="{00000000-0004-0000-0000-000098090000}"/>
-    <hyperlink ref="I584" r:id="rId2449" xr:uid="{00000000-0004-0000-0000-000099090000}"/>
-    <hyperlink ref="K584" r:id="rId2450" xr:uid="{00000000-0004-0000-0000-00009A090000}"/>
-    <hyperlink ref="L584" r:id="rId2451" xr:uid="{00000000-0004-0000-0000-00009B090000}"/>
-    <hyperlink ref="A585" r:id="rId2452" xr:uid="{00000000-0004-0000-0000-00009C090000}"/>
-    <hyperlink ref="L585" r:id="rId2453" xr:uid="{00000000-0004-0000-0000-00009D090000}"/>
-    <hyperlink ref="A586" r:id="rId2454" xr:uid="{00000000-0004-0000-0000-00009E090000}"/>
-    <hyperlink ref="E586" r:id="rId2455" xr:uid="{00000000-0004-0000-0000-00009F090000}"/>
-    <hyperlink ref="I586" r:id="rId2456" xr:uid="{00000000-0004-0000-0000-0000A0090000}"/>
-    <hyperlink ref="L586" r:id="rId2457" xr:uid="{00000000-0004-0000-0000-0000A1090000}"/>
-    <hyperlink ref="A587" r:id="rId2458" xr:uid="{00000000-0004-0000-0000-0000A2090000}"/>
-    <hyperlink ref="I587" r:id="rId2459" xr:uid="{00000000-0004-0000-0000-0000A3090000}"/>
-    <hyperlink ref="L587" r:id="rId2460" xr:uid="{00000000-0004-0000-0000-0000A4090000}"/>
-    <hyperlink ref="A588" r:id="rId2461" xr:uid="{00000000-0004-0000-0000-0000A5090000}"/>
-    <hyperlink ref="E588" r:id="rId2462" xr:uid="{00000000-0004-0000-0000-0000A6090000}"/>
-    <hyperlink ref="K588" r:id="rId2463" xr:uid="{00000000-0004-0000-0000-0000A7090000}"/>
-    <hyperlink ref="L588" r:id="rId2464" xr:uid="{00000000-0004-0000-0000-0000A8090000}"/>
-    <hyperlink ref="A590" r:id="rId2465" xr:uid="{00000000-0004-0000-0000-0000A9090000}"/>
-    <hyperlink ref="E590" r:id="rId2466" xr:uid="{00000000-0004-0000-0000-0000AA090000}"/>
-    <hyperlink ref="I590" r:id="rId2467" xr:uid="{00000000-0004-0000-0000-0000AB090000}"/>
-    <hyperlink ref="L590" r:id="rId2468" xr:uid="{00000000-0004-0000-0000-0000AC090000}"/>
-    <hyperlink ref="A591" r:id="rId2469" xr:uid="{00000000-0004-0000-0000-0000AD090000}"/>
-    <hyperlink ref="I591" r:id="rId2470" xr:uid="{00000000-0004-0000-0000-0000AE090000}"/>
-    <hyperlink ref="L591" r:id="rId2471" xr:uid="{00000000-0004-0000-0000-0000AF090000}"/>
-    <hyperlink ref="A592" r:id="rId2472" xr:uid="{00000000-0004-0000-0000-0000B0090000}"/>
-    <hyperlink ref="E592" r:id="rId2473" xr:uid="{00000000-0004-0000-0000-0000B1090000}"/>
-    <hyperlink ref="I592" r:id="rId2474" xr:uid="{00000000-0004-0000-0000-0000B2090000}"/>
-    <hyperlink ref="A593" r:id="rId2475" xr:uid="{00000000-0004-0000-0000-0000B3090000}"/>
-    <hyperlink ref="E593" r:id="rId2476" xr:uid="{00000000-0004-0000-0000-0000B4090000}"/>
-    <hyperlink ref="I593" r:id="rId2477" xr:uid="{00000000-0004-0000-0000-0000B5090000}"/>
-    <hyperlink ref="L593" r:id="rId2478" xr:uid="{00000000-0004-0000-0000-0000B6090000}"/>
-    <hyperlink ref="A594" r:id="rId2479" xr:uid="{00000000-0004-0000-0000-0000B7090000}"/>
-    <hyperlink ref="I594" r:id="rId2480" xr:uid="{00000000-0004-0000-0000-0000B8090000}"/>
-    <hyperlink ref="L594" r:id="rId2481" xr:uid="{00000000-0004-0000-0000-0000B9090000}"/>
-    <hyperlink ref="A595" r:id="rId2482" xr:uid="{00000000-0004-0000-0000-0000BA090000}"/>
-    <hyperlink ref="E595" r:id="rId2483" xr:uid="{00000000-0004-0000-0000-0000BB090000}"/>
-    <hyperlink ref="I595" r:id="rId2484" xr:uid="{00000000-0004-0000-0000-0000BC090000}"/>
-    <hyperlink ref="L595" r:id="rId2485" xr:uid="{00000000-0004-0000-0000-0000BD090000}"/>
-    <hyperlink ref="A596" r:id="rId2486" xr:uid="{00000000-0004-0000-0000-0000BE090000}"/>
-    <hyperlink ref="E596" r:id="rId2487" xr:uid="{00000000-0004-0000-0000-0000BF090000}"/>
-    <hyperlink ref="I596" r:id="rId2488" xr:uid="{00000000-0004-0000-0000-0000C0090000}"/>
-    <hyperlink ref="L596" r:id="rId2489" xr:uid="{00000000-0004-0000-0000-0000C1090000}"/>
-    <hyperlink ref="A597" r:id="rId2490" xr:uid="{00000000-0004-0000-0000-0000C2090000}"/>
-    <hyperlink ref="I597" r:id="rId2491" xr:uid="{00000000-0004-0000-0000-0000C3090000}"/>
-    <hyperlink ref="K597" r:id="rId2492" xr:uid="{00000000-0004-0000-0000-0000C4090000}"/>
-    <hyperlink ref="L597" r:id="rId2493" xr:uid="{00000000-0004-0000-0000-0000C5090000}"/>
-    <hyperlink ref="A598" r:id="rId2494" xr:uid="{00000000-0004-0000-0000-0000C6090000}"/>
-    <hyperlink ref="E598" r:id="rId2495" xr:uid="{00000000-0004-0000-0000-0000C7090000}"/>
-    <hyperlink ref="I598" r:id="rId2496" xr:uid="{00000000-0004-0000-0000-0000C8090000}"/>
-    <hyperlink ref="K598" r:id="rId2497" xr:uid="{00000000-0004-0000-0000-0000C9090000}"/>
-    <hyperlink ref="L598" r:id="rId2498" xr:uid="{00000000-0004-0000-0000-0000CA090000}"/>
-    <hyperlink ref="A599" r:id="rId2499" xr:uid="{00000000-0004-0000-0000-0000CB090000}"/>
-    <hyperlink ref="E599" r:id="rId2500" xr:uid="{00000000-0004-0000-0000-0000CC090000}"/>
-    <hyperlink ref="I599" r:id="rId2501" xr:uid="{00000000-0004-0000-0000-0000CD090000}"/>
-    <hyperlink ref="A600" r:id="rId2502" xr:uid="{00000000-0004-0000-0000-0000CE090000}"/>
-    <hyperlink ref="I600" r:id="rId2503" xr:uid="{00000000-0004-0000-0000-0000CF090000}"/>
-    <hyperlink ref="L600" r:id="rId2504" xr:uid="{00000000-0004-0000-0000-0000D0090000}"/>
-    <hyperlink ref="A601" r:id="rId2505" xr:uid="{00000000-0004-0000-0000-0000D1090000}"/>
-    <hyperlink ref="I601" r:id="rId2506" xr:uid="{00000000-0004-0000-0000-0000D2090000}"/>
-    <hyperlink ref="L601" r:id="rId2507" xr:uid="{00000000-0004-0000-0000-0000D3090000}"/>
-    <hyperlink ref="A602" r:id="rId2508" xr:uid="{00000000-0004-0000-0000-0000D4090000}"/>
-    <hyperlink ref="I602" r:id="rId2509" xr:uid="{00000000-0004-0000-0000-0000D5090000}"/>
-    <hyperlink ref="L602" r:id="rId2510" xr:uid="{00000000-0004-0000-0000-0000D6090000}"/>
-    <hyperlink ref="A603" r:id="rId2511" xr:uid="{00000000-0004-0000-0000-0000D7090000}"/>
-    <hyperlink ref="A604" r:id="rId2512" xr:uid="{00000000-0004-0000-0000-0000D8090000}"/>
-    <hyperlink ref="I604" r:id="rId2513" xr:uid="{00000000-0004-0000-0000-0000D9090000}"/>
-    <hyperlink ref="L604" r:id="rId2514" xr:uid="{00000000-0004-0000-0000-0000DA090000}"/>
-    <hyperlink ref="A605" r:id="rId2515" xr:uid="{00000000-0004-0000-0000-0000DB090000}"/>
-    <hyperlink ref="E605" r:id="rId2516" xr:uid="{00000000-0004-0000-0000-0000DC090000}"/>
-    <hyperlink ref="I605" r:id="rId2517" xr:uid="{00000000-0004-0000-0000-0000DD090000}"/>
-    <hyperlink ref="L605" r:id="rId2518" xr:uid="{00000000-0004-0000-0000-0000DE090000}"/>
-    <hyperlink ref="A606" r:id="rId2519" xr:uid="{00000000-0004-0000-0000-0000DF090000}"/>
-    <hyperlink ref="E606" r:id="rId2520" xr:uid="{00000000-0004-0000-0000-0000E0090000}"/>
-    <hyperlink ref="L606" r:id="rId2521" xr:uid="{00000000-0004-0000-0000-0000E1090000}"/>
-    <hyperlink ref="A607" r:id="rId2522" xr:uid="{00000000-0004-0000-0000-0000E2090000}"/>
-    <hyperlink ref="E607" r:id="rId2523" xr:uid="{00000000-0004-0000-0000-0000E3090000}"/>
-    <hyperlink ref="L607" r:id="rId2524" xr:uid="{00000000-0004-0000-0000-0000E4090000}"/>
-    <hyperlink ref="A608" r:id="rId2525" xr:uid="{00000000-0004-0000-0000-0000E5090000}"/>
-    <hyperlink ref="E608" r:id="rId2526" xr:uid="{00000000-0004-0000-0000-0000E6090000}"/>
-    <hyperlink ref="L608" r:id="rId2527" xr:uid="{00000000-0004-0000-0000-0000E7090000}"/>
-    <hyperlink ref="A609" r:id="rId2528" xr:uid="{00000000-0004-0000-0000-0000E8090000}"/>
-    <hyperlink ref="E609" r:id="rId2529" xr:uid="{00000000-0004-0000-0000-0000E9090000}"/>
-    <hyperlink ref="I609" r:id="rId2530" xr:uid="{00000000-0004-0000-0000-0000EA090000}"/>
-    <hyperlink ref="L609" r:id="rId2531" xr:uid="{00000000-0004-0000-0000-0000EB090000}"/>
-    <hyperlink ref="A610" r:id="rId2532" xr:uid="{00000000-0004-0000-0000-0000EC090000}"/>
-    <hyperlink ref="E610" r:id="rId2533" xr:uid="{00000000-0004-0000-0000-0000ED090000}"/>
-    <hyperlink ref="I610" r:id="rId2534" xr:uid="{00000000-0004-0000-0000-0000EE090000}"/>
-    <hyperlink ref="L610" r:id="rId2535" xr:uid="{00000000-0004-0000-0000-0000EF090000}"/>
-    <hyperlink ref="A611" r:id="rId2536" xr:uid="{00000000-0004-0000-0000-0000F0090000}"/>
-    <hyperlink ref="E611" r:id="rId2537" xr:uid="{00000000-0004-0000-0000-0000F1090000}"/>
-    <hyperlink ref="I611" r:id="rId2538" xr:uid="{00000000-0004-0000-0000-0000F2090000}"/>
-    <hyperlink ref="L611" r:id="rId2539" xr:uid="{00000000-0004-0000-0000-0000F3090000}"/>
-    <hyperlink ref="A612" r:id="rId2540" xr:uid="{00000000-0004-0000-0000-0000F4090000}"/>
-    <hyperlink ref="E612" r:id="rId2541" xr:uid="{00000000-0004-0000-0000-0000F5090000}"/>
-    <hyperlink ref="I612" r:id="rId2542" xr:uid="{00000000-0004-0000-0000-0000F6090000}"/>
-    <hyperlink ref="L612" r:id="rId2543" xr:uid="{00000000-0004-0000-0000-0000F7090000}"/>
-    <hyperlink ref="A613" r:id="rId2544" xr:uid="{00000000-0004-0000-0000-0000F8090000}"/>
-    <hyperlink ref="I613" r:id="rId2545" xr:uid="{00000000-0004-0000-0000-0000F9090000}"/>
-    <hyperlink ref="L613" r:id="rId2546" xr:uid="{00000000-0004-0000-0000-0000FA090000}"/>
-    <hyperlink ref="A614" r:id="rId2547" xr:uid="{00000000-0004-0000-0000-0000FB090000}"/>
-    <hyperlink ref="I614" r:id="rId2548" xr:uid="{00000000-0004-0000-0000-0000FC090000}"/>
-    <hyperlink ref="A615" r:id="rId2549" xr:uid="{00000000-0004-0000-0000-0000FD090000}"/>
-    <hyperlink ref="E615" r:id="rId2550" xr:uid="{00000000-0004-0000-0000-0000FE090000}"/>
-    <hyperlink ref="L615" r:id="rId2551" xr:uid="{00000000-0004-0000-0000-0000FF090000}"/>
-    <hyperlink ref="A616" r:id="rId2552" xr:uid="{00000000-0004-0000-0000-0000000A0000}"/>
-    <hyperlink ref="E616" r:id="rId2553" xr:uid="{00000000-0004-0000-0000-0000010A0000}"/>
-    <hyperlink ref="I616" r:id="rId2554" xr:uid="{00000000-0004-0000-0000-0000020A0000}"/>
-    <hyperlink ref="L616" r:id="rId2555" xr:uid="{00000000-0004-0000-0000-0000030A0000}"/>
-    <hyperlink ref="A617" r:id="rId2556" xr:uid="{00000000-0004-0000-0000-0000040A0000}"/>
-    <hyperlink ref="E617" r:id="rId2557" xr:uid="{00000000-0004-0000-0000-0000050A0000}"/>
-    <hyperlink ref="I617" r:id="rId2558" xr:uid="{00000000-0004-0000-0000-0000060A0000}"/>
-    <hyperlink ref="L617" r:id="rId2559" xr:uid="{00000000-0004-0000-0000-0000070A0000}"/>
-    <hyperlink ref="A619" r:id="rId2560" xr:uid="{00000000-0004-0000-0000-0000080A0000}"/>
-    <hyperlink ref="E619" r:id="rId2561" xr:uid="{00000000-0004-0000-0000-0000090A0000}"/>
-    <hyperlink ref="I619" r:id="rId2562" xr:uid="{00000000-0004-0000-0000-00000A0A0000}"/>
-    <hyperlink ref="L619" r:id="rId2563" xr:uid="{00000000-0004-0000-0000-00000B0A0000}"/>
-    <hyperlink ref="A620" r:id="rId2564" xr:uid="{00000000-0004-0000-0000-00000C0A0000}"/>
-    <hyperlink ref="E620" r:id="rId2565" xr:uid="{00000000-0004-0000-0000-00000D0A0000}"/>
-    <hyperlink ref="I620" r:id="rId2566" xr:uid="{00000000-0004-0000-0000-00000E0A0000}"/>
-    <hyperlink ref="L620" r:id="rId2567" xr:uid="{00000000-0004-0000-0000-00000F0A0000}"/>
-    <hyperlink ref="A621" r:id="rId2568" xr:uid="{00000000-0004-0000-0000-0000100A0000}"/>
-    <hyperlink ref="I621" r:id="rId2569" xr:uid="{00000000-0004-0000-0000-0000110A0000}"/>
-    <hyperlink ref="L621" r:id="rId2570" xr:uid="{00000000-0004-0000-0000-0000120A0000}"/>
-    <hyperlink ref="A622" r:id="rId2571" xr:uid="{00000000-0004-0000-0000-0000130A0000}"/>
-    <hyperlink ref="E622" r:id="rId2572" xr:uid="{00000000-0004-0000-0000-0000140A0000}"/>
-    <hyperlink ref="I622" r:id="rId2573" xr:uid="{00000000-0004-0000-0000-0000150A0000}"/>
-    <hyperlink ref="L622" r:id="rId2574" xr:uid="{00000000-0004-0000-0000-0000160A0000}"/>
-    <hyperlink ref="A623" r:id="rId2575" xr:uid="{00000000-0004-0000-0000-0000170A0000}"/>
-    <hyperlink ref="E623" r:id="rId2576" xr:uid="{00000000-0004-0000-0000-0000180A0000}"/>
-    <hyperlink ref="I623" r:id="rId2577" xr:uid="{00000000-0004-0000-0000-0000190A0000}"/>
-    <hyperlink ref="L623" r:id="rId2578" xr:uid="{00000000-0004-0000-0000-00001A0A0000}"/>
-    <hyperlink ref="A624" r:id="rId2579" xr:uid="{00000000-0004-0000-0000-00001B0A0000}"/>
-    <hyperlink ref="E624" r:id="rId2580" xr:uid="{00000000-0004-0000-0000-00001C0A0000}"/>
-    <hyperlink ref="I624" r:id="rId2581" xr:uid="{00000000-0004-0000-0000-00001D0A0000}"/>
-    <hyperlink ref="L624" r:id="rId2582" xr:uid="{00000000-0004-0000-0000-00001E0A0000}"/>
-    <hyperlink ref="A625" r:id="rId2583" xr:uid="{00000000-0004-0000-0000-00001F0A0000}"/>
-    <hyperlink ref="I625" r:id="rId2584" xr:uid="{00000000-0004-0000-0000-0000200A0000}"/>
-    <hyperlink ref="K625" r:id="rId2585" xr:uid="{00000000-0004-0000-0000-0000210A0000}"/>
-    <hyperlink ref="L625" r:id="rId2586" xr:uid="{00000000-0004-0000-0000-0000220A0000}"/>
-    <hyperlink ref="A626" r:id="rId2587" xr:uid="{00000000-0004-0000-0000-0000230A0000}"/>
-    <hyperlink ref="E626" r:id="rId2588" xr:uid="{00000000-0004-0000-0000-0000240A0000}"/>
-    <hyperlink ref="I626" r:id="rId2589" xr:uid="{00000000-0004-0000-0000-0000250A0000}"/>
-    <hyperlink ref="L626" r:id="rId2590" xr:uid="{00000000-0004-0000-0000-0000260A0000}"/>
-    <hyperlink ref="A627" r:id="rId2591" xr:uid="{00000000-0004-0000-0000-0000270A0000}"/>
-    <hyperlink ref="E627" r:id="rId2592" xr:uid="{00000000-0004-0000-0000-0000280A0000}"/>
-    <hyperlink ref="I627" r:id="rId2593" xr:uid="{00000000-0004-0000-0000-0000290A0000}"/>
-    <hyperlink ref="K627" r:id="rId2594" xr:uid="{00000000-0004-0000-0000-00002A0A0000}"/>
-    <hyperlink ref="A628" r:id="rId2595" xr:uid="{00000000-0004-0000-0000-00002B0A0000}"/>
-    <hyperlink ref="E628" r:id="rId2596" xr:uid="{00000000-0004-0000-0000-00002C0A0000}"/>
-    <hyperlink ref="I628" r:id="rId2597" xr:uid="{00000000-0004-0000-0000-00002D0A0000}"/>
-    <hyperlink ref="K628" r:id="rId2598" xr:uid="{00000000-0004-0000-0000-00002E0A0000}"/>
-    <hyperlink ref="L628" r:id="rId2599" xr:uid="{00000000-0004-0000-0000-00002F0A0000}"/>
-    <hyperlink ref="A629" r:id="rId2600" xr:uid="{00000000-0004-0000-0000-0000300A0000}"/>
-    <hyperlink ref="I629" r:id="rId2601" xr:uid="{00000000-0004-0000-0000-0000310A0000}"/>
-    <hyperlink ref="A630" r:id="rId2602" xr:uid="{00000000-0004-0000-0000-0000320A0000}"/>
-    <hyperlink ref="E630" r:id="rId2603" xr:uid="{00000000-0004-0000-0000-0000330A0000}"/>
-    <hyperlink ref="I630" r:id="rId2604" xr:uid="{00000000-0004-0000-0000-0000340A0000}"/>
-    <hyperlink ref="K630" r:id="rId2605" xr:uid="{00000000-0004-0000-0000-0000350A0000}"/>
-    <hyperlink ref="L630" r:id="rId2606" xr:uid="{00000000-0004-0000-0000-0000360A0000}"/>
-    <hyperlink ref="A631" r:id="rId2607" xr:uid="{00000000-0004-0000-0000-0000370A0000}"/>
-    <hyperlink ref="I631" r:id="rId2608" xr:uid="{00000000-0004-0000-0000-0000380A0000}"/>
-    <hyperlink ref="L631" r:id="rId2609" xr:uid="{00000000-0004-0000-0000-0000390A0000}"/>
-    <hyperlink ref="A632" r:id="rId2610" xr:uid="{00000000-0004-0000-0000-00003A0A0000}"/>
-    <hyperlink ref="E632" r:id="rId2611" xr:uid="{00000000-0004-0000-0000-00003B0A0000}"/>
-    <hyperlink ref="I632" r:id="rId2612" xr:uid="{00000000-0004-0000-0000-00003C0A0000}"/>
-    <hyperlink ref="A633" r:id="rId2613" xr:uid="{00000000-0004-0000-0000-00003D0A0000}"/>
-    <hyperlink ref="E633" r:id="rId2614" xr:uid="{00000000-0004-0000-0000-00003E0A0000}"/>
-    <hyperlink ref="I633" r:id="rId2615" xr:uid="{00000000-0004-0000-0000-00003F0A0000}"/>
-    <hyperlink ref="K633" r:id="rId2616" xr:uid="{00000000-0004-0000-0000-0000400A0000}"/>
-    <hyperlink ref="L633" r:id="rId2617" xr:uid="{00000000-0004-0000-0000-0000410A0000}"/>
-    <hyperlink ref="A635" r:id="rId2618" xr:uid="{00000000-0004-0000-0000-0000420A0000}"/>
-    <hyperlink ref="E635" r:id="rId2619" xr:uid="{00000000-0004-0000-0000-0000430A0000}"/>
-    <hyperlink ref="I635" r:id="rId2620" xr:uid="{00000000-0004-0000-0000-0000440A0000}"/>
-    <hyperlink ref="L635" r:id="rId2621" xr:uid="{00000000-0004-0000-0000-0000450A0000}"/>
-    <hyperlink ref="A636" r:id="rId2622" xr:uid="{00000000-0004-0000-0000-0000460A0000}"/>
-    <hyperlink ref="E636" r:id="rId2623" xr:uid="{00000000-0004-0000-0000-0000470A0000}"/>
-    <hyperlink ref="I636" r:id="rId2624" xr:uid="{00000000-0004-0000-0000-0000480A0000}"/>
-    <hyperlink ref="L636" r:id="rId2625" xr:uid="{00000000-0004-0000-0000-0000490A0000}"/>
-    <hyperlink ref="A637" r:id="rId2626" xr:uid="{00000000-0004-0000-0000-00004A0A0000}"/>
-    <hyperlink ref="K637" r:id="rId2627" xr:uid="{00000000-0004-0000-0000-00004B0A0000}"/>
-    <hyperlink ref="A638" r:id="rId2628" xr:uid="{00000000-0004-0000-0000-00004C0A0000}"/>
-    <hyperlink ref="E638" r:id="rId2629" xr:uid="{00000000-0004-0000-0000-00004D0A0000}"/>
-    <hyperlink ref="K638" r:id="rId2630" xr:uid="{00000000-0004-0000-0000-00004E0A0000}"/>
-    <hyperlink ref="L638" r:id="rId2631" xr:uid="{00000000-0004-0000-0000-00004F0A0000}"/>
-    <hyperlink ref="A639" r:id="rId2632" xr:uid="{00000000-0004-0000-0000-0000500A0000}"/>
-    <hyperlink ref="I639" r:id="rId2633" xr:uid="{00000000-0004-0000-0000-0000510A0000}"/>
-    <hyperlink ref="A640" r:id="rId2634" xr:uid="{00000000-0004-0000-0000-0000520A0000}"/>
-    <hyperlink ref="E640" r:id="rId2635" xr:uid="{00000000-0004-0000-0000-0000530A0000}"/>
-    <hyperlink ref="I640" r:id="rId2636" xr:uid="{00000000-0004-0000-0000-0000540A0000}"/>
-    <hyperlink ref="L640" r:id="rId2637" xr:uid="{00000000-0004-0000-0000-0000550A0000}"/>
-    <hyperlink ref="A641" r:id="rId2638" xr:uid="{00000000-0004-0000-0000-0000560A0000}"/>
-    <hyperlink ref="I641" r:id="rId2639" xr:uid="{00000000-0004-0000-0000-0000570A0000}"/>
-    <hyperlink ref="L641" r:id="rId2640" xr:uid="{00000000-0004-0000-0000-0000580A0000}"/>
-    <hyperlink ref="A642" r:id="rId2641" xr:uid="{00000000-0004-0000-0000-0000590A0000}"/>
-    <hyperlink ref="L642" r:id="rId2642" xr:uid="{00000000-0004-0000-0000-00005A0A0000}"/>
-    <hyperlink ref="A643" r:id="rId2643" xr:uid="{00000000-0004-0000-0000-00005B0A0000}"/>
-    <hyperlink ref="E643" r:id="rId2644" xr:uid="{00000000-0004-0000-0000-00005C0A0000}"/>
-    <hyperlink ref="I643" r:id="rId2645" xr:uid="{00000000-0004-0000-0000-00005D0A0000}"/>
-    <hyperlink ref="L643" r:id="rId2646" xr:uid="{00000000-0004-0000-0000-00005E0A0000}"/>
-    <hyperlink ref="A644" r:id="rId2647" xr:uid="{00000000-0004-0000-0000-00005F0A0000}"/>
-    <hyperlink ref="E644" r:id="rId2648" xr:uid="{00000000-0004-0000-0000-0000600A0000}"/>
-    <hyperlink ref="I644" r:id="rId2649" xr:uid="{00000000-0004-0000-0000-0000610A0000}"/>
-    <hyperlink ref="K644" r:id="rId2650" xr:uid="{00000000-0004-0000-0000-0000620A0000}"/>
-    <hyperlink ref="L644" r:id="rId2651" xr:uid="{00000000-0004-0000-0000-0000630A0000}"/>
-    <hyperlink ref="A645" r:id="rId2652" xr:uid="{00000000-0004-0000-0000-0000640A0000}"/>
-    <hyperlink ref="E645" r:id="rId2653" xr:uid="{00000000-0004-0000-0000-0000650A0000}"/>
-    <hyperlink ref="I645" r:id="rId2654" xr:uid="{00000000-0004-0000-0000-0000660A0000}"/>
-    <hyperlink ref="K645" r:id="rId2655" xr:uid="{00000000-0004-0000-0000-0000670A0000}"/>
-    <hyperlink ref="L645" r:id="rId2656" xr:uid="{00000000-0004-0000-0000-0000680A0000}"/>
-    <hyperlink ref="A646" r:id="rId2657" xr:uid="{00000000-0004-0000-0000-0000690A0000}"/>
-    <hyperlink ref="E646" r:id="rId2658" xr:uid="{00000000-0004-0000-0000-00006A0A0000}"/>
-    <hyperlink ref="I646" r:id="rId2659" xr:uid="{00000000-0004-0000-0000-00006B0A0000}"/>
-    <hyperlink ref="K646" r:id="rId2660" xr:uid="{00000000-0004-0000-0000-00006C0A0000}"/>
-    <hyperlink ref="L646" r:id="rId2661" xr:uid="{00000000-0004-0000-0000-00006D0A0000}"/>
-    <hyperlink ref="A648" r:id="rId2662" xr:uid="{00000000-0004-0000-0000-00006E0A0000}"/>
-    <hyperlink ref="E648" r:id="rId2663" xr:uid="{00000000-0004-0000-0000-00006F0A0000}"/>
-    <hyperlink ref="I648" r:id="rId2664" xr:uid="{00000000-0004-0000-0000-0000700A0000}"/>
-    <hyperlink ref="K648" r:id="rId2665" xr:uid="{00000000-0004-0000-0000-0000710A0000}"/>
-    <hyperlink ref="L648" r:id="rId2666" xr:uid="{00000000-0004-0000-0000-0000720A0000}"/>
-    <hyperlink ref="A649" r:id="rId2667" xr:uid="{00000000-0004-0000-0000-0000730A0000}"/>
-    <hyperlink ref="E649" r:id="rId2668" xr:uid="{00000000-0004-0000-0000-0000740A0000}"/>
-    <hyperlink ref="I649" r:id="rId2669" xr:uid="{00000000-0004-0000-0000-0000750A0000}"/>
-    <hyperlink ref="K649" r:id="rId2670" xr:uid="{00000000-0004-0000-0000-0000760A0000}"/>
-    <hyperlink ref="A650" r:id="rId2671" xr:uid="{00000000-0004-0000-0000-0000770A0000}"/>
-    <hyperlink ref="E650" r:id="rId2672" xr:uid="{00000000-0004-0000-0000-0000780A0000}"/>
-    <hyperlink ref="I650" r:id="rId2673" xr:uid="{00000000-0004-0000-0000-0000790A0000}"/>
-    <hyperlink ref="K650" r:id="rId2674" xr:uid="{00000000-0004-0000-0000-00007A0A0000}"/>
-    <hyperlink ref="L650" r:id="rId2675" xr:uid="{00000000-0004-0000-0000-00007B0A0000}"/>
-    <hyperlink ref="A651" r:id="rId2676" xr:uid="{00000000-0004-0000-0000-00007C0A0000}"/>
-    <hyperlink ref="E651" r:id="rId2677" xr:uid="{00000000-0004-0000-0000-00007D0A0000}"/>
-    <hyperlink ref="I651" r:id="rId2678" xr:uid="{00000000-0004-0000-0000-00007E0A0000}"/>
-    <hyperlink ref="L651" r:id="rId2679" xr:uid="{00000000-0004-0000-0000-00007F0A0000}"/>
-    <hyperlink ref="A652" r:id="rId2680" xr:uid="{00000000-0004-0000-0000-0000800A0000}"/>
-    <hyperlink ref="E652" r:id="rId2681" xr:uid="{00000000-0004-0000-0000-0000810A0000}"/>
-    <hyperlink ref="I652" r:id="rId2682" xr:uid="{00000000-0004-0000-0000-0000820A0000}"/>
-    <hyperlink ref="K652" r:id="rId2683" xr:uid="{00000000-0004-0000-0000-0000830A0000}"/>
-    <hyperlink ref="A653" r:id="rId2684" xr:uid="{00000000-0004-0000-0000-0000840A0000}"/>
-    <hyperlink ref="E653" r:id="rId2685" xr:uid="{00000000-0004-0000-0000-0000850A0000}"/>
-    <hyperlink ref="I653" r:id="rId2686" xr:uid="{00000000-0004-0000-0000-0000860A0000}"/>
-    <hyperlink ref="K653" r:id="rId2687" xr:uid="{00000000-0004-0000-0000-0000870A0000}"/>
-    <hyperlink ref="L653" r:id="rId2688" xr:uid="{00000000-0004-0000-0000-0000880A0000}"/>
-    <hyperlink ref="A654" r:id="rId2689" xr:uid="{00000000-0004-0000-0000-0000890A0000}"/>
-    <hyperlink ref="I654" r:id="rId2690" xr:uid="{00000000-0004-0000-0000-00008A0A0000}"/>
-    <hyperlink ref="L654" r:id="rId2691" xr:uid="{00000000-0004-0000-0000-00008B0A0000}"/>
-    <hyperlink ref="A655" r:id="rId2692" xr:uid="{00000000-0004-0000-0000-00008C0A0000}"/>
-    <hyperlink ref="E655" r:id="rId2693" xr:uid="{00000000-0004-0000-0000-00008D0A0000}"/>
-    <hyperlink ref="I655" r:id="rId2694" xr:uid="{00000000-0004-0000-0000-00008E0A0000}"/>
-    <hyperlink ref="K655" r:id="rId2695" xr:uid="{00000000-0004-0000-0000-00008F0A0000}"/>
-    <hyperlink ref="L655" r:id="rId2696" xr:uid="{00000000-0004-0000-0000-0000900A0000}"/>
-    <hyperlink ref="A656" r:id="rId2697" xr:uid="{00000000-0004-0000-0000-0000910A0000}"/>
-    <hyperlink ref="E656" r:id="rId2698" xr:uid="{00000000-0004-0000-0000-0000920A0000}"/>
-    <hyperlink ref="I656" r:id="rId2699" xr:uid="{00000000-0004-0000-0000-0000930A0000}"/>
-    <hyperlink ref="K656" r:id="rId2700" xr:uid="{00000000-0004-0000-0000-0000940A0000}"/>
-    <hyperlink ref="L656" r:id="rId2701" xr:uid="{00000000-0004-0000-0000-0000950A0000}"/>
-    <hyperlink ref="A657" r:id="rId2702" xr:uid="{00000000-0004-0000-0000-0000960A0000}"/>
-    <hyperlink ref="E657" r:id="rId2703" xr:uid="{00000000-0004-0000-0000-0000970A0000}"/>
-    <hyperlink ref="I657" r:id="rId2704" xr:uid="{00000000-0004-0000-0000-0000980A0000}"/>
-    <hyperlink ref="K657" r:id="rId2705" xr:uid="{00000000-0004-0000-0000-0000990A0000}"/>
-    <hyperlink ref="A658" r:id="rId2706" xr:uid="{00000000-0004-0000-0000-00009A0A0000}"/>
-    <hyperlink ref="E658" r:id="rId2707" xr:uid="{00000000-0004-0000-0000-00009B0A0000}"/>
-    <hyperlink ref="I658" r:id="rId2708" xr:uid="{00000000-0004-0000-0000-00009C0A0000}"/>
-    <hyperlink ref="K658" r:id="rId2709" xr:uid="{00000000-0004-0000-0000-00009D0A0000}"/>
-    <hyperlink ref="L658" r:id="rId2710" xr:uid="{00000000-0004-0000-0000-00009E0A0000}"/>
-    <hyperlink ref="A659" r:id="rId2711" xr:uid="{00000000-0004-0000-0000-00009F0A0000}"/>
-    <hyperlink ref="E659" r:id="rId2712" xr:uid="{00000000-0004-0000-0000-0000A00A0000}"/>
-    <hyperlink ref="I659" r:id="rId2713" xr:uid="{00000000-0004-0000-0000-0000A10A0000}"/>
-    <hyperlink ref="K659" r:id="rId2714" xr:uid="{00000000-0004-0000-0000-0000A20A0000}"/>
-    <hyperlink ref="L659" r:id="rId2715" xr:uid="{00000000-0004-0000-0000-0000A30A0000}"/>
-    <hyperlink ref="A660" r:id="rId2716" xr:uid="{00000000-0004-0000-0000-0000A40A0000}"/>
-    <hyperlink ref="E660" r:id="rId2717" xr:uid="{00000000-0004-0000-0000-0000A50A0000}"/>
-    <hyperlink ref="I660" r:id="rId2718" xr:uid="{00000000-0004-0000-0000-0000A60A0000}"/>
-    <hyperlink ref="A661" r:id="rId2719" xr:uid="{00000000-0004-0000-0000-0000A70A0000}"/>
-    <hyperlink ref="E661" r:id="rId2720" xr:uid="{00000000-0004-0000-0000-0000A80A0000}"/>
-    <hyperlink ref="I661" r:id="rId2721" xr:uid="{00000000-0004-0000-0000-0000A90A0000}"/>
-    <hyperlink ref="K661" r:id="rId2722" xr:uid="{00000000-0004-0000-0000-0000AA0A0000}"/>
-    <hyperlink ref="L661" r:id="rId2723" xr:uid="{00000000-0004-0000-0000-0000AB0A0000}"/>
-    <hyperlink ref="A662" r:id="rId2724" xr:uid="{00000000-0004-0000-0000-0000AC0A0000}"/>
-    <hyperlink ref="E662" r:id="rId2725" xr:uid="{00000000-0004-0000-0000-0000AD0A0000}"/>
-    <hyperlink ref="I662" r:id="rId2726" xr:uid="{00000000-0004-0000-0000-0000AE0A0000}"/>
-    <hyperlink ref="K662" r:id="rId2727" xr:uid="{00000000-0004-0000-0000-0000AF0A0000}"/>
-    <hyperlink ref="A663" r:id="rId2728" xr:uid="{00000000-0004-0000-0000-0000B00A0000}"/>
-    <hyperlink ref="E663" r:id="rId2729" xr:uid="{00000000-0004-0000-0000-0000B10A0000}"/>
-    <hyperlink ref="I663" r:id="rId2730" xr:uid="{00000000-0004-0000-0000-0000B20A0000}"/>
-    <hyperlink ref="K663" r:id="rId2731" xr:uid="{00000000-0004-0000-0000-0000B30A0000}"/>
-    <hyperlink ref="A664" r:id="rId2732" xr:uid="{00000000-0004-0000-0000-0000B40A0000}"/>
-    <hyperlink ref="E664" r:id="rId2733" xr:uid="{00000000-0004-0000-0000-0000B50A0000}"/>
-    <hyperlink ref="I664" r:id="rId2734" xr:uid="{00000000-0004-0000-0000-0000B60A0000}"/>
-    <hyperlink ref="K664" r:id="rId2735" xr:uid="{00000000-0004-0000-0000-0000B70A0000}"/>
-    <hyperlink ref="L664" r:id="rId2736" xr:uid="{00000000-0004-0000-0000-0000B80A0000}"/>
-    <hyperlink ref="A665" r:id="rId2737" xr:uid="{00000000-0004-0000-0000-0000B90A0000}"/>
-    <hyperlink ref="L665" r:id="rId2738" xr:uid="{00000000-0004-0000-0000-0000BA0A0000}"/>
-    <hyperlink ref="A666" r:id="rId2739" xr:uid="{00000000-0004-0000-0000-0000BB0A0000}"/>
-    <hyperlink ref="E666" r:id="rId2740" xr:uid="{00000000-0004-0000-0000-0000BC0A0000}"/>
-    <hyperlink ref="I666" r:id="rId2741" xr:uid="{00000000-0004-0000-0000-0000BD0A0000}"/>
-    <hyperlink ref="L666" r:id="rId2742" xr:uid="{00000000-0004-0000-0000-0000BE0A0000}"/>
-    <hyperlink ref="A667" r:id="rId2743" xr:uid="{00000000-0004-0000-0000-0000BF0A0000}"/>
-    <hyperlink ref="I667" r:id="rId2744" xr:uid="{00000000-0004-0000-0000-0000C00A0000}"/>
-    <hyperlink ref="L667" r:id="rId2745" xr:uid="{00000000-0004-0000-0000-0000C10A0000}"/>
-    <hyperlink ref="A668" r:id="rId2746" xr:uid="{00000000-0004-0000-0000-0000C20A0000}"/>
-    <hyperlink ref="E668" r:id="rId2747" xr:uid="{00000000-0004-0000-0000-0000C30A0000}"/>
-    <hyperlink ref="I668" r:id="rId2748" xr:uid="{00000000-0004-0000-0000-0000C40A0000}"/>
-    <hyperlink ref="K668" r:id="rId2749" xr:uid="{00000000-0004-0000-0000-0000C50A0000}"/>
-    <hyperlink ref="L668" r:id="rId2750" xr:uid="{00000000-0004-0000-0000-0000C60A0000}"/>
-    <hyperlink ref="A669" r:id="rId2751" xr:uid="{00000000-0004-0000-0000-0000C70A0000}"/>
-    <hyperlink ref="E669" r:id="rId2752" xr:uid="{00000000-0004-0000-0000-0000C80A0000}"/>
-    <hyperlink ref="I669" r:id="rId2753" xr:uid="{00000000-0004-0000-0000-0000C90A0000}"/>
-    <hyperlink ref="K669" r:id="rId2754" xr:uid="{00000000-0004-0000-0000-0000CA0A0000}"/>
-    <hyperlink ref="L669" r:id="rId2755" xr:uid="{00000000-0004-0000-0000-0000CB0A0000}"/>
-    <hyperlink ref="A670" r:id="rId2756" xr:uid="{00000000-0004-0000-0000-0000CC0A0000}"/>
-    <hyperlink ref="E670" r:id="rId2757" xr:uid="{00000000-0004-0000-0000-0000CD0A0000}"/>
-    <hyperlink ref="I670" r:id="rId2758" xr:uid="{00000000-0004-0000-0000-0000CE0A0000}"/>
-    <hyperlink ref="K670" r:id="rId2759" xr:uid="{00000000-0004-0000-0000-0000CF0A0000}"/>
-    <hyperlink ref="A671" r:id="rId2760" xr:uid="{00000000-0004-0000-0000-0000D00A0000}"/>
-    <hyperlink ref="I671" r:id="rId2761" xr:uid="{00000000-0004-0000-0000-0000D10A0000}"/>
-    <hyperlink ref="K671" r:id="rId2762" xr:uid="{00000000-0004-0000-0000-0000D20A0000}"/>
-    <hyperlink ref="L671" r:id="rId2763" xr:uid="{00000000-0004-0000-0000-0000D30A0000}"/>
-    <hyperlink ref="A672" r:id="rId2764" xr:uid="{00000000-0004-0000-0000-0000D40A0000}"/>
-    <hyperlink ref="E672" r:id="rId2765" xr:uid="{00000000-0004-0000-0000-0000D50A0000}"/>
-    <hyperlink ref="I672" r:id="rId2766" xr:uid="{00000000-0004-0000-0000-0000D60A0000}"/>
-    <hyperlink ref="K672" r:id="rId2767" xr:uid="{00000000-0004-0000-0000-0000D70A0000}"/>
-    <hyperlink ref="L672" r:id="rId2768" xr:uid="{00000000-0004-0000-0000-0000D80A0000}"/>
-    <hyperlink ref="A673" r:id="rId2769" xr:uid="{00000000-0004-0000-0000-0000D90A0000}"/>
-    <hyperlink ref="E673" r:id="rId2770" xr:uid="{00000000-0004-0000-0000-0000DA0A0000}"/>
-    <hyperlink ref="I673" r:id="rId2771" xr:uid="{00000000-0004-0000-0000-0000DB0A0000}"/>
-    <hyperlink ref="K673" r:id="rId2772" xr:uid="{00000000-0004-0000-0000-0000DC0A0000}"/>
-    <hyperlink ref="L673" r:id="rId2773" xr:uid="{00000000-0004-0000-0000-0000DD0A0000}"/>
-    <hyperlink ref="A674" r:id="rId2774" xr:uid="{00000000-0004-0000-0000-0000DE0A0000}"/>
-    <hyperlink ref="I674" r:id="rId2775" xr:uid="{00000000-0004-0000-0000-0000DF0A0000}"/>
-    <hyperlink ref="K674" r:id="rId2776" xr:uid="{00000000-0004-0000-0000-0000E00A0000}"/>
-    <hyperlink ref="A675" r:id="rId2777" xr:uid="{00000000-0004-0000-0000-0000E10A0000}"/>
-    <hyperlink ref="I675" r:id="rId2778" xr:uid="{00000000-0004-0000-0000-0000E20A0000}"/>
-    <hyperlink ref="K675" r:id="rId2779" xr:uid="{00000000-0004-0000-0000-0000E30A0000}"/>
-    <hyperlink ref="L675" r:id="rId2780" xr:uid="{00000000-0004-0000-0000-0000E40A0000}"/>
-    <hyperlink ref="A676" r:id="rId2781" xr:uid="{00000000-0004-0000-0000-0000E50A0000}"/>
-    <hyperlink ref="I676" r:id="rId2782" xr:uid="{00000000-0004-0000-0000-0000E60A0000}"/>
-    <hyperlink ref="L676" r:id="rId2783" xr:uid="{00000000-0004-0000-0000-0000E70A0000}"/>
-    <hyperlink ref="A677" r:id="rId2784" xr:uid="{00000000-0004-0000-0000-0000E80A0000}"/>
-    <hyperlink ref="E677" r:id="rId2785" xr:uid="{00000000-0004-0000-0000-0000E90A0000}"/>
-    <hyperlink ref="I677" r:id="rId2786" xr:uid="{00000000-0004-0000-0000-0000EA0A0000}"/>
-    <hyperlink ref="K677" r:id="rId2787" xr:uid="{00000000-0004-0000-0000-0000EB0A0000}"/>
-    <hyperlink ref="L677" r:id="rId2788" xr:uid="{00000000-0004-0000-0000-0000EC0A0000}"/>
-    <hyperlink ref="A678" r:id="rId2789" xr:uid="{00000000-0004-0000-0000-0000ED0A0000}"/>
-    <hyperlink ref="I678" r:id="rId2790" xr:uid="{00000000-0004-0000-0000-0000EE0A0000}"/>
-    <hyperlink ref="K678" r:id="rId2791" xr:uid="{00000000-0004-0000-0000-0000EF0A0000}"/>
-    <hyperlink ref="A679" r:id="rId2792" xr:uid="{00000000-0004-0000-0000-0000F00A0000}"/>
-    <hyperlink ref="E679" r:id="rId2793" xr:uid="{00000000-0004-0000-0000-0000F10A0000}"/>
-    <hyperlink ref="I679" r:id="rId2794" xr:uid="{00000000-0004-0000-0000-0000F20A0000}"/>
-    <hyperlink ref="K679" r:id="rId2795" xr:uid="{00000000-0004-0000-0000-0000F30A0000}"/>
-    <hyperlink ref="L679" r:id="rId2796" xr:uid="{00000000-0004-0000-0000-0000F40A0000}"/>
-    <hyperlink ref="A680" r:id="rId2797" xr:uid="{00000000-0004-0000-0000-0000F50A0000}"/>
-    <hyperlink ref="E680" r:id="rId2798" xr:uid="{00000000-0004-0000-0000-0000F60A0000}"/>
-    <hyperlink ref="I680" r:id="rId2799" xr:uid="{00000000-0004-0000-0000-0000F70A0000}"/>
-    <hyperlink ref="K680" r:id="rId2800" xr:uid="{00000000-0004-0000-0000-0000F80A0000}"/>
-    <hyperlink ref="L680" r:id="rId2801" xr:uid="{00000000-0004-0000-0000-0000F90A0000}"/>
-    <hyperlink ref="A681" r:id="rId2802" xr:uid="{00000000-0004-0000-0000-0000FA0A0000}"/>
-    <hyperlink ref="I681" r:id="rId2803" xr:uid="{00000000-0004-0000-0000-0000FB0A0000}"/>
-    <hyperlink ref="L681" r:id="rId2804" xr:uid="{00000000-0004-0000-0000-0000FC0A0000}"/>
-    <hyperlink ref="A682" r:id="rId2805" xr:uid="{00000000-0004-0000-0000-0000FD0A0000}"/>
-    <hyperlink ref="I682" r:id="rId2806" xr:uid="{00000000-0004-0000-0000-0000FE0A0000}"/>
-    <hyperlink ref="K682" r:id="rId2807" xr:uid="{00000000-0004-0000-0000-0000FF0A0000}"/>
-    <hyperlink ref="A683" r:id="rId2808" xr:uid="{00000000-0004-0000-0000-0000000B0000}"/>
-    <hyperlink ref="E683" r:id="rId2809" xr:uid="{00000000-0004-0000-0000-0000010B0000}"/>
-    <hyperlink ref="I683" r:id="rId2810" xr:uid="{00000000-0004-0000-0000-0000020B0000}"/>
-    <hyperlink ref="K683" r:id="rId2811" xr:uid="{00000000-0004-0000-0000-0000030B0000}"/>
-    <hyperlink ref="L683" r:id="rId2812" xr:uid="{00000000-0004-0000-0000-0000040B0000}"/>
-    <hyperlink ref="A684" r:id="rId2813" xr:uid="{00000000-0004-0000-0000-0000050B0000}"/>
-    <hyperlink ref="E684" r:id="rId2814" xr:uid="{00000000-0004-0000-0000-0000060B0000}"/>
-    <hyperlink ref="I684" r:id="rId2815" xr:uid="{00000000-0004-0000-0000-0000070B0000}"/>
-    <hyperlink ref="K684" r:id="rId2816" xr:uid="{00000000-0004-0000-0000-0000080B0000}"/>
-    <hyperlink ref="L684" r:id="rId2817" xr:uid="{00000000-0004-0000-0000-0000090B0000}"/>
-    <hyperlink ref="A685" r:id="rId2818" xr:uid="{00000000-0004-0000-0000-00000A0B0000}"/>
-    <hyperlink ref="I685" r:id="rId2819" xr:uid="{00000000-0004-0000-0000-00000B0B0000}"/>
-    <hyperlink ref="K685" r:id="rId2820" xr:uid="{00000000-0004-0000-0000-00000C0B0000}"/>
-    <hyperlink ref="L685" r:id="rId2821" xr:uid="{00000000-0004-0000-0000-00000D0B0000}"/>
-    <hyperlink ref="A686" r:id="rId2822" xr:uid="{00000000-0004-0000-0000-00000E0B0000}"/>
-    <hyperlink ref="E686" r:id="rId2823" xr:uid="{00000000-0004-0000-0000-00000F0B0000}"/>
-    <hyperlink ref="I686" r:id="rId2824" xr:uid="{00000000-0004-0000-0000-0000100B0000}"/>
-    <hyperlink ref="A687" r:id="rId2825" xr:uid="{00000000-0004-0000-0000-0000110B0000}"/>
-    <hyperlink ref="E687" r:id="rId2826" xr:uid="{00000000-0004-0000-0000-0000120B0000}"/>
-    <hyperlink ref="I687" r:id="rId2827" xr:uid="{00000000-0004-0000-0000-0000130B0000}"/>
-    <hyperlink ref="A688" r:id="rId2828" xr:uid="{00000000-0004-0000-0000-0000140B0000}"/>
-    <hyperlink ref="I688" r:id="rId2829" xr:uid="{00000000-0004-0000-0000-0000150B0000}"/>
-    <hyperlink ref="L688" r:id="rId2830" xr:uid="{00000000-0004-0000-0000-0000160B0000}"/>
-    <hyperlink ref="A689" r:id="rId2831" xr:uid="{00000000-0004-0000-0000-0000170B0000}"/>
-    <hyperlink ref="I689" r:id="rId2832" xr:uid="{00000000-0004-0000-0000-0000180B0000}"/>
-    <hyperlink ref="L689" r:id="rId2833" xr:uid="{00000000-0004-0000-0000-0000190B0000}"/>
-    <hyperlink ref="A690" r:id="rId2834" xr:uid="{00000000-0004-0000-0000-00001A0B0000}"/>
-    <hyperlink ref="I690" r:id="rId2835" xr:uid="{00000000-0004-0000-0000-00001B0B0000}"/>
-    <hyperlink ref="K690" r:id="rId2836" xr:uid="{00000000-0004-0000-0000-00001C0B0000}"/>
-    <hyperlink ref="L690" r:id="rId2837" xr:uid="{00000000-0004-0000-0000-00001D0B0000}"/>
-    <hyperlink ref="A691" r:id="rId2838" xr:uid="{00000000-0004-0000-0000-00001E0B0000}"/>
-    <hyperlink ref="E691" r:id="rId2839" xr:uid="{00000000-0004-0000-0000-00001F0B0000}"/>
-    <hyperlink ref="I691" r:id="rId2840" xr:uid="{00000000-0004-0000-0000-0000200B0000}"/>
-    <hyperlink ref="K691" r:id="rId2841" xr:uid="{00000000-0004-0000-0000-0000210B0000}"/>
-    <hyperlink ref="L691" r:id="rId2842" xr:uid="{00000000-0004-0000-0000-0000220B0000}"/>
-    <hyperlink ref="A692" r:id="rId2843" xr:uid="{00000000-0004-0000-0000-0000230B0000}"/>
-    <hyperlink ref="E692" r:id="rId2844" xr:uid="{00000000-0004-0000-0000-0000240B0000}"/>
-    <hyperlink ref="I692" r:id="rId2845" xr:uid="{00000000-0004-0000-0000-0000250B0000}"/>
-    <hyperlink ref="K692" r:id="rId2846" xr:uid="{00000000-0004-0000-0000-0000260B0000}"/>
-    <hyperlink ref="L692" r:id="rId2847" xr:uid="{00000000-0004-0000-0000-0000270B0000}"/>
-    <hyperlink ref="A693" r:id="rId2848" xr:uid="{00000000-0004-0000-0000-0000280B0000}"/>
-    <hyperlink ref="E693" r:id="rId2849" xr:uid="{00000000-0004-0000-0000-0000290B0000}"/>
-    <hyperlink ref="I693" r:id="rId2850" xr:uid="{00000000-0004-0000-0000-00002A0B0000}"/>
-    <hyperlink ref="K693" r:id="rId2851" xr:uid="{00000000-0004-0000-0000-00002B0B0000}"/>
-    <hyperlink ref="L693" r:id="rId2852" xr:uid="{00000000-0004-0000-0000-00002C0B0000}"/>
-    <hyperlink ref="A694" r:id="rId2853" xr:uid="{00000000-0004-0000-0000-00002D0B0000}"/>
-    <hyperlink ref="E694" r:id="rId2854" xr:uid="{00000000-0004-0000-0000-00002E0B0000}"/>
-    <hyperlink ref="I694" r:id="rId2855" xr:uid="{00000000-0004-0000-0000-00002F0B0000}"/>
-    <hyperlink ref="L694" r:id="rId2856" xr:uid="{00000000-0004-0000-0000-0000300B0000}"/>
-    <hyperlink ref="A695" r:id="rId2857" xr:uid="{00000000-0004-0000-0000-0000310B0000}"/>
-    <hyperlink ref="I695" r:id="rId2858" xr:uid="{00000000-0004-0000-0000-0000320B0000}"/>
-    <hyperlink ref="L695" r:id="rId2859" xr:uid="{00000000-0004-0000-0000-0000330B0000}"/>
-    <hyperlink ref="A696" r:id="rId2860" xr:uid="{00000000-0004-0000-0000-0000340B0000}"/>
-    <hyperlink ref="I696" r:id="rId2861" xr:uid="{00000000-0004-0000-0000-0000350B0000}"/>
-    <hyperlink ref="K696" r:id="rId2862" xr:uid="{00000000-0004-0000-0000-0000360B0000}"/>
-    <hyperlink ref="L696" r:id="rId2863" xr:uid="{00000000-0004-0000-0000-0000370B0000}"/>
-    <hyperlink ref="A697" r:id="rId2864" xr:uid="{00000000-0004-0000-0000-0000380B0000}"/>
-    <hyperlink ref="E697" r:id="rId2865" xr:uid="{00000000-0004-0000-0000-0000390B0000}"/>
-    <hyperlink ref="I697" r:id="rId2866" xr:uid="{00000000-0004-0000-0000-00003A0B0000}"/>
-    <hyperlink ref="L697" r:id="rId2867" xr:uid="{00000000-0004-0000-0000-00003B0B0000}"/>
-    <hyperlink ref="A698" r:id="rId2868" xr:uid="{00000000-0004-0000-0000-00003C0B0000}"/>
-    <hyperlink ref="I698" r:id="rId2869" xr:uid="{00000000-0004-0000-0000-00003D0B0000}"/>
-    <hyperlink ref="A699" r:id="rId2870" xr:uid="{00000000-0004-0000-0000-00003E0B0000}"/>
-    <hyperlink ref="I699" r:id="rId2871" xr:uid="{00000000-0004-0000-0000-00003F0B0000}"/>
-    <hyperlink ref="L699" r:id="rId2872" xr:uid="{00000000-0004-0000-0000-0000400B0000}"/>
-    <hyperlink ref="A700" r:id="rId2873" xr:uid="{00000000-0004-0000-0000-0000410B0000}"/>
-    <hyperlink ref="E700" r:id="rId2874" xr:uid="{00000000-0004-0000-0000-0000420B0000}"/>
-    <hyperlink ref="I700" r:id="rId2875" xr:uid="{00000000-0004-0000-0000-0000430B0000}"/>
-    <hyperlink ref="L700" r:id="rId2876" xr:uid="{00000000-0004-0000-0000-0000440B0000}"/>
-    <hyperlink ref="A701" r:id="rId2877" xr:uid="{00000000-0004-0000-0000-0000450B0000}"/>
-    <hyperlink ref="E701" r:id="rId2878" xr:uid="{00000000-0004-0000-0000-0000460B0000}"/>
-    <hyperlink ref="I701" r:id="rId2879" xr:uid="{00000000-0004-0000-0000-0000470B0000}"/>
-    <hyperlink ref="K701" r:id="rId2880" xr:uid="{00000000-0004-0000-0000-0000480B0000}"/>
-    <hyperlink ref="L701" r:id="rId2881" xr:uid="{00000000-0004-0000-0000-0000490B0000}"/>
-    <hyperlink ref="A702" r:id="rId2882" xr:uid="{00000000-0004-0000-0000-00004A0B0000}"/>
-    <hyperlink ref="E702" r:id="rId2883" xr:uid="{00000000-0004-0000-0000-00004B0B0000}"/>
-    <hyperlink ref="K702" r:id="rId2884" xr:uid="{00000000-0004-0000-0000-00004C0B0000}"/>
-    <hyperlink ref="L702" r:id="rId2885" xr:uid="{00000000-0004-0000-0000-00004D0B0000}"/>
-    <hyperlink ref="A703" r:id="rId2886" xr:uid="{00000000-0004-0000-0000-00004E0B0000}"/>
-    <hyperlink ref="I703" r:id="rId2887" xr:uid="{00000000-0004-0000-0000-00004F0B0000}"/>
-    <hyperlink ref="L703" r:id="rId2888" xr:uid="{00000000-0004-0000-0000-0000500B0000}"/>
-    <hyperlink ref="E71" r:id="rId2889" xr:uid="{DCB82BA1-420F-4E95-934E-340605C270B3}"/>
+    <hyperlink ref="L3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L6" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A7" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E7" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L7" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A8" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E8" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I8" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L8" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E9" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K9" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L9" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E10" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I10" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K10" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I11" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K11" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L11" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I12" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K12" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L12" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A13" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E13" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I13" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K13" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L13" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A14" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E14" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K14" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L14" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A15" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="L15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A16" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E16" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I16" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A17" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E17" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I17" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K17" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L17" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A18" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E18" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I18" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K18" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L18" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A19" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E19" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I19" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K19" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="L19" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A20" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E20" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K20" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="L20" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A21" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E21" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I21" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="K21" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="L21" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A22" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E22" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I22" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K22" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="L22" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A23" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E23" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I23" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="K23" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="L23" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A24" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E24" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I24" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="K24" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="L24" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A25" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E25" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="I25" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="K25" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="L25" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A26" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E26" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="I26" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="K26" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="L26" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A27" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E27" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="I27" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="K27" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="L27" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A28" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E28" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="K28" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="L28" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A29" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E29" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="K29" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="L29" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A30" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E30" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="I30" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="K30" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="L30" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A31" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E31" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="I31" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="K31" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="L31" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A32" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E32" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="I32" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="K32" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="L32" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A33" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E33" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="I33" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="K33" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="L33" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A34" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E34" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="I34" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="K34" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="L34" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A36" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E36" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="I36" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="K36" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="L36" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A37" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E37" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="I37" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="K37" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="L37" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A38" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E38" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="I38" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="K38" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="L38" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A39" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E39" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="I39" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="K39" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="L39" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A40" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E40" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="I40" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="K40" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="L40" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A41" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E41" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="I41" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="K41" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="L41" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A42" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E42" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="I42" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="K42" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="L42" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A43" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="E43" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="I43" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="K43" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="L43" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A44" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E44" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="I44" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="K44" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="L44" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A45" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E45" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="I45" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="K45" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="L45" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A46" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E46" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="I46" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="K46" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="L46" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A47" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E47" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="I47" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="K47" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="L47" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A48" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E48" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="I48" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="K48" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="L48" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="A49" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E49" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="I49" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="K49" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="L49" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A50" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E50" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="I50" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="K50" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="L50" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="A51" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="E51" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="I51" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="K51" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="L51" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="A52" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E52" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="I52" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="K52" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="L52" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="A53" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E53" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="I53" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="K53" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="L53" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="A54" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E54" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="I54" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="K54" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="L54" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A55" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E55" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="I55" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="K55" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="L55" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="A56" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E56" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="I56" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="K56" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="L56" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="A57" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E57" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="I57" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="K57" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="L57" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="A58" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="E58" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="I58" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="K58" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="L58" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="A59" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="E59" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="I59" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="K59" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="L59" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="A60" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="E60" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="I60" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="K60" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="L60" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="A61" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E61" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="I61" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="K61" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="L61" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="A62" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="E62" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="I62" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="K62" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="L62" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="A63" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="E63" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="I63" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="K63" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="L63" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="A64" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="E64" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="I64" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="K64" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="L64" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="A65" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="E65" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="I65" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="K65" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="L65" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="A66" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="E66" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="I66" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="K66" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="L66" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="A67" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="E67" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="I67" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="K67" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="L67" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="A68" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="E68" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="I68" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="K68" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="L68" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="A69" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="E69" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="I69" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="K69" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="L69" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="A70" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="E70" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="I70" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="K70" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="L70" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="A71" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C71" r:id="rId336" display="Ono Waterfall on the Kisokaidō" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="A72" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="E72" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="I72" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="K72" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="L72" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="A73" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="E73" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="I73" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="K73" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="L73" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="A74" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E74" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="I74" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="K74" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="L74" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="A75" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="I75" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="L75" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="A76" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="I76" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="K76" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="L76" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="E77" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="I77" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="K77" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="L77" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="A78" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="E78" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="I78" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="K78" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="L78" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="A79" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="E79" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="I79" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="K79" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="L79" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="A80" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="E80" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="I80" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="K80" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="L80" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="A81" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="E81" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="I81" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="K81" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="L81" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="A83" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E83" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="I83" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="K83" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="L83" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="A84" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="E84" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="I84" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="K84" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="L84" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="A85" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="E85" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="K85" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="L85" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="A86" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="E86" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="I86" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="K86" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="L86" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="A87" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="E87" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="I87" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="K87" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="L87" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="A88" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="I88" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="K88" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="L88" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="A89" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="E89" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="I89" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="K89" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="L89" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="A90" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="E90" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="I90" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="K90" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="L90" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="A91" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="E91" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="K91" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="A92" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="E92" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="I92" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="K92" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="L92" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="A93" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="E93" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="I93" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="K93" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="L93" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="A94" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="E94" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="I94" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="K94" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="L94" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="A95" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="E95" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="I95" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="K95" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="L95" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="A96" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="E96" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="I96" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="K96" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="L96" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="A97" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="E97" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="I97" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="K97" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="L97" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="A98" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="E98" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="I98" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="K98" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="L98" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="A99" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="I99" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="K99" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="L99" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="A100" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="E100" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="I100" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="K100" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="L100" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="A101" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="E101" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="I101" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="K101" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="L101" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="A102" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="E102" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="I102" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="K102" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="L102" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="A103" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="E103" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="I103" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="K103" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="L103" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="A104" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="E104" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="I104" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="K104" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="L104" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="A105" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="I105" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="K105" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="L105" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="A106" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="I106" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="K106" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="L106" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="A107" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="I107" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="L107" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="A108" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="E108" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="I108" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="K108" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="L108" r:id="rId503" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="A109" r:id="rId504" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="E109" r:id="rId505" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="I109" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="K109" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="L109" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="A110" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="E110" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="I110" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="K110" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="L110" r:id="rId513" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="A112" r:id="rId514" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="E112" r:id="rId515" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="I112" r:id="rId516" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="K112" r:id="rId517" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="L112" r:id="rId518" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="A113" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="E113" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="I113" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="K113" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="L113" r:id="rId523" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="A114" r:id="rId524" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="E114" r:id="rId525" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="I114" r:id="rId526" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="K114" r:id="rId527" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="L114" r:id="rId528" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="A115" r:id="rId529" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="E115" r:id="rId530" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="I115" r:id="rId531" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="K115" r:id="rId532" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="L115" r:id="rId533" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="A116" r:id="rId534" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="I116" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="K116" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="L116" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="A117" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="E117" r:id="rId539" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="I117" r:id="rId540" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="K117" r:id="rId541" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="L117" r:id="rId542" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="A118" r:id="rId543" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="I118" r:id="rId544" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="L118" r:id="rId545" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="A119" r:id="rId546" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="E119" r:id="rId547" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="I119" r:id="rId548" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="K119" r:id="rId549" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="L119" r:id="rId550" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="A120" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="E120" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="I120" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="K120" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="L120" r:id="rId555" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="A121" r:id="rId556" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="E121" r:id="rId557" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="I121" r:id="rId558" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="K121" r:id="rId559" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="L121" r:id="rId560" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="A122" r:id="rId561" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="E122" r:id="rId562" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="I122" r:id="rId563" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="K122" r:id="rId564" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="L122" r:id="rId565" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="A123" r:id="rId566" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="E123" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="I123" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="K123" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="L123" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="A124" r:id="rId571" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="E124" r:id="rId572" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="I124" r:id="rId573" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="K124" r:id="rId574" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="L124" r:id="rId575" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="A125" r:id="rId576" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="K125" r:id="rId577" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="L125" r:id="rId578" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="A126" r:id="rId579" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="E126" r:id="rId580" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="I126" r:id="rId581" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="K126" r:id="rId582" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="L126" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="A127" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="I127" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="K127" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="L127" r:id="rId587" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="A128" r:id="rId588" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="E128" r:id="rId589" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="I128" r:id="rId590" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="K128" r:id="rId591" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="L128" r:id="rId592" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="A129" r:id="rId593" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="I129" r:id="rId594" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="K129" r:id="rId595" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="L129" r:id="rId596" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="A130" r:id="rId597" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="E130" r:id="rId598" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="I130" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="K130" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="L130" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="A131" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="E131" r:id="rId603" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="I131" r:id="rId604" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="K131" r:id="rId605" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="L131" r:id="rId606" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="A132" r:id="rId607" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="E132" r:id="rId608" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="I132" r:id="rId609" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="K132" r:id="rId610" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="L132" r:id="rId611" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="A133" r:id="rId612" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="E133" r:id="rId613" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="K133" r:id="rId614" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="L133" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="A134" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="E134" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="I134" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="K134" r:id="rId619" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="L134" r:id="rId620" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="A135" r:id="rId621" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="E135" r:id="rId622" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="I135" r:id="rId623" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="K135" r:id="rId624" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="L135" r:id="rId625" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="A136" r:id="rId626" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="E136" r:id="rId627" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="I136" r:id="rId628" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="K136" r:id="rId629" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="L136" r:id="rId630" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="A137" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="I137" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="L137" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="A138" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="E138" r:id="rId635" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="I138" r:id="rId636" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="K138" r:id="rId637" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="L138" r:id="rId638" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="A139" r:id="rId639" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="E139" r:id="rId640" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="I139" r:id="rId641" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="K139" r:id="rId642" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="L139" r:id="rId643" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="A140" r:id="rId644" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="E140" r:id="rId645" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="I140" r:id="rId646" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="K140" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="L140" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="A141" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="E141" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="I141" r:id="rId651" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="K141" r:id="rId652" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="L141" r:id="rId653" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="A142" r:id="rId654" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="E142" r:id="rId655" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="I142" r:id="rId656" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="K142" r:id="rId657" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="L142" r:id="rId658" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="A143" r:id="rId659" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="E143" r:id="rId660" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="I143" r:id="rId661" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="K143" r:id="rId662" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="L143" r:id="rId663" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="A144" r:id="rId664" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="E144" r:id="rId665" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="I144" r:id="rId666" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="K144" r:id="rId667" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="L144" r:id="rId668" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="A145" r:id="rId669" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="E145" r:id="rId670" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="I145" r:id="rId671" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="K145" r:id="rId672" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="L145" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="A146" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="E146" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="I146" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="K146" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="A147" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="E147" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="I147" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="K147" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="L147" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="A148" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="E148" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="I148" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="K148" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="L148" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="A149" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="E149" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="I149" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="K149" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="L149" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="A150" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="E150" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="I150" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="K150" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="L150" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="A151" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="E151" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="I151" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="K151" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="L151" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="A152" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="E152" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="I152" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="K152" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="L152" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="A153" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="E153" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="I153" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="K153" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="L153" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="A154" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="E154" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="I154" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="K154" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="L154" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="A155" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="E155" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="I155" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="K155" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="L155" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="A156" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="E156" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="I156" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="K156" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="L156" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="A157" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="E157" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="I157" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="K157" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="L157" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="A158" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="E158" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="I158" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="K158" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="L158" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="A159" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="E159" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="I159" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="K159" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="L159" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="A160" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="E160" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="I160" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="K160" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="L160" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="A161" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="I161" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="L161" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="A162" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="E162" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="I162" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="K162" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="L162" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="A163" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="E163" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="I163" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="K163" r:id="rId759" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="L163" r:id="rId760" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="A164" r:id="rId761" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="I164" r:id="rId762" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="K164" r:id="rId763" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="L164" r:id="rId764" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="A165" r:id="rId765" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="E165" r:id="rId766" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="K165" r:id="rId767" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="L165" r:id="rId768" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="A166" r:id="rId769" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="E166" r:id="rId770" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="I166" r:id="rId771" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="K166" r:id="rId772" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="L166" r:id="rId773" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="A167" r:id="rId774" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="I167" r:id="rId775" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="K167" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="L167" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="A168" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="E168" r:id="rId779" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="I168" r:id="rId780" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="K168" r:id="rId781" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="L168" r:id="rId782" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="A169" r:id="rId783" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
+    <hyperlink ref="K169" r:id="rId784" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="L169" r:id="rId785" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="A170" r:id="rId786" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
+    <hyperlink ref="E170" r:id="rId787" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
+    <hyperlink ref="I170" r:id="rId788" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
+    <hyperlink ref="K170" r:id="rId789" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
+    <hyperlink ref="L170" r:id="rId790" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
+    <hyperlink ref="A171" r:id="rId791" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
+    <hyperlink ref="E171" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="I171" r:id="rId793" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
+    <hyperlink ref="K171" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
+    <hyperlink ref="L171" r:id="rId795" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
+    <hyperlink ref="A172" r:id="rId796" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
+    <hyperlink ref="I172" r:id="rId797" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
+    <hyperlink ref="A173" r:id="rId798" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
+    <hyperlink ref="E173" r:id="rId799" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
+    <hyperlink ref="I173" r:id="rId800" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
+    <hyperlink ref="K173" r:id="rId801" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
+    <hyperlink ref="L173" r:id="rId802" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
+    <hyperlink ref="A174" r:id="rId803" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
+    <hyperlink ref="E174" r:id="rId804" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
+    <hyperlink ref="I174" r:id="rId805" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
+    <hyperlink ref="K174" r:id="rId806" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
+    <hyperlink ref="L174" r:id="rId807" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
+    <hyperlink ref="A175" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
+    <hyperlink ref="E175" r:id="rId809" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
+    <hyperlink ref="I175" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
+    <hyperlink ref="K175" r:id="rId811" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
+    <hyperlink ref="L175" r:id="rId812" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
+    <hyperlink ref="A176" r:id="rId813" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
+    <hyperlink ref="E176" r:id="rId814" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
+    <hyperlink ref="I176" r:id="rId815" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
+    <hyperlink ref="K176" r:id="rId816" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
+    <hyperlink ref="L176" r:id="rId817" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
+    <hyperlink ref="A177" r:id="rId818" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
+    <hyperlink ref="E177" r:id="rId819" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
+    <hyperlink ref="I177" r:id="rId820" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
+    <hyperlink ref="K177" r:id="rId821" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
+    <hyperlink ref="L177" r:id="rId822" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
+    <hyperlink ref="A178" r:id="rId823" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
+    <hyperlink ref="E178" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
+    <hyperlink ref="I178" r:id="rId825" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
+    <hyperlink ref="K178" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
+    <hyperlink ref="L178" r:id="rId827" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
+    <hyperlink ref="A179" r:id="rId828" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
+    <hyperlink ref="E179" r:id="rId829" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
+    <hyperlink ref="I179" r:id="rId830" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
+    <hyperlink ref="K179" r:id="rId831" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
+    <hyperlink ref="L179" r:id="rId832" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
+    <hyperlink ref="A180" r:id="rId833" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
+    <hyperlink ref="E180" r:id="rId834" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
+    <hyperlink ref="I180" r:id="rId835" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
+    <hyperlink ref="K180" r:id="rId836" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
+    <hyperlink ref="L180" r:id="rId837" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
+    <hyperlink ref="A181" r:id="rId838" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
+    <hyperlink ref="E181" r:id="rId839" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
+    <hyperlink ref="I181" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
+    <hyperlink ref="K181" r:id="rId841" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
+    <hyperlink ref="L181" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
+    <hyperlink ref="A182" r:id="rId843" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
+    <hyperlink ref="E182" r:id="rId844" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
+    <hyperlink ref="I182" r:id="rId845" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
+    <hyperlink ref="K182" r:id="rId846" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
+    <hyperlink ref="L182" r:id="rId847" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
+    <hyperlink ref="A183" r:id="rId848" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
+    <hyperlink ref="E183" r:id="rId849" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
+    <hyperlink ref="I183" r:id="rId850" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
+    <hyperlink ref="K183" r:id="rId851" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
+    <hyperlink ref="L183" r:id="rId852" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
+    <hyperlink ref="A184" r:id="rId853" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
+    <hyperlink ref="E184" r:id="rId854" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
+    <hyperlink ref="I184" r:id="rId855" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
+    <hyperlink ref="K184" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
+    <hyperlink ref="L184" r:id="rId857" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
+    <hyperlink ref="A185" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
+    <hyperlink ref="E185" r:id="rId859" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
+    <hyperlink ref="I185" r:id="rId860" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
+    <hyperlink ref="K185" r:id="rId861" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
+    <hyperlink ref="L185" r:id="rId862" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
+    <hyperlink ref="A186" r:id="rId863" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
+    <hyperlink ref="E186" r:id="rId864" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
+    <hyperlink ref="I186" r:id="rId865" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
+    <hyperlink ref="K186" r:id="rId866" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
+    <hyperlink ref="L186" r:id="rId867" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
+    <hyperlink ref="A188" r:id="rId868" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
+    <hyperlink ref="E188" r:id="rId869" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
+    <hyperlink ref="I188" r:id="rId870" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
+    <hyperlink ref="K188" r:id="rId871" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
+    <hyperlink ref="L188" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
+    <hyperlink ref="A189" r:id="rId873" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
+    <hyperlink ref="E189" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
+    <hyperlink ref="I189" r:id="rId875" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
+    <hyperlink ref="K189" r:id="rId876" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
+    <hyperlink ref="L189" r:id="rId877" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="A190" r:id="rId878" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="L190" r:id="rId879" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
+    <hyperlink ref="A191" r:id="rId880" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
+    <hyperlink ref="L191" r:id="rId881" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="A192" r:id="rId882" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="E192" r:id="rId883" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="K192" r:id="rId884" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="L192" r:id="rId885" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
+    <hyperlink ref="A194" r:id="rId886" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
+    <hyperlink ref="E194" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
+    <hyperlink ref="I194" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
+    <hyperlink ref="K194" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
+    <hyperlink ref="L194" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
+    <hyperlink ref="A195" r:id="rId891" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
+    <hyperlink ref="E195" r:id="rId892" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
+    <hyperlink ref="I195" r:id="rId893" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
+    <hyperlink ref="K195" r:id="rId894" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
+    <hyperlink ref="L195" r:id="rId895" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="A196" r:id="rId896" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="E196" r:id="rId897" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="I196" r:id="rId898" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="L196" r:id="rId899" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="A197" r:id="rId900" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="E197" r:id="rId901" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="I197" r:id="rId902" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="K197" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="L197" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="A198" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="K198" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="L198" r:id="rId907" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="A199" r:id="rId908" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="K199" r:id="rId909" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="L199" r:id="rId910" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="A200" r:id="rId911" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="E200" r:id="rId912" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="I200" r:id="rId913" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="K200" r:id="rId914" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="L200" r:id="rId915" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="A201" r:id="rId916" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="E201" r:id="rId917" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="I201" r:id="rId918" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="K201" r:id="rId919" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="L201" r:id="rId920" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="A202" r:id="rId921" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="E202" r:id="rId922" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="I202" r:id="rId923" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="K202" r:id="rId924" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="L202" r:id="rId925" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="A203" r:id="rId926" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="E203" r:id="rId927" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="I203" r:id="rId928" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="K203" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="L203" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="A204" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
+    <hyperlink ref="E204" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
+    <hyperlink ref="I204" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="K204" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="L204" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
+    <hyperlink ref="A205" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
+    <hyperlink ref="E205" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="I205" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="K205" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
+    <hyperlink ref="L205" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
+    <hyperlink ref="A206" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
+    <hyperlink ref="E206" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
+    <hyperlink ref="I206" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
+    <hyperlink ref="K206" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
+    <hyperlink ref="L206" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
+    <hyperlink ref="A207" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
+    <hyperlink ref="E207" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="I207" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="K207" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="L207" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="A208" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E208" r:id="rId952" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="I208" r:id="rId953" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="K208" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="L208" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="A209" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="E209" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="I209" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="K209" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="L209" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="A210" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="I210" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="K210" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
+    <hyperlink ref="L210" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
+    <hyperlink ref="A211" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
+    <hyperlink ref="E211" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
+    <hyperlink ref="I211" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="K211" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="L211" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="A212" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="E212" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="I212" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="K212" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="L212" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="A213" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E213" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="I213" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
+    <hyperlink ref="K213" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
+    <hyperlink ref="L213" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="A214" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="E214" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000DE030000}"/>
+    <hyperlink ref="I214" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000DF030000}"/>
+    <hyperlink ref="K214" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000E0030000}"/>
+    <hyperlink ref="L214" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000E1030000}"/>
+    <hyperlink ref="A215" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000E2030000}"/>
+    <hyperlink ref="E215" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000E3030000}"/>
+    <hyperlink ref="I215" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000E4030000}"/>
+    <hyperlink ref="K215" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000E5030000}"/>
+    <hyperlink ref="L215" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000E6030000}"/>
+    <hyperlink ref="A217" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000E7030000}"/>
+    <hyperlink ref="I217" r:id="rId991" xr:uid="{00000000-0004-0000-0000-0000E8030000}"/>
+    <hyperlink ref="K217" r:id="rId992" xr:uid="{00000000-0004-0000-0000-0000E9030000}"/>
+    <hyperlink ref="L217" r:id="rId993" xr:uid="{00000000-0004-0000-0000-0000EA030000}"/>
+    <hyperlink ref="A218" r:id="rId994" xr:uid="{00000000-0004-0000-0000-0000EB030000}"/>
+    <hyperlink ref="I218" r:id="rId995" xr:uid="{00000000-0004-0000-0000-0000EC030000}"/>
+    <hyperlink ref="L218" r:id="rId996" xr:uid="{00000000-0004-0000-0000-0000ED030000}"/>
+    <hyperlink ref="A219" r:id="rId997" xr:uid="{00000000-0004-0000-0000-0000EE030000}"/>
+    <hyperlink ref="E219" r:id="rId998" xr:uid="{00000000-0004-0000-0000-0000EF030000}"/>
+    <hyperlink ref="I219" r:id="rId999" xr:uid="{00000000-0004-0000-0000-0000F0030000}"/>
+    <hyperlink ref="L219" r:id="rId1000" xr:uid="{00000000-0004-0000-0000-0000F1030000}"/>
+    <hyperlink ref="A220" r:id="rId1001" xr:uid="{00000000-0004-0000-0000-0000F2030000}"/>
+    <hyperlink ref="I220" r:id="rId1002" xr:uid="{00000000-0004-0000-0000-0000F3030000}"/>
+    <hyperlink ref="L220" r:id="rId1003" xr:uid="{00000000-0004-0000-0000-0000F4030000}"/>
+    <hyperlink ref="A221" r:id="rId1004" xr:uid="{00000000-0004-0000-0000-0000F5030000}"/>
+    <hyperlink ref="E221" r:id="rId1005" xr:uid="{00000000-0004-0000-0000-0000F6030000}"/>
+    <hyperlink ref="I221" r:id="rId1006" xr:uid="{00000000-0004-0000-0000-0000F7030000}"/>
+    <hyperlink ref="K221" r:id="rId1007" xr:uid="{00000000-0004-0000-0000-0000F8030000}"/>
+    <hyperlink ref="L221" r:id="rId1008" xr:uid="{00000000-0004-0000-0000-0000F9030000}"/>
+    <hyperlink ref="A222" r:id="rId1009" xr:uid="{00000000-0004-0000-0000-0000FA030000}"/>
+    <hyperlink ref="E222" r:id="rId1010" xr:uid="{00000000-0004-0000-0000-0000FB030000}"/>
+    <hyperlink ref="I222" r:id="rId1011" xr:uid="{00000000-0004-0000-0000-0000FC030000}"/>
+    <hyperlink ref="K222" r:id="rId1012" xr:uid="{00000000-0004-0000-0000-0000FD030000}"/>
+    <hyperlink ref="L222" r:id="rId1013" xr:uid="{00000000-0004-0000-0000-0000FE030000}"/>
+    <hyperlink ref="A223" r:id="rId1014" xr:uid="{00000000-0004-0000-0000-0000FF030000}"/>
+    <hyperlink ref="E223" r:id="rId1015" xr:uid="{00000000-0004-0000-0000-000000040000}"/>
+    <hyperlink ref="I223" r:id="rId1016" xr:uid="{00000000-0004-0000-0000-000001040000}"/>
+    <hyperlink ref="K223" r:id="rId1017" xr:uid="{00000000-0004-0000-0000-000002040000}"/>
+    <hyperlink ref="L223" r:id="rId1018" xr:uid="{00000000-0004-0000-0000-000003040000}"/>
+    <hyperlink ref="A224" r:id="rId1019" xr:uid="{00000000-0004-0000-0000-000004040000}"/>
+    <hyperlink ref="E224" r:id="rId1020" xr:uid="{00000000-0004-0000-0000-000005040000}"/>
+    <hyperlink ref="I224" r:id="rId1021" xr:uid="{00000000-0004-0000-0000-000006040000}"/>
+    <hyperlink ref="K224" r:id="rId1022" xr:uid="{00000000-0004-0000-0000-000007040000}"/>
+    <hyperlink ref="L224" r:id="rId1023" xr:uid="{00000000-0004-0000-0000-000008040000}"/>
+    <hyperlink ref="A225" r:id="rId1024" xr:uid="{00000000-0004-0000-0000-000009040000}"/>
+    <hyperlink ref="I225" r:id="rId1025" xr:uid="{00000000-0004-0000-0000-00000A040000}"/>
+    <hyperlink ref="L225" r:id="rId1026" xr:uid="{00000000-0004-0000-0000-00000B040000}"/>
+    <hyperlink ref="A226" r:id="rId1027" xr:uid="{00000000-0004-0000-0000-00000C040000}"/>
+    <hyperlink ref="E226" r:id="rId1028" xr:uid="{00000000-0004-0000-0000-00000D040000}"/>
+    <hyperlink ref="I226" r:id="rId1029" xr:uid="{00000000-0004-0000-0000-00000E040000}"/>
+    <hyperlink ref="K226" r:id="rId1030" xr:uid="{00000000-0004-0000-0000-00000F040000}"/>
+    <hyperlink ref="L226" r:id="rId1031" xr:uid="{00000000-0004-0000-0000-000010040000}"/>
+    <hyperlink ref="A227" r:id="rId1032" xr:uid="{00000000-0004-0000-0000-000011040000}"/>
+    <hyperlink ref="K227" r:id="rId1033" xr:uid="{00000000-0004-0000-0000-000012040000}"/>
+    <hyperlink ref="L227" r:id="rId1034" xr:uid="{00000000-0004-0000-0000-000013040000}"/>
+    <hyperlink ref="A228" r:id="rId1035" xr:uid="{00000000-0004-0000-0000-000014040000}"/>
+    <hyperlink ref="I228" r:id="rId1036" xr:uid="{00000000-0004-0000-0000-000015040000}"/>
+    <hyperlink ref="K228" r:id="rId1037" xr:uid="{00000000-0004-0000-0000-000016040000}"/>
+    <hyperlink ref="L228" r:id="rId1038" xr:uid="{00000000-0004-0000-0000-000017040000}"/>
+    <hyperlink ref="A229" r:id="rId1039" xr:uid="{00000000-0004-0000-0000-000018040000}"/>
+    <hyperlink ref="I229" r:id="rId1040" xr:uid="{00000000-0004-0000-0000-000019040000}"/>
+    <hyperlink ref="L229" r:id="rId1041" xr:uid="{00000000-0004-0000-0000-00001A040000}"/>
+    <hyperlink ref="A230" r:id="rId1042" xr:uid="{00000000-0004-0000-0000-00001B040000}"/>
+    <hyperlink ref="E230" r:id="rId1043" xr:uid="{00000000-0004-0000-0000-00001C040000}"/>
+    <hyperlink ref="K230" r:id="rId1044" xr:uid="{00000000-0004-0000-0000-00001D040000}"/>
+    <hyperlink ref="L230" r:id="rId1045" xr:uid="{00000000-0004-0000-0000-00001E040000}"/>
+    <hyperlink ref="A231" r:id="rId1046" xr:uid="{00000000-0004-0000-0000-00001F040000}"/>
+    <hyperlink ref="E231" r:id="rId1047" xr:uid="{00000000-0004-0000-0000-000020040000}"/>
+    <hyperlink ref="I231" r:id="rId1048" xr:uid="{00000000-0004-0000-0000-000021040000}"/>
+    <hyperlink ref="L231" r:id="rId1049" xr:uid="{00000000-0004-0000-0000-000022040000}"/>
+    <hyperlink ref="A232" r:id="rId1050" xr:uid="{00000000-0004-0000-0000-000023040000}"/>
+    <hyperlink ref="E232" r:id="rId1051" xr:uid="{00000000-0004-0000-0000-000024040000}"/>
+    <hyperlink ref="I232" r:id="rId1052" xr:uid="{00000000-0004-0000-0000-000025040000}"/>
+    <hyperlink ref="K232" r:id="rId1053" xr:uid="{00000000-0004-0000-0000-000026040000}"/>
+    <hyperlink ref="L232" r:id="rId1054" xr:uid="{00000000-0004-0000-0000-000027040000}"/>
+    <hyperlink ref="A233" r:id="rId1055" xr:uid="{00000000-0004-0000-0000-000028040000}"/>
+    <hyperlink ref="I233" r:id="rId1056" xr:uid="{00000000-0004-0000-0000-000029040000}"/>
+    <hyperlink ref="K233" r:id="rId1057" xr:uid="{00000000-0004-0000-0000-00002A040000}"/>
+    <hyperlink ref="L233" r:id="rId1058" xr:uid="{00000000-0004-0000-0000-00002B040000}"/>
+    <hyperlink ref="A234" r:id="rId1059" xr:uid="{00000000-0004-0000-0000-00002C040000}"/>
+    <hyperlink ref="I234" r:id="rId1060" xr:uid="{00000000-0004-0000-0000-00002D040000}"/>
+    <hyperlink ref="K234" r:id="rId1061" xr:uid="{00000000-0004-0000-0000-00002E040000}"/>
+    <hyperlink ref="L234" r:id="rId1062" xr:uid="{00000000-0004-0000-0000-00002F040000}"/>
+    <hyperlink ref="A235" r:id="rId1063" xr:uid="{00000000-0004-0000-0000-000030040000}"/>
+    <hyperlink ref="E235" r:id="rId1064" xr:uid="{00000000-0004-0000-0000-000031040000}"/>
+    <hyperlink ref="I235" r:id="rId1065" xr:uid="{00000000-0004-0000-0000-000032040000}"/>
+    <hyperlink ref="K235" r:id="rId1066" xr:uid="{00000000-0004-0000-0000-000033040000}"/>
+    <hyperlink ref="L235" r:id="rId1067" xr:uid="{00000000-0004-0000-0000-000034040000}"/>
+    <hyperlink ref="A236" r:id="rId1068" xr:uid="{00000000-0004-0000-0000-000035040000}"/>
+    <hyperlink ref="E236" r:id="rId1069" xr:uid="{00000000-0004-0000-0000-000036040000}"/>
+    <hyperlink ref="I236" r:id="rId1070" xr:uid="{00000000-0004-0000-0000-000037040000}"/>
+    <hyperlink ref="K236" r:id="rId1071" xr:uid="{00000000-0004-0000-0000-000038040000}"/>
+    <hyperlink ref="L236" r:id="rId1072" xr:uid="{00000000-0004-0000-0000-000039040000}"/>
+    <hyperlink ref="A237" r:id="rId1073" xr:uid="{00000000-0004-0000-0000-00003A040000}"/>
+    <hyperlink ref="E237" r:id="rId1074" xr:uid="{00000000-0004-0000-0000-00003B040000}"/>
+    <hyperlink ref="I237" r:id="rId1075" xr:uid="{00000000-0004-0000-0000-00003C040000}"/>
+    <hyperlink ref="K237" r:id="rId1076" xr:uid="{00000000-0004-0000-0000-00003D040000}"/>
+    <hyperlink ref="L237" r:id="rId1077" xr:uid="{00000000-0004-0000-0000-00003E040000}"/>
+    <hyperlink ref="A238" r:id="rId1078" xr:uid="{00000000-0004-0000-0000-00003F040000}"/>
+    <hyperlink ref="E238" r:id="rId1079" xr:uid="{00000000-0004-0000-0000-000040040000}"/>
+    <hyperlink ref="I238" r:id="rId1080" xr:uid="{00000000-0004-0000-0000-000041040000}"/>
+    <hyperlink ref="K238" r:id="rId1081" xr:uid="{00000000-0004-0000-0000-000042040000}"/>
+    <hyperlink ref="L238" r:id="rId1082" xr:uid="{00000000-0004-0000-0000-000043040000}"/>
+    <hyperlink ref="A239" r:id="rId1083" xr:uid="{00000000-0004-0000-0000-000044040000}"/>
+    <hyperlink ref="E239" r:id="rId1084" xr:uid="{00000000-0004-0000-0000-000045040000}"/>
+    <hyperlink ref="I239" r:id="rId1085" xr:uid="{00000000-0004-0000-0000-000046040000}"/>
+    <hyperlink ref="K239" r:id="rId1086" xr:uid="{00000000-0004-0000-0000-000047040000}"/>
+    <hyperlink ref="L239" r:id="rId1087" xr:uid="{00000000-0004-0000-0000-000048040000}"/>
+    <hyperlink ref="A240" r:id="rId1088" xr:uid="{00000000-0004-0000-0000-000049040000}"/>
+    <hyperlink ref="E240" r:id="rId1089" xr:uid="{00000000-0004-0000-0000-00004A040000}"/>
+    <hyperlink ref="I240" r:id="rId1090" xr:uid="{00000000-0004-0000-0000-00004B040000}"/>
+    <hyperlink ref="K240" r:id="rId1091" xr:uid="{00000000-0004-0000-0000-00004C040000}"/>
+    <hyperlink ref="L240" r:id="rId1092" xr:uid="{00000000-0004-0000-0000-00004D040000}"/>
+    <hyperlink ref="A241" r:id="rId1093" xr:uid="{00000000-0004-0000-0000-00004E040000}"/>
+    <hyperlink ref="E241" r:id="rId1094" xr:uid="{00000000-0004-0000-0000-00004F040000}"/>
+    <hyperlink ref="I241" r:id="rId1095" xr:uid="{00000000-0004-0000-0000-000050040000}"/>
+    <hyperlink ref="K241" r:id="rId1096" xr:uid="{00000000-0004-0000-0000-000051040000}"/>
+    <hyperlink ref="L241" r:id="rId1097" xr:uid="{00000000-0004-0000-0000-000052040000}"/>
+    <hyperlink ref="A242" r:id="rId1098" xr:uid="{00000000-0004-0000-0000-000053040000}"/>
+    <hyperlink ref="E242" r:id="rId1099" xr:uid="{00000000-0004-0000-0000-000054040000}"/>
+    <hyperlink ref="I242" r:id="rId1100" xr:uid="{00000000-0004-0000-0000-000055040000}"/>
+    <hyperlink ref="L242" r:id="rId1101" xr:uid="{00000000-0004-0000-0000-000056040000}"/>
+    <hyperlink ref="A243" r:id="rId1102" xr:uid="{00000000-0004-0000-0000-000057040000}"/>
+    <hyperlink ref="E243" r:id="rId1103" xr:uid="{00000000-0004-0000-0000-000058040000}"/>
+    <hyperlink ref="I243" r:id="rId1104" xr:uid="{00000000-0004-0000-0000-000059040000}"/>
+    <hyperlink ref="K243" r:id="rId1105" xr:uid="{00000000-0004-0000-0000-00005A040000}"/>
+    <hyperlink ref="L243" r:id="rId1106" xr:uid="{00000000-0004-0000-0000-00005B040000}"/>
+    <hyperlink ref="A244" r:id="rId1107" xr:uid="{00000000-0004-0000-0000-00005C040000}"/>
+    <hyperlink ref="I244" r:id="rId1108" xr:uid="{00000000-0004-0000-0000-00005D040000}"/>
+    <hyperlink ref="L244" r:id="rId1109" xr:uid="{00000000-0004-0000-0000-00005E040000}"/>
+    <hyperlink ref="A245" r:id="rId1110" xr:uid="{00000000-0004-0000-0000-00005F040000}"/>
+    <hyperlink ref="I245" r:id="rId1111" xr:uid="{00000000-0004-0000-0000-000060040000}"/>
+    <hyperlink ref="L245" r:id="rId1112" xr:uid="{00000000-0004-0000-0000-000061040000}"/>
+    <hyperlink ref="A246" r:id="rId1113" xr:uid="{00000000-0004-0000-0000-000062040000}"/>
+    <hyperlink ref="E246" r:id="rId1114" xr:uid="{00000000-0004-0000-0000-000063040000}"/>
+    <hyperlink ref="I246" r:id="rId1115" xr:uid="{00000000-0004-0000-0000-000064040000}"/>
+    <hyperlink ref="K246" r:id="rId1116" xr:uid="{00000000-0004-0000-0000-000065040000}"/>
+    <hyperlink ref="L246" r:id="rId1117" xr:uid="{00000000-0004-0000-0000-000066040000}"/>
+    <hyperlink ref="A248" r:id="rId1118" xr:uid="{00000000-0004-0000-0000-000067040000}"/>
+    <hyperlink ref="E248" r:id="rId1119" xr:uid="{00000000-0004-0000-0000-000068040000}"/>
+    <hyperlink ref="I248" r:id="rId1120" xr:uid="{00000000-0004-0000-0000-000069040000}"/>
+    <hyperlink ref="K248" r:id="rId1121" xr:uid="{00000000-0004-0000-0000-00006A040000}"/>
+    <hyperlink ref="L248" r:id="rId1122" xr:uid="{00000000-0004-0000-0000-00006B040000}"/>
+    <hyperlink ref="A249" r:id="rId1123" xr:uid="{00000000-0004-0000-0000-00006C040000}"/>
+    <hyperlink ref="E249" r:id="rId1124" xr:uid="{00000000-0004-0000-0000-00006D040000}"/>
+    <hyperlink ref="I249" r:id="rId1125" xr:uid="{00000000-0004-0000-0000-00006E040000}"/>
+    <hyperlink ref="K249" r:id="rId1126" xr:uid="{00000000-0004-0000-0000-00006F040000}"/>
+    <hyperlink ref="L249" r:id="rId1127" xr:uid="{00000000-0004-0000-0000-000070040000}"/>
+    <hyperlink ref="A250" r:id="rId1128" xr:uid="{00000000-0004-0000-0000-000071040000}"/>
+    <hyperlink ref="E250" r:id="rId1129" xr:uid="{00000000-0004-0000-0000-000072040000}"/>
+    <hyperlink ref="I250" r:id="rId1130" xr:uid="{00000000-0004-0000-0000-000073040000}"/>
+    <hyperlink ref="K250" r:id="rId1131" xr:uid="{00000000-0004-0000-0000-000074040000}"/>
+    <hyperlink ref="L250" r:id="rId1132" xr:uid="{00000000-0004-0000-0000-000075040000}"/>
+    <hyperlink ref="A251" r:id="rId1133" xr:uid="{00000000-0004-0000-0000-000076040000}"/>
+    <hyperlink ref="E251" r:id="rId1134" xr:uid="{00000000-0004-0000-0000-000077040000}"/>
+    <hyperlink ref="I251" r:id="rId1135" xr:uid="{00000000-0004-0000-0000-000078040000}"/>
+    <hyperlink ref="K251" r:id="rId1136" xr:uid="{00000000-0004-0000-0000-000079040000}"/>
+    <hyperlink ref="L251" r:id="rId1137" xr:uid="{00000000-0004-0000-0000-00007A040000}"/>
+    <hyperlink ref="A252" r:id="rId1138" xr:uid="{00000000-0004-0000-0000-00007B040000}"/>
+    <hyperlink ref="I252" r:id="rId1139" xr:uid="{00000000-0004-0000-0000-00007C040000}"/>
+    <hyperlink ref="L252" r:id="rId1140" xr:uid="{00000000-0004-0000-0000-00007D040000}"/>
+    <hyperlink ref="A253" r:id="rId1141" xr:uid="{00000000-0004-0000-0000-00007E040000}"/>
+    <hyperlink ref="E253" r:id="rId1142" xr:uid="{00000000-0004-0000-0000-00007F040000}"/>
+    <hyperlink ref="I253" r:id="rId1143" xr:uid="{00000000-0004-0000-0000-000080040000}"/>
+    <hyperlink ref="K253" r:id="rId1144" xr:uid="{00000000-0004-0000-0000-000081040000}"/>
+    <hyperlink ref="L253" r:id="rId1145" xr:uid="{00000000-0004-0000-0000-000082040000}"/>
+    <hyperlink ref="A254" r:id="rId1146" xr:uid="{00000000-0004-0000-0000-000083040000}"/>
+    <hyperlink ref="E254" r:id="rId1147" xr:uid="{00000000-0004-0000-0000-000084040000}"/>
+    <hyperlink ref="I254" r:id="rId1148" xr:uid="{00000000-0004-0000-0000-000085040000}"/>
+    <hyperlink ref="K254" r:id="rId1149" xr:uid="{00000000-0004-0000-0000-000086040000}"/>
+    <hyperlink ref="L254" r:id="rId1150" xr:uid="{00000000-0004-0000-0000-000087040000}"/>
+    <hyperlink ref="A255" r:id="rId1151" xr:uid="{00000000-0004-0000-0000-000088040000}"/>
+    <hyperlink ref="E255" r:id="rId1152" xr:uid="{00000000-0004-0000-0000-000089040000}"/>
+    <hyperlink ref="I255" r:id="rId1153" xr:uid="{00000000-0004-0000-0000-00008A040000}"/>
+    <hyperlink ref="K255" r:id="rId1154" xr:uid="{00000000-0004-0000-0000-00008B040000}"/>
+    <hyperlink ref="L255" r:id="rId1155" xr:uid="{00000000-0004-0000-0000-00008C040000}"/>
+    <hyperlink ref="A256" r:id="rId1156" xr:uid="{00000000-0004-0000-0000-00008D040000}"/>
+    <hyperlink ref="E256" r:id="rId1157" xr:uid="{00000000-0004-0000-0000-00008E040000}"/>
+    <hyperlink ref="A257" r:id="rId1158" xr:uid="{00000000-0004-0000-0000-00008F040000}"/>
+    <hyperlink ref="E257" r:id="rId1159" xr:uid="{00000000-0004-0000-0000-000090040000}"/>
+    <hyperlink ref="I257" r:id="rId1160" xr:uid="{00000000-0004-0000-0000-000091040000}"/>
+    <hyperlink ref="K257" r:id="rId1161" xr:uid="{00000000-0004-0000-0000-000092040000}"/>
+    <hyperlink ref="L257" r:id="rId1162" xr:uid="{00000000-0004-0000-0000-000093040000}"/>
+    <hyperlink ref="A258" r:id="rId1163" xr:uid="{00000000-0004-0000-0000-000094040000}"/>
+    <hyperlink ref="E258" r:id="rId1164" xr:uid="{00000000-0004-0000-0000-000095040000}"/>
+    <hyperlink ref="K258" r:id="rId1165" xr:uid="{00000000-0004-0000-0000-000096040000}"/>
+    <hyperlink ref="L258" r:id="rId1166" xr:uid="{00000000-0004-0000-0000-000097040000}"/>
+    <hyperlink ref="A259" r:id="rId1167" xr:uid="{00000000-0004-0000-0000-000098040000}"/>
+    <hyperlink ref="K259" r:id="rId1168" xr:uid="{00000000-0004-0000-0000-000099040000}"/>
+    <hyperlink ref="L259" r:id="rId1169" xr:uid="{00000000-0004-0000-0000-00009A040000}"/>
+    <hyperlink ref="A260" r:id="rId1170" xr:uid="{00000000-0004-0000-0000-00009B040000}"/>
+    <hyperlink ref="K260" r:id="rId1171" xr:uid="{00000000-0004-0000-0000-00009C040000}"/>
+    <hyperlink ref="L260" r:id="rId1172" xr:uid="{00000000-0004-0000-0000-00009D040000}"/>
+    <hyperlink ref="A261" r:id="rId1173" xr:uid="{00000000-0004-0000-0000-00009E040000}"/>
+    <hyperlink ref="E261" r:id="rId1174" xr:uid="{00000000-0004-0000-0000-00009F040000}"/>
+    <hyperlink ref="I261" r:id="rId1175" xr:uid="{00000000-0004-0000-0000-0000A0040000}"/>
+    <hyperlink ref="K261" r:id="rId1176" xr:uid="{00000000-0004-0000-0000-0000A1040000}"/>
+    <hyperlink ref="L261" r:id="rId1177" xr:uid="{00000000-0004-0000-0000-0000A2040000}"/>
+    <hyperlink ref="A262" r:id="rId1178" xr:uid="{00000000-0004-0000-0000-0000A3040000}"/>
+    <hyperlink ref="E262" r:id="rId1179" xr:uid="{00000000-0004-0000-0000-0000A4040000}"/>
+    <hyperlink ref="I262" r:id="rId1180" xr:uid="{00000000-0004-0000-0000-0000A5040000}"/>
+    <hyperlink ref="L262" r:id="rId1181" xr:uid="{00000000-0004-0000-0000-0000A6040000}"/>
+    <hyperlink ref="A263" r:id="rId1182" xr:uid="{00000000-0004-0000-0000-0000A7040000}"/>
+    <hyperlink ref="E263" r:id="rId1183" xr:uid="{00000000-0004-0000-0000-0000A8040000}"/>
+    <hyperlink ref="I263" r:id="rId1184" xr:uid="{00000000-0004-0000-0000-0000A9040000}"/>
+    <hyperlink ref="A264" r:id="rId1185" xr:uid="{00000000-0004-0000-0000-0000AA040000}"/>
+    <hyperlink ref="E264" r:id="rId1186" xr:uid="{00000000-0004-0000-0000-0000AB040000}"/>
+    <hyperlink ref="I264" r:id="rId1187" xr:uid="{00000000-0004-0000-0000-0000AC040000}"/>
+    <hyperlink ref="K264" r:id="rId1188" xr:uid="{00000000-0004-0000-0000-0000AD040000}"/>
+    <hyperlink ref="L264" r:id="rId1189" xr:uid="{00000000-0004-0000-0000-0000AE040000}"/>
+    <hyperlink ref="A265" r:id="rId1190" xr:uid="{00000000-0004-0000-0000-0000AF040000}"/>
+    <hyperlink ref="I265" r:id="rId1191" xr:uid="{00000000-0004-0000-0000-0000B0040000}"/>
+    <hyperlink ref="L265" r:id="rId1192" xr:uid="{00000000-0004-0000-0000-0000B1040000}"/>
+    <hyperlink ref="A266" r:id="rId1193" xr:uid="{00000000-0004-0000-0000-0000B2040000}"/>
+    <hyperlink ref="I266" r:id="rId1194" xr:uid="{00000000-0004-0000-0000-0000B3040000}"/>
+    <hyperlink ref="K266" r:id="rId1195" xr:uid="{00000000-0004-0000-0000-0000B4040000}"/>
+    <hyperlink ref="L266" r:id="rId1196" xr:uid="{00000000-0004-0000-0000-0000B5040000}"/>
+    <hyperlink ref="A267" r:id="rId1197" xr:uid="{00000000-0004-0000-0000-0000B6040000}"/>
+    <hyperlink ref="E267" r:id="rId1198" xr:uid="{00000000-0004-0000-0000-0000B7040000}"/>
+    <hyperlink ref="K267" r:id="rId1199" xr:uid="{00000000-0004-0000-0000-0000B8040000}"/>
+    <hyperlink ref="L267" r:id="rId1200" xr:uid="{00000000-0004-0000-0000-0000B9040000}"/>
+    <hyperlink ref="A268" r:id="rId1201" xr:uid="{00000000-0004-0000-0000-0000BA040000}"/>
+    <hyperlink ref="E268" r:id="rId1202" xr:uid="{00000000-0004-0000-0000-0000BB040000}"/>
+    <hyperlink ref="K268" r:id="rId1203" xr:uid="{00000000-0004-0000-0000-0000BC040000}"/>
+    <hyperlink ref="L268" r:id="rId1204" xr:uid="{00000000-0004-0000-0000-0000BD040000}"/>
+    <hyperlink ref="A269" r:id="rId1205" xr:uid="{00000000-0004-0000-0000-0000BE040000}"/>
+    <hyperlink ref="E269" r:id="rId1206" xr:uid="{00000000-0004-0000-0000-0000BF040000}"/>
+    <hyperlink ref="I269" r:id="rId1207" xr:uid="{00000000-0004-0000-0000-0000C0040000}"/>
+    <hyperlink ref="K269" r:id="rId1208" xr:uid="{00000000-0004-0000-0000-0000C1040000}"/>
+    <hyperlink ref="L269" r:id="rId1209" xr:uid="{00000000-0004-0000-0000-0000C2040000}"/>
+    <hyperlink ref="A270" r:id="rId1210" xr:uid="{00000000-0004-0000-0000-0000C3040000}"/>
+    <hyperlink ref="E270" r:id="rId1211" xr:uid="{00000000-0004-0000-0000-0000C4040000}"/>
+    <hyperlink ref="I270" r:id="rId1212" xr:uid="{00000000-0004-0000-0000-0000C5040000}"/>
+    <hyperlink ref="K270" r:id="rId1213" xr:uid="{00000000-0004-0000-0000-0000C6040000}"/>
+    <hyperlink ref="L270" r:id="rId1214" xr:uid="{00000000-0004-0000-0000-0000C7040000}"/>
+    <hyperlink ref="A271" r:id="rId1215" xr:uid="{00000000-0004-0000-0000-0000C8040000}"/>
+    <hyperlink ref="E271" r:id="rId1216" xr:uid="{00000000-0004-0000-0000-0000C9040000}"/>
+    <hyperlink ref="I271" r:id="rId1217" xr:uid="{00000000-0004-0000-0000-0000CA040000}"/>
+    <hyperlink ref="K271" r:id="rId1218" xr:uid="{00000000-0004-0000-0000-0000CB040000}"/>
+    <hyperlink ref="L271" r:id="rId1219" xr:uid="{00000000-0004-0000-0000-0000CC040000}"/>
+    <hyperlink ref="A272" r:id="rId1220" xr:uid="{00000000-0004-0000-0000-0000CD040000}"/>
+    <hyperlink ref="I272" r:id="rId1221" xr:uid="{00000000-0004-0000-0000-0000CE040000}"/>
+    <hyperlink ref="L272" r:id="rId1222" xr:uid="{00000000-0004-0000-0000-0000CF040000}"/>
+    <hyperlink ref="A273" r:id="rId1223" xr:uid="{00000000-0004-0000-0000-0000D0040000}"/>
+    <hyperlink ref="E273" r:id="rId1224" xr:uid="{00000000-0004-0000-0000-0000D1040000}"/>
+    <hyperlink ref="I273" r:id="rId1225" xr:uid="{00000000-0004-0000-0000-0000D2040000}"/>
+    <hyperlink ref="K273" r:id="rId1226" xr:uid="{00000000-0004-0000-0000-0000D3040000}"/>
+    <hyperlink ref="L273" r:id="rId1227" xr:uid="{00000000-0004-0000-0000-0000D4040000}"/>
+    <hyperlink ref="A274" r:id="rId1228" xr:uid="{00000000-0004-0000-0000-0000D5040000}"/>
+    <hyperlink ref="I274" r:id="rId1229" xr:uid="{00000000-0004-0000-0000-0000D6040000}"/>
+    <hyperlink ref="L274" r:id="rId1230" xr:uid="{00000000-0004-0000-0000-0000D7040000}"/>
+    <hyperlink ref="A275" r:id="rId1231" xr:uid="{00000000-0004-0000-0000-0000D8040000}"/>
+    <hyperlink ref="E275" r:id="rId1232" xr:uid="{00000000-0004-0000-0000-0000D9040000}"/>
+    <hyperlink ref="I275" r:id="rId1233" xr:uid="{00000000-0004-0000-0000-0000DA040000}"/>
+    <hyperlink ref="K275" r:id="rId1234" xr:uid="{00000000-0004-0000-0000-0000DB040000}"/>
+    <hyperlink ref="L275" r:id="rId1235" xr:uid="{00000000-0004-0000-0000-0000DC040000}"/>
+    <hyperlink ref="A276" r:id="rId1236" xr:uid="{00000000-0004-0000-0000-0000DD040000}"/>
+    <hyperlink ref="E276" r:id="rId1237" xr:uid="{00000000-0004-0000-0000-0000DE040000}"/>
+    <hyperlink ref="I276" r:id="rId1238" xr:uid="{00000000-0004-0000-0000-0000DF040000}"/>
+    <hyperlink ref="K276" r:id="rId1239" xr:uid="{00000000-0004-0000-0000-0000E0040000}"/>
+    <hyperlink ref="A277" r:id="rId1240" xr:uid="{00000000-0004-0000-0000-0000E1040000}"/>
+    <hyperlink ref="E277" r:id="rId1241" xr:uid="{00000000-0004-0000-0000-0000E2040000}"/>
+    <hyperlink ref="I277" r:id="rId1242" xr:uid="{00000000-0004-0000-0000-0000E3040000}"/>
+    <hyperlink ref="K277" r:id="rId1243" xr:uid="{00000000-0004-0000-0000-0000E4040000}"/>
+    <hyperlink ref="L277" r:id="rId1244" xr:uid="{00000000-0004-0000-0000-0000E5040000}"/>
+    <hyperlink ref="A278" r:id="rId1245" xr:uid="{00000000-0004-0000-0000-0000E6040000}"/>
+    <hyperlink ref="E278" r:id="rId1246" xr:uid="{00000000-0004-0000-0000-0000E7040000}"/>
+    <hyperlink ref="I278" r:id="rId1247" xr:uid="{00000000-0004-0000-0000-0000E8040000}"/>
+    <hyperlink ref="K278" r:id="rId1248" xr:uid="{00000000-0004-0000-0000-0000E9040000}"/>
+    <hyperlink ref="L278" r:id="rId1249" xr:uid="{00000000-0004-0000-0000-0000EA040000}"/>
+    <hyperlink ref="A279" r:id="rId1250" xr:uid="{00000000-0004-0000-0000-0000EB040000}"/>
+    <hyperlink ref="K279" r:id="rId1251" xr:uid="{00000000-0004-0000-0000-0000EC040000}"/>
+    <hyperlink ref="L279" r:id="rId1252" xr:uid="{00000000-0004-0000-0000-0000ED040000}"/>
+    <hyperlink ref="A280" r:id="rId1253" xr:uid="{00000000-0004-0000-0000-0000EE040000}"/>
+    <hyperlink ref="I280" r:id="rId1254" xr:uid="{00000000-0004-0000-0000-0000EF040000}"/>
+    <hyperlink ref="K280" r:id="rId1255" xr:uid="{00000000-0004-0000-0000-0000F0040000}"/>
+    <hyperlink ref="L280" r:id="rId1256" xr:uid="{00000000-0004-0000-0000-0000F1040000}"/>
+    <hyperlink ref="A281" r:id="rId1257" xr:uid="{00000000-0004-0000-0000-0000F2040000}"/>
+    <hyperlink ref="L281" r:id="rId1258" xr:uid="{00000000-0004-0000-0000-0000F3040000}"/>
+    <hyperlink ref="A282" r:id="rId1259" xr:uid="{00000000-0004-0000-0000-0000F4040000}"/>
+    <hyperlink ref="E282" r:id="rId1260" xr:uid="{00000000-0004-0000-0000-0000F5040000}"/>
+    <hyperlink ref="I282" r:id="rId1261" xr:uid="{00000000-0004-0000-0000-0000F6040000}"/>
+    <hyperlink ref="L282" r:id="rId1262" xr:uid="{00000000-0004-0000-0000-0000F7040000}"/>
+    <hyperlink ref="A283" r:id="rId1263" xr:uid="{00000000-0004-0000-0000-0000F8040000}"/>
+    <hyperlink ref="E283" r:id="rId1264" xr:uid="{00000000-0004-0000-0000-0000F9040000}"/>
+    <hyperlink ref="I283" r:id="rId1265" xr:uid="{00000000-0004-0000-0000-0000FA040000}"/>
+    <hyperlink ref="K283" r:id="rId1266" xr:uid="{00000000-0004-0000-0000-0000FB040000}"/>
+    <hyperlink ref="L283" r:id="rId1267" xr:uid="{00000000-0004-0000-0000-0000FC040000}"/>
+    <hyperlink ref="A284" r:id="rId1268" xr:uid="{00000000-0004-0000-0000-0000FD040000}"/>
+    <hyperlink ref="E284" r:id="rId1269" xr:uid="{00000000-0004-0000-0000-0000FE040000}"/>
+    <hyperlink ref="I284" r:id="rId1270" xr:uid="{00000000-0004-0000-0000-0000FF040000}"/>
+    <hyperlink ref="K284" r:id="rId1271" xr:uid="{00000000-0004-0000-0000-000000050000}"/>
+    <hyperlink ref="L284" r:id="rId1272" xr:uid="{00000000-0004-0000-0000-000001050000}"/>
+    <hyperlink ref="A286" r:id="rId1273" xr:uid="{00000000-0004-0000-0000-000002050000}"/>
+    <hyperlink ref="E286" r:id="rId1274" xr:uid="{00000000-0004-0000-0000-000003050000}"/>
+    <hyperlink ref="I286" r:id="rId1275" xr:uid="{00000000-0004-0000-0000-000004050000}"/>
+    <hyperlink ref="K286" r:id="rId1276" xr:uid="{00000000-0004-0000-0000-000005050000}"/>
+    <hyperlink ref="L286" r:id="rId1277" xr:uid="{00000000-0004-0000-0000-000006050000}"/>
+    <hyperlink ref="A288" r:id="rId1278" xr:uid="{00000000-0004-0000-0000-000007050000}"/>
+    <hyperlink ref="E288" r:id="rId1279" xr:uid="{00000000-0004-0000-0000-000008050000}"/>
+    <hyperlink ref="I288" r:id="rId1280" xr:uid="{00000000-0004-0000-0000-000009050000}"/>
+    <hyperlink ref="K288" r:id="rId1281" xr:uid="{00000000-0004-0000-0000-00000A050000}"/>
+    <hyperlink ref="L288" r:id="rId1282" xr:uid="{00000000-0004-0000-0000-00000B050000}"/>
+    <hyperlink ref="A289" r:id="rId1283" xr:uid="{00000000-0004-0000-0000-00000C050000}"/>
+    <hyperlink ref="E289" r:id="rId1284" xr:uid="{00000000-0004-0000-0000-00000D050000}"/>
+    <hyperlink ref="I289" r:id="rId1285" xr:uid="{00000000-0004-0000-0000-00000E050000}"/>
+    <hyperlink ref="K289" r:id="rId1286" xr:uid="{00000000-0004-0000-0000-00000F050000}"/>
+    <hyperlink ref="L289" r:id="rId1287" xr:uid="{00000000-0004-0000-0000-000010050000}"/>
+    <hyperlink ref="A290" r:id="rId1288" xr:uid="{00000000-0004-0000-0000-000011050000}"/>
+    <hyperlink ref="E290" r:id="rId1289" xr:uid="{00000000-0004-0000-0000-000012050000}"/>
+    <hyperlink ref="I290" r:id="rId1290" xr:uid="{00000000-0004-0000-0000-000013050000}"/>
+    <hyperlink ref="K290" r:id="rId1291" xr:uid="{00000000-0004-0000-0000-000014050000}"/>
+    <hyperlink ref="L290" r:id="rId1292" xr:uid="{00000000-0004-0000-0000-000015050000}"/>
+    <hyperlink ref="A291" r:id="rId1293" xr:uid="{00000000-0004-0000-0000-000016050000}"/>
+    <hyperlink ref="E291" r:id="rId1294" xr:uid="{00000000-0004-0000-0000-000017050000}"/>
+    <hyperlink ref="I291" r:id="rId1295" xr:uid="{00000000-0004-0000-0000-000018050000}"/>
+    <hyperlink ref="K291" r:id="rId1296" xr:uid="{00000000-0004-0000-0000-000019050000}"/>
+    <hyperlink ref="L291" r:id="rId1297" xr:uid="{00000000-0004-0000-0000-00001A050000}"/>
+    <hyperlink ref="A292" r:id="rId1298" xr:uid="{00000000-0004-0000-0000-00001B050000}"/>
+    <hyperlink ref="E292" r:id="rId1299" xr:uid="{00000000-0004-0000-0000-00001C050000}"/>
+    <hyperlink ref="I292" r:id="rId1300" xr:uid="{00000000-0004-0000-0000-00001D050000}"/>
+    <hyperlink ref="K292" r:id="rId1301" xr:uid="{00000000-0004-0000-0000-00001E050000}"/>
+    <hyperlink ref="L292" r:id="rId1302" xr:uid="{00000000-0004-0000-0000-00001F050000}"/>
+    <hyperlink ref="A293" r:id="rId1303" xr:uid="{00000000-0004-0000-0000-000020050000}"/>
+    <hyperlink ref="I293" r:id="rId1304" xr:uid="{00000000-0004-0000-0000-000021050000}"/>
+    <hyperlink ref="K293" r:id="rId1305" xr:uid="{00000000-0004-0000-0000-000022050000}"/>
+    <hyperlink ref="L293" r:id="rId1306" xr:uid="{00000000-0004-0000-0000-000023050000}"/>
+    <hyperlink ref="A294" r:id="rId1307" xr:uid="{00000000-0004-0000-0000-000024050000}"/>
+    <hyperlink ref="I294" r:id="rId1308" xr:uid="{00000000-0004-0000-0000-000025050000}"/>
+    <hyperlink ref="K294" r:id="rId1309" xr:uid="{00000000-0004-0000-0000-000026050000}"/>
+    <hyperlink ref="L294" r:id="rId1310" xr:uid="{00000000-0004-0000-0000-000027050000}"/>
+    <hyperlink ref="A295" r:id="rId1311" xr:uid="{00000000-0004-0000-0000-000028050000}"/>
+    <hyperlink ref="I295" r:id="rId1312" xr:uid="{00000000-0004-0000-0000-000029050000}"/>
+    <hyperlink ref="K295" r:id="rId1313" xr:uid="{00000000-0004-0000-0000-00002A050000}"/>
+    <hyperlink ref="L295" r:id="rId1314" xr:uid="{00000000-0004-0000-0000-00002B050000}"/>
+    <hyperlink ref="A296" r:id="rId1315" xr:uid="{00000000-0004-0000-0000-00002C050000}"/>
+    <hyperlink ref="E296" r:id="rId1316" xr:uid="{00000000-0004-0000-0000-00002D050000}"/>
+    <hyperlink ref="I296" r:id="rId1317" xr:uid="{00000000-0004-0000-0000-00002E050000}"/>
+    <hyperlink ref="K296" r:id="rId1318" xr:uid="{00000000-0004-0000-0000-00002F050000}"/>
+    <hyperlink ref="L296" r:id="rId1319" xr:uid="{00000000-0004-0000-0000-000030050000}"/>
+    <hyperlink ref="A297" r:id="rId1320" xr:uid="{00000000-0004-0000-0000-000031050000}"/>
+    <hyperlink ref="I297" r:id="rId1321" xr:uid="{00000000-0004-0000-0000-000032050000}"/>
+    <hyperlink ref="K297" r:id="rId1322" xr:uid="{00000000-0004-0000-0000-000033050000}"/>
+    <hyperlink ref="L297" r:id="rId1323" xr:uid="{00000000-0004-0000-0000-000034050000}"/>
+    <hyperlink ref="A298" r:id="rId1324" xr:uid="{00000000-0004-0000-0000-000035050000}"/>
+    <hyperlink ref="E298" r:id="rId1325" xr:uid="{00000000-0004-0000-0000-000036050000}"/>
+    <hyperlink ref="I298" r:id="rId1326" xr:uid="{00000000-0004-0000-0000-000037050000}"/>
+    <hyperlink ref="K298" r:id="rId1327" xr:uid="{00000000-0004-0000-0000-000038050000}"/>
+    <hyperlink ref="L298" r:id="rId1328" xr:uid="{00000000-0004-0000-0000-000039050000}"/>
+    <hyperlink ref="A299" r:id="rId1329" xr:uid="{00000000-0004-0000-0000-00003A050000}"/>
+    <hyperlink ref="E299" r:id="rId1330" xr:uid="{00000000-0004-0000-0000-00003B050000}"/>
+    <hyperlink ref="I299" r:id="rId1331" xr:uid="{00000000-0004-0000-0000-00003C050000}"/>
+    <hyperlink ref="K299" r:id="rId1332" xr:uid="{00000000-0004-0000-0000-00003D050000}"/>
+    <hyperlink ref="L299" r:id="rId1333" xr:uid="{00000000-0004-0000-0000-00003E050000}"/>
+    <hyperlink ref="A300" r:id="rId1334" xr:uid="{00000000-0004-0000-0000-00003F050000}"/>
+    <hyperlink ref="E300" r:id="rId1335" xr:uid="{00000000-0004-0000-0000-000040050000}"/>
+    <hyperlink ref="I300" r:id="rId1336" xr:uid="{00000000-0004-0000-0000-000041050000}"/>
+    <hyperlink ref="K300" r:id="rId1337" xr:uid="{00000000-0004-0000-0000-000042050000}"/>
+    <hyperlink ref="L300" r:id="rId1338" xr:uid="{00000000-0004-0000-0000-000043050000}"/>
+    <hyperlink ref="A301" r:id="rId1339" xr:uid="{00000000-0004-0000-0000-000044050000}"/>
+    <hyperlink ref="E301" r:id="rId1340" xr:uid="{00000000-0004-0000-0000-000045050000}"/>
+    <hyperlink ref="K301" r:id="rId1341" xr:uid="{00000000-0004-0000-0000-000046050000}"/>
+    <hyperlink ref="L301" r:id="rId1342" xr:uid="{00000000-0004-0000-0000-000047050000}"/>
+    <hyperlink ref="A302" r:id="rId1343" xr:uid="{00000000-0004-0000-0000-000048050000}"/>
+    <hyperlink ref="E302" r:id="rId1344" xr:uid="{00000000-0004-0000-0000-000049050000}"/>
+    <hyperlink ref="I302" r:id="rId1345" xr:uid="{00000000-0004-0000-0000-00004A050000}"/>
+    <hyperlink ref="K302" r:id="rId1346" xr:uid="{00000000-0004-0000-0000-00004B050000}"/>
+    <hyperlink ref="L302" r:id="rId1347" xr:uid="{00000000-0004-0000-0000-00004C050000}"/>
+    <hyperlink ref="A303" r:id="rId1348" xr:uid="{00000000-0004-0000-0000-00004D050000}"/>
+    <hyperlink ref="E303" r:id="rId1349" xr:uid="{00000000-0004-0000-0000-00004E050000}"/>
+    <hyperlink ref="I303" r:id="rId1350" xr:uid="{00000000-0004-0000-0000-00004F050000}"/>
+    <hyperlink ref="K303" r:id="rId1351" xr:uid="{00000000-0004-0000-0000-000050050000}"/>
+    <hyperlink ref="L303" r:id="rId1352" xr:uid="{00000000-0004-0000-0000-000051050000}"/>
+    <hyperlink ref="A304" r:id="rId1353" xr:uid="{00000000-0004-0000-0000-000052050000}"/>
+    <hyperlink ref="E304" r:id="rId1354" xr:uid="{00000000-0004-0000-0000-000053050000}"/>
+    <hyperlink ref="I304" r:id="rId1355" xr:uid="{00000000-0004-0000-0000-000054050000}"/>
+    <hyperlink ref="A305" r:id="rId1356" xr:uid="{00000000-0004-0000-0000-000055050000}"/>
+    <hyperlink ref="E305" r:id="rId1357" xr:uid="{00000000-0004-0000-0000-000056050000}"/>
+    <hyperlink ref="I305" r:id="rId1358" xr:uid="{00000000-0004-0000-0000-000057050000}"/>
+    <hyperlink ref="K305" r:id="rId1359" xr:uid="{00000000-0004-0000-0000-000058050000}"/>
+    <hyperlink ref="L305" r:id="rId1360" xr:uid="{00000000-0004-0000-0000-000059050000}"/>
+    <hyperlink ref="A306" r:id="rId1361" xr:uid="{00000000-0004-0000-0000-00005A050000}"/>
+    <hyperlink ref="E306" r:id="rId1362" xr:uid="{00000000-0004-0000-0000-00005B050000}"/>
+    <hyperlink ref="I306" r:id="rId1363" xr:uid="{00000000-0004-0000-0000-00005C050000}"/>
+    <hyperlink ref="K306" r:id="rId1364" xr:uid="{00000000-0004-0000-0000-00005D050000}"/>
+    <hyperlink ref="L306" r:id="rId1365" xr:uid="{00000000-0004-0000-0000-00005E050000}"/>
+    <hyperlink ref="A307" r:id="rId1366" xr:uid="{00000000-0004-0000-0000-00005F050000}"/>
+    <hyperlink ref="E307" r:id="rId1367" xr:uid="{00000000-0004-0000-0000-000060050000}"/>
+    <hyperlink ref="I307" r:id="rId1368" xr:uid="{00000000-0004-0000-0000-000061050000}"/>
+    <hyperlink ref="K307" r:id="rId1369" xr:uid="{00000000-0004-0000-0000-000062050000}"/>
+    <hyperlink ref="L307" r:id="rId1370" xr:uid="{00000000-0004-0000-0000-000063050000}"/>
+    <hyperlink ref="A308" r:id="rId1371" xr:uid="{00000000-0004-0000-0000-000064050000}"/>
+    <hyperlink ref="E308" r:id="rId1372" xr:uid="{00000000-0004-0000-0000-000065050000}"/>
+    <hyperlink ref="I308" r:id="rId1373" xr:uid="{00000000-0004-0000-0000-000066050000}"/>
+    <hyperlink ref="K308" r:id="rId1374" xr:uid="{00000000-0004-0000-0000-000067050000}"/>
+    <hyperlink ref="L308" r:id="rId1375" xr:uid="{00000000-0004-0000-0000-000068050000}"/>
+    <hyperlink ref="A309" r:id="rId1376" xr:uid="{00000000-0004-0000-0000-000069050000}"/>
+    <hyperlink ref="E309" r:id="rId1377" xr:uid="{00000000-0004-0000-0000-00006A050000}"/>
+    <hyperlink ref="I309" r:id="rId1378" xr:uid="{00000000-0004-0000-0000-00006B050000}"/>
+    <hyperlink ref="L309" r:id="rId1379" xr:uid="{00000000-0004-0000-0000-00006C050000}"/>
+    <hyperlink ref="A310" r:id="rId1380" xr:uid="{00000000-0004-0000-0000-00006D050000}"/>
+    <hyperlink ref="E310" r:id="rId1381" xr:uid="{00000000-0004-0000-0000-00006E050000}"/>
+    <hyperlink ref="K310" r:id="rId1382" xr:uid="{00000000-0004-0000-0000-00006F050000}"/>
+    <hyperlink ref="L310" r:id="rId1383" xr:uid="{00000000-0004-0000-0000-000070050000}"/>
+    <hyperlink ref="A311" r:id="rId1384" xr:uid="{00000000-0004-0000-0000-000071050000}"/>
+    <hyperlink ref="E311" r:id="rId1385" xr:uid="{00000000-0004-0000-0000-000072050000}"/>
+    <hyperlink ref="I311" r:id="rId1386" xr:uid="{00000000-0004-0000-0000-000073050000}"/>
+    <hyperlink ref="K311" r:id="rId1387" xr:uid="{00000000-0004-0000-0000-000074050000}"/>
+    <hyperlink ref="L311" r:id="rId1388" xr:uid="{00000000-0004-0000-0000-000075050000}"/>
+    <hyperlink ref="A312" r:id="rId1389" xr:uid="{00000000-0004-0000-0000-000076050000}"/>
+    <hyperlink ref="E312" r:id="rId1390" xr:uid="{00000000-0004-0000-0000-000077050000}"/>
+    <hyperlink ref="K312" r:id="rId1391" xr:uid="{00000000-0004-0000-0000-000078050000}"/>
+    <hyperlink ref="L312" r:id="rId1392" xr:uid="{00000000-0004-0000-0000-000079050000}"/>
+    <hyperlink ref="A313" r:id="rId1393" xr:uid="{00000000-0004-0000-0000-00007A050000}"/>
+    <hyperlink ref="E313" r:id="rId1394" xr:uid="{00000000-0004-0000-0000-00007B050000}"/>
+    <hyperlink ref="K313" r:id="rId1395" xr:uid="{00000000-0004-0000-0000-00007C050000}"/>
+    <hyperlink ref="A314" r:id="rId1396" xr:uid="{00000000-0004-0000-0000-00007D050000}"/>
+    <hyperlink ref="I314" r:id="rId1397" xr:uid="{00000000-0004-0000-0000-00007E050000}"/>
+    <hyperlink ref="L314" r:id="rId1398" xr:uid="{00000000-0004-0000-0000-00007F050000}"/>
+    <hyperlink ref="A315" r:id="rId1399" xr:uid="{00000000-0004-0000-0000-000080050000}"/>
+    <hyperlink ref="E315" r:id="rId1400" xr:uid="{00000000-0004-0000-0000-000081050000}"/>
+    <hyperlink ref="I315" r:id="rId1401" xr:uid="{00000000-0004-0000-0000-000082050000}"/>
+    <hyperlink ref="K315" r:id="rId1402" xr:uid="{00000000-0004-0000-0000-000083050000}"/>
+    <hyperlink ref="L315" r:id="rId1403" xr:uid="{00000000-0004-0000-0000-000084050000}"/>
+    <hyperlink ref="A316" r:id="rId1404" xr:uid="{00000000-0004-0000-0000-000085050000}"/>
+    <hyperlink ref="I316" r:id="rId1405" xr:uid="{00000000-0004-0000-0000-000086050000}"/>
+    <hyperlink ref="K316" r:id="rId1406" xr:uid="{00000000-0004-0000-0000-000087050000}"/>
+    <hyperlink ref="A317" r:id="rId1407" xr:uid="{00000000-0004-0000-0000-000088050000}"/>
+    <hyperlink ref="I317" r:id="rId1408" xr:uid="{00000000-0004-0000-0000-000089050000}"/>
+    <hyperlink ref="K317" r:id="rId1409" xr:uid="{00000000-0004-0000-0000-00008A050000}"/>
+    <hyperlink ref="A318" r:id="rId1410" xr:uid="{00000000-0004-0000-0000-00008B050000}"/>
+    <hyperlink ref="I318" r:id="rId1411" xr:uid="{00000000-0004-0000-0000-00008C050000}"/>
+    <hyperlink ref="K318" r:id="rId1412" xr:uid="{00000000-0004-0000-0000-00008D050000}"/>
+    <hyperlink ref="L318" r:id="rId1413" xr:uid="{00000000-0004-0000-0000-00008E050000}"/>
+    <hyperlink ref="A319" r:id="rId1414" xr:uid="{00000000-0004-0000-0000-00008F050000}"/>
+    <hyperlink ref="E319" r:id="rId1415" xr:uid="{00000000-0004-0000-0000-000090050000}"/>
+    <hyperlink ref="I319" r:id="rId1416" xr:uid="{00000000-0004-0000-0000-000091050000}"/>
+    <hyperlink ref="K319" r:id="rId1417" xr:uid="{00000000-0004-0000-0000-000092050000}"/>
+    <hyperlink ref="L319" r:id="rId1418" xr:uid="{00000000-0004-0000-0000-000093050000}"/>
+    <hyperlink ref="A320" r:id="rId1419" xr:uid="{00000000-0004-0000-0000-000094050000}"/>
+    <hyperlink ref="E320" r:id="rId1420" xr:uid="{00000000-0004-0000-0000-000095050000}"/>
+    <hyperlink ref="I320" r:id="rId1421" xr:uid="{00000000-0004-0000-0000-000096050000}"/>
+    <hyperlink ref="K320" r:id="rId1422" xr:uid="{00000000-0004-0000-0000-000097050000}"/>
+    <hyperlink ref="L320" r:id="rId1423" xr:uid="{00000000-0004-0000-0000-000098050000}"/>
+    <hyperlink ref="A321" r:id="rId1424" xr:uid="{00000000-0004-0000-0000-000099050000}"/>
+    <hyperlink ref="E321" r:id="rId1425" xr:uid="{00000000-0004-0000-0000-00009A050000}"/>
+    <hyperlink ref="K321" r:id="rId1426" xr:uid="{00000000-0004-0000-0000-00009B050000}"/>
+    <hyperlink ref="L321" r:id="rId1427" xr:uid="{00000000-0004-0000-0000-00009C050000}"/>
+    <hyperlink ref="A322" r:id="rId1428" xr:uid="{00000000-0004-0000-0000-00009D050000}"/>
+    <hyperlink ref="E322" r:id="rId1429" xr:uid="{00000000-0004-0000-0000-00009E050000}"/>
+    <hyperlink ref="K322" r:id="rId1430" xr:uid="{00000000-0004-0000-0000-00009F050000}"/>
+    <hyperlink ref="L322" r:id="rId1431" xr:uid="{00000000-0004-0000-0000-0000A0050000}"/>
+    <hyperlink ref="A323" r:id="rId1432" xr:uid="{00000000-0004-0000-0000-0000A1050000}"/>
+    <hyperlink ref="E323" r:id="rId1433" xr:uid="{00000000-0004-0000-0000-0000A2050000}"/>
+    <hyperlink ref="K323" r:id="rId1434" xr:uid="{00000000-0004-0000-0000-0000A3050000}"/>
+    <hyperlink ref="L323" r:id="rId1435" xr:uid="{00000000-0004-0000-0000-0000A4050000}"/>
+    <hyperlink ref="A324" r:id="rId1436" xr:uid="{00000000-0004-0000-0000-0000A5050000}"/>
+    <hyperlink ref="E324" r:id="rId1437" xr:uid="{00000000-0004-0000-0000-0000A6050000}"/>
+    <hyperlink ref="K324" r:id="rId1438" xr:uid="{00000000-0004-0000-0000-0000A7050000}"/>
+    <hyperlink ref="L324" r:id="rId1439" xr:uid="{00000000-0004-0000-0000-0000A8050000}"/>
+    <hyperlink ref="A325" r:id="rId1440" xr:uid="{00000000-0004-0000-0000-0000A9050000}"/>
+    <hyperlink ref="E325" r:id="rId1441" xr:uid="{00000000-0004-0000-0000-0000AA050000}"/>
+    <hyperlink ref="I325" r:id="rId1442" xr:uid="{00000000-0004-0000-0000-0000AB050000}"/>
+    <hyperlink ref="K325" r:id="rId1443" xr:uid="{00000000-0004-0000-0000-0000AC050000}"/>
+    <hyperlink ref="L325" r:id="rId1444" xr:uid="{00000000-0004-0000-0000-0000AD050000}"/>
+    <hyperlink ref="A326" r:id="rId1445" xr:uid="{00000000-0004-0000-0000-0000AE050000}"/>
+    <hyperlink ref="E326" r:id="rId1446" xr:uid="{00000000-0004-0000-0000-0000AF050000}"/>
+    <hyperlink ref="I326" r:id="rId1447" xr:uid="{00000000-0004-0000-0000-0000B0050000}"/>
+    <hyperlink ref="L326" r:id="rId1448" xr:uid="{00000000-0004-0000-0000-0000B1050000}"/>
+    <hyperlink ref="A327" r:id="rId1449" xr:uid="{00000000-0004-0000-0000-0000B2050000}"/>
+    <hyperlink ref="E327" r:id="rId1450" xr:uid="{00000000-0004-0000-0000-0000B3050000}"/>
+    <hyperlink ref="K327" r:id="rId1451" xr:uid="{00000000-0004-0000-0000-0000B4050000}"/>
+    <hyperlink ref="L327" r:id="rId1452" xr:uid="{00000000-0004-0000-0000-0000B5050000}"/>
+    <hyperlink ref="A328" r:id="rId1453" xr:uid="{00000000-0004-0000-0000-0000B6050000}"/>
+    <hyperlink ref="E328" r:id="rId1454" xr:uid="{00000000-0004-0000-0000-0000B7050000}"/>
+    <hyperlink ref="I328" r:id="rId1455" xr:uid="{00000000-0004-0000-0000-0000B8050000}"/>
+    <hyperlink ref="K328" r:id="rId1456" xr:uid="{00000000-0004-0000-0000-0000B9050000}"/>
+    <hyperlink ref="L328" r:id="rId1457" xr:uid="{00000000-0004-0000-0000-0000BA050000}"/>
+    <hyperlink ref="A329" r:id="rId1458" xr:uid="{00000000-0004-0000-0000-0000BB050000}"/>
+    <hyperlink ref="E329" r:id="rId1459" xr:uid="{00000000-0004-0000-0000-0000BC050000}"/>
+    <hyperlink ref="I329" r:id="rId1460" xr:uid="{00000000-0004-0000-0000-0000BD050000}"/>
+    <hyperlink ref="K329" r:id="rId1461" xr:uid="{00000000-0004-0000-0000-0000BE050000}"/>
+    <hyperlink ref="L329" r:id="rId1462" xr:uid="{00000000-0004-0000-0000-0000BF050000}"/>
+    <hyperlink ref="A331" r:id="rId1463" xr:uid="{00000000-0004-0000-0000-0000C0050000}"/>
+    <hyperlink ref="E331" r:id="rId1464" xr:uid="{00000000-0004-0000-0000-0000C1050000}"/>
+    <hyperlink ref="I331" r:id="rId1465" xr:uid="{00000000-0004-0000-0000-0000C2050000}"/>
+    <hyperlink ref="K331" r:id="rId1466" xr:uid="{00000000-0004-0000-0000-0000C3050000}"/>
+    <hyperlink ref="L331" r:id="rId1467" xr:uid="{00000000-0004-0000-0000-0000C4050000}"/>
+    <hyperlink ref="A332" r:id="rId1468" xr:uid="{00000000-0004-0000-0000-0000C5050000}"/>
+    <hyperlink ref="I332" r:id="rId1469" xr:uid="{00000000-0004-0000-0000-0000C6050000}"/>
+    <hyperlink ref="L332" r:id="rId1470" xr:uid="{00000000-0004-0000-0000-0000C7050000}"/>
+    <hyperlink ref="A333" r:id="rId1471" xr:uid="{00000000-0004-0000-0000-0000C8050000}"/>
+    <hyperlink ref="E333" r:id="rId1472" xr:uid="{00000000-0004-0000-0000-0000C9050000}"/>
+    <hyperlink ref="I333" r:id="rId1473" xr:uid="{00000000-0004-0000-0000-0000CA050000}"/>
+    <hyperlink ref="K333" r:id="rId1474" xr:uid="{00000000-0004-0000-0000-0000CB050000}"/>
+    <hyperlink ref="L333" r:id="rId1475" xr:uid="{00000000-0004-0000-0000-0000CC050000}"/>
+    <hyperlink ref="A334" r:id="rId1476" xr:uid="{00000000-0004-0000-0000-0000CD050000}"/>
+    <hyperlink ref="E334" r:id="rId1477" xr:uid="{00000000-0004-0000-0000-0000CE050000}"/>
+    <hyperlink ref="I334" r:id="rId1478" xr:uid="{00000000-0004-0000-0000-0000CF050000}"/>
+    <hyperlink ref="K334" r:id="rId1479" xr:uid="{00000000-0004-0000-0000-0000D0050000}"/>
+    <hyperlink ref="L334" r:id="rId1480" xr:uid="{00000000-0004-0000-0000-0000D1050000}"/>
+    <hyperlink ref="A335" r:id="rId1481" xr:uid="{00000000-0004-0000-0000-0000D2050000}"/>
+    <hyperlink ref="E335" r:id="rId1482" xr:uid="{00000000-0004-0000-0000-0000D3050000}"/>
+    <hyperlink ref="I335" r:id="rId1483" xr:uid="{00000000-0004-0000-0000-0000D4050000}"/>
+    <hyperlink ref="K335" r:id="rId1484" xr:uid="{00000000-0004-0000-0000-0000D5050000}"/>
+    <hyperlink ref="L335" r:id="rId1485" xr:uid="{00000000-0004-0000-0000-0000D6050000}"/>
+    <hyperlink ref="A336" r:id="rId1486" xr:uid="{00000000-0004-0000-0000-0000D7050000}"/>
+    <hyperlink ref="E336" r:id="rId1487" xr:uid="{00000000-0004-0000-0000-0000D8050000}"/>
+    <hyperlink ref="I336" r:id="rId1488" xr:uid="{00000000-0004-0000-0000-0000D9050000}"/>
+    <hyperlink ref="K336" r:id="rId1489" xr:uid="{00000000-0004-0000-0000-0000DA050000}"/>
+    <hyperlink ref="L336" r:id="rId1490" xr:uid="{00000000-0004-0000-0000-0000DB050000}"/>
+    <hyperlink ref="A338" r:id="rId1491" xr:uid="{00000000-0004-0000-0000-0000DC050000}"/>
+    <hyperlink ref="E338" r:id="rId1492" xr:uid="{00000000-0004-0000-0000-0000DD050000}"/>
+    <hyperlink ref="I338" r:id="rId1493" xr:uid="{00000000-0004-0000-0000-0000DE050000}"/>
+    <hyperlink ref="A339" r:id="rId1494" xr:uid="{00000000-0004-0000-0000-0000DF050000}"/>
+    <hyperlink ref="E339" r:id="rId1495" xr:uid="{00000000-0004-0000-0000-0000E0050000}"/>
+    <hyperlink ref="I339" r:id="rId1496" xr:uid="{00000000-0004-0000-0000-0000E1050000}"/>
+    <hyperlink ref="K339" r:id="rId1497" xr:uid="{00000000-0004-0000-0000-0000E2050000}"/>
+    <hyperlink ref="L339" r:id="rId1498" xr:uid="{00000000-0004-0000-0000-0000E3050000}"/>
+    <hyperlink ref="A340" r:id="rId1499" xr:uid="{00000000-0004-0000-0000-0000E4050000}"/>
+    <hyperlink ref="L340" r:id="rId1500" xr:uid="{00000000-0004-0000-0000-0000E5050000}"/>
+    <hyperlink ref="A341" r:id="rId1501" xr:uid="{00000000-0004-0000-0000-0000E6050000}"/>
+    <hyperlink ref="E341" r:id="rId1502" xr:uid="{00000000-0004-0000-0000-0000E7050000}"/>
+    <hyperlink ref="I341" r:id="rId1503" xr:uid="{00000000-0004-0000-0000-0000E8050000}"/>
+    <hyperlink ref="L341" r:id="rId1504" xr:uid="{00000000-0004-0000-0000-0000E9050000}"/>
+    <hyperlink ref="A342" r:id="rId1505" xr:uid="{00000000-0004-0000-0000-0000EA050000}"/>
+    <hyperlink ref="E342" r:id="rId1506" xr:uid="{00000000-0004-0000-0000-0000EB050000}"/>
+    <hyperlink ref="I342" r:id="rId1507" xr:uid="{00000000-0004-0000-0000-0000EC050000}"/>
+    <hyperlink ref="K342" r:id="rId1508" xr:uid="{00000000-0004-0000-0000-0000ED050000}"/>
+    <hyperlink ref="L342" r:id="rId1509" xr:uid="{00000000-0004-0000-0000-0000EE050000}"/>
+    <hyperlink ref="A343" r:id="rId1510" xr:uid="{00000000-0004-0000-0000-0000EF050000}"/>
+    <hyperlink ref="I343" r:id="rId1511" xr:uid="{00000000-0004-0000-0000-0000F0050000}"/>
+    <hyperlink ref="L343" r:id="rId1512" xr:uid="{00000000-0004-0000-0000-0000F1050000}"/>
+    <hyperlink ref="A344" r:id="rId1513" xr:uid="{00000000-0004-0000-0000-0000F2050000}"/>
+    <hyperlink ref="E344" r:id="rId1514" xr:uid="{00000000-0004-0000-0000-0000F3050000}"/>
+    <hyperlink ref="I344" r:id="rId1515" xr:uid="{00000000-0004-0000-0000-0000F4050000}"/>
+    <hyperlink ref="K344" r:id="rId1516" xr:uid="{00000000-0004-0000-0000-0000F5050000}"/>
+    <hyperlink ref="L344" r:id="rId1517" xr:uid="{00000000-0004-0000-0000-0000F6050000}"/>
+    <hyperlink ref="A346" r:id="rId1518" xr:uid="{00000000-0004-0000-0000-0000F7050000}"/>
+    <hyperlink ref="E346" r:id="rId1519" xr:uid="{00000000-0004-0000-0000-0000F8050000}"/>
+    <hyperlink ref="I346" r:id="rId1520" xr:uid="{00000000-0004-0000-0000-0000F9050000}"/>
+    <hyperlink ref="K346" r:id="rId1521" xr:uid="{00000000-0004-0000-0000-0000FA050000}"/>
+    <hyperlink ref="L346" r:id="rId1522" xr:uid="{00000000-0004-0000-0000-0000FB050000}"/>
+    <hyperlink ref="A347" r:id="rId1523" xr:uid="{00000000-0004-0000-0000-0000FC050000}"/>
+    <hyperlink ref="E347" r:id="rId1524" xr:uid="{00000000-0004-0000-0000-0000FD050000}"/>
+    <hyperlink ref="I347" r:id="rId1525" xr:uid="{00000000-0004-0000-0000-0000FE050000}"/>
+    <hyperlink ref="K347" r:id="rId1526" xr:uid="{00000000-0004-0000-0000-0000FF050000}"/>
+    <hyperlink ref="L347" r:id="rId1527" xr:uid="{00000000-0004-0000-0000-000000060000}"/>
+    <hyperlink ref="A348" r:id="rId1528" xr:uid="{00000000-0004-0000-0000-000001060000}"/>
+    <hyperlink ref="I348" r:id="rId1529" xr:uid="{00000000-0004-0000-0000-000002060000}"/>
+    <hyperlink ref="K348" r:id="rId1530" xr:uid="{00000000-0004-0000-0000-000003060000}"/>
+    <hyperlink ref="L348" r:id="rId1531" xr:uid="{00000000-0004-0000-0000-000004060000}"/>
+    <hyperlink ref="A349" r:id="rId1532" xr:uid="{00000000-0004-0000-0000-000005060000}"/>
+    <hyperlink ref="E349" r:id="rId1533" xr:uid="{00000000-0004-0000-0000-000006060000}"/>
+    <hyperlink ref="K349" r:id="rId1534" xr:uid="{00000000-0004-0000-0000-000007060000}"/>
+    <hyperlink ref="L349" r:id="rId1535" xr:uid="{00000000-0004-0000-0000-000008060000}"/>
+    <hyperlink ref="A350" r:id="rId1536" xr:uid="{00000000-0004-0000-0000-000009060000}"/>
+    <hyperlink ref="E350" r:id="rId1537" xr:uid="{00000000-0004-0000-0000-00000A060000}"/>
+    <hyperlink ref="I350" r:id="rId1538" xr:uid="{00000000-0004-0000-0000-00000B060000}"/>
+    <hyperlink ref="K350" r:id="rId1539" xr:uid="{00000000-0004-0000-0000-00000C060000}"/>
+    <hyperlink ref="L350" r:id="rId1540" xr:uid="{00000000-0004-0000-0000-00000D060000}"/>
+    <hyperlink ref="A351" r:id="rId1541" xr:uid="{00000000-0004-0000-0000-00000E060000}"/>
+    <hyperlink ref="K351" r:id="rId1542" xr:uid="{00000000-0004-0000-0000-00000F060000}"/>
+    <hyperlink ref="A352" r:id="rId1543" xr:uid="{00000000-0004-0000-0000-000010060000}"/>
+    <hyperlink ref="L352" r:id="rId1544" xr:uid="{00000000-0004-0000-0000-000011060000}"/>
+    <hyperlink ref="A353" r:id="rId1545" xr:uid="{00000000-0004-0000-0000-000012060000}"/>
+    <hyperlink ref="E353" r:id="rId1546" xr:uid="{00000000-0004-0000-0000-000013060000}"/>
+    <hyperlink ref="K353" r:id="rId1547" xr:uid="{00000000-0004-0000-0000-000014060000}"/>
+    <hyperlink ref="L353" r:id="rId1548" xr:uid="{00000000-0004-0000-0000-000015060000}"/>
+    <hyperlink ref="A354" r:id="rId1549" xr:uid="{00000000-0004-0000-0000-000016060000}"/>
+    <hyperlink ref="E354" r:id="rId1550" xr:uid="{00000000-0004-0000-0000-000017060000}"/>
+    <hyperlink ref="I354" r:id="rId1551" xr:uid="{00000000-0004-0000-0000-000018060000}"/>
+    <hyperlink ref="K354" r:id="rId1552" xr:uid="{00000000-0004-0000-0000-000019060000}"/>
+    <hyperlink ref="L354" r:id="rId1553" xr:uid="{00000000-0004-0000-0000-00001A060000}"/>
+    <hyperlink ref="A355" r:id="rId1554" xr:uid="{00000000-0004-0000-0000-00001B060000}"/>
+    <hyperlink ref="E355" r:id="rId1555" xr:uid="{00000000-0004-0000-0000-00001C060000}"/>
+    <hyperlink ref="I355" r:id="rId1556" xr:uid="{00000000-0004-0000-0000-00001D060000}"/>
+    <hyperlink ref="K355" r:id="rId1557" xr:uid="{00000000-0004-0000-0000-00001E060000}"/>
+    <hyperlink ref="L355" r:id="rId1558" xr:uid="{00000000-0004-0000-0000-00001F060000}"/>
+    <hyperlink ref="A356" r:id="rId1559" xr:uid="{00000000-0004-0000-0000-000020060000}"/>
+    <hyperlink ref="L356" r:id="rId1560" xr:uid="{00000000-0004-0000-0000-000021060000}"/>
+    <hyperlink ref="A357" r:id="rId1561" xr:uid="{00000000-0004-0000-0000-000022060000}"/>
+    <hyperlink ref="E357" r:id="rId1562" xr:uid="{00000000-0004-0000-0000-000023060000}"/>
+    <hyperlink ref="I357" r:id="rId1563" xr:uid="{00000000-0004-0000-0000-000024060000}"/>
+    <hyperlink ref="K357" r:id="rId1564" xr:uid="{00000000-0004-0000-0000-000025060000}"/>
+    <hyperlink ref="L357" r:id="rId1565" xr:uid="{00000000-0004-0000-0000-000026060000}"/>
+    <hyperlink ref="A358" r:id="rId1566" xr:uid="{00000000-0004-0000-0000-000027060000}"/>
+    <hyperlink ref="E358" r:id="rId1567" xr:uid="{00000000-0004-0000-0000-000028060000}"/>
+    <hyperlink ref="K358" r:id="rId1568" xr:uid="{00000000-0004-0000-0000-000029060000}"/>
+    <hyperlink ref="L358" r:id="rId1569" xr:uid="{00000000-0004-0000-0000-00002A060000}"/>
+    <hyperlink ref="A359" r:id="rId1570" xr:uid="{00000000-0004-0000-0000-00002B060000}"/>
+    <hyperlink ref="E359" r:id="rId1571" xr:uid="{00000000-0004-0000-0000-00002C060000}"/>
+    <hyperlink ref="K359" r:id="rId1572" xr:uid="{00000000-0004-0000-0000-00002D060000}"/>
+    <hyperlink ref="L359" r:id="rId1573" xr:uid="{00000000-0004-0000-0000-00002E060000}"/>
+    <hyperlink ref="A360" r:id="rId1574" xr:uid="{00000000-0004-0000-0000-00002F060000}"/>
+    <hyperlink ref="L360" r:id="rId1575" xr:uid="{00000000-0004-0000-0000-000030060000}"/>
+    <hyperlink ref="A361" r:id="rId1576" xr:uid="{00000000-0004-0000-0000-000031060000}"/>
+    <hyperlink ref="L361" r:id="rId1577" xr:uid="{00000000-0004-0000-0000-000032060000}"/>
+    <hyperlink ref="A362" r:id="rId1578" xr:uid="{00000000-0004-0000-0000-000033060000}"/>
+    <hyperlink ref="I362" r:id="rId1579" xr:uid="{00000000-0004-0000-0000-000034060000}"/>
+    <hyperlink ref="K362" r:id="rId1580" xr:uid="{00000000-0004-0000-0000-000035060000}"/>
+    <hyperlink ref="L362" r:id="rId1581" xr:uid="{00000000-0004-0000-0000-000036060000}"/>
+    <hyperlink ref="A363" r:id="rId1582" xr:uid="{00000000-0004-0000-0000-000037060000}"/>
+    <hyperlink ref="E363" r:id="rId1583" xr:uid="{00000000-0004-0000-0000-000038060000}"/>
+    <hyperlink ref="I363" r:id="rId1584" xr:uid="{00000000-0004-0000-0000-000039060000}"/>
+    <hyperlink ref="K363" r:id="rId1585" xr:uid="{00000000-0004-0000-0000-00003A060000}"/>
+    <hyperlink ref="L363" r:id="rId1586" xr:uid="{00000000-0004-0000-0000-00003B060000}"/>
+    <hyperlink ref="A364" r:id="rId1587" xr:uid="{00000000-0004-0000-0000-00003C060000}"/>
+    <hyperlink ref="E364" r:id="rId1588" xr:uid="{00000000-0004-0000-0000-00003D060000}"/>
+    <hyperlink ref="I364" r:id="rId1589" xr:uid="{00000000-0004-0000-0000-00003E060000}"/>
+    <hyperlink ref="L364" r:id="rId1590" xr:uid="{00000000-0004-0000-0000-00003F060000}"/>
+    <hyperlink ref="A365" r:id="rId1591" xr:uid="{00000000-0004-0000-0000-000040060000}"/>
+    <hyperlink ref="E365" r:id="rId1592" xr:uid="{00000000-0004-0000-0000-000041060000}"/>
+    <hyperlink ref="I365" r:id="rId1593" xr:uid="{00000000-0004-0000-0000-000042060000}"/>
+    <hyperlink ref="K365" r:id="rId1594" xr:uid="{00000000-0004-0000-0000-000043060000}"/>
+    <hyperlink ref="L365" r:id="rId1595" xr:uid="{00000000-0004-0000-0000-000044060000}"/>
+    <hyperlink ref="A366" r:id="rId1596" xr:uid="{00000000-0004-0000-0000-000045060000}"/>
+    <hyperlink ref="E366" r:id="rId1597" xr:uid="{00000000-0004-0000-0000-000046060000}"/>
+    <hyperlink ref="I366" r:id="rId1598" xr:uid="{00000000-0004-0000-0000-000047060000}"/>
+    <hyperlink ref="K366" r:id="rId1599" xr:uid="{00000000-0004-0000-0000-000048060000}"/>
+    <hyperlink ref="L366" r:id="rId1600" xr:uid="{00000000-0004-0000-0000-000049060000}"/>
+    <hyperlink ref="A367" r:id="rId1601" xr:uid="{00000000-0004-0000-0000-00004A060000}"/>
+    <hyperlink ref="E367" r:id="rId1602" xr:uid="{00000000-0004-0000-0000-00004B060000}"/>
+    <hyperlink ref="I367" r:id="rId1603" xr:uid="{00000000-0004-0000-0000-00004C060000}"/>
+    <hyperlink ref="K367" r:id="rId1604" xr:uid="{00000000-0004-0000-0000-00004D060000}"/>
+    <hyperlink ref="L367" r:id="rId1605" xr:uid="{00000000-0004-0000-0000-00004E060000}"/>
+    <hyperlink ref="A368" r:id="rId1606" xr:uid="{00000000-0004-0000-0000-00004F060000}"/>
+    <hyperlink ref="E368" r:id="rId1607" xr:uid="{00000000-0004-0000-0000-000050060000}"/>
+    <hyperlink ref="I368" r:id="rId1608" xr:uid="{00000000-0004-0000-0000-000051060000}"/>
+    <hyperlink ref="K368" r:id="rId1609" xr:uid="{00000000-0004-0000-0000-000052060000}"/>
+    <hyperlink ref="L368" r:id="rId1610" xr:uid="{00000000-0004-0000-0000-000053060000}"/>
+    <hyperlink ref="A369" r:id="rId1611" xr:uid="{00000000-0004-0000-0000-000054060000}"/>
+    <hyperlink ref="E369" r:id="rId1612" xr:uid="{00000000-0004-0000-0000-000055060000}"/>
+    <hyperlink ref="I369" r:id="rId1613" xr:uid="{00000000-0004-0000-0000-000056060000}"/>
+    <hyperlink ref="K369" r:id="rId1614" xr:uid="{00000000-0004-0000-0000-000057060000}"/>
+    <hyperlink ref="L369" r:id="rId1615" xr:uid="{00000000-0004-0000-0000-000058060000}"/>
+    <hyperlink ref="A370" r:id="rId1616" xr:uid="{00000000-0004-0000-0000-000059060000}"/>
+    <hyperlink ref="E370" r:id="rId1617" xr:uid="{00000000-0004-0000-0000-00005A060000}"/>
+    <hyperlink ref="I370" r:id="rId1618" xr:uid="{00000000-0004-0000-0000-00005B060000}"/>
+    <hyperlink ref="K370" r:id="rId1619" xr:uid="{00000000-0004-0000-0000-00005C060000}"/>
+    <hyperlink ref="L370" r:id="rId1620" xr:uid="{00000000-0004-0000-0000-00005D060000}"/>
+    <hyperlink ref="A371" r:id="rId1621" xr:uid="{00000000-0004-0000-0000-00005E060000}"/>
+    <hyperlink ref="E371" r:id="rId1622" xr:uid="{00000000-0004-0000-0000-00005F060000}"/>
+    <hyperlink ref="I371" r:id="rId1623" xr:uid="{00000000-0004-0000-0000-000060060000}"/>
+    <hyperlink ref="K371" r:id="rId1624" xr:uid="{00000000-0004-0000-0000-000061060000}"/>
+    <hyperlink ref="L371" r:id="rId1625" xr:uid="{00000000-0004-0000-0000-000062060000}"/>
+    <hyperlink ref="A372" r:id="rId1626" xr:uid="{00000000-0004-0000-0000-000063060000}"/>
+    <hyperlink ref="I372" r:id="rId1627" xr:uid="{00000000-0004-0000-0000-000064060000}"/>
+    <hyperlink ref="L372" r:id="rId1628" xr:uid="{00000000-0004-0000-0000-000065060000}"/>
+    <hyperlink ref="A373" r:id="rId1629" xr:uid="{00000000-0004-0000-0000-000066060000}"/>
+    <hyperlink ref="E373" r:id="rId1630" xr:uid="{00000000-0004-0000-0000-000067060000}"/>
+    <hyperlink ref="I373" r:id="rId1631" xr:uid="{00000000-0004-0000-0000-000068060000}"/>
+    <hyperlink ref="K373" r:id="rId1632" xr:uid="{00000000-0004-0000-0000-000069060000}"/>
+    <hyperlink ref="L373" r:id="rId1633" xr:uid="{00000000-0004-0000-0000-00006A060000}"/>
+    <hyperlink ref="A374" r:id="rId1634" xr:uid="{00000000-0004-0000-0000-00006B060000}"/>
+    <hyperlink ref="E374" r:id="rId1635" xr:uid="{00000000-0004-0000-0000-00006C060000}"/>
+    <hyperlink ref="K374" r:id="rId1636" xr:uid="{00000000-0004-0000-0000-00006D060000}"/>
+    <hyperlink ref="L374" r:id="rId1637" xr:uid="{00000000-0004-0000-0000-00006E060000}"/>
+    <hyperlink ref="A375" r:id="rId1638" xr:uid="{00000000-0004-0000-0000-00006F060000}"/>
+    <hyperlink ref="I375" r:id="rId1639" xr:uid="{00000000-0004-0000-0000-000070060000}"/>
+    <hyperlink ref="K375" r:id="rId1640" xr:uid="{00000000-0004-0000-0000-000071060000}"/>
+    <hyperlink ref="L375" r:id="rId1641" xr:uid="{00000000-0004-0000-0000-000072060000}"/>
+    <hyperlink ref="A376" r:id="rId1642" xr:uid="{00000000-0004-0000-0000-000073060000}"/>
+    <hyperlink ref="E376" r:id="rId1643" xr:uid="{00000000-0004-0000-0000-000074060000}"/>
+    <hyperlink ref="I376" r:id="rId1644" xr:uid="{00000000-0004-0000-0000-000075060000}"/>
+    <hyperlink ref="K376" r:id="rId1645" xr:uid="{00000000-0004-0000-0000-000076060000}"/>
+    <hyperlink ref="L376" r:id="rId1646" xr:uid="{00000000-0004-0000-0000-000077060000}"/>
+    <hyperlink ref="A377" r:id="rId1647" xr:uid="{00000000-0004-0000-0000-000078060000}"/>
+    <hyperlink ref="I377" r:id="rId1648" xr:uid="{00000000-0004-0000-0000-000079060000}"/>
+    <hyperlink ref="K377" r:id="rId1649" xr:uid="{00000000-0004-0000-0000-00007A060000}"/>
+    <hyperlink ref="L377" r:id="rId1650" xr:uid="{00000000-0004-0000-0000-00007B060000}"/>
+    <hyperlink ref="A378" r:id="rId1651" xr:uid="{00000000-0004-0000-0000-00007C060000}"/>
+    <hyperlink ref="I378" r:id="rId1652" xr:uid="{00000000-0004-0000-0000-00007D060000}"/>
+    <hyperlink ref="K378" r:id="rId1653" xr:uid="{00000000-0004-0000-0000-00007E060000}"/>
+    <hyperlink ref="L378" r:id="rId1654" xr:uid="{00000000-0004-0000-0000-00007F060000}"/>
+    <hyperlink ref="A379" r:id="rId1655" xr:uid="{00000000-0004-0000-0000-000080060000}"/>
+    <hyperlink ref="I379" r:id="rId1656" xr:uid="{00000000-0004-0000-0000-000081060000}"/>
+    <hyperlink ref="K379" r:id="rId1657" xr:uid="{00000000-0004-0000-0000-000082060000}"/>
+    <hyperlink ref="L379" r:id="rId1658" xr:uid="{00000000-0004-0000-0000-000083060000}"/>
+    <hyperlink ref="A380" r:id="rId1659" xr:uid="{00000000-0004-0000-0000-000084060000}"/>
+    <hyperlink ref="I380" r:id="rId1660" xr:uid="{00000000-0004-0000-0000-000085060000}"/>
+    <hyperlink ref="K380" r:id="rId1661" xr:uid="{00000000-0004-0000-0000-000086060000}"/>
+    <hyperlink ref="L380" r:id="rId1662" xr:uid="{00000000-0004-0000-0000-000087060000}"/>
+    <hyperlink ref="A381" r:id="rId1663" xr:uid="{00000000-0004-0000-0000-000088060000}"/>
+    <hyperlink ref="E381" r:id="rId1664" xr:uid="{00000000-0004-0000-0000-000089060000}"/>
+    <hyperlink ref="I381" r:id="rId1665" xr:uid="{00000000-0004-0000-0000-00008A060000}"/>
+    <hyperlink ref="K381" r:id="rId1666" xr:uid="{00000000-0004-0000-0000-00008B060000}"/>
+    <hyperlink ref="L381" r:id="rId1667" xr:uid="{00000000-0004-0000-0000-00008C060000}"/>
+    <hyperlink ref="A382" r:id="rId1668" xr:uid="{00000000-0004-0000-0000-00008D060000}"/>
+    <hyperlink ref="E382" r:id="rId1669" xr:uid="{00000000-0004-0000-0000-00008E060000}"/>
+    <hyperlink ref="K382" r:id="rId1670" xr:uid="{00000000-0004-0000-0000-00008F060000}"/>
+    <hyperlink ref="L382" r:id="rId1671" xr:uid="{00000000-0004-0000-0000-000090060000}"/>
+    <hyperlink ref="A383" r:id="rId1672" xr:uid="{00000000-0004-0000-0000-000091060000}"/>
+    <hyperlink ref="E383" r:id="rId1673" xr:uid="{00000000-0004-0000-0000-000092060000}"/>
+    <hyperlink ref="K383" r:id="rId1674" xr:uid="{00000000-0004-0000-0000-000093060000}"/>
+    <hyperlink ref="L383" r:id="rId1675" xr:uid="{00000000-0004-0000-0000-000094060000}"/>
+    <hyperlink ref="A384" r:id="rId1676" xr:uid="{00000000-0004-0000-0000-000095060000}"/>
+    <hyperlink ref="L384" r:id="rId1677" xr:uid="{00000000-0004-0000-0000-000096060000}"/>
+    <hyperlink ref="A385" r:id="rId1678" xr:uid="{00000000-0004-0000-0000-000097060000}"/>
+    <hyperlink ref="E385" r:id="rId1679" xr:uid="{00000000-0004-0000-0000-000098060000}"/>
+    <hyperlink ref="I385" r:id="rId1680" xr:uid="{00000000-0004-0000-0000-000099060000}"/>
+    <hyperlink ref="K385" r:id="rId1681" xr:uid="{00000000-0004-0000-0000-00009A060000}"/>
+    <hyperlink ref="L385" r:id="rId1682" xr:uid="{00000000-0004-0000-0000-00009B060000}"/>
+    <hyperlink ref="A386" r:id="rId1683" xr:uid="{00000000-0004-0000-0000-00009C060000}"/>
+    <hyperlink ref="E386" r:id="rId1684" xr:uid="{00000000-0004-0000-0000-00009D060000}"/>
+    <hyperlink ref="I386" r:id="rId1685" xr:uid="{00000000-0004-0000-0000-00009E060000}"/>
+    <hyperlink ref="K386" r:id="rId1686" xr:uid="{00000000-0004-0000-0000-00009F060000}"/>
+    <hyperlink ref="L386" r:id="rId1687" xr:uid="{00000000-0004-0000-0000-0000A0060000}"/>
+    <hyperlink ref="A387" r:id="rId1688" xr:uid="{00000000-0004-0000-0000-0000A1060000}"/>
+    <hyperlink ref="E387" r:id="rId1689" xr:uid="{00000000-0004-0000-0000-0000A2060000}"/>
+    <hyperlink ref="I387" r:id="rId1690" xr:uid="{00000000-0004-0000-0000-0000A3060000}"/>
+    <hyperlink ref="K387" r:id="rId1691" xr:uid="{00000000-0004-0000-0000-0000A4060000}"/>
+    <hyperlink ref="L387" r:id="rId1692" xr:uid="{00000000-0004-0000-0000-0000A5060000}"/>
+    <hyperlink ref="A388" r:id="rId1693" xr:uid="{00000000-0004-0000-0000-0000A6060000}"/>
+    <hyperlink ref="E388" r:id="rId1694" xr:uid="{00000000-0004-0000-0000-0000A7060000}"/>
+    <hyperlink ref="I388" r:id="rId1695" xr:uid="{00000000-0004-0000-0000-0000A8060000}"/>
+    <hyperlink ref="K388" r:id="rId1696" xr:uid="{00000000-0004-0000-0000-0000A9060000}"/>
+    <hyperlink ref="L388" r:id="rId1697" xr:uid="{00000000-0004-0000-0000-0000AA060000}"/>
+    <hyperlink ref="A389" r:id="rId1698" xr:uid="{00000000-0004-0000-0000-0000AB060000}"/>
+    <hyperlink ref="E389" r:id="rId1699" xr:uid="{00000000-0004-0000-0000-0000AC060000}"/>
+    <hyperlink ref="I389" r:id="rId1700" xr:uid="{00000000-0004-0000-0000-0000AD060000}"/>
+    <hyperlink ref="K389" r:id="rId1701" xr:uid="{00000000-0004-0000-0000-0000AE060000}"/>
+    <hyperlink ref="L389" r:id="rId1702" xr:uid="{00000000-0004-0000-0000-0000AF060000}"/>
+    <hyperlink ref="A390" r:id="rId1703" xr:uid="{00000000-0004-0000-0000-0000B0060000}"/>
+    <hyperlink ref="E390" r:id="rId1704" xr:uid="{00000000-0004-0000-0000-0000B1060000}"/>
+    <hyperlink ref="I390" r:id="rId1705" xr:uid="{00000000-0004-0000-0000-0000B2060000}"/>
+    <hyperlink ref="K390" r:id="rId1706" xr:uid="{00000000-0004-0000-0000-0000B3060000}"/>
+    <hyperlink ref="L390" r:id="rId1707" xr:uid="{00000000-0004-0000-0000-0000B4060000}"/>
+    <hyperlink ref="A391" r:id="rId1708" xr:uid="{00000000-0004-0000-0000-0000B5060000}"/>
+    <hyperlink ref="E391" r:id="rId1709" xr:uid="{00000000-0004-0000-0000-0000B6060000}"/>
+    <hyperlink ref="I391" r:id="rId1710" xr:uid="{00000000-0004-0000-0000-0000B7060000}"/>
+    <hyperlink ref="K391" r:id="rId1711" xr:uid="{00000000-0004-0000-0000-0000B8060000}"/>
+    <hyperlink ref="L391" r:id="rId1712" xr:uid="{00000000-0004-0000-0000-0000B9060000}"/>
+    <hyperlink ref="A392" r:id="rId1713" xr:uid="{00000000-0004-0000-0000-0000BA060000}"/>
+    <hyperlink ref="E392" r:id="rId1714" xr:uid="{00000000-0004-0000-0000-0000BB060000}"/>
+    <hyperlink ref="I392" r:id="rId1715" xr:uid="{00000000-0004-0000-0000-0000BC060000}"/>
+    <hyperlink ref="K392" r:id="rId1716" xr:uid="{00000000-0004-0000-0000-0000BD060000}"/>
+    <hyperlink ref="L392" r:id="rId1717" xr:uid="{00000000-0004-0000-0000-0000BE060000}"/>
+    <hyperlink ref="A393" r:id="rId1718" xr:uid="{00000000-0004-0000-0000-0000BF060000}"/>
+    <hyperlink ref="E393" r:id="rId1719" xr:uid="{00000000-0004-0000-0000-0000C0060000}"/>
+    <hyperlink ref="K393" r:id="rId1720" xr:uid="{00000000-0004-0000-0000-0000C1060000}"/>
+    <hyperlink ref="L393" r:id="rId1721" xr:uid="{00000000-0004-0000-0000-0000C2060000}"/>
+    <hyperlink ref="A394" r:id="rId1722" xr:uid="{00000000-0004-0000-0000-0000C3060000}"/>
+    <hyperlink ref="E394" r:id="rId1723" xr:uid="{00000000-0004-0000-0000-0000C4060000}"/>
+    <hyperlink ref="I394" r:id="rId1724" xr:uid="{00000000-0004-0000-0000-0000C5060000}"/>
+    <hyperlink ref="L394" r:id="rId1725" xr:uid="{00000000-0004-0000-0000-0000C6060000}"/>
+    <hyperlink ref="A395" r:id="rId1726" xr:uid="{00000000-0004-0000-0000-0000C7060000}"/>
+    <hyperlink ref="E395" r:id="rId1727" xr:uid="{00000000-0004-0000-0000-0000C8060000}"/>
+    <hyperlink ref="I395" r:id="rId1728" xr:uid="{00000000-0004-0000-0000-0000C9060000}"/>
+    <hyperlink ref="K395" r:id="rId1729" xr:uid="{00000000-0004-0000-0000-0000CA060000}"/>
+    <hyperlink ref="L395" r:id="rId1730" xr:uid="{00000000-0004-0000-0000-0000CB060000}"/>
+    <hyperlink ref="A396" r:id="rId1731" xr:uid="{00000000-0004-0000-0000-0000CC060000}"/>
+    <hyperlink ref="E396" r:id="rId1732" xr:uid="{00000000-0004-0000-0000-0000CD060000}"/>
+    <hyperlink ref="I396" r:id="rId1733" xr:uid="{00000000-0004-0000-0000-0000CE060000}"/>
+    <hyperlink ref="K396" r:id="rId1734" xr:uid="{00000000-0004-0000-0000-0000CF060000}"/>
+    <hyperlink ref="L396" r:id="rId1735" xr:uid="{00000000-0004-0000-0000-0000D0060000}"/>
+    <hyperlink ref="A397" r:id="rId1736" xr:uid="{00000000-0004-0000-0000-0000D1060000}"/>
+    <hyperlink ref="E397" r:id="rId1737" xr:uid="{00000000-0004-0000-0000-0000D2060000}"/>
+    <hyperlink ref="I397" r:id="rId1738" xr:uid="{00000000-0004-0000-0000-0000D3060000}"/>
+    <hyperlink ref="K397" r:id="rId1739" xr:uid="{00000000-0004-0000-0000-0000D4060000}"/>
+    <hyperlink ref="L397" r:id="rId1740" xr:uid="{00000000-0004-0000-0000-0000D5060000}"/>
+    <hyperlink ref="A398" r:id="rId1741" xr:uid="{00000000-0004-0000-0000-0000D6060000}"/>
+    <hyperlink ref="E398" r:id="rId1742" xr:uid="{00000000-0004-0000-0000-0000D7060000}"/>
+    <hyperlink ref="I398" r:id="rId1743" xr:uid="{00000000-0004-0000-0000-0000D8060000}"/>
+    <hyperlink ref="K398" r:id="rId1744" xr:uid="{00000000-0004-0000-0000-0000D9060000}"/>
+    <hyperlink ref="L398" r:id="rId1745" xr:uid="{00000000-0004-0000-0000-0000DA060000}"/>
+    <hyperlink ref="A399" r:id="rId1746" xr:uid="{00000000-0004-0000-0000-0000DB060000}"/>
+    <hyperlink ref="I399" r:id="rId1747" xr:uid="{00000000-0004-0000-0000-0000DC060000}"/>
+    <hyperlink ref="L399" r:id="rId1748" xr:uid="{00000000-0004-0000-0000-0000DD060000}"/>
+    <hyperlink ref="A400" r:id="rId1749" xr:uid="{00000000-0004-0000-0000-0000DE060000}"/>
+    <hyperlink ref="I400" r:id="rId1750" xr:uid="{00000000-0004-0000-0000-0000DF060000}"/>
+    <hyperlink ref="L400" r:id="rId1751" xr:uid="{00000000-0004-0000-0000-0000E0060000}"/>
+    <hyperlink ref="A401" r:id="rId1752" xr:uid="{00000000-0004-0000-0000-0000E1060000}"/>
+    <hyperlink ref="E401" r:id="rId1753" xr:uid="{00000000-0004-0000-0000-0000E2060000}"/>
+    <hyperlink ref="I401" r:id="rId1754" xr:uid="{00000000-0004-0000-0000-0000E3060000}"/>
+    <hyperlink ref="K401" r:id="rId1755" xr:uid="{00000000-0004-0000-0000-0000E4060000}"/>
+    <hyperlink ref="L401" r:id="rId1756" xr:uid="{00000000-0004-0000-0000-0000E5060000}"/>
+    <hyperlink ref="A402" r:id="rId1757" xr:uid="{00000000-0004-0000-0000-0000E6060000}"/>
+    <hyperlink ref="E402" r:id="rId1758" xr:uid="{00000000-0004-0000-0000-0000E7060000}"/>
+    <hyperlink ref="I402" r:id="rId1759" xr:uid="{00000000-0004-0000-0000-0000E8060000}"/>
+    <hyperlink ref="L402" r:id="rId1760" xr:uid="{00000000-0004-0000-0000-0000E9060000}"/>
+    <hyperlink ref="A403" r:id="rId1761" xr:uid="{00000000-0004-0000-0000-0000EA060000}"/>
+    <hyperlink ref="E403" r:id="rId1762" xr:uid="{00000000-0004-0000-0000-0000EB060000}"/>
+    <hyperlink ref="I403" r:id="rId1763" xr:uid="{00000000-0004-0000-0000-0000EC060000}"/>
+    <hyperlink ref="K403" r:id="rId1764" xr:uid="{00000000-0004-0000-0000-0000ED060000}"/>
+    <hyperlink ref="L403" r:id="rId1765" xr:uid="{00000000-0004-0000-0000-0000EE060000}"/>
+    <hyperlink ref="A404" r:id="rId1766" xr:uid="{00000000-0004-0000-0000-0000EF060000}"/>
+    <hyperlink ref="E404" r:id="rId1767" xr:uid="{00000000-0004-0000-0000-0000F0060000}"/>
+    <hyperlink ref="I404" r:id="rId1768" xr:uid="{00000000-0004-0000-0000-0000F1060000}"/>
+    <hyperlink ref="K404" r:id="rId1769" xr:uid="{00000000-0004-0000-0000-0000F2060000}"/>
+    <hyperlink ref="L404" r:id="rId1770" xr:uid="{00000000-0004-0000-0000-0000F3060000}"/>
+    <hyperlink ref="A405" r:id="rId1771" xr:uid="{00000000-0004-0000-0000-0000F4060000}"/>
+    <hyperlink ref="E405" r:id="rId1772" xr:uid="{00000000-0004-0000-0000-0000F5060000}"/>
+    <hyperlink ref="I405" r:id="rId1773" xr:uid="{00000000-0004-0000-0000-0000F6060000}"/>
+    <hyperlink ref="K405" r:id="rId1774" xr:uid="{00000000-0004-0000-0000-0000F7060000}"/>
+    <hyperlink ref="L405" r:id="rId1775" xr:uid="{00000000-0004-0000-0000-0000F8060000}"/>
+    <hyperlink ref="A406" r:id="rId1776" xr:uid="{00000000-0004-0000-0000-0000F9060000}"/>
+    <hyperlink ref="E406" r:id="rId1777" xr:uid="{00000000-0004-0000-0000-0000FA060000}"/>
+    <hyperlink ref="I406" r:id="rId1778" xr:uid="{00000000-0004-0000-0000-0000FB060000}"/>
+    <hyperlink ref="K406" r:id="rId1779" xr:uid="{00000000-0004-0000-0000-0000FC060000}"/>
+    <hyperlink ref="L406" r:id="rId1780" xr:uid="{00000000-0004-0000-0000-0000FD060000}"/>
+    <hyperlink ref="A407" r:id="rId1781" xr:uid="{00000000-0004-0000-0000-0000FE060000}"/>
+    <hyperlink ref="E407" r:id="rId1782" xr:uid="{00000000-0004-0000-0000-0000FF060000}"/>
+    <hyperlink ref="I407" r:id="rId1783" xr:uid="{00000000-0004-0000-0000-000000070000}"/>
+    <hyperlink ref="K407" r:id="rId1784" xr:uid="{00000000-0004-0000-0000-000001070000}"/>
+    <hyperlink ref="L407" r:id="rId1785" xr:uid="{00000000-0004-0000-0000-000002070000}"/>
+    <hyperlink ref="A409" r:id="rId1786" xr:uid="{00000000-0004-0000-0000-000003070000}"/>
+    <hyperlink ref="E409" r:id="rId1787" xr:uid="{00000000-0004-0000-0000-000004070000}"/>
+    <hyperlink ref="I409" r:id="rId1788" xr:uid="{00000000-0004-0000-0000-000005070000}"/>
+    <hyperlink ref="K409" r:id="rId1789" xr:uid="{00000000-0004-0000-0000-000006070000}"/>
+    <hyperlink ref="L409" r:id="rId1790" xr:uid="{00000000-0004-0000-0000-000007070000}"/>
+    <hyperlink ref="A410" r:id="rId1791" xr:uid="{00000000-0004-0000-0000-000008070000}"/>
+    <hyperlink ref="I410" r:id="rId1792" xr:uid="{00000000-0004-0000-0000-000009070000}"/>
+    <hyperlink ref="L410" r:id="rId1793" xr:uid="{00000000-0004-0000-0000-00000A070000}"/>
+    <hyperlink ref="A411" r:id="rId1794" xr:uid="{00000000-0004-0000-0000-00000B070000}"/>
+    <hyperlink ref="E411" r:id="rId1795" xr:uid="{00000000-0004-0000-0000-00000C070000}"/>
+    <hyperlink ref="I411" r:id="rId1796" xr:uid="{00000000-0004-0000-0000-00000D070000}"/>
+    <hyperlink ref="K411" r:id="rId1797" xr:uid="{00000000-0004-0000-0000-00000E070000}"/>
+    <hyperlink ref="L411" r:id="rId1798" xr:uid="{00000000-0004-0000-0000-00000F070000}"/>
+    <hyperlink ref="A412" r:id="rId1799" xr:uid="{00000000-0004-0000-0000-000010070000}"/>
+    <hyperlink ref="E412" r:id="rId1800" xr:uid="{00000000-0004-0000-0000-000011070000}"/>
+    <hyperlink ref="I412" r:id="rId1801" xr:uid="{00000000-0004-0000-0000-000012070000}"/>
+    <hyperlink ref="K412" r:id="rId1802" xr:uid="{00000000-0004-0000-0000-000013070000}"/>
+    <hyperlink ref="L412" r:id="rId1803" xr:uid="{00000000-0004-0000-0000-000014070000}"/>
+    <hyperlink ref="A413" r:id="rId1804" xr:uid="{00000000-0004-0000-0000-000015070000}"/>
+    <hyperlink ref="E413" r:id="rId1805" xr:uid="{00000000-0004-0000-0000-000016070000}"/>
+    <hyperlink ref="I413" r:id="rId1806" xr:uid="{00000000-0004-0000-0000-000017070000}"/>
+    <hyperlink ref="K413" r:id="rId1807" xr:uid="{00000000-0004-0000-0000-000018070000}"/>
+    <hyperlink ref="L413" r:id="rId1808" xr:uid="{00000000-0004-0000-0000-000019070000}"/>
+    <hyperlink ref="A414" r:id="rId1809" xr:uid="{00000000-0004-0000-0000-00001A070000}"/>
+    <hyperlink ref="I414" r:id="rId1810" xr:uid="{00000000-0004-0000-0000-00001B070000}"/>
+    <hyperlink ref="L414" r:id="rId1811" xr:uid="{00000000-0004-0000-0000-00001C070000}"/>
+    <hyperlink ref="A415" r:id="rId1812" xr:uid="{00000000-0004-0000-0000-00001D070000}"/>
+    <hyperlink ref="I415" r:id="rId1813" xr:uid="{00000000-0004-0000-0000-00001E070000}"/>
+    <hyperlink ref="K415" r:id="rId1814" xr:uid="{00000000-0004-0000-0000-00001F070000}"/>
+    <hyperlink ref="A416" r:id="rId1815" xr:uid="{00000000-0004-0000-0000-000020070000}"/>
+    <hyperlink ref="I416" r:id="rId1816" xr:uid="{00000000-0004-0000-0000-000021070000}"/>
+    <hyperlink ref="L416" r:id="rId1817" xr:uid="{00000000-0004-0000-0000-000022070000}"/>
+    <hyperlink ref="A417" r:id="rId1818" xr:uid="{00000000-0004-0000-0000-000023070000}"/>
+    <hyperlink ref="K417" r:id="rId1819" xr:uid="{00000000-0004-0000-0000-000024070000}"/>
+    <hyperlink ref="L417" r:id="rId1820" xr:uid="{00000000-0004-0000-0000-000025070000}"/>
+    <hyperlink ref="A418" r:id="rId1821" xr:uid="{00000000-0004-0000-0000-000026070000}"/>
+    <hyperlink ref="E418" r:id="rId1822" xr:uid="{00000000-0004-0000-0000-000027070000}"/>
+    <hyperlink ref="I418" r:id="rId1823" xr:uid="{00000000-0004-0000-0000-000028070000}"/>
+    <hyperlink ref="K418" r:id="rId1824" xr:uid="{00000000-0004-0000-0000-000029070000}"/>
+    <hyperlink ref="L418" r:id="rId1825" xr:uid="{00000000-0004-0000-0000-00002A070000}"/>
+    <hyperlink ref="A419" r:id="rId1826" xr:uid="{00000000-0004-0000-0000-00002B070000}"/>
+    <hyperlink ref="I419" r:id="rId1827" xr:uid="{00000000-0004-0000-0000-00002C070000}"/>
+    <hyperlink ref="K419" r:id="rId1828" xr:uid="{00000000-0004-0000-0000-00002D070000}"/>
+    <hyperlink ref="L419" r:id="rId1829" xr:uid="{00000000-0004-0000-0000-00002E070000}"/>
+    <hyperlink ref="A420" r:id="rId1830" xr:uid="{00000000-0004-0000-0000-00002F070000}"/>
+    <hyperlink ref="I420" r:id="rId1831" xr:uid="{00000000-0004-0000-0000-000030070000}"/>
+    <hyperlink ref="L420" r:id="rId1832" xr:uid="{00000000-0004-0000-0000-000031070000}"/>
+    <hyperlink ref="A421" r:id="rId1833" xr:uid="{00000000-0004-0000-0000-000032070000}"/>
+    <hyperlink ref="I421" r:id="rId1834" xr:uid="{00000000-0004-0000-0000-000033070000}"/>
+    <hyperlink ref="L421" r:id="rId1835" xr:uid="{00000000-0004-0000-0000-000034070000}"/>
+    <hyperlink ref="A422" r:id="rId1836" xr:uid="{00000000-0004-0000-0000-000035070000}"/>
+    <hyperlink ref="E422" r:id="rId1837" xr:uid="{00000000-0004-0000-0000-000036070000}"/>
+    <hyperlink ref="I422" r:id="rId1838" xr:uid="{00000000-0004-0000-0000-000037070000}"/>
+    <hyperlink ref="L422" r:id="rId1839" xr:uid="{00000000-0004-0000-0000-000038070000}"/>
+    <hyperlink ref="A423" r:id="rId1840" xr:uid="{00000000-0004-0000-0000-000039070000}"/>
+    <hyperlink ref="E423" r:id="rId1841" xr:uid="{00000000-0004-0000-0000-00003A070000}"/>
+    <hyperlink ref="I423" r:id="rId1842" xr:uid="{00000000-0004-0000-0000-00003B070000}"/>
+    <hyperlink ref="K423" r:id="rId1843" xr:uid="{00000000-0004-0000-0000-00003C070000}"/>
+    <hyperlink ref="L423" r:id="rId1844" xr:uid="{00000000-0004-0000-0000-00003D070000}"/>
+    <hyperlink ref="A424" r:id="rId1845" xr:uid="{00000000-0004-0000-0000-00003E070000}"/>
+    <hyperlink ref="I424" r:id="rId1846" xr:uid="{00000000-0004-0000-0000-00003F070000}"/>
+    <hyperlink ref="L424" r:id="rId1847" xr:uid="{00000000-0004-0000-0000-000040070000}"/>
+    <hyperlink ref="A425" r:id="rId1848" xr:uid="{00000000-0004-0000-0000-000041070000}"/>
+    <hyperlink ref="I425" r:id="rId1849" xr:uid="{00000000-0004-0000-0000-000042070000}"/>
+    <hyperlink ref="L425" r:id="rId1850" xr:uid="{00000000-0004-0000-0000-000043070000}"/>
+    <hyperlink ref="A426" r:id="rId1851" xr:uid="{00000000-0004-0000-0000-000044070000}"/>
+    <hyperlink ref="E426" r:id="rId1852" xr:uid="{00000000-0004-0000-0000-000045070000}"/>
+    <hyperlink ref="I426" r:id="rId1853" xr:uid="{00000000-0004-0000-0000-000046070000}"/>
+    <hyperlink ref="K426" r:id="rId1854" xr:uid="{00000000-0004-0000-0000-000047070000}"/>
+    <hyperlink ref="L426" r:id="rId1855" xr:uid="{00000000-0004-0000-0000-000048070000}"/>
+    <hyperlink ref="A427" r:id="rId1856" xr:uid="{00000000-0004-0000-0000-000049070000}"/>
+    <hyperlink ref="I427" r:id="rId1857" xr:uid="{00000000-0004-0000-0000-00004A070000}"/>
+    <hyperlink ref="L427" r:id="rId1858" xr:uid="{00000000-0004-0000-0000-00004B070000}"/>
+    <hyperlink ref="A428" r:id="rId1859" xr:uid="{00000000-0004-0000-0000-00004C070000}"/>
+    <hyperlink ref="E428" r:id="rId1860" xr:uid="{00000000-0004-0000-0000-00004D070000}"/>
+    <hyperlink ref="I428" r:id="rId1861" xr:uid="{00000000-0004-0000-0000-00004E070000}"/>
+    <hyperlink ref="L428" r:id="rId1862" xr:uid="{00000000-0004-0000-0000-00004F070000}"/>
+    <hyperlink ref="A429" r:id="rId1863" xr:uid="{00000000-0004-0000-0000-000050070000}"/>
+    <hyperlink ref="I429" r:id="rId1864" xr:uid="{00000000-0004-0000-0000-000051070000}"/>
+    <hyperlink ref="L429" r:id="rId1865" xr:uid="{00000000-0004-0000-0000-000052070000}"/>
+    <hyperlink ref="A430" r:id="rId1866" xr:uid="{00000000-0004-0000-0000-000053070000}"/>
+    <hyperlink ref="I430" r:id="rId1867" xr:uid="{00000000-0004-0000-0000-000054070000}"/>
+    <hyperlink ref="L430" r:id="rId1868" xr:uid="{00000000-0004-0000-0000-000055070000}"/>
+    <hyperlink ref="A431" r:id="rId1869" xr:uid="{00000000-0004-0000-0000-000056070000}"/>
+    <hyperlink ref="E431" r:id="rId1870" xr:uid="{00000000-0004-0000-0000-000057070000}"/>
+    <hyperlink ref="I431" r:id="rId1871" xr:uid="{00000000-0004-0000-0000-000058070000}"/>
+    <hyperlink ref="K431" r:id="rId1872" xr:uid="{00000000-0004-0000-0000-000059070000}"/>
+    <hyperlink ref="L431" r:id="rId1873" xr:uid="{00000000-0004-0000-0000-00005A070000}"/>
+    <hyperlink ref="A432" r:id="rId1874" xr:uid="{00000000-0004-0000-0000-00005B070000}"/>
+    <hyperlink ref="E432" r:id="rId1875" xr:uid="{00000000-0004-0000-0000-00005C070000}"/>
+    <hyperlink ref="I432" r:id="rId1876" xr:uid="{00000000-0004-0000-0000-00005D070000}"/>
+    <hyperlink ref="K432" r:id="rId1877" xr:uid="{00000000-0004-0000-0000-00005E070000}"/>
+    <hyperlink ref="L432" r:id="rId1878" xr:uid="{00000000-0004-0000-0000-00005F070000}"/>
+    <hyperlink ref="A433" r:id="rId1879" xr:uid="{00000000-0004-0000-0000-000060070000}"/>
+    <hyperlink ref="K433" r:id="rId1880" xr:uid="{00000000-0004-0000-0000-000061070000}"/>
+    <hyperlink ref="L433" r:id="rId1881" xr:uid="{00000000-0004-0000-0000-000062070000}"/>
+    <hyperlink ref="A434" r:id="rId1882" xr:uid="{00000000-0004-0000-0000-000063070000}"/>
+    <hyperlink ref="E434" r:id="rId1883" xr:uid="{00000000-0004-0000-0000-000064070000}"/>
+    <hyperlink ref="I434" r:id="rId1884" xr:uid="{00000000-0004-0000-0000-000065070000}"/>
+    <hyperlink ref="L434" r:id="rId1885" xr:uid="{00000000-0004-0000-0000-000066070000}"/>
+    <hyperlink ref="A435" r:id="rId1886" xr:uid="{00000000-0004-0000-0000-000067070000}"/>
+    <hyperlink ref="E435" r:id="rId1887" xr:uid="{00000000-0004-0000-0000-000068070000}"/>
+    <hyperlink ref="I435" r:id="rId1888" xr:uid="{00000000-0004-0000-0000-000069070000}"/>
+    <hyperlink ref="K435" r:id="rId1889" xr:uid="{00000000-0004-0000-0000-00006A070000}"/>
+    <hyperlink ref="L435" r:id="rId1890" xr:uid="{00000000-0004-0000-0000-00006B070000}"/>
+    <hyperlink ref="A436" r:id="rId1891" xr:uid="{00000000-0004-0000-0000-00006C070000}"/>
+    <hyperlink ref="E436" r:id="rId1892" xr:uid="{00000000-0004-0000-0000-00006D070000}"/>
+    <hyperlink ref="I436" r:id="rId1893" xr:uid="{00000000-0004-0000-0000-00006E070000}"/>
+    <hyperlink ref="K436" r:id="rId1894" xr:uid="{00000000-0004-0000-0000-00006F070000}"/>
+    <hyperlink ref="L436" r:id="rId1895" xr:uid="{00000000-0004-0000-0000-000070070000}"/>
+    <hyperlink ref="A437" r:id="rId1896" xr:uid="{00000000-0004-0000-0000-000071070000}"/>
+    <hyperlink ref="I437" r:id="rId1897" xr:uid="{00000000-0004-0000-0000-000072070000}"/>
+    <hyperlink ref="K437" r:id="rId1898" xr:uid="{00000000-0004-0000-0000-000073070000}"/>
+    <hyperlink ref="L437" r:id="rId1899" xr:uid="{00000000-0004-0000-0000-000074070000}"/>
+    <hyperlink ref="A438" r:id="rId1900" xr:uid="{00000000-0004-0000-0000-000075070000}"/>
+    <hyperlink ref="E438" r:id="rId1901" xr:uid="{00000000-0004-0000-0000-000076070000}"/>
+    <hyperlink ref="I438" r:id="rId1902" xr:uid="{00000000-0004-0000-0000-000077070000}"/>
+    <hyperlink ref="L438" r:id="rId1903" xr:uid="{00000000-0004-0000-0000-000078070000}"/>
+    <hyperlink ref="A439" r:id="rId1904" xr:uid="{00000000-0004-0000-0000-000079070000}"/>
+    <hyperlink ref="I439" r:id="rId1905" xr:uid="{00000000-0004-0000-0000-00007A070000}"/>
+    <hyperlink ref="K439" r:id="rId1906" xr:uid="{00000000-0004-0000-0000-00007B070000}"/>
+    <hyperlink ref="L439" r:id="rId1907" xr:uid="{00000000-0004-0000-0000-00007C070000}"/>
+    <hyperlink ref="A440" r:id="rId1908" xr:uid="{00000000-0004-0000-0000-00007D070000}"/>
+    <hyperlink ref="E440" r:id="rId1909" xr:uid="{00000000-0004-0000-0000-00007E070000}"/>
+    <hyperlink ref="L440" r:id="rId1910" xr:uid="{00000000-0004-0000-0000-00007F070000}"/>
+    <hyperlink ref="A441" r:id="rId1911" xr:uid="{00000000-0004-0000-0000-000080070000}"/>
+    <hyperlink ref="I441" r:id="rId1912" xr:uid="{00000000-0004-0000-0000-000081070000}"/>
+    <hyperlink ref="K441" r:id="rId1913" xr:uid="{00000000-0004-0000-0000-000082070000}"/>
+    <hyperlink ref="L441" r:id="rId1914" xr:uid="{00000000-0004-0000-0000-000083070000}"/>
+    <hyperlink ref="A442" r:id="rId1915" xr:uid="{00000000-0004-0000-0000-000084070000}"/>
+    <hyperlink ref="I442" r:id="rId1916" xr:uid="{00000000-0004-0000-0000-000085070000}"/>
+    <hyperlink ref="L442" r:id="rId1917" xr:uid="{00000000-0004-0000-0000-000086070000}"/>
+    <hyperlink ref="A443" r:id="rId1918" xr:uid="{00000000-0004-0000-0000-000087070000}"/>
+    <hyperlink ref="E443" r:id="rId1919" xr:uid="{00000000-0004-0000-0000-000088070000}"/>
+    <hyperlink ref="I443" r:id="rId1920" xr:uid="{00000000-0004-0000-0000-000089070000}"/>
+    <hyperlink ref="K443" r:id="rId1921" xr:uid="{00000000-0004-0000-0000-00008A070000}"/>
+    <hyperlink ref="L443" r:id="rId1922" xr:uid="{00000000-0004-0000-0000-00008B070000}"/>
+    <hyperlink ref="A444" r:id="rId1923" xr:uid="{00000000-0004-0000-0000-00008C070000}"/>
+    <hyperlink ref="L444" r:id="rId1924" xr:uid="{00000000-0004-0000-0000-00008D070000}"/>
+    <hyperlink ref="A445" r:id="rId1925" xr:uid="{00000000-0004-0000-0000-00008E070000}"/>
+    <hyperlink ref="E445" r:id="rId1926" xr:uid="{00000000-0004-0000-0000-00008F070000}"/>
+    <hyperlink ref="I445" r:id="rId1927" xr:uid="{00000000-0004-0000-0000-000090070000}"/>
+    <hyperlink ref="K445" r:id="rId1928" xr:uid="{00000000-0004-0000-0000-000091070000}"/>
+    <hyperlink ref="L445" r:id="rId1929" xr:uid="{00000000-0004-0000-0000-000092070000}"/>
+    <hyperlink ref="A446" r:id="rId1930" xr:uid="{00000000-0004-0000-0000-000093070000}"/>
+    <hyperlink ref="E446" r:id="rId1931" xr:uid="{00000000-0004-0000-0000-000094070000}"/>
+    <hyperlink ref="I446" r:id="rId1932" xr:uid="{00000000-0004-0000-0000-000095070000}"/>
+    <hyperlink ref="K446" r:id="rId1933" xr:uid="{00000000-0004-0000-0000-000096070000}"/>
+    <hyperlink ref="L446" r:id="rId1934" xr:uid="{00000000-0004-0000-0000-000097070000}"/>
+    <hyperlink ref="A447" r:id="rId1935" xr:uid="{00000000-0004-0000-0000-000098070000}"/>
+    <hyperlink ref="E447" r:id="rId1936" xr:uid="{00000000-0004-0000-0000-000099070000}"/>
+    <hyperlink ref="K447" r:id="rId1937" xr:uid="{00000000-0004-0000-0000-00009A070000}"/>
+    <hyperlink ref="L447" r:id="rId1938" xr:uid="{00000000-0004-0000-0000-00009B070000}"/>
+    <hyperlink ref="A448" r:id="rId1939" xr:uid="{00000000-0004-0000-0000-00009C070000}"/>
+    <hyperlink ref="E448" r:id="rId1940" xr:uid="{00000000-0004-0000-0000-00009D070000}"/>
+    <hyperlink ref="I448" r:id="rId1941" xr:uid="{00000000-0004-0000-0000-00009E070000}"/>
+    <hyperlink ref="K448" r:id="rId1942" xr:uid="{00000000-0004-0000-0000-00009F070000}"/>
+    <hyperlink ref="L448" r:id="rId1943" xr:uid="{00000000-0004-0000-0000-0000A0070000}"/>
+    <hyperlink ref="A449" r:id="rId1944" xr:uid="{00000000-0004-0000-0000-0000A1070000}"/>
+    <hyperlink ref="E449" r:id="rId1945" xr:uid="{00000000-0004-0000-0000-0000A2070000}"/>
+    <hyperlink ref="I449" r:id="rId1946" xr:uid="{00000000-0004-0000-0000-0000A3070000}"/>
+    <hyperlink ref="K449" r:id="rId1947" xr:uid="{00000000-0004-0000-0000-0000A4070000}"/>
+    <hyperlink ref="L449" r:id="rId1948" xr:uid="{00000000-0004-0000-0000-0000A5070000}"/>
+    <hyperlink ref="A450" r:id="rId1949" xr:uid="{00000000-0004-0000-0000-0000A6070000}"/>
+    <hyperlink ref="E450" r:id="rId1950" xr:uid="{00000000-0004-0000-0000-0000A7070000}"/>
+    <hyperlink ref="I450" r:id="rId1951" xr:uid="{00000000-0004-0000-0000-0000A8070000}"/>
+    <hyperlink ref="L450" r:id="rId1952" xr:uid="{00000000-0004-0000-0000-0000A9070000}"/>
+    <hyperlink ref="A451" r:id="rId1953" xr:uid="{00000000-0004-0000-0000-0000AA070000}"/>
+    <hyperlink ref="E451" r:id="rId1954" xr:uid="{00000000-0004-0000-0000-0000AB070000}"/>
+    <hyperlink ref="I451" r:id="rId1955" xr:uid="{00000000-0004-0000-0000-0000AC070000}"/>
+    <hyperlink ref="A452" r:id="rId1956" xr:uid="{00000000-0004-0000-0000-0000AD070000}"/>
+    <hyperlink ref="E452" r:id="rId1957" xr:uid="{00000000-0004-0000-0000-0000AE070000}"/>
+    <hyperlink ref="I452" r:id="rId1958" xr:uid="{00000000-0004-0000-0000-0000AF070000}"/>
+    <hyperlink ref="K452" r:id="rId1959" xr:uid="{00000000-0004-0000-0000-0000B0070000}"/>
+    <hyperlink ref="L452" r:id="rId1960" xr:uid="{00000000-0004-0000-0000-0000B1070000}"/>
+    <hyperlink ref="A453" r:id="rId1961" xr:uid="{00000000-0004-0000-0000-0000B2070000}"/>
+    <hyperlink ref="E453" r:id="rId1962" xr:uid="{00000000-0004-0000-0000-0000B3070000}"/>
+    <hyperlink ref="I453" r:id="rId1963" xr:uid="{00000000-0004-0000-0000-0000B4070000}"/>
+    <hyperlink ref="L453" r:id="rId1964" xr:uid="{00000000-0004-0000-0000-0000B5070000}"/>
+    <hyperlink ref="A454" r:id="rId1965" xr:uid="{00000000-0004-0000-0000-0000B6070000}"/>
+    <hyperlink ref="I454" r:id="rId1966" xr:uid="{00000000-0004-0000-0000-0000B7070000}"/>
+    <hyperlink ref="L454" r:id="rId1967" xr:uid="{00000000-0004-0000-0000-0000B8070000}"/>
+    <hyperlink ref="A455" r:id="rId1968" xr:uid="{00000000-0004-0000-0000-0000B9070000}"/>
+    <hyperlink ref="E455" r:id="rId1969" xr:uid="{00000000-0004-0000-0000-0000BA070000}"/>
+    <hyperlink ref="I455" r:id="rId1970" xr:uid="{00000000-0004-0000-0000-0000BB070000}"/>
+    <hyperlink ref="L455" r:id="rId1971" xr:uid="{00000000-0004-0000-0000-0000BC070000}"/>
+    <hyperlink ref="A456" r:id="rId1972" xr:uid="{00000000-0004-0000-0000-0000BD070000}"/>
+    <hyperlink ref="E456" r:id="rId1973" xr:uid="{00000000-0004-0000-0000-0000BE070000}"/>
+    <hyperlink ref="I456" r:id="rId1974" xr:uid="{00000000-0004-0000-0000-0000BF070000}"/>
+    <hyperlink ref="L456" r:id="rId1975" xr:uid="{00000000-0004-0000-0000-0000C0070000}"/>
+    <hyperlink ref="A457" r:id="rId1976" xr:uid="{00000000-0004-0000-0000-0000C1070000}"/>
+    <hyperlink ref="E457" r:id="rId1977" xr:uid="{00000000-0004-0000-0000-0000C2070000}"/>
+    <hyperlink ref="I457" r:id="rId1978" xr:uid="{00000000-0004-0000-0000-0000C3070000}"/>
+    <hyperlink ref="L457" r:id="rId1979" xr:uid="{00000000-0004-0000-0000-0000C4070000}"/>
+    <hyperlink ref="A458" r:id="rId1980" xr:uid="{00000000-0004-0000-0000-0000C5070000}"/>
+    <hyperlink ref="I458" r:id="rId1981" xr:uid="{00000000-0004-0000-0000-0000C6070000}"/>
+    <hyperlink ref="L458" r:id="rId1982" xr:uid="{00000000-0004-0000-0000-0000C7070000}"/>
+    <hyperlink ref="A459" r:id="rId1983" xr:uid="{00000000-0004-0000-0000-0000C8070000}"/>
+    <hyperlink ref="E459" r:id="rId1984" xr:uid="{00000000-0004-0000-0000-0000C9070000}"/>
+    <hyperlink ref="I459" r:id="rId1985" xr:uid="{00000000-0004-0000-0000-0000CA070000}"/>
+    <hyperlink ref="K459" r:id="rId1986" xr:uid="{00000000-0004-0000-0000-0000CB070000}"/>
+    <hyperlink ref="L459" r:id="rId1987" xr:uid="{00000000-0004-0000-0000-0000CC070000}"/>
+    <hyperlink ref="A460" r:id="rId1988" xr:uid="{00000000-0004-0000-0000-0000CD070000}"/>
+    <hyperlink ref="I460" r:id="rId1989" xr:uid="{00000000-0004-0000-0000-0000CE070000}"/>
+    <hyperlink ref="K460" r:id="rId1990" xr:uid="{00000000-0004-0000-0000-0000CF070000}"/>
+    <hyperlink ref="A461" r:id="rId1991" xr:uid="{00000000-0004-0000-0000-0000D0070000}"/>
+    <hyperlink ref="I461" r:id="rId1992" xr:uid="{00000000-0004-0000-0000-0000D1070000}"/>
+    <hyperlink ref="K461" r:id="rId1993" xr:uid="{00000000-0004-0000-0000-0000D2070000}"/>
+    <hyperlink ref="L461" r:id="rId1994" xr:uid="{00000000-0004-0000-0000-0000D3070000}"/>
+    <hyperlink ref="A462" r:id="rId1995" xr:uid="{00000000-0004-0000-0000-0000D4070000}"/>
+    <hyperlink ref="E462" r:id="rId1996" xr:uid="{00000000-0004-0000-0000-0000D5070000}"/>
+    <hyperlink ref="I462" r:id="rId1997" xr:uid="{00000000-0004-0000-0000-0000D6070000}"/>
+    <hyperlink ref="K462" r:id="rId1998" xr:uid="{00000000-0004-0000-0000-0000D7070000}"/>
+    <hyperlink ref="L462" r:id="rId1999" xr:uid="{00000000-0004-0000-0000-0000D8070000}"/>
+    <hyperlink ref="A463" r:id="rId2000" xr:uid="{00000000-0004-0000-0000-0000D9070000}"/>
+    <hyperlink ref="E463" r:id="rId2001" xr:uid="{00000000-0004-0000-0000-0000DA070000}"/>
+    <hyperlink ref="I463" r:id="rId2002" xr:uid="{00000000-0004-0000-0000-0000DB070000}"/>
+    <hyperlink ref="L463" r:id="rId2003" xr:uid="{00000000-0004-0000-0000-0000DC070000}"/>
+    <hyperlink ref="A464" r:id="rId2004" xr:uid="{00000000-0004-0000-0000-0000DD070000}"/>
+    <hyperlink ref="E464" r:id="rId2005" xr:uid="{00000000-0004-0000-0000-0000DE070000}"/>
+    <hyperlink ref="I464" r:id="rId2006" xr:uid="{00000000-0004-0000-0000-0000DF070000}"/>
+    <hyperlink ref="L464" r:id="rId2007" xr:uid="{00000000-0004-0000-0000-0000E0070000}"/>
+    <hyperlink ref="A465" r:id="rId2008" xr:uid="{00000000-0004-0000-0000-0000E1070000}"/>
+    <hyperlink ref="I465" r:id="rId2009" xr:uid="{00000000-0004-0000-0000-0000E2070000}"/>
+    <hyperlink ref="L465" r:id="rId2010" xr:uid="{00000000-0004-0000-0000-0000E3070000}"/>
+    <hyperlink ref="A466" r:id="rId2011" xr:uid="{00000000-0004-0000-0000-0000E4070000}"/>
+    <hyperlink ref="E466" r:id="rId2012" xr:uid="{00000000-0004-0000-0000-0000E5070000}"/>
+    <hyperlink ref="I466" r:id="rId2013" xr:uid="{00000000-0004-0000-0000-0000E6070000}"/>
+    <hyperlink ref="K466" r:id="rId2014" xr:uid="{00000000-0004-0000-0000-0000E7070000}"/>
+    <hyperlink ref="L466" r:id="rId2015" xr:uid="{00000000-0004-0000-0000-0000E8070000}"/>
+    <hyperlink ref="A467" r:id="rId2016" xr:uid="{00000000-0004-0000-0000-0000E9070000}"/>
+    <hyperlink ref="E467" r:id="rId2017" xr:uid="{00000000-0004-0000-0000-0000EA070000}"/>
+    <hyperlink ref="I467" r:id="rId2018" xr:uid="{00000000-0004-0000-0000-0000EB070000}"/>
+    <hyperlink ref="L467" r:id="rId2019" xr:uid="{00000000-0004-0000-0000-0000EC070000}"/>
+    <hyperlink ref="A468" r:id="rId2020" xr:uid="{00000000-0004-0000-0000-0000ED070000}"/>
+    <hyperlink ref="E468" r:id="rId2021" xr:uid="{00000000-0004-0000-0000-0000EE070000}"/>
+    <hyperlink ref="K468" r:id="rId2022" xr:uid="{00000000-0004-0000-0000-0000EF070000}"/>
+    <hyperlink ref="L468" r:id="rId2023" xr:uid="{00000000-0004-0000-0000-0000F0070000}"/>
+    <hyperlink ref="A469" r:id="rId2024" xr:uid="{00000000-0004-0000-0000-0000F1070000}"/>
+    <hyperlink ref="E469" r:id="rId2025" xr:uid="{00000000-0004-0000-0000-0000F2070000}"/>
+    <hyperlink ref="I469" r:id="rId2026" xr:uid="{00000000-0004-0000-0000-0000F3070000}"/>
+    <hyperlink ref="K469" r:id="rId2027" xr:uid="{00000000-0004-0000-0000-0000F4070000}"/>
+    <hyperlink ref="L469" r:id="rId2028" xr:uid="{00000000-0004-0000-0000-0000F5070000}"/>
+    <hyperlink ref="A470" r:id="rId2029" xr:uid="{00000000-0004-0000-0000-0000F6070000}"/>
+    <hyperlink ref="E470" r:id="rId2030" xr:uid="{00000000-0004-0000-0000-0000F7070000}"/>
+    <hyperlink ref="I470" r:id="rId2031" xr:uid="{00000000-0004-0000-0000-0000F8070000}"/>
+    <hyperlink ref="K470" r:id="rId2032" xr:uid="{00000000-0004-0000-0000-0000F9070000}"/>
+    <hyperlink ref="L470" r:id="rId2033" xr:uid="{00000000-0004-0000-0000-0000FA070000}"/>
+    <hyperlink ref="A471" r:id="rId2034" xr:uid="{00000000-0004-0000-0000-0000FB070000}"/>
+    <hyperlink ref="E471" r:id="rId2035" xr:uid="{00000000-0004-0000-0000-0000FC070000}"/>
+    <hyperlink ref="I471" r:id="rId2036" xr:uid="{00000000-0004-0000-0000-0000FD070000}"/>
+    <hyperlink ref="K471" r:id="rId2037" xr:uid="{00000000-0004-0000-0000-0000FE070000}"/>
+    <hyperlink ref="L471" r:id="rId2038" xr:uid="{00000000-0004-0000-0000-0000FF070000}"/>
+    <hyperlink ref="A472" r:id="rId2039" xr:uid="{00000000-0004-0000-0000-000000080000}"/>
+    <hyperlink ref="E472" r:id="rId2040" xr:uid="{00000000-0004-0000-0000-000001080000}"/>
+    <hyperlink ref="I472" r:id="rId2041" xr:uid="{00000000-0004-0000-0000-000002080000}"/>
+    <hyperlink ref="L472" r:id="rId2042" xr:uid="{00000000-0004-0000-0000-000003080000}"/>
+    <hyperlink ref="A473" r:id="rId2043" xr:uid="{00000000-0004-0000-0000-000004080000}"/>
+    <hyperlink ref="E473" r:id="rId2044" xr:uid="{00000000-0004-0000-0000-000005080000}"/>
+    <hyperlink ref="I473" r:id="rId2045" xr:uid="{00000000-0004-0000-0000-000006080000}"/>
+    <hyperlink ref="K473" r:id="rId2046" xr:uid="{00000000-0004-0000-0000-000007080000}"/>
+    <hyperlink ref="L473" r:id="rId2047" xr:uid="{00000000-0004-0000-0000-000008080000}"/>
+    <hyperlink ref="A474" r:id="rId2048" xr:uid="{00000000-0004-0000-0000-000009080000}"/>
+    <hyperlink ref="E474" r:id="rId2049" xr:uid="{00000000-0004-0000-0000-00000A080000}"/>
+    <hyperlink ref="I474" r:id="rId2050" xr:uid="{00000000-0004-0000-0000-00000B080000}"/>
+    <hyperlink ref="K474" r:id="rId2051" xr:uid="{00000000-0004-0000-0000-00000C080000}"/>
+    <hyperlink ref="L474" r:id="rId2052" xr:uid="{00000000-0004-0000-0000-00000D080000}"/>
+    <hyperlink ref="A475" r:id="rId2053" xr:uid="{00000000-0004-0000-0000-00000E080000}"/>
+    <hyperlink ref="L475" r:id="rId2054" xr:uid="{00000000-0004-0000-0000-00000F080000}"/>
+    <hyperlink ref="A476" r:id="rId2055" xr:uid="{00000000-0004-0000-0000-000010080000}"/>
+    <hyperlink ref="E476" r:id="rId2056" xr:uid="{00000000-0004-0000-0000-000011080000}"/>
+    <hyperlink ref="I476" r:id="rId2057" xr:uid="{00000000-0004-0000-0000-000012080000}"/>
+    <hyperlink ref="K476" r:id="rId2058" xr:uid="{00000000-0004-0000-0000-000013080000}"/>
+    <hyperlink ref="L476" r:id="rId2059" xr:uid="{00000000-0004-0000-0000-000014080000}"/>
+    <hyperlink ref="A478" r:id="rId2060" xr:uid="{00000000-0004-0000-0000-000015080000}"/>
+    <hyperlink ref="I478" r:id="rId2061" xr:uid="{00000000-0004-0000-0000-000016080000}"/>
+    <hyperlink ref="K478" r:id="rId2062" xr:uid="{00000000-0004-0000-0000-000017080000}"/>
+    <hyperlink ref="L478" r:id="rId2063" xr:uid="{00000000-0004-0000-0000-000018080000}"/>
+    <hyperlink ref="A479" r:id="rId2064" xr:uid="{00000000-0004-0000-0000-000019080000}"/>
+    <hyperlink ref="E479" r:id="rId2065" xr:uid="{00000000-0004-0000-0000-00001A080000}"/>
+    <hyperlink ref="I479" r:id="rId2066" xr:uid="{00000000-0004-0000-0000-00001B080000}"/>
+    <hyperlink ref="K479" r:id="rId2067" xr:uid="{00000000-0004-0000-0000-00001C080000}"/>
+    <hyperlink ref="L479" r:id="rId2068" xr:uid="{00000000-0004-0000-0000-00001D080000}"/>
+    <hyperlink ref="A480" r:id="rId2069" xr:uid="{00000000-0004-0000-0000-00001E080000}"/>
+    <hyperlink ref="E480" r:id="rId2070" xr:uid="{00000000-0004-0000-0000-00001F080000}"/>
+    <hyperlink ref="I480" r:id="rId2071" xr:uid="{00000000-0004-0000-0000-000020080000}"/>
+    <hyperlink ref="K480" r:id="rId2072" xr:uid="{00000000-0004-0000-0000-000021080000}"/>
+    <hyperlink ref="L480" r:id="rId2073" xr:uid="{00000000-0004-0000-0000-000022080000}"/>
+    <hyperlink ref="A481" r:id="rId2074" xr:uid="{00000000-0004-0000-0000-000023080000}"/>
+    <hyperlink ref="I481" r:id="rId2075" xr:uid="{00000000-0004-0000-0000-000024080000}"/>
+    <hyperlink ref="K481" r:id="rId2076" xr:uid="{00000000-0004-0000-0000-000025080000}"/>
+    <hyperlink ref="L481" r:id="rId2077" xr:uid="{00000000-0004-0000-0000-000026080000}"/>
+    <hyperlink ref="A482" r:id="rId2078" xr:uid="{00000000-0004-0000-0000-000027080000}"/>
+    <hyperlink ref="E482" r:id="rId2079" xr:uid="{00000000-0004-0000-0000-000028080000}"/>
+    <hyperlink ref="I482" r:id="rId2080" xr:uid="{00000000-0004-0000-0000-000029080000}"/>
+    <hyperlink ref="L482" r:id="rId2081" xr:uid="{00000000-0004-0000-0000-00002A080000}"/>
+    <hyperlink ref="A483" r:id="rId2082" xr:uid="{00000000-0004-0000-0000-00002B080000}"/>
+    <hyperlink ref="E483" r:id="rId2083" xr:uid="{00000000-0004-0000-0000-00002C080000}"/>
+    <hyperlink ref="I483" r:id="rId2084" xr:uid="{00000000-0004-0000-0000-00002D080000}"/>
+    <hyperlink ref="K483" r:id="rId2085" xr:uid="{00000000-0004-0000-0000-00002E080000}"/>
+    <hyperlink ref="L483" r:id="rId2086" xr:uid="{00000000-0004-0000-0000-00002F080000}"/>
+    <hyperlink ref="A484" r:id="rId2087" xr:uid="{00000000-0004-0000-0000-000030080000}"/>
+    <hyperlink ref="I484" r:id="rId2088" xr:uid="{00000000-0004-0000-0000-000031080000}"/>
+    <hyperlink ref="L484" r:id="rId2089" xr:uid="{00000000-0004-0000-0000-000032080000}"/>
+    <hyperlink ref="A485" r:id="rId2090" xr:uid="{00000000-0004-0000-0000-000033080000}"/>
+    <hyperlink ref="I485" r:id="rId2091" xr:uid="{00000000-0004-0000-0000-000034080000}"/>
+    <hyperlink ref="L485" r:id="rId2092" xr:uid="{00000000-0004-0000-0000-000035080000}"/>
+    <hyperlink ref="A486" r:id="rId2093" xr:uid="{00000000-0004-0000-0000-000036080000}"/>
+    <hyperlink ref="E486" r:id="rId2094" xr:uid="{00000000-0004-0000-0000-000037080000}"/>
+    <hyperlink ref="I486" r:id="rId2095" xr:uid="{00000000-0004-0000-0000-000038080000}"/>
+    <hyperlink ref="K486" r:id="rId2096" xr:uid="{00000000-0004-0000-0000-000039080000}"/>
+    <hyperlink ref="L486" r:id="rId2097" xr:uid="{00000000-0004-0000-0000-00003A080000}"/>
+    <hyperlink ref="A487" r:id="rId2098" xr:uid="{00000000-0004-0000-0000-00003B080000}"/>
+    <hyperlink ref="I487" r:id="rId2099" xr:uid="{00000000-0004-0000-0000-00003C080000}"/>
+    <hyperlink ref="K487" r:id="rId2100" xr:uid="{00000000-0004-0000-0000-00003D080000}"/>
+    <hyperlink ref="L487" r:id="rId2101" xr:uid="{00000000-0004-0000-0000-00003E080000}"/>
+    <hyperlink ref="A488" r:id="rId2102" xr:uid="{00000000-0004-0000-0000-00003F080000}"/>
+    <hyperlink ref="E488" r:id="rId2103" xr:uid="{00000000-0004-0000-0000-000040080000}"/>
+    <hyperlink ref="I488" r:id="rId2104" xr:uid="{00000000-0004-0000-0000-000041080000}"/>
+    <hyperlink ref="K488" r:id="rId2105" xr:uid="{00000000-0004-0000-0000-000042080000}"/>
+    <hyperlink ref="L488" r:id="rId2106" xr:uid="{00000000-0004-0000-0000-000043080000}"/>
+    <hyperlink ref="A489" r:id="rId2107" xr:uid="{00000000-0004-0000-0000-000044080000}"/>
+    <hyperlink ref="I489" r:id="rId2108" xr:uid="{00000000-0004-0000-0000-000045080000}"/>
+    <hyperlink ref="L489" r:id="rId2109" xr:uid="{00000000-0004-0000-0000-000046080000}"/>
+    <hyperlink ref="A490" r:id="rId2110" xr:uid="{00000000-0004-0000-0000-000047080000}"/>
+    <hyperlink ref="E490" r:id="rId2111" xr:uid="{00000000-0004-0000-0000-000048080000}"/>
+    <hyperlink ref="I490" r:id="rId2112" xr:uid="{00000000-0004-0000-0000-000049080000}"/>
+    <hyperlink ref="L490" r:id="rId2113" xr:uid="{00000000-0004-0000-0000-00004A080000}"/>
+    <hyperlink ref="A491" r:id="rId2114" xr:uid="{00000000-0004-0000-0000-00004B080000}"/>
+    <hyperlink ref="I491" r:id="rId2115" xr:uid="{00000000-0004-0000-0000-00004C080000}"/>
+    <hyperlink ref="K491" r:id="rId2116" xr:uid="{00000000-0004-0000-0000-00004D080000}"/>
+    <hyperlink ref="L491" r:id="rId2117" xr:uid="{00000000-0004-0000-0000-00004E080000}"/>
+    <hyperlink ref="A492" r:id="rId2118" xr:uid="{00000000-0004-0000-0000-00004F080000}"/>
+    <hyperlink ref="E492" r:id="rId2119" xr:uid="{00000000-0004-0000-0000-000050080000}"/>
+    <hyperlink ref="I492" r:id="rId2120" xr:uid="{00000000-0004-0000-0000-000051080000}"/>
+    <hyperlink ref="L492" r:id="rId2121" xr:uid="{00000000-0004-0000-0000-000052080000}"/>
+    <hyperlink ref="A493" r:id="rId2122" xr:uid="{00000000-0004-0000-0000-000053080000}"/>
+    <hyperlink ref="E493" r:id="rId2123" xr:uid="{00000000-0004-0000-0000-000054080000}"/>
+    <hyperlink ref="I493" r:id="rId2124" xr:uid="{00000000-0004-0000-0000-000055080000}"/>
+    <hyperlink ref="K493" r:id="rId2125" xr:uid="{00000000-0004-0000-0000-000056080000}"/>
+    <hyperlink ref="L493" r:id="rId2126" xr:uid="{00000000-0004-0000-0000-000057080000}"/>
+    <hyperlink ref="A494" r:id="rId2127" xr:uid="{00000000-0004-0000-0000-000058080000}"/>
+    <hyperlink ref="E494" r:id="rId2128" xr:uid="{00000000-0004-0000-0000-000059080000}"/>
+    <hyperlink ref="I494" r:id="rId2129" xr:uid="{00000000-0004-0000-0000-00005A080000}"/>
+    <hyperlink ref="K494" r:id="rId2130" xr:uid="{00000000-0004-0000-0000-00005B080000}"/>
+    <hyperlink ref="L494" r:id="rId2131" xr:uid="{00000000-0004-0000-0000-00005C080000}"/>
+    <hyperlink ref="A495" r:id="rId2132" xr:uid="{00000000-0004-0000-0000-00005D080000}"/>
+    <hyperlink ref="E495" r:id="rId2133" xr:uid="{00000000-0004-0000-0000-00005E080000}"/>
+    <hyperlink ref="I495" r:id="rId2134" xr:uid="{00000000-0004-0000-0000-00005F080000}"/>
+    <hyperlink ref="K495" r:id="rId2135" xr:uid="{00000000-0004-0000-0000-000060080000}"/>
+    <hyperlink ref="L495" r:id="rId2136" xr:uid="{00000000-0004-0000-0000-000061080000}"/>
+    <hyperlink ref="A496" r:id="rId2137" xr:uid="{00000000-0004-0000-0000-000062080000}"/>
+    <hyperlink ref="I496" r:id="rId2138" xr:uid="{00000000-0004-0000-0000-000063080000}"/>
+    <hyperlink ref="A497" r:id="rId2139" xr:uid="{00000000-0004-0000-0000-000064080000}"/>
+    <hyperlink ref="I497" r:id="rId2140" xr:uid="{00000000-0004-0000-0000-000065080000}"/>
+    <hyperlink ref="K497" r:id="rId2141" xr:uid="{00000000-0004-0000-0000-000066080000}"/>
+    <hyperlink ref="L497" r:id="rId2142" xr:uid="{00000000-0004-0000-0000-000067080000}"/>
+    <hyperlink ref="A498" r:id="rId2143" xr:uid="{00000000-0004-0000-0000-000068080000}"/>
+    <hyperlink ref="I498" r:id="rId2144" xr:uid="{00000000-0004-0000-0000-000069080000}"/>
+    <hyperlink ref="L498" r:id="rId2145" xr:uid="{00000000-0004-0000-0000-00006A080000}"/>
+    <hyperlink ref="A499" r:id="rId2146" xr:uid="{00000000-0004-0000-0000-00006B080000}"/>
+    <hyperlink ref="E499" r:id="rId2147" xr:uid="{00000000-0004-0000-0000-00006C080000}"/>
+    <hyperlink ref="I499" r:id="rId2148" xr:uid="{00000000-0004-0000-0000-00006D080000}"/>
+    <hyperlink ref="L499" r:id="rId2149" xr:uid="{00000000-0004-0000-0000-00006E080000}"/>
+    <hyperlink ref="A500" r:id="rId2150" xr:uid="{00000000-0004-0000-0000-00006F080000}"/>
+    <hyperlink ref="K500" r:id="rId2151" xr:uid="{00000000-0004-0000-0000-000070080000}"/>
+    <hyperlink ref="L500" r:id="rId2152" xr:uid="{00000000-0004-0000-0000-000071080000}"/>
+    <hyperlink ref="A501" r:id="rId2153" xr:uid="{00000000-0004-0000-0000-000072080000}"/>
+    <hyperlink ref="E501" r:id="rId2154" xr:uid="{00000000-0004-0000-0000-000073080000}"/>
+    <hyperlink ref="I501" r:id="rId2155" xr:uid="{00000000-0004-0000-0000-000074080000}"/>
+    <hyperlink ref="K501" r:id="rId2156" xr:uid="{00000000-0004-0000-0000-000075080000}"/>
+    <hyperlink ref="L501" r:id="rId2157" xr:uid="{00000000-0004-0000-0000-000076080000}"/>
+    <hyperlink ref="A502" r:id="rId2158" xr:uid="{00000000-0004-0000-0000-000077080000}"/>
+    <hyperlink ref="I502" r:id="rId2159" xr:uid="{00000000-0004-0000-0000-000078080000}"/>
+    <hyperlink ref="L502" r:id="rId2160" xr:uid="{00000000-0004-0000-0000-000079080000}"/>
+    <hyperlink ref="A503" r:id="rId2161" xr:uid="{00000000-0004-0000-0000-00007A080000}"/>
+    <hyperlink ref="I503" r:id="rId2162" xr:uid="{00000000-0004-0000-0000-00007B080000}"/>
+    <hyperlink ref="L503" r:id="rId2163" xr:uid="{00000000-0004-0000-0000-00007C080000}"/>
+    <hyperlink ref="A504" r:id="rId2164" xr:uid="{00000000-0004-0000-0000-00007D080000}"/>
+    <hyperlink ref="I504" r:id="rId2165" xr:uid="{00000000-0004-0000-0000-00007E080000}"/>
+    <hyperlink ref="L504" r:id="rId2166" xr:uid="{00000000-0004-0000-0000-00007F080000}"/>
+    <hyperlink ref="A505" r:id="rId2167" xr:uid="{00000000-0004-0000-0000-000080080000}"/>
+    <hyperlink ref="E505" r:id="rId2168" xr:uid="{00000000-0004-0000-0000-000081080000}"/>
+    <hyperlink ref="I505" r:id="rId2169" xr:uid="{00000000-0004-0000-0000-000082080000}"/>
+    <hyperlink ref="K505" r:id="rId2170" xr:uid="{00000000-0004-0000-0000-000083080000}"/>
+    <hyperlink ref="L505" r:id="rId2171" xr:uid="{00000000-0004-0000-0000-000084080000}"/>
+    <hyperlink ref="A506" r:id="rId2172" xr:uid="{00000000-0004-0000-0000-000085080000}"/>
+    <hyperlink ref="I506" r:id="rId2173" xr:uid="{00000000-0004-0000-0000-000086080000}"/>
+    <hyperlink ref="L506" r:id="rId2174" xr:uid="{00000000-0004-0000-0000-000087080000}"/>
+    <hyperlink ref="A507" r:id="rId2175" xr:uid="{00000000-0004-0000-0000-000088080000}"/>
+    <hyperlink ref="E507" r:id="rId2176" xr:uid="{00000000-0004-0000-0000-000089080000}"/>
+    <hyperlink ref="L507" r:id="rId2177" xr:uid="{00000000-0004-0000-0000-00008A080000}"/>
+    <hyperlink ref="A508" r:id="rId2178" xr:uid="{00000000-0004-0000-0000-00008B080000}"/>
+    <hyperlink ref="E508" r:id="rId2179" xr:uid="{00000000-0004-0000-0000-00008C080000}"/>
+    <hyperlink ref="L508" r:id="rId2180" xr:uid="{00000000-0004-0000-0000-00008D080000}"/>
+    <hyperlink ref="A509" r:id="rId2181" xr:uid="{00000000-0004-0000-0000-00008E080000}"/>
+    <hyperlink ref="E509" r:id="rId2182" xr:uid="{00000000-0004-0000-0000-00008F080000}"/>
+    <hyperlink ref="L509" r:id="rId2183" xr:uid="{00000000-0004-0000-0000-000090080000}"/>
+    <hyperlink ref="A510" r:id="rId2184" xr:uid="{00000000-0004-0000-0000-000091080000}"/>
+    <hyperlink ref="E510" r:id="rId2185" xr:uid="{00000000-0004-0000-0000-000092080000}"/>
+    <hyperlink ref="I510" r:id="rId2186" xr:uid="{00000000-0004-0000-0000-000093080000}"/>
+    <hyperlink ref="L510" r:id="rId2187" xr:uid="{00000000-0004-0000-0000-000094080000}"/>
+    <hyperlink ref="A512" r:id="rId2188" xr:uid="{00000000-0004-0000-0000-000095080000}"/>
+    <hyperlink ref="E512" r:id="rId2189" xr:uid="{00000000-0004-0000-0000-000096080000}"/>
+    <hyperlink ref="K512" r:id="rId2190" xr:uid="{00000000-0004-0000-0000-000097080000}"/>
+    <hyperlink ref="L512" r:id="rId2191" xr:uid="{00000000-0004-0000-0000-000098080000}"/>
+    <hyperlink ref="A513" r:id="rId2192" xr:uid="{00000000-0004-0000-0000-000099080000}"/>
+    <hyperlink ref="I513" r:id="rId2193" xr:uid="{00000000-0004-0000-0000-00009A080000}"/>
+    <hyperlink ref="L513" r:id="rId2194" xr:uid="{00000000-0004-0000-0000-00009B080000}"/>
+    <hyperlink ref="A514" r:id="rId2195" xr:uid="{00000000-0004-0000-0000-00009C080000}"/>
+    <hyperlink ref="I514" r:id="rId2196" xr:uid="{00000000-0004-0000-0000-00009D080000}"/>
+    <hyperlink ref="L514" r:id="rId2197" xr:uid="{00000000-0004-0000-0000-00009E080000}"/>
+    <hyperlink ref="A515" r:id="rId2198" xr:uid="{00000000-0004-0000-0000-00009F080000}"/>
+    <hyperlink ref="E515" r:id="rId2199" xr:uid="{00000000-0004-0000-0000-0000A0080000}"/>
+    <hyperlink ref="I515" r:id="rId2200" xr:uid="{00000000-0004-0000-0000-0000A1080000}"/>
+    <hyperlink ref="L515" r:id="rId2201" xr:uid="{00000000-0004-0000-0000-0000A2080000}"/>
+    <hyperlink ref="A516" r:id="rId2202" xr:uid="{00000000-0004-0000-0000-0000A3080000}"/>
+    <hyperlink ref="E516" r:id="rId2203" xr:uid="{00000000-0004-0000-0000-0000A4080000}"/>
+    <hyperlink ref="I516" r:id="rId2204" xr:uid="{00000000-0004-0000-0000-0000A5080000}"/>
+    <hyperlink ref="L516" r:id="rId2205" xr:uid="{00000000-0004-0000-0000-0000A6080000}"/>
+    <hyperlink ref="A517" r:id="rId2206" xr:uid="{00000000-0004-0000-0000-0000A7080000}"/>
+    <hyperlink ref="E517" r:id="rId2207" xr:uid="{00000000-0004-0000-0000-0000A8080000}"/>
+    <hyperlink ref="A518" r:id="rId2208" xr:uid="{00000000-0004-0000-0000-0000A9080000}"/>
+    <hyperlink ref="E518" r:id="rId2209" xr:uid="{00000000-0004-0000-0000-0000AA080000}"/>
+    <hyperlink ref="I518" r:id="rId2210" xr:uid="{00000000-0004-0000-0000-0000AB080000}"/>
+    <hyperlink ref="L518" r:id="rId2211" xr:uid="{00000000-0004-0000-0000-0000AC080000}"/>
+    <hyperlink ref="A519" r:id="rId2212" xr:uid="{00000000-0004-0000-0000-0000AD080000}"/>
+    <hyperlink ref="E519" r:id="rId2213" xr:uid="{00000000-0004-0000-0000-0000AE080000}"/>
+    <hyperlink ref="I519" r:id="rId2214" xr:uid="{00000000-0004-0000-0000-0000AF080000}"/>
+    <hyperlink ref="L519" r:id="rId2215" xr:uid="{00000000-0004-0000-0000-0000B0080000}"/>
+    <hyperlink ref="A520" r:id="rId2216" xr:uid="{00000000-0004-0000-0000-0000B1080000}"/>
+    <hyperlink ref="E520" r:id="rId2217" xr:uid="{00000000-0004-0000-0000-0000B2080000}"/>
+    <hyperlink ref="I520" r:id="rId2218" xr:uid="{00000000-0004-0000-0000-0000B3080000}"/>
+    <hyperlink ref="L520" r:id="rId2219" xr:uid="{00000000-0004-0000-0000-0000B4080000}"/>
+    <hyperlink ref="A521" r:id="rId2220" xr:uid="{00000000-0004-0000-0000-0000B5080000}"/>
+    <hyperlink ref="E521" r:id="rId2221" xr:uid="{00000000-0004-0000-0000-0000B6080000}"/>
+    <hyperlink ref="I521" r:id="rId2222" xr:uid="{00000000-0004-0000-0000-0000B7080000}"/>
+    <hyperlink ref="L521" r:id="rId2223" xr:uid="{00000000-0004-0000-0000-0000B8080000}"/>
+    <hyperlink ref="A522" r:id="rId2224" xr:uid="{00000000-0004-0000-0000-0000B9080000}"/>
+    <hyperlink ref="E522" r:id="rId2225" xr:uid="{00000000-0004-0000-0000-0000BA080000}"/>
+    <hyperlink ref="I522" r:id="rId2226" xr:uid="{00000000-0004-0000-0000-0000BB080000}"/>
+    <hyperlink ref="L522" r:id="rId2227" xr:uid="{00000000-0004-0000-0000-0000BC080000}"/>
+    <hyperlink ref="A524" r:id="rId2228" xr:uid="{00000000-0004-0000-0000-0000BD080000}"/>
+    <hyperlink ref="E524" r:id="rId2229" xr:uid="{00000000-0004-0000-0000-0000BE080000}"/>
+    <hyperlink ref="I524" r:id="rId2230" xr:uid="{00000000-0004-0000-0000-0000BF080000}"/>
+    <hyperlink ref="K524" r:id="rId2231" xr:uid="{00000000-0004-0000-0000-0000C0080000}"/>
+    <hyperlink ref="L524" r:id="rId2232" xr:uid="{00000000-0004-0000-0000-0000C1080000}"/>
+    <hyperlink ref="A525" r:id="rId2233" xr:uid="{00000000-0004-0000-0000-0000C2080000}"/>
+    <hyperlink ref="E525" r:id="rId2234" xr:uid="{00000000-0004-0000-0000-0000C3080000}"/>
+    <hyperlink ref="I525" r:id="rId2235" xr:uid="{00000000-0004-0000-0000-0000C4080000}"/>
+    <hyperlink ref="K525" r:id="rId2236" xr:uid="{00000000-0004-0000-0000-0000C5080000}"/>
+    <hyperlink ref="L525" r:id="rId2237" xr:uid="{00000000-0004-0000-0000-0000C6080000}"/>
+    <hyperlink ref="A526" r:id="rId2238" xr:uid="{00000000-0004-0000-0000-0000C7080000}"/>
+    <hyperlink ref="E526" r:id="rId2239" xr:uid="{00000000-0004-0000-0000-0000C8080000}"/>
+    <hyperlink ref="I526" r:id="rId2240" xr:uid="{00000000-0004-0000-0000-0000C9080000}"/>
+    <hyperlink ref="K526" r:id="rId2241" xr:uid="{00000000-0004-0000-0000-0000CA080000}"/>
+    <hyperlink ref="L526" r:id="rId2242" xr:uid="{00000000-0004-0000-0000-0000CB080000}"/>
+    <hyperlink ref="A527" r:id="rId2243" xr:uid="{00000000-0004-0000-0000-0000CC080000}"/>
+    <hyperlink ref="E527" r:id="rId2244" xr:uid="{00000000-0004-0000-0000-0000CD080000}"/>
+    <hyperlink ref="I527" r:id="rId2245" xr:uid="{00000000-0004-0000-0000-0000CE080000}"/>
+    <hyperlink ref="L527" r:id="rId2246" xr:uid="{00000000-0004-0000-0000-0000CF080000}"/>
+    <hyperlink ref="A529" r:id="rId2247" xr:uid="{00000000-0004-0000-0000-0000D0080000}"/>
+    <hyperlink ref="E529" r:id="rId2248" xr:uid="{00000000-0004-0000-0000-0000D1080000}"/>
+    <hyperlink ref="I529" r:id="rId2249" xr:uid="{00000000-0004-0000-0000-0000D2080000}"/>
+    <hyperlink ref="L529" r:id="rId2250" xr:uid="{00000000-0004-0000-0000-0000D3080000}"/>
+    <hyperlink ref="A530" r:id="rId2251" xr:uid="{00000000-0004-0000-0000-0000D4080000}"/>
+    <hyperlink ref="E530" r:id="rId2252" xr:uid="{00000000-0004-0000-0000-0000D5080000}"/>
+    <hyperlink ref="I530" r:id="rId2253" xr:uid="{00000000-0004-0000-0000-0000D6080000}"/>
+    <hyperlink ref="L530" r:id="rId2254" xr:uid="{00000000-0004-0000-0000-0000D7080000}"/>
+    <hyperlink ref="A531" r:id="rId2255" xr:uid="{00000000-0004-0000-0000-0000D8080000}"/>
+    <hyperlink ref="E531" r:id="rId2256" xr:uid="{00000000-0004-0000-0000-0000D9080000}"/>
+    <hyperlink ref="I531" r:id="rId2257" xr:uid="{00000000-0004-0000-0000-0000DA080000}"/>
+    <hyperlink ref="L531" r:id="rId2258" xr:uid="{00000000-0004-0000-0000-0000DB080000}"/>
+    <hyperlink ref="A532" r:id="rId2259" xr:uid="{00000000-0004-0000-0000-0000DC080000}"/>
+    <hyperlink ref="E532" r:id="rId2260" xr:uid="{00000000-0004-0000-0000-0000DD080000}"/>
+    <hyperlink ref="I532" r:id="rId2261" xr:uid="{00000000-0004-0000-0000-0000DE080000}"/>
+    <hyperlink ref="L532" r:id="rId2262" xr:uid="{00000000-0004-0000-0000-0000DF080000}"/>
+    <hyperlink ref="A533" r:id="rId2263" xr:uid="{00000000-0004-0000-0000-0000E0080000}"/>
+    <hyperlink ref="E533" r:id="rId2264" xr:uid="{00000000-0004-0000-0000-0000E1080000}"/>
+    <hyperlink ref="K533" r:id="rId2265" xr:uid="{00000000-0004-0000-0000-0000E2080000}"/>
+    <hyperlink ref="L533" r:id="rId2266" xr:uid="{00000000-0004-0000-0000-0000E3080000}"/>
+    <hyperlink ref="A534" r:id="rId2267" xr:uid="{00000000-0004-0000-0000-0000E4080000}"/>
+    <hyperlink ref="I534" r:id="rId2268" xr:uid="{00000000-0004-0000-0000-0000E5080000}"/>
+    <hyperlink ref="K534" r:id="rId2269" xr:uid="{00000000-0004-0000-0000-0000E6080000}"/>
+    <hyperlink ref="L534" r:id="rId2270" xr:uid="{00000000-0004-0000-0000-0000E7080000}"/>
+    <hyperlink ref="A535" r:id="rId2271" xr:uid="{00000000-0004-0000-0000-0000E8080000}"/>
+    <hyperlink ref="I535" r:id="rId2272" xr:uid="{00000000-0004-0000-0000-0000E9080000}"/>
+    <hyperlink ref="L535" r:id="rId2273" xr:uid="{00000000-0004-0000-0000-0000EA080000}"/>
+    <hyperlink ref="A536" r:id="rId2274" xr:uid="{00000000-0004-0000-0000-0000EB080000}"/>
+    <hyperlink ref="E536" r:id="rId2275" xr:uid="{00000000-0004-0000-0000-0000EC080000}"/>
+    <hyperlink ref="I536" r:id="rId2276" xr:uid="{00000000-0004-0000-0000-0000ED080000}"/>
+    <hyperlink ref="L536" r:id="rId2277" xr:uid="{00000000-0004-0000-0000-0000EE080000}"/>
+    <hyperlink ref="A538" r:id="rId2278" xr:uid="{00000000-0004-0000-0000-0000EF080000}"/>
+    <hyperlink ref="E538" r:id="rId2279" xr:uid="{00000000-0004-0000-0000-0000F0080000}"/>
+    <hyperlink ref="I538" r:id="rId2280" xr:uid="{00000000-0004-0000-0000-0000F1080000}"/>
+    <hyperlink ref="L538" r:id="rId2281" xr:uid="{00000000-0004-0000-0000-0000F2080000}"/>
+    <hyperlink ref="A539" r:id="rId2282" xr:uid="{00000000-0004-0000-0000-0000F3080000}"/>
+    <hyperlink ref="I539" r:id="rId2283" xr:uid="{00000000-0004-0000-0000-0000F4080000}"/>
+    <hyperlink ref="K539" r:id="rId2284" xr:uid="{00000000-0004-0000-0000-0000F5080000}"/>
+    <hyperlink ref="A540" r:id="rId2285" xr:uid="{00000000-0004-0000-0000-0000F6080000}"/>
+    <hyperlink ref="E540" r:id="rId2286" xr:uid="{00000000-0004-0000-0000-0000F7080000}"/>
+    <hyperlink ref="I540" r:id="rId2287" xr:uid="{00000000-0004-0000-0000-0000F8080000}"/>
+    <hyperlink ref="K540" r:id="rId2288" xr:uid="{00000000-0004-0000-0000-0000F9080000}"/>
+    <hyperlink ref="L540" r:id="rId2289" xr:uid="{00000000-0004-0000-0000-0000FA080000}"/>
+    <hyperlink ref="A541" r:id="rId2290" xr:uid="{00000000-0004-0000-0000-0000FB080000}"/>
+    <hyperlink ref="E541" r:id="rId2291" xr:uid="{00000000-0004-0000-0000-0000FC080000}"/>
+    <hyperlink ref="I541" r:id="rId2292" xr:uid="{00000000-0004-0000-0000-0000FD080000}"/>
+    <hyperlink ref="L541" r:id="rId2293" xr:uid="{00000000-0004-0000-0000-0000FE080000}"/>
+    <hyperlink ref="A542" r:id="rId2294" xr:uid="{00000000-0004-0000-0000-0000FF080000}"/>
+    <hyperlink ref="E542" r:id="rId2295" xr:uid="{00000000-0004-0000-0000-000000090000}"/>
+    <hyperlink ref="I542" r:id="rId2296" xr:uid="{00000000-0004-0000-0000-000001090000}"/>
+    <hyperlink ref="L542" r:id="rId2297" xr:uid="{00000000-0004-0000-0000-000002090000}"/>
+    <hyperlink ref="A543" r:id="rId2298" xr:uid="{00000000-0004-0000-0000-000003090000}"/>
+    <hyperlink ref="E543" r:id="rId2299" xr:uid="{00000000-0004-0000-0000-000004090000}"/>
+    <hyperlink ref="I543" r:id="rId2300" xr:uid="{00000000-0004-0000-0000-000005090000}"/>
+    <hyperlink ref="L543" r:id="rId2301" xr:uid="{00000000-0004-0000-0000-000006090000}"/>
+    <hyperlink ref="A544" r:id="rId2302" xr:uid="{00000000-0004-0000-0000-000007090000}"/>
+    <hyperlink ref="I544" r:id="rId2303" xr:uid="{00000000-0004-0000-0000-000008090000}"/>
+    <hyperlink ref="K544" r:id="rId2304" xr:uid="{00000000-0004-0000-0000-000009090000}"/>
+    <hyperlink ref="L544" r:id="rId2305" xr:uid="{00000000-0004-0000-0000-00000A090000}"/>
+    <hyperlink ref="A545" r:id="rId2306" xr:uid="{00000000-0004-0000-0000-00000B090000}"/>
+    <hyperlink ref="E545" r:id="rId2307" xr:uid="{00000000-0004-0000-0000-00000C090000}"/>
+    <hyperlink ref="I545" r:id="rId2308" xr:uid="{00000000-0004-0000-0000-00000D090000}"/>
+    <hyperlink ref="K545" r:id="rId2309" xr:uid="{00000000-0004-0000-0000-00000E090000}"/>
+    <hyperlink ref="L545" r:id="rId2310" xr:uid="{00000000-0004-0000-0000-00000F090000}"/>
+    <hyperlink ref="A546" r:id="rId2311" xr:uid="{00000000-0004-0000-0000-000010090000}"/>
+    <hyperlink ref="E546" r:id="rId2312" xr:uid="{00000000-0004-0000-0000-000011090000}"/>
+    <hyperlink ref="I546" r:id="rId2313" xr:uid="{00000000-0004-0000-0000-000012090000}"/>
+    <hyperlink ref="K546" r:id="rId2314" xr:uid="{00000000-0004-0000-0000-000013090000}"/>
+    <hyperlink ref="L546" r:id="rId2315" xr:uid="{00000000-0004-0000-0000-000014090000}"/>
+    <hyperlink ref="A547" r:id="rId2316" xr:uid="{00000000-0004-0000-0000-000015090000}"/>
+    <hyperlink ref="E547" r:id="rId2317" xr:uid="{00000000-0004-0000-0000-000016090000}"/>
+    <hyperlink ref="I547" r:id="rId2318" xr:uid="{00000000-0004-0000-0000-000017090000}"/>
+    <hyperlink ref="K547" r:id="rId2319" xr:uid="{00000000-0004-0000-0000-000018090000}"/>
+    <hyperlink ref="L547" r:id="rId2320" xr:uid="{00000000-0004-0000-0000-000019090000}"/>
+    <hyperlink ref="A548" r:id="rId2321" xr:uid="{00000000-0004-0000-0000-00001A090000}"/>
+    <hyperlink ref="E548" r:id="rId2322" xr:uid="{00000000-0004-0000-0000-00001B090000}"/>
+    <hyperlink ref="I548" r:id="rId2323" xr:uid="{00000000-0004-0000-0000-00001C090000}"/>
+    <hyperlink ref="K548" r:id="rId2324" xr:uid="{00000000-0004-0000-0000-00001D090000}"/>
+    <hyperlink ref="L548" r:id="rId2325" xr:uid="{00000000-0004-0000-0000-00001E090000}"/>
+    <hyperlink ref="A549" r:id="rId2326" xr:uid="{00000000-0004-0000-0000-00001F090000}"/>
+    <hyperlink ref="E549" r:id="rId2327" xr:uid="{00000000-0004-0000-0000-000020090000}"/>
+    <hyperlink ref="K549" r:id="rId2328" xr:uid="{00000000-0004-0000-0000-000021090000}"/>
+    <hyperlink ref="L549" r:id="rId2329" xr:uid="{00000000-0004-0000-0000-000022090000}"/>
+    <hyperlink ref="A550" r:id="rId2330" xr:uid="{00000000-0004-0000-0000-000023090000}"/>
+    <hyperlink ref="E550" r:id="rId2331" xr:uid="{00000000-0004-0000-0000-000024090000}"/>
+    <hyperlink ref="I550" r:id="rId2332" xr:uid="{00000000-0004-0000-0000-000025090000}"/>
+    <hyperlink ref="K550" r:id="rId2333" xr:uid="{00000000-0004-0000-0000-000026090000}"/>
+    <hyperlink ref="L550" r:id="rId2334" xr:uid="{00000000-0004-0000-0000-000027090000}"/>
+    <hyperlink ref="A551" r:id="rId2335" xr:uid="{00000000-0004-0000-0000-000028090000}"/>
+    <hyperlink ref="E551" r:id="rId2336" xr:uid="{00000000-0004-0000-0000-000029090000}"/>
+    <hyperlink ref="I551" r:id="rId2337" xr:uid="{00000000-0004-0000-0000-00002A090000}"/>
+    <hyperlink ref="K551" r:id="rId2338" xr:uid="{00000000-0004-0000-0000-00002B090000}"/>
+    <hyperlink ref="L551" r:id="rId2339" xr:uid="{00000000-0004-0000-0000-00002C090000}"/>
+    <hyperlink ref="A552" r:id="rId2340" xr:uid="{00000000-0004-0000-0000-00002D090000}"/>
+    <hyperlink ref="I552" r:id="rId2341" xr:uid="{00000000-0004-0000-0000-00002E090000}"/>
+    <hyperlink ref="K552" r:id="rId2342" xr:uid="{00000000-0004-0000-0000-00002F090000}"/>
+    <hyperlink ref="L552" r:id="rId2343" xr:uid="{00000000-0004-0000-0000-000030090000}"/>
+    <hyperlink ref="A553" r:id="rId2344" xr:uid="{00000000-0004-0000-0000-000031090000}"/>
+    <hyperlink ref="E553" r:id="rId2345" xr:uid="{00000000-0004-0000-0000-000032090000}"/>
+    <hyperlink ref="I553" r:id="rId2346" xr:uid="{00000000-0004-0000-0000-000033090000}"/>
+    <hyperlink ref="K553" r:id="rId2347" xr:uid="{00000000-0004-0000-0000-000034090000}"/>
+    <hyperlink ref="L553" r:id="rId2348" xr:uid="{00000000-0004-0000-0000-000035090000}"/>
+    <hyperlink ref="A554" r:id="rId2349" xr:uid="{00000000-0004-0000-0000-000036090000}"/>
+    <hyperlink ref="I554" r:id="rId2350" xr:uid="{00000000-0004-0000-0000-000037090000}"/>
+    <hyperlink ref="K554" r:id="rId2351" xr:uid="{00000000-0004-0000-0000-000038090000}"/>
+    <hyperlink ref="L554" r:id="rId2352" xr:uid="{00000000-0004-0000-0000-000039090000}"/>
+    <hyperlink ref="A555" r:id="rId2353" xr:uid="{00000000-0004-0000-0000-00003A090000}"/>
+    <hyperlink ref="E555" r:id="rId2354" xr:uid="{00000000-0004-0000-0000-00003B090000}"/>
+    <hyperlink ref="I555" r:id="rId2355" xr:uid="{00000000-0004-0000-0000-00003C090000}"/>
+    <hyperlink ref="L555" r:id="rId2356" xr:uid="{00000000-0004-0000-0000-00003D090000}"/>
+    <hyperlink ref="A556" r:id="rId2357" xr:uid="{00000000-0004-0000-0000-00003E090000}"/>
+    <hyperlink ref="E556" r:id="rId2358" xr:uid="{00000000-0004-0000-0000-00003F090000}"/>
+    <hyperlink ref="I556" r:id="rId2359" xr:uid="{00000000-0004-0000-0000-000040090000}"/>
+    <hyperlink ref="L556" r:id="rId2360" xr:uid="{00000000-0004-0000-0000-000041090000}"/>
+    <hyperlink ref="A557" r:id="rId2361" xr:uid="{00000000-0004-0000-0000-000042090000}"/>
+    <hyperlink ref="E557" r:id="rId2362" xr:uid="{00000000-0004-0000-0000-000043090000}"/>
+    <hyperlink ref="I557" r:id="rId2363" xr:uid="{00000000-0004-0000-0000-000044090000}"/>
+    <hyperlink ref="L557" r:id="rId2364" xr:uid="{00000000-0004-0000-0000-000045090000}"/>
+    <hyperlink ref="A559" r:id="rId2365" xr:uid="{00000000-0004-0000-0000-000046090000}"/>
+    <hyperlink ref="I559" r:id="rId2366" xr:uid="{00000000-0004-0000-0000-000047090000}"/>
+    <hyperlink ref="L559" r:id="rId2367" xr:uid="{00000000-0004-0000-0000-000048090000}"/>
+    <hyperlink ref="A560" r:id="rId2368" xr:uid="{00000000-0004-0000-0000-000049090000}"/>
+    <hyperlink ref="E560" r:id="rId2369" xr:uid="{00000000-0004-0000-0000-00004A090000}"/>
+    <hyperlink ref="I560" r:id="rId2370" xr:uid="{00000000-0004-0000-0000-00004B090000}"/>
+    <hyperlink ref="L560" r:id="rId2371" xr:uid="{00000000-0004-0000-0000-00004C090000}"/>
+    <hyperlink ref="A561" r:id="rId2372" xr:uid="{00000000-0004-0000-0000-00004D090000}"/>
+    <hyperlink ref="L561" r:id="rId2373" xr:uid="{00000000-0004-0000-0000-00004E090000}"/>
+    <hyperlink ref="A562" r:id="rId2374" xr:uid="{00000000-0004-0000-0000-00004F090000}"/>
+    <hyperlink ref="E562" r:id="rId2375" xr:uid="{00000000-0004-0000-0000-000050090000}"/>
+    <hyperlink ref="I562" r:id="rId2376" xr:uid="{00000000-0004-0000-0000-000051090000}"/>
+    <hyperlink ref="L562" r:id="rId2377" xr:uid="{00000000-0004-0000-0000-000052090000}"/>
+    <hyperlink ref="A563" r:id="rId2378" xr:uid="{00000000-0004-0000-0000-000053090000}"/>
+    <hyperlink ref="L563" r:id="rId2379" xr:uid="{00000000-0004-0000-0000-000054090000}"/>
+    <hyperlink ref="A564" r:id="rId2380" xr:uid="{00000000-0004-0000-0000-000055090000}"/>
+    <hyperlink ref="I564" r:id="rId2381" xr:uid="{00000000-0004-0000-0000-000056090000}"/>
+    <hyperlink ref="L564" r:id="rId2382" xr:uid="{00000000-0004-0000-0000-000057090000}"/>
+    <hyperlink ref="A565" r:id="rId2383" xr:uid="{00000000-0004-0000-0000-000058090000}"/>
+    <hyperlink ref="I565" r:id="rId2384" xr:uid="{00000000-0004-0000-0000-000059090000}"/>
+    <hyperlink ref="L565" r:id="rId2385" xr:uid="{00000000-0004-0000-0000-00005A090000}"/>
+    <hyperlink ref="A566" r:id="rId2386" xr:uid="{00000000-0004-0000-0000-00005B090000}"/>
+    <hyperlink ref="E566" r:id="rId2387" xr:uid="{00000000-0004-0000-0000-00005C090000}"/>
+    <hyperlink ref="I566" r:id="rId2388" xr:uid="{00000000-0004-0000-0000-00005D090000}"/>
+    <hyperlink ref="K566" r:id="rId2389" xr:uid="{00000000-0004-0000-0000-00005E090000}"/>
+    <hyperlink ref="L566" r:id="rId2390" xr:uid="{00000000-0004-0000-0000-00005F090000}"/>
+    <hyperlink ref="A567" r:id="rId2391" xr:uid="{00000000-0004-0000-0000-000060090000}"/>
+    <hyperlink ref="E567" r:id="rId2392" xr:uid="{00000000-0004-0000-0000-000061090000}"/>
+    <hyperlink ref="I567" r:id="rId2393" xr:uid="{00000000-0004-0000-0000-000062090000}"/>
+    <hyperlink ref="K567" r:id="rId2394" xr:uid="{00000000-0004-0000-0000-000063090000}"/>
+    <hyperlink ref="L567" r:id="rId2395" xr:uid="{00000000-0004-0000-0000-000064090000}"/>
+    <hyperlink ref="A568" r:id="rId2396" xr:uid="{00000000-0004-0000-0000-000065090000}"/>
+    <hyperlink ref="E568" r:id="rId2397" xr:uid="{00000000-0004-0000-0000-000066090000}"/>
+    <hyperlink ref="I568" r:id="rId2398" xr:uid="{00000000-0004-0000-0000-000067090000}"/>
+    <hyperlink ref="K568" r:id="rId2399" xr:uid="{00000000-0004-0000-0000-000068090000}"/>
+    <hyperlink ref="L568" r:id="rId2400" xr:uid="{00000000-0004-0000-0000-000069090000}"/>
+    <hyperlink ref="A569" r:id="rId2401" xr:uid="{00000000-0004-0000-0000-00006A090000}"/>
+    <hyperlink ref="E569" r:id="rId2402" xr:uid="{00000000-0004-0000-0000-00006B090000}"/>
+    <hyperlink ref="I569" r:id="rId2403" xr:uid="{00000000-0004-0000-0000-00006C090000}"/>
+    <hyperlink ref="K569" r:id="rId2404" xr:uid="{00000000-0004-0000-0000-00006D090000}"/>
+    <hyperlink ref="L569" r:id="rId2405" xr:uid="{00000000-0004-0000-0000-00006E090000}"/>
+    <hyperlink ref="A570" r:id="rId2406" xr:uid="{00000000-0004-0000-0000-00006F090000}"/>
+    <hyperlink ref="I570" r:id="rId2407" xr:uid="{00000000-0004-0000-0000-000070090000}"/>
+    <hyperlink ref="A571" r:id="rId2408" xr:uid="{00000000-0004-0000-0000-000071090000}"/>
+    <hyperlink ref="I571" r:id="rId2409" xr:uid="{00000000-0004-0000-0000-000072090000}"/>
+    <hyperlink ref="A572" r:id="rId2410" xr:uid="{00000000-0004-0000-0000-000073090000}"/>
+    <hyperlink ref="E572" r:id="rId2411" xr:uid="{00000000-0004-0000-0000-000074090000}"/>
+    <hyperlink ref="K572" r:id="rId2412" xr:uid="{00000000-0004-0000-0000-000075090000}"/>
+    <hyperlink ref="L572" r:id="rId2413" xr:uid="{00000000-0004-0000-0000-000076090000}"/>
+    <hyperlink ref="A573" r:id="rId2414" xr:uid="{00000000-0004-0000-0000-000077090000}"/>
+    <hyperlink ref="E573" r:id="rId2415" xr:uid="{00000000-0004-0000-0000-000078090000}"/>
+    <hyperlink ref="I573" r:id="rId2416" xr:uid="{00000000-0004-0000-0000-000079090000}"/>
+    <hyperlink ref="L573" r:id="rId2417" xr:uid="{00000000-0004-0000-0000-00007A090000}"/>
+    <hyperlink ref="A574" r:id="rId2418" xr:uid="{00000000-0004-0000-0000-00007B090000}"/>
+    <hyperlink ref="I574" r:id="rId2419" xr:uid="{00000000-0004-0000-0000-00007C090000}"/>
+    <hyperlink ref="L574" r:id="rId2420" xr:uid="{00000000-0004-0000-0000-00007D090000}"/>
+    <hyperlink ref="A575" r:id="rId2421" xr:uid="{00000000-0004-0000-0000-00007E090000}"/>
+    <hyperlink ref="A576" r:id="rId2422" xr:uid="{00000000-0004-0000-0000-00007F090000}"/>
+    <hyperlink ref="I576" r:id="rId2423" xr:uid="{00000000-0004-0000-0000-000080090000}"/>
+    <hyperlink ref="A577" r:id="rId2424" xr:uid="{00000000-0004-0000-0000-000081090000}"/>
+    <hyperlink ref="I577" r:id="rId2425" xr:uid="{00000000-0004-0000-0000-000082090000}"/>
+    <hyperlink ref="L577" r:id="rId2426" xr:uid="{00000000-0004-0000-0000-000083090000}"/>
+    <hyperlink ref="A578" r:id="rId2427" xr:uid="{00000000-0004-0000-0000-000084090000}"/>
+    <hyperlink ref="I578" r:id="rId2428" xr:uid="{00000000-0004-0000-0000-000085090000}"/>
+    <hyperlink ref="L578" r:id="rId2429" xr:uid="{00000000-0004-0000-0000-000086090000}"/>
+    <hyperlink ref="A579" r:id="rId2430" xr:uid="{00000000-0004-0000-0000-000087090000}"/>
+    <hyperlink ref="I579" r:id="rId2431" xr:uid="{00000000-0004-0000-0000-000088090000}"/>
+    <hyperlink ref="L579" r:id="rId2432" xr:uid="{00000000-0004-0000-0000-000089090000}"/>
+    <hyperlink ref="A580" r:id="rId2433" xr:uid="{00000000-0004-0000-0000-00008A090000}"/>
+    <hyperlink ref="E580" r:id="rId2434" xr:uid="{00000000-0004-0000-0000-00008B090000}"/>
+    <hyperlink ref="I580" r:id="rId2435" xr:uid="{00000000-0004-0000-0000-00008C090000}"/>
+    <hyperlink ref="L580" r:id="rId2436" xr:uid="{00000000-0004-0000-0000-00008D090000}"/>
+    <hyperlink ref="A581" r:id="rId2437" xr:uid="{00000000-0004-0000-0000-00008E090000}"/>
+    <hyperlink ref="K581" r:id="rId2438" xr:uid="{00000000-0004-0000-0000-00008F090000}"/>
+    <hyperlink ref="L581" r:id="rId2439" xr:uid="{00000000-0004-0000-0000-000090090000}"/>
+    <hyperlink ref="A582" r:id="rId2440" xr:uid="{00000000-0004-0000-0000-000091090000}"/>
+    <hyperlink ref="I582" r:id="rId2441" xr:uid="{00000000-0004-0000-0000-000092090000}"/>
+    <hyperlink ref="L582" r:id="rId2442" xr:uid="{00000000-0004-0000-0000-000093090000}"/>
+    <hyperlink ref="A583" r:id="rId2443" xr:uid="{00000000-0004-0000-0000-000094090000}"/>
+    <hyperlink ref="E583" r:id="rId2444" xr:uid="{00000000-0004-0000-0000-000095090000}"/>
+    <hyperlink ref="K583" r:id="rId2445" xr:uid="{00000000-0004-0000-0000-000096090000}"/>
+    <hyperlink ref="L583" r:id="rId2446" xr:uid="{00000000-0004-0000-0000-000097090000}"/>
+    <hyperlink ref="A584" r:id="rId2447" xr:uid="{00000000-0004-0000-0000-000098090000}"/>
+    <hyperlink ref="I584" r:id="rId2448" xr:uid="{00000000-0004-0000-0000-000099090000}"/>
+    <hyperlink ref="K584" r:id="rId2449" xr:uid="{00000000-0004-0000-0000-00009A090000}"/>
+    <hyperlink ref="L584" r:id="rId2450" xr:uid="{00000000-0004-0000-0000-00009B090000}"/>
+    <hyperlink ref="A585" r:id="rId2451" xr:uid="{00000000-0004-0000-0000-00009C090000}"/>
+    <hyperlink ref="L585" r:id="rId2452" xr:uid="{00000000-0004-0000-0000-00009D090000}"/>
+    <hyperlink ref="A586" r:id="rId2453" xr:uid="{00000000-0004-0000-0000-00009E090000}"/>
+    <hyperlink ref="E586" r:id="rId2454" xr:uid="{00000000-0004-0000-0000-00009F090000}"/>
+    <hyperlink ref="I586" r:id="rId2455" xr:uid="{00000000-0004-0000-0000-0000A0090000}"/>
+    <hyperlink ref="L586" r:id="rId2456" xr:uid="{00000000-0004-0000-0000-0000A1090000}"/>
+    <hyperlink ref="A587" r:id="rId2457" xr:uid="{00000000-0004-0000-0000-0000A2090000}"/>
+    <hyperlink ref="I587" r:id="rId2458" xr:uid="{00000000-0004-0000-0000-0000A3090000}"/>
+    <hyperlink ref="L587" r:id="rId2459" xr:uid="{00000000-0004-0000-0000-0000A4090000}"/>
+    <hyperlink ref="A588" r:id="rId2460" xr:uid="{00000000-0004-0000-0000-0000A5090000}"/>
+    <hyperlink ref="E588" r:id="rId2461" xr:uid="{00000000-0004-0000-0000-0000A6090000}"/>
+    <hyperlink ref="K588" r:id="rId2462" xr:uid="{00000000-0004-0000-0000-0000A7090000}"/>
+    <hyperlink ref="L588" r:id="rId2463" xr:uid="{00000000-0004-0000-0000-0000A8090000}"/>
+    <hyperlink ref="A590" r:id="rId2464" xr:uid="{00000000-0004-0000-0000-0000A9090000}"/>
+    <hyperlink ref="E590" r:id="rId2465" xr:uid="{00000000-0004-0000-0000-0000AA090000}"/>
+    <hyperlink ref="I590" r:id="rId2466" xr:uid="{00000000-0004-0000-0000-0000AB090000}"/>
+    <hyperlink ref="L590" r:id="rId2467" xr:uid="{00000000-0004-0000-0000-0000AC090000}"/>
+    <hyperlink ref="A591" r:id="rId2468" xr:uid="{00000000-0004-0000-0000-0000AD090000}"/>
+    <hyperlink ref="I591" r:id="rId2469" xr:uid="{00000000-0004-0000-0000-0000AE090000}"/>
+    <hyperlink ref="L591" r:id="rId2470" xr:uid="{00000000-0004-0000-0000-0000AF090000}"/>
+    <hyperlink ref="A592" r:id="rId2471" xr:uid="{00000000-0004-0000-0000-0000B0090000}"/>
+    <hyperlink ref="E592" r:id="rId2472" xr:uid="{00000000-0004-0000-0000-0000B1090000}"/>
+    <hyperlink ref="I592" r:id="rId2473" xr:uid="{00000000-0004-0000-0000-0000B2090000}"/>
+    <hyperlink ref="A593" r:id="rId2474" xr:uid="{00000000-0004-0000-0000-0000B3090000}"/>
+    <hyperlink ref="E593" r:id="rId2475" xr:uid="{00000000-0004-0000-0000-0000B4090000}"/>
+    <hyperlink ref="I593" r:id="rId2476" xr:uid="{00000000-0004-0000-0000-0000B5090000}"/>
+    <hyperlink ref="L593" r:id="rId2477" xr:uid="{00000000-0004-0000-0000-0000B6090000}"/>
+    <hyperlink ref="A594" r:id="rId2478" xr:uid="{00000000-0004-0000-0000-0000B7090000}"/>
+    <hyperlink ref="I594" r:id="rId2479" xr:uid="{00000000-0004-0000-0000-0000B8090000}"/>
+    <hyperlink ref="L594" r:id="rId2480" xr:uid="{00000000-0004-0000-0000-0000B9090000}"/>
+    <hyperlink ref="A595" r:id="rId2481" xr:uid="{00000000-0004-0000-0000-0000BA090000}"/>
+    <hyperlink ref="E595" r:id="rId2482" xr:uid="{00000000-0004-0000-0000-0000BB090000}"/>
+    <hyperlink ref="I595" r:id="rId2483" xr:uid="{00000000-0004-0000-0000-0000BC090000}"/>
+    <hyperlink ref="L595" r:id="rId2484" xr:uid="{00000000-0004-0000-0000-0000BD090000}"/>
+    <hyperlink ref="A596" r:id="rId2485" xr:uid="{00000000-0004-0000-0000-0000BE090000}"/>
+    <hyperlink ref="E596" r:id="rId2486" xr:uid="{00000000-0004-0000-0000-0000BF090000}"/>
+    <hyperlink ref="I596" r:id="rId2487" xr:uid="{00000000-0004-0000-0000-0000C0090000}"/>
+    <hyperlink ref="L596" r:id="rId2488" xr:uid="{00000000-0004-0000-0000-0000C1090000}"/>
+    <hyperlink ref="A597" r:id="rId2489" xr:uid="{00000000-0004-0000-0000-0000C2090000}"/>
+    <hyperlink ref="I597" r:id="rId2490" xr:uid="{00000000-0004-0000-0000-0000C3090000}"/>
+    <hyperlink ref="K597" r:id="rId2491" xr:uid="{00000000-0004-0000-0000-0000C4090000}"/>
+    <hyperlink ref="L597" r:id="rId2492" xr:uid="{00000000-0004-0000-0000-0000C5090000}"/>
+    <hyperlink ref="A598" r:id="rId2493" xr:uid="{00000000-0004-0000-0000-0000C6090000}"/>
+    <hyperlink ref="E598" r:id="rId2494" xr:uid="{00000000-0004-0000-0000-0000C7090000}"/>
+    <hyperlink ref="I598" r:id="rId2495" xr:uid="{00000000-0004-0000-0000-0000C8090000}"/>
+    <hyperlink ref="K598" r:id="rId2496" xr:uid="{00000000-0004-0000-0000-0000C9090000}"/>
+    <hyperlink ref="L598" r:id="rId2497" xr:uid="{00000000-0004-0000-0000-0000CA090000}"/>
+    <hyperlink ref="A599" r:id="rId2498" xr:uid="{00000000-0004-0000-0000-0000CB090000}"/>
+    <hyperlink ref="E599" r:id="rId2499" xr:uid="{00000000-0004-0000-0000-0000CC090000}"/>
+    <hyperlink ref="I599" r:id="rId2500" xr:uid="{00000000-0004-0000-0000-0000CD090000}"/>
+    <hyperlink ref="A600" r:id="rId2501" xr:uid="{00000000-0004-0000-0000-0000CE090000}"/>
+    <hyperlink ref="I600" r:id="rId2502" xr:uid="{00000000-0004-0000-0000-0000CF090000}"/>
+    <hyperlink ref="L600" r:id="rId2503" xr:uid="{00000000-0004-0000-0000-0000D0090000}"/>
+    <hyperlink ref="A601" r:id="rId2504" xr:uid="{00000000-0004-0000-0000-0000D1090000}"/>
+    <hyperlink ref="I601" r:id="rId2505" xr:uid="{00000000-0004-0000-0000-0000D2090000}"/>
+    <hyperlink ref="L601" r:id="rId2506" xr:uid="{00000000-0004-0000-0000-0000D3090000}"/>
+    <hyperlink ref="A602" r:id="rId2507" xr:uid="{00000000-0004-0000-0000-0000D4090000}"/>
+    <hyperlink ref="I602" r:id="rId2508" xr:uid="{00000000-0004-0000-0000-0000D5090000}"/>
+    <hyperlink ref="L602" r:id="rId2509" xr:uid="{00000000-0004-0000-0000-0000D6090000}"/>
+    <hyperlink ref="A603" r:id="rId2510" xr:uid="{00000000-0004-0000-0000-0000D7090000}"/>
+    <hyperlink ref="A604" r:id="rId2511" xr:uid="{00000000-0004-0000-0000-0000D8090000}"/>
+    <hyperlink ref="I604" r:id="rId2512" xr:uid="{00000000-0004-0000-0000-0000D9090000}"/>
+    <hyperlink ref="L604" r:id="rId2513" xr:uid="{00000000-0004-0000-0000-0000DA090000}"/>
+    <hyperlink ref="A605" r:id="rId2514" xr:uid="{00000000-0004-0000-0000-0000DB090000}"/>
+    <hyperlink ref="E605" r:id="rId2515" xr:uid="{00000000-0004-0000-0000-0000DC090000}"/>
+    <hyperlink ref="I605" r:id="rId2516" xr:uid="{00000000-0004-0000-0000-0000DD090000}"/>
+    <hyperlink ref="L605" r:id="rId2517" xr:uid="{00000000-0004-0000-0000-0000DE090000}"/>
+    <hyperlink ref="A606" r:id="rId2518" xr:uid="{00000000-0004-0000-0000-0000DF090000}"/>
+    <hyperlink ref="E606" r:id="rId2519" xr:uid="{00000000-0004-0000-0000-0000E0090000}"/>
+    <hyperlink ref="L606" r:id="rId2520" xr:uid="{00000000-0004-0000-0000-0000E1090000}"/>
+    <hyperlink ref="A607" r:id="rId2521" xr:uid="{00000000-0004-0000-0000-0000E2090000}"/>
+    <hyperlink ref="E607" r:id="rId2522" xr:uid="{00000000-0004-0000-0000-0000E3090000}"/>
+    <hyperlink ref="L607" r:id="rId2523" xr:uid="{00000000-0004-0000-0000-0000E4090000}"/>
+    <hyperlink ref="A608" r:id="rId2524" xr:uid="{00000000-0004-0000-0000-0000E5090000}"/>
+    <hyperlink ref="E608" r:id="rId2525" xr:uid="{00000000-0004-0000-0000-0000E6090000}"/>
+    <hyperlink ref="L608" r:id="rId2526" xr:uid="{00000000-0004-0000-0000-0000E7090000}"/>
+    <hyperlink ref="A609" r:id="rId2527" xr:uid="{00000000-0004-0000-0000-0000E8090000}"/>
+    <hyperlink ref="E609" r:id="rId2528" xr:uid="{00000000-0004-0000-0000-0000E9090000}"/>
+    <hyperlink ref="I609" r:id="rId2529" xr:uid="{00000000-0004-0000-0000-0000EA090000}"/>
+    <hyperlink ref="L609" r:id="rId2530" xr:uid="{00000000-0004-0000-0000-0000EB090000}"/>
+    <hyperlink ref="A610" r:id="rId2531" xr:uid="{00000000-0004-0000-0000-0000EC090000}"/>
+    <hyperlink ref="E610" r:id="rId2532" xr:uid="{00000000-0004-0000-0000-0000ED090000}"/>
+    <hyperlink ref="I610" r:id="rId2533" xr:uid="{00000000-0004-0000-0000-0000EE090000}"/>
+    <hyperlink ref="L610" r:id="rId2534" xr:uid="{00000000-0004-0000-0000-0000EF090000}"/>
+    <hyperlink ref="A611" r:id="rId2535" xr:uid="{00000000-0004-0000-0000-0000F0090000}"/>
+    <hyperlink ref="E611" r:id="rId2536" xr:uid="{00000000-0004-0000-0000-0000F1090000}"/>
+    <hyperlink ref="I611" r:id="rId2537" xr:uid="{00000000-0004-0000-0000-0000F2090000}"/>
+    <hyperlink ref="L611" r:id="rId2538" xr:uid="{00000000-0004-0000-0000-0000F3090000}"/>
+    <hyperlink ref="A612" r:id="rId2539" xr:uid="{00000000-0004-0000-0000-0000F4090000}"/>
+    <hyperlink ref="E612" r:id="rId2540" xr:uid="{00000000-0004-0000-0000-0000F5090000}"/>
+    <hyperlink ref="I612" r:id="rId2541" xr:uid="{00000000-0004-0000-0000-0000F6090000}"/>
+    <hyperlink ref="L612" r:id="rId2542" xr:uid="{00000000-0004-0000-0000-0000F7090000}"/>
+    <hyperlink ref="A613" r:id="rId2543" xr:uid="{00000000-0004-0000-0000-0000F8090000}"/>
+    <hyperlink ref="I613" r:id="rId2544" xr:uid="{00000000-0004-0000-0000-0000F9090000}"/>
+    <hyperlink ref="L613" r:id="rId2545" xr:uid="{00000000-0004-0000-0000-0000FA090000}"/>
+    <hyperlink ref="A614" r:id="rId2546" xr:uid="{00000000-0004-0000-0000-0000FB090000}"/>
+    <hyperlink ref="I614" r:id="rId2547" xr:uid="{00000000-0004-0000-0000-0000FC090000}"/>
+    <hyperlink ref="A615" r:id="rId2548" xr:uid="{00000000-0004-0000-0000-0000FD090000}"/>
+    <hyperlink ref="E615" r:id="rId2549" xr:uid="{00000000-0004-0000-0000-0000FE090000}"/>
+    <hyperlink ref="L615" r:id="rId2550" xr:uid="{00000000-0004-0000-0000-0000FF090000}"/>
+    <hyperlink ref="A616" r:id="rId2551" xr:uid="{00000000-0004-0000-0000-0000000A0000}"/>
+    <hyperlink ref="E616" r:id="rId2552" xr:uid="{00000000-0004-0000-0000-0000010A0000}"/>
+    <hyperlink ref="I616" r:id="rId2553" xr:uid="{00000000-0004-0000-0000-0000020A0000}"/>
+    <hyperlink ref="L616" r:id="rId2554" xr:uid="{00000000-0004-0000-0000-0000030A0000}"/>
+    <hyperlink ref="A617" r:id="rId2555" xr:uid="{00000000-0004-0000-0000-0000040A0000}"/>
+    <hyperlink ref="E617" r:id="rId2556" xr:uid="{00000000-0004-0000-0000-0000050A0000}"/>
+    <hyperlink ref="I617" r:id="rId2557" xr:uid="{00000000-0004-0000-0000-0000060A0000}"/>
+    <hyperlink ref="L617" r:id="rId2558" xr:uid="{00000000-0004-0000-0000-0000070A0000}"/>
+    <hyperlink ref="A619" r:id="rId2559" xr:uid="{00000000-0004-0000-0000-0000080A0000}"/>
+    <hyperlink ref="E619" r:id="rId2560" xr:uid="{00000000-0004-0000-0000-0000090A0000}"/>
+    <hyperlink ref="I619" r:id="rId2561" xr:uid="{00000000-0004-0000-0000-00000A0A0000}"/>
+    <hyperlink ref="L619" r:id="rId2562" xr:uid="{00000000-0004-0000-0000-00000B0A0000}"/>
+    <hyperlink ref="A620" r:id="rId2563" xr:uid="{00000000-0004-0000-0000-00000C0A0000}"/>
+    <hyperlink ref="E620" r:id="rId2564" xr:uid="{00000000-0004-0000-0000-00000D0A0000}"/>
+    <hyperlink ref="I620" r:id="rId2565" xr:uid="{00000000-0004-0000-0000-00000E0A0000}"/>
+    <hyperlink ref="L620" r:id="rId2566" xr:uid="{00000000-0004-0000-0000-00000F0A0000}"/>
+    <hyperlink ref="A621" r:id="rId2567" xr:uid="{00000000-0004-0000-0000-0000100A0000}"/>
+    <hyperlink ref="I621" r:id="rId2568" xr:uid="{00000000-0004-0000-0000-0000110A0000}"/>
+    <hyperlink ref="L621" r:id="rId2569" xr:uid="{00000000-0004-0000-0000-0000120A0000}"/>
+    <hyperlink ref="A622" r:id="rId2570" xr:uid="{00000000-0004-0000-0000-0000130A0000}"/>
+    <hyperlink ref="E622" r:id="rId2571" xr:uid="{00000000-0004-0000-0000-0000140A0000}"/>
+    <hyperlink ref="I622" r:id="rId2572" xr:uid="{00000000-0004-0000-0000-0000150A0000}"/>
+    <hyperlink ref="L622" r:id="rId2573" xr:uid="{00000000-0004-0000-0000-0000160A0000}"/>
+    <hyperlink ref="A623" r:id="rId2574" xr:uid="{00000000-0004-0000-0000-0000170A0000}"/>
+    <hyperlink ref="E623" r:id="rId2575" xr:uid="{00000000-0004-0000-0000-0000180A0000}"/>
+    <hyperlink ref="I623" r:id="rId2576" xr:uid="{00000000-0004-0000-0000-0000190A0000}"/>
+    <hyperlink ref="L623" r:id="rId2577" xr:uid="{00000000-0004-0000-0000-00001A0A0000}"/>
+    <hyperlink ref="A624" r:id="rId2578" xr:uid="{00000000-0004-0000-0000-00001B0A0000}"/>
+    <hyperlink ref="E624" r:id="rId2579" xr:uid="{00000000-0004-0000-0000-00001C0A0000}"/>
+    <hyperlink ref="I624" r:id="rId2580" xr:uid="{00000000-0004-0000-0000-00001D0A0000}"/>
+    <hyperlink ref="L624" r:id="rId2581" xr:uid="{00000000-0004-0000-0000-00001E0A0000}"/>
+    <hyperlink ref="A625" r:id="rId2582" xr:uid="{00000000-0004-0000-0000-00001F0A0000}"/>
+    <hyperlink ref="I625" r:id="rId2583" xr:uid="{00000000-0004-0000-0000-0000200A0000}"/>
+    <hyperlink ref="K625" r:id="rId2584" xr:uid="{00000000-0004-0000-0000-0000210A0000}"/>
+    <hyperlink ref="L625" r:id="rId2585" xr:uid="{00000000-0004-0000-0000-0000220A0000}"/>
+    <hyperlink ref="A626" r:id="rId2586" xr:uid="{00000000-0004-0000-0000-0000230A0000}"/>
+    <hyperlink ref="E626" r:id="rId2587" xr:uid="{00000000-0004-0000-0000-0000240A0000}"/>
+    <hyperlink ref="I626" r:id="rId2588" xr:uid="{00000000-0004-0000-0000-0000250A0000}"/>
+    <hyperlink ref="L626" r:id="rId2589" xr:uid="{00000000-0004-0000-0000-0000260A0000}"/>
+    <hyperlink ref="A627" r:id="rId2590" xr:uid="{00000000-0004-0000-0000-0000270A0000}"/>
+    <hyperlink ref="E627" r:id="rId2591" xr:uid="{00000000-0004-0000-0000-0000280A0000}"/>
+    <hyperlink ref="I627" r:id="rId2592" xr:uid="{00000000-0004-0000-0000-0000290A0000}"/>
+    <hyperlink ref="K627" r:id="rId2593" xr:uid="{00000000-0004-0000-0000-00002A0A0000}"/>
+    <hyperlink ref="A628" r:id="rId2594" xr:uid="{00000000-0004-0000-0000-00002B0A0000}"/>
+    <hyperlink ref="E628" r:id="rId2595" xr:uid="{00000000-0004-0000-0000-00002C0A0000}"/>
+    <hyperlink ref="I628" r:id="rId2596" xr:uid="{00000000-0004-0000-0000-00002D0A0000}"/>
+    <hyperlink ref="K628" r:id="rId2597" xr:uid="{00000000-0004-0000-0000-00002E0A0000}"/>
+    <hyperlink ref="L628" r:id="rId2598" xr:uid="{00000000-0004-0000-0000-00002F0A0000}"/>
+    <hyperlink ref="A629" r:id="rId2599" xr:uid="{00000000-0004-0000-0000-0000300A0000}"/>
+    <hyperlink ref="I629" r:id="rId2600" xr:uid="{00000000-0004-0000-0000-0000310A0000}"/>
+    <hyperlink ref="A630" r:id="rId2601" xr:uid="{00000000-0004-0000-0000-0000320A0000}"/>
+    <hyperlink ref="E630" r:id="rId2602" xr:uid="{00000000-0004-0000-0000-0000330A0000}"/>
+    <hyperlink ref="I630" r:id="rId2603" xr:uid="{00000000-0004-0000-0000-0000340A0000}"/>
+    <hyperlink ref="K630" r:id="rId2604" xr:uid="{00000000-0004-0000-0000-0000350A0000}"/>
+    <hyperlink ref="L630" r:id="rId2605" xr:uid="{00000000-0004-0000-0000-0000360A0000}"/>
+    <hyperlink ref="A631" r:id="rId2606" xr:uid="{00000000-0004-0000-0000-0000370A0000}"/>
+    <hyperlink ref="I631" r:id="rId2607" xr:uid="{00000000-0004-0000-0000-0000380A0000}"/>
+    <hyperlink ref="L631" r:id="rId2608" xr:uid="{00000000-0004-0000-0000-0000390A0000}"/>
+    <hyperlink ref="A632" r:id="rId2609" xr:uid="{00000000-0004-0000-0000-00003A0A0000}"/>
+    <hyperlink ref="E632" r:id="rId2610" xr:uid="{00000000-0004-0000-0000-00003B0A0000}"/>
+    <hyperlink ref="I632" r:id="rId2611" xr:uid="{00000000-0004-0000-0000-00003C0A0000}"/>
+    <hyperlink ref="A633" r:id="rId2612" xr:uid="{00000000-0004-0000-0000-00003D0A0000}"/>
+    <hyperlink ref="E633" r:id="rId2613" xr:uid="{00000000-0004-0000-0000-00003E0A0000}"/>
+    <hyperlink ref="I633" r:id="rId2614" xr:uid="{00000000-0004-0000-0000-00003F0A0000}"/>
+    <hyperlink ref="K633" r:id="rId2615" xr:uid="{00000000-0004-0000-0000-0000400A0000}"/>
+    <hyperlink ref="L633" r:id="rId2616" xr:uid="{00000000-0004-0000-0000-0000410A0000}"/>
+    <hyperlink ref="A635" r:id="rId2617" xr:uid="{00000000-0004-0000-0000-0000420A0000}"/>
+    <hyperlink ref="E635" r:id="rId2618" xr:uid="{00000000-0004-0000-0000-0000430A0000}"/>
+    <hyperlink ref="I635" r:id="rId2619" xr:uid="{00000000-0004-0000-0000-0000440A0000}"/>
+    <hyperlink ref="L635" r:id="rId2620" xr:uid="{00000000-0004-0000-0000-0000450A0000}"/>
+    <hyperlink ref="A636" r:id="rId2621" xr:uid="{00000000-0004-0000-0000-0000460A0000}"/>
+    <hyperlink ref="E636" r:id="rId2622" xr:uid="{00000000-0004-0000-0000-0000470A0000}"/>
+    <hyperlink ref="I636" r:id="rId2623" xr:uid="{00000000-0004-0000-0000-0000480A0000}"/>
+    <hyperlink ref="L636" r:id="rId2624" xr:uid="{00000000-0004-0000-0000-0000490A0000}"/>
+    <hyperlink ref="A637" r:id="rId2625" xr:uid="{00000000-0004-0000-0000-00004A0A0000}"/>
+    <hyperlink ref="K637" r:id="rId2626" xr:uid="{00000000-0004-0000-0000-00004B0A0000}"/>
+    <hyperlink ref="A638" r:id="rId2627" xr:uid="{00000000-0004-0000-0000-00004C0A0000}"/>
+    <hyperlink ref="E638" r:id="rId2628" xr:uid="{00000000-0004-0000-0000-00004D0A0000}"/>
+    <hyperlink ref="K638" r:id="rId2629" xr:uid="{00000000-0004-0000-0000-00004E0A0000}"/>
+    <hyperlink ref="L638" r:id="rId2630" xr:uid="{00000000-0004-0000-0000-00004F0A0000}"/>
+    <hyperlink ref="A639" r:id="rId2631" xr:uid="{00000000-0004-0000-0000-0000500A0000}"/>
+    <hyperlink ref="I639" r:id="rId2632" xr:uid="{00000000-0004-0000-0000-0000510A0000}"/>
+    <hyperlink ref="A640" r:id="rId2633" xr:uid="{00000000-0004-0000-0000-0000520A0000}"/>
+    <hyperlink ref="E640" r:id="rId2634" xr:uid="{00000000-0004-0000-0000-0000530A0000}"/>
+    <hyperlink ref="I640" r:id="rId2635" xr:uid="{00000000-0004-0000-0000-0000540A0000}"/>
+    <hyperlink ref="L640" r:id="rId2636" xr:uid="{00000000-0004-0000-0000-0000550A0000}"/>
+    <hyperlink ref="A641" r:id="rId2637" xr:uid="{00000000-0004-0000-0000-0000560A0000}"/>
+    <hyperlink ref="I641" r:id="rId2638" xr:uid="{00000000-0004-0000-0000-0000570A0000}"/>
+    <hyperlink ref="L641" r:id="rId2639" xr:uid="{00000000-0004-0000-0000-0000580A0000}"/>
+    <hyperlink ref="A642" r:id="rId2640" xr:uid="{00000000-0004-0000-0000-0000590A0000}"/>
+    <hyperlink ref="L642" r:id="rId2641" xr:uid="{00000000-0004-0000-0000-00005A0A0000}"/>
+    <hyperlink ref="A643" r:id="rId2642" xr:uid="{00000000-0004-0000-0000-00005B0A0000}"/>
+    <hyperlink ref="E643" r:id="rId2643" xr:uid="{00000000-0004-0000-0000-00005C0A0000}"/>
+    <hyperlink ref="I643" r:id="rId2644" xr:uid="{00000000-0004-0000-0000-00005D0A0000}"/>
+    <hyperlink ref="L643" r:id="rId2645" xr:uid="{00000000-0004-0000-0000-00005E0A0000}"/>
+    <hyperlink ref="A644" r:id="rId2646" xr:uid="{00000000-0004-0000-0000-00005F0A0000}"/>
+    <hyperlink ref="E644" r:id="rId2647" xr:uid="{00000000-0004-0000-0000-0000600A0000}"/>
+    <hyperlink ref="I644" r:id="rId2648" xr:uid="{00000000-0004-0000-0000-0000610A0000}"/>
+    <hyperlink ref="K644" r:id="rId2649" xr:uid="{00000000-0004-0000-0000-0000620A0000}"/>
+    <hyperlink ref="L644" r:id="rId2650" xr:uid="{00000000-0004-0000-0000-0000630A0000}"/>
+    <hyperlink ref="A645" r:id="rId2651" xr:uid="{00000000-0004-0000-0000-0000640A0000}"/>
+    <hyperlink ref="E645" r:id="rId2652" xr:uid="{00000000-0004-0000-0000-0000650A0000}"/>
+    <hyperlink ref="I645" r:id="rId2653" xr:uid="{00000000-0004-0000-0000-0000660A0000}"/>
+    <hyperlink ref="K645" r:id="rId2654" xr:uid="{00000000-0004-0000-0000-0000670A0000}"/>
+    <hyperlink ref="L645" r:id="rId2655" xr:uid="{00000000-0004-0000-0000-0000680A0000}"/>
+    <hyperlink ref="A646" r:id="rId2656" xr:uid="{00000000-0004-0000-0000-0000690A0000}"/>
+    <hyperlink ref="E646" r:id="rId2657" xr:uid="{00000000-0004-0000-0000-00006A0A0000}"/>
+    <hyperlink ref="I646" r:id="rId2658" xr:uid="{00000000-0004-0000-0000-00006B0A0000}"/>
+    <hyperlink ref="K646" r:id="rId2659" xr:uid="{00000000-0004-0000-0000-00006C0A0000}"/>
+    <hyperlink ref="L646" r:id="rId2660" xr:uid="{00000000-0004-0000-0000-00006D0A0000}"/>
+    <hyperlink ref="A648" r:id="rId2661" xr:uid="{00000000-0004-0000-0000-00006E0A0000}"/>
+    <hyperlink ref="E648" r:id="rId2662" xr:uid="{00000000-0004-0000-0000-00006F0A0000}"/>
+    <hyperlink ref="I648" r:id="rId2663" xr:uid="{00000000-0004-0000-0000-0000700A0000}"/>
+    <hyperlink ref="K648" r:id="rId2664" xr:uid="{00000000-0004-0000-0000-0000710A0000}"/>
+    <hyperlink ref="L648" r:id="rId2665" xr:uid="{00000000-0004-0000-0000-0000720A0000}"/>
+    <hyperlink ref="A649" r:id="rId2666" xr:uid="{00000000-0004-0000-0000-0000730A0000}"/>
+    <hyperlink ref="E649" r:id="rId2667" xr:uid="{00000000-0004-0000-0000-0000740A0000}"/>
+    <hyperlink ref="I649" r:id="rId2668" xr:uid="{00000000-0004-0000-0000-0000750A0000}"/>
+    <hyperlink ref="K649" r:id="rId2669" xr:uid="{00000000-0004-0000-0000-0000760A0000}"/>
+    <hyperlink ref="A650" r:id="rId2670" xr:uid="{00000000-0004-0000-0000-0000770A0000}"/>
+    <hyperlink ref="E650" r:id="rId2671" xr:uid="{00000000-0004-0000-0000-0000780A0000}"/>
+    <hyperlink ref="I650" r:id="rId2672" xr:uid="{00000000-0004-0000-0000-0000790A0000}"/>
+    <hyperlink ref="K650" r:id="rId2673" xr:uid="{00000000-0004-0000-0000-00007A0A0000}"/>
+    <hyperlink ref="L650" r:id="rId2674" xr:uid="{00000000-0004-0000-0000-00007B0A0000}"/>
+    <hyperlink ref="A651" r:id="rId2675" xr:uid="{00000000-0004-0000-0000-00007C0A0000}"/>
+    <hyperlink ref="E651" r:id="rId2676" xr:uid="{00000000-0004-0000-0000-00007D0A0000}"/>
+    <hyperlink ref="I651" r:id="rId2677" xr:uid="{00000000-0004-0000-0000-00007E0A0000}"/>
+    <hyperlink ref="L651" r:id="rId2678" xr:uid="{00000000-0004-0000-0000-00007F0A0000}"/>
+    <hyperlink ref="A652" r:id="rId2679" xr:uid="{00000000-0004-0000-0000-0000800A0000}"/>
+    <hyperlink ref="E652" r:id="rId2680" xr:uid="{00000000-0004-0000-0000-0000810A0000}"/>
+    <hyperlink ref="I652" r:id="rId2681" xr:uid="{00000000-0004-0000-0000-0000820A0000}"/>
+    <hyperlink ref="K652" r:id="rId2682" xr:uid="{00000000-0004-0000-0000-0000830A0000}"/>
+    <hyperlink ref="A653" r:id="rId2683" xr:uid="{00000000-0004-0000-0000-0000840A0000}"/>
+    <hyperlink ref="E653" r:id="rId2684" xr:uid="{00000000-0004-0000-0000-0000850A0000}"/>
+    <hyperlink ref="I653" r:id="rId2685" xr:uid="{00000000-0004-0000-0000-0000860A0000}"/>
+    <hyperlink ref="K653" r:id="rId2686" xr:uid="{00000000-0004-0000-0000-0000870A0000}"/>
+    <hyperlink ref="L653" r:id="rId2687" xr:uid="{00000000-0004-0000-0000-0000880A0000}"/>
+    <hyperlink ref="A654" r:id="rId2688" xr:uid="{00000000-0004-0000-0000-0000890A0000}"/>
+    <hyperlink ref="I654" r:id="rId2689" xr:uid="{00000000-0004-0000-0000-00008A0A0000}"/>
+    <hyperlink ref="L654" r:id="rId2690" xr:uid="{00000000-0004-0000-0000-00008B0A0000}"/>
+    <hyperlink ref="A655" r:id="rId2691" xr:uid="{00000000-0004-0000-0000-00008C0A0000}"/>
+    <hyperlink ref="E655" r:id="rId2692" xr:uid="{00000000-0004-0000-0000-00008D0A0000}"/>
+    <hyperlink ref="I655" r:id="rId2693" xr:uid="{00000000-0004-0000-0000-00008E0A0000}"/>
+    <hyperlink ref="K655" r:id="rId2694" xr:uid="{00000000-0004-0000-0000-00008F0A0000}"/>
+    <hyperlink ref="L655" r:id="rId2695" xr:uid="{00000000-0004-0000-0000-0000900A0000}"/>
+    <hyperlink ref="A656" r:id="rId2696" xr:uid="{00000000-0004-0000-0000-0000910A0000}"/>
+    <hyperlink ref="E656" r:id="rId2697" xr:uid="{00000000-0004-0000-0000-0000920A0000}"/>
+    <hyperlink ref="I656" r:id="rId2698" xr:uid="{00000000-0004-0000-0000-0000930A0000}"/>
+    <hyperlink ref="K656" r:id="rId2699" xr:uid="{00000000-0004-0000-0000-0000940A0000}"/>
+    <hyperlink ref="L656" r:id="rId2700" xr:uid="{00000000-0004-0000-0000-0000950A0000}"/>
+    <hyperlink ref="A657" r:id="rId2701" xr:uid="{00000000-0004-0000-0000-0000960A0000}"/>
+    <hyperlink ref="E657" r:id="rId2702" xr:uid="{00000000-0004-0000-0000-0000970A0000}"/>
+    <hyperlink ref="I657" r:id="rId2703" xr:uid="{00000000-0004-0000-0000-0000980A0000}"/>
+    <hyperlink ref="K657" r:id="rId2704" xr:uid="{00000000-0004-0000-0000-0000990A0000}"/>
+    <hyperlink ref="A658" r:id="rId2705" xr:uid="{00000000-0004-0000-0000-00009A0A0000}"/>
+    <hyperlink ref="E658" r:id="rId2706" xr:uid="{00000000-0004-0000-0000-00009B0A0000}"/>
+    <hyperlink ref="I658" r:id="rId2707" xr:uid="{00000000-0004-0000-0000-00009C0A0000}"/>
+    <hyperlink ref="K658" r:id="rId2708" xr:uid="{00000000-0004-0000-0000-00009D0A0000}"/>
+    <hyperlink ref="L658" r:id="rId2709" xr:uid="{00000000-0004-0000-0000-00009E0A0000}"/>
+    <hyperlink ref="A659" r:id="rId2710" xr:uid="{00000000-0004-0000-0000-00009F0A0000}"/>
+    <hyperlink ref="E659" r:id="rId2711" xr:uid="{00000000-0004-0000-0000-0000A00A0000}"/>
+    <hyperlink ref="I659" r:id="rId2712" xr:uid="{00000000-0004-0000-0000-0000A10A0000}"/>
+    <hyperlink ref="K659" r:id="rId2713" xr:uid="{00000000-0004-0000-0000-0000A20A0000}"/>
+    <hyperlink ref="L659" r:id="rId2714" xr:uid="{00000000-0004-0000-0000-0000A30A0000}"/>
+    <hyperlink ref="A660" r:id="rId2715" xr:uid="{00000000-0004-0000-0000-0000A40A0000}"/>
+    <hyperlink ref="E660" r:id="rId2716" xr:uid="{00000000-0004-0000-0000-0000A50A0000}"/>
+    <hyperlink ref="I660" r:id="rId2717" xr:uid="{00000000-0004-0000-0000-0000A60A0000}"/>
+    <hyperlink ref="A661" r:id="rId2718" xr:uid="{00000000-0004-0000-0000-0000A70A0000}"/>
+    <hyperlink ref="E661" r:id="rId2719" xr:uid="{00000000-0004-0000-0000-0000A80A0000}"/>
+    <hyperlink ref="I661" r:id="rId2720" xr:uid="{00000000-0004-0000-0000-0000A90A0000}"/>
+    <hyperlink ref="K661" r:id="rId2721" xr:uid="{00000000-0004-0000-0000-0000AA0A0000}"/>
+    <hyperlink ref="L661" r:id="rId2722" xr:uid="{00000000-0004-0000-0000-0000AB0A0000}"/>
+    <hyperlink ref="A662" r:id="rId2723" xr:uid="{00000000-0004-0000-0000-0000AC0A0000}"/>
+    <hyperlink ref="E662" r:id="rId2724" xr:uid="{00000000-0004-0000-0000-0000AD0A0000}"/>
+    <hyperlink ref="I662" r:id="rId2725" xr:uid="{00000000-0004-0000-0000-0000AE0A0000}"/>
+    <hyperlink ref="K662" r:id="rId2726" xr:uid="{00000000-0004-0000-0000-0000AF0A0000}"/>
+    <hyperlink ref="A663" r:id="rId2727" xr:uid="{00000000-0004-0000-0000-0000B00A0000}"/>
+    <hyperlink ref="E663" r:id="rId2728" xr:uid="{00000000-0004-0000-0000-0000B10A0000}"/>
+    <hyperlink ref="I663" r:id="rId2729" xr:uid="{00000000-0004-0000-0000-0000B20A0000}"/>
+    <hyperlink ref="K663" r:id="rId2730" xr:uid="{00000000-0004-0000-0000-0000B30A0000}"/>
+    <hyperlink ref="A664" r:id="rId2731" xr:uid="{00000000-0004-0000-0000-0000B40A0000}"/>
+    <hyperlink ref="E664" r:id="rId2732" xr:uid="{00000000-0004-0000-0000-0000B50A0000}"/>
+    <hyperlink ref="I664" r:id="rId2733" xr:uid="{00000000-0004-0000-0000-0000B60A0000}"/>
+    <hyperlink ref="K664" r:id="rId2734" xr:uid="{00000000-0004-0000-0000-0000B70A0000}"/>
+    <hyperlink ref="L664" r:id="rId2735" xr:uid="{00000000-0004-0000-0000-0000B80A0000}"/>
+    <hyperlink ref="A665" r:id="rId2736" xr:uid="{00000000-0004-0000-0000-0000B90A0000}"/>
+    <hyperlink ref="L665" r:id="rId2737" xr:uid="{00000000-0004-0000-0000-0000BA0A0000}"/>
+    <hyperlink ref="A666" r:id="rId2738" xr:uid="{00000000-0004-0000-0000-0000BB0A0000}"/>
+    <hyperlink ref="E666" r:id="rId2739" xr:uid="{00000000-0004-0000-0000-0000BC0A0000}"/>
+    <hyperlink ref="I666" r:id="rId2740" xr:uid="{00000000-0004-0000-0000-0000BD0A0000}"/>
+    <hyperlink ref="L666" r:id="rId2741" xr:uid="{00000000-0004-0000-0000-0000BE0A0000}"/>
+    <hyperlink ref="A667" r:id="rId2742" xr:uid="{00000000-0004-0000-0000-0000BF0A0000}"/>
+    <hyperlink ref="I667" r:id="rId2743" xr:uid="{00000000-0004-0000-0000-0000C00A0000}"/>
+    <hyperlink ref="L667" r:id="rId2744" xr:uid="{00000000-0004-0000-0000-0000C10A0000}"/>
+    <hyperlink ref="A668" r:id="rId2745" xr:uid="{00000000-0004-0000-0000-0000C20A0000}"/>
+    <hyperlink ref="E668" r:id="rId2746" xr:uid="{00000000-0004-0000-0000-0000C30A0000}"/>
+    <hyperlink ref="I668" r:id="rId2747" xr:uid="{00000000-0004-0000-0000-0000C40A0000}"/>
+    <hyperlink ref="K668" r:id="rId2748" xr:uid="{00000000-0004-0000-0000-0000C50A0000}"/>
+    <hyperlink ref="L668" r:id="rId2749" xr:uid="{00000000-0004-0000-0000-0000C60A0000}"/>
+    <hyperlink ref="A669" r:id="rId2750" xr:uid="{00000000-0004-0000-0000-0000C70A0000}"/>
+    <hyperlink ref="E669" r:id="rId2751" xr:uid="{00000000-0004-0000-0000-0000C80A0000}"/>
+    <hyperlink ref="I669" r:id="rId2752" xr:uid="{00000000-0004-0000-0000-0000C90A0000}"/>
+    <hyperlink ref="K669" r:id="rId2753" xr:uid="{00000000-0004-0000-0000-0000CA0A0000}"/>
+    <hyperlink ref="L669" r:id="rId2754" xr:uid="{00000000-0004-0000-0000-0000CB0A0000}"/>
+    <hyperlink ref="A670" r:id="rId2755" xr:uid="{00000000-0004-0000-0000-0000CC0A0000}"/>
+    <hyperlink ref="E670" r:id="rId2756" xr:uid="{00000000-0004-0000-0000-0000CD0A0000}"/>
+    <hyperlink ref="I670" r:id="rId2757" xr:uid="{00000000-0004-0000-0000-0000CE0A0000}"/>
+    <hyperlink ref="K670" r:id="rId2758" xr:uid="{00000000-0004-0000-0000-0000CF0A0000}"/>
+    <hyperlink ref="A671" r:id="rId2759" xr:uid="{00000000-0004-0000-0000-0000D00A0000}"/>
+    <hyperlink ref="I671" r:id="rId2760" xr:uid="{00000000-0004-0000-0000-0000D10A0000}"/>
+    <hyperlink ref="K671" r:id="rId2761" xr:uid="{00000000-0004-0000-0000-0000D20A0000}"/>
+    <hyperlink ref="L671" r:id="rId2762" xr:uid="{00000000-0004-0000-0000-0000D30A0000}"/>
+    <hyperlink ref="A672" r:id="rId2763" xr:uid="{00000000-0004-0000-0000-0000D40A0000}"/>
+    <hyperlink ref="E672" r:id="rId2764" xr:uid="{00000000-0004-0000-0000-0000D50A0000}"/>
+    <hyperlink ref="I672" r:id="rId2765" xr:uid="{00000000-0004-0000-0000-0000D60A0000}"/>
+    <hyperlink ref="K672" r:id="rId2766" xr:uid="{00000000-0004-0000-0000-0000D70A0000}"/>
+    <hyperlink ref="L672" r:id="rId2767" xr:uid="{00000000-0004-0000-0000-0000D80A0000}"/>
+    <hyperlink ref="A673" r:id="rId2768" xr:uid="{00000000-0004-0000-0000-0000D90A0000}"/>
+    <hyperlink ref="E673" r:id="rId2769" xr:uid="{00000000-0004-0000-0000-0000DA0A0000}"/>
+    <hyperlink ref="I673" r:id="rId2770" xr:uid="{00000000-0004-0000-0000-0000DB0A0000}"/>
+    <hyperlink ref="K673" r:id="rId2771" xr:uid="{00000000-0004-0000-0000-0000DC0A0000}"/>
+    <hyperlink ref="L673" r:id="rId2772" xr:uid="{00000000-0004-0000-0000-0000DD0A0000}"/>
+    <hyperlink ref="A674" r:id="rId2773" xr:uid="{00000000-0004-0000-0000-0000DE0A0000}"/>
+    <hyperlink ref="I674" r:id="rId2774" xr:uid="{00000000-0004-0000-0000-0000DF0A0000}"/>
+    <hyperlink ref="K674" r:id="rId2775" xr:uid="{00000000-0004-0000-0000-0000E00A0000}"/>
+    <hyperlink ref="A675" r:id="rId2776" xr:uid="{00000000-0004-0000-0000-0000E10A0000}"/>
+    <hyperlink ref="I675" r:id="rId2777" xr:uid="{00000000-0004-0000-0000-0000E20A0000}"/>
+    <hyperlink ref="K675" r:id="rId2778" xr:uid="{00000000-0004-0000-0000-0000E30A0000}"/>
+    <hyperlink ref="L675" r:id="rId2779" xr:uid="{00000000-0004-0000-0000-0000E40A0000}"/>
+    <hyperlink ref="A676" r:id="rId2780" xr:uid="{00000000-0004-0000-0000-0000E50A0000}"/>
+    <hyperlink ref="I676" r:id="rId2781" xr:uid="{00000000-0004-0000-0000-0000E60A0000}"/>
+    <hyperlink ref="L676" r:id="rId2782" xr:uid="{00000000-0004-0000-0000-0000E70A0000}"/>
+    <hyperlink ref="A677" r:id="rId2783" xr:uid="{00000000-0004-0000-0000-0000E80A0000}"/>
+    <hyperlink ref="E677" r:id="rId2784" xr:uid="{00000000-0004-0000-0000-0000E90A0000}"/>
+    <hyperlink ref="I677" r:id="rId2785" xr:uid="{00000000-0004-0000-0000-0000EA0A0000}"/>
+    <hyperlink ref="K677" r:id="rId2786" xr:uid="{00000000-0004-0000-0000-0000EB0A0000}"/>
+    <hyperlink ref="L677" r:id="rId2787" xr:uid="{00000000-0004-0000-0000-0000EC0A0000}"/>
+    <hyperlink ref="A678" r:id="rId2788" xr:uid="{00000000-0004-0000-0000-0000ED0A0000}"/>
+    <hyperlink ref="I678" r:id="rId2789" xr:uid="{00000000-0004-0000-0000-0000EE0A0000}"/>
+    <hyperlink ref="K678" r:id="rId2790" xr:uid="{00000000-0004-0000-0000-0000EF0A0000}"/>
+    <hyperlink ref="A679" r:id="rId2791" xr:uid="{00000000-0004-0000-0000-0000F00A0000}"/>
+    <hyperlink ref="E679" r:id="rId2792" xr:uid="{00000000-0004-0000-0000-0000F10A0000}"/>
+    <hyperlink ref="I679" r:id="rId2793" xr:uid="{00000000-0004-0000-0000-0000F20A0000}"/>
+    <hyperlink ref="K679" r:id="rId2794" xr:uid="{00000000-0004-0000-0000-0000F30A0000}"/>
+    <hyperlink ref="L679" r:id="rId2795" xr:uid="{00000000-0004-0000-0000-0000F40A0000}"/>
+    <hyperlink ref="A680" r:id="rId2796" xr:uid="{00000000-0004-0000-0000-0000F50A0000}"/>
+    <hyperlink ref="E680" r:id="rId2797" xr:uid="{00000000-0004-0000-0000-0000F60A0000}"/>
+    <hyperlink ref="I680" r:id="rId2798" xr:uid="{00000000-0004-0000-0000-0000F70A0000}"/>
+    <hyperlink ref="K680" r:id="rId2799" xr:uid="{00000000-0004-0000-0000-0000F80A0000}"/>
+    <hyperlink ref="L680" r:id="rId2800" xr:uid="{00000000-0004-0000-0000-0000F90A0000}"/>
+    <hyperlink ref="A681" r:id="rId2801" xr:uid="{00000000-0004-0000-0000-0000FA0A0000}"/>
+    <hyperlink ref="I681" r:id="rId2802" xr:uid="{00000000-0004-0000-0000-0000FB0A0000}"/>
+    <hyperlink ref="L681" r:id="rId2803" xr:uid="{00000000-0004-0000-0000-0000FC0A0000}"/>
+    <hyperlink ref="A682" r:id="rId2804" xr:uid="{00000000-0004-0000-0000-0000FD0A0000}"/>
+    <hyperlink ref="I682" r:id="rId2805" xr:uid="{00000000-0004-0000-0000-0000FE0A0000}"/>
+    <hyperlink ref="K682" r:id="rId2806" xr:uid="{00000000-0004-0000-0000-0000FF0A0000}"/>
+    <hyperlink ref="A683" r:id="rId2807" xr:uid="{00000000-0004-0000-0000-0000000B0000}"/>
+    <hyperlink ref="E683" r:id="rId2808" xr:uid="{00000000-0004-0000-0000-0000010B0000}"/>
+    <hyperlink ref="I683" r:id="rId2809" xr:uid="{00000000-0004-0000-0000-0000020B0000}"/>
+    <hyperlink ref="K683" r:id="rId2810" xr:uid="{00000000-0004-0000-0000-0000030B0000}"/>
+    <hyperlink ref="L683" r:id="rId2811" xr:uid="{00000000-0004-0000-0000-0000040B0000}"/>
+    <hyperlink ref="A684" r:id="rId2812" xr:uid="{00000000-0004-0000-0000-0000050B0000}"/>
+    <hyperlink ref="E684" r:id="rId2813" xr:uid="{00000000-0004-0000-0000-0000060B0000}"/>
+    <hyperlink ref="I684" r:id="rId2814" xr:uid="{00000000-0004-0000-0000-0000070B0000}"/>
+    <hyperlink ref="K684" r:id="rId2815" xr:uid="{00000000-0004-0000-0000-0000080B0000}"/>
+    <hyperlink ref="L684" r:id="rId2816" xr:uid="{00000000-0004-0000-0000-0000090B0000}"/>
+    <hyperlink ref="A685" r:id="rId2817" xr:uid="{00000000-0004-0000-0000-00000A0B0000}"/>
+    <hyperlink ref="I685" r:id="rId2818" xr:uid="{00000000-0004-0000-0000-00000B0B0000}"/>
+    <hyperlink ref="K685" r:id="rId2819" xr:uid="{00000000-0004-0000-0000-00000C0B0000}"/>
+    <hyperlink ref="L685" r:id="rId2820" xr:uid="{00000000-0004-0000-0000-00000D0B0000}"/>
+    <hyperlink ref="A686" r:id="rId2821" xr:uid="{00000000-0004-0000-0000-00000E0B0000}"/>
+    <hyperlink ref="E686" r:id="rId2822" xr:uid="{00000000-0004-0000-0000-00000F0B0000}"/>
+    <hyperlink ref="I686" r:id="rId2823" xr:uid="{00000000-0004-0000-0000-0000100B0000}"/>
+    <hyperlink ref="A687" r:id="rId2824" xr:uid="{00000000-0004-0000-0000-0000110B0000}"/>
+    <hyperlink ref="E687" r:id="rId2825" xr:uid="{00000000-0004-0000-0000-0000120B0000}"/>
+    <hyperlink ref="I687" r:id="rId2826" xr:uid="{00000000-0004-0000-0000-0000130B0000}"/>
+    <hyperlink ref="A688" r:id="rId2827" xr:uid="{00000000-0004-0000-0000-0000140B0000}"/>
+    <hyperlink ref="I688" r:id="rId2828" xr:uid="{00000000-0004-0000-0000-0000150B0000}"/>
+    <hyperlink ref="L688" r:id="rId2829" xr:uid="{00000000-0004-0000-0000-0000160B0000}"/>
+    <hyperlink ref="A689" r:id="rId2830" xr:uid="{00000000-0004-0000-0000-0000170B0000}"/>
+    <hyperlink ref="I689" r:id="rId2831" xr:uid="{00000000-0004-0000-0000-0000180B0000}"/>
+    <hyperlink ref="L689" r:id="rId2832" xr:uid="{00000000-0004-0000-0000-0000190B0000}"/>
+    <hyperlink ref="A690" r:id="rId2833" xr:uid="{00000000-0004-0000-0000-00001A0B0000}"/>
+    <hyperlink ref="I690" r:id="rId2834" xr:uid="{00000000-0004-0000-0000-00001B0B0000}"/>
+    <hyperlink ref="K690" r:id="rId2835" xr:uid="{00000000-0004-0000-0000-00001C0B0000}"/>
+    <hyperlink ref="L690" r:id="rId2836" xr:uid="{00000000-0004-0000-0000-00001D0B0000}"/>
+    <hyperlink ref="A691" r:id="rId2837" xr:uid="{00000000-0004-0000-0000-00001E0B0000}"/>
+    <hyperlink ref="E691" r:id="rId2838" xr:uid="{00000000-0004-0000-0000-00001F0B0000}"/>
+    <hyperlink ref="I691" r:id="rId2839" xr:uid="{00000000-0004-0000-0000-0000200B0000}"/>
+    <hyperlink ref="K691" r:id="rId2840" xr:uid="{00000000-0004-0000-0000-0000210B0000}"/>
+    <hyperlink ref="L691" r:id="rId2841" xr:uid="{00000000-0004-0000-0000-0000220B0000}"/>
+    <hyperlink ref="A692" r:id="rId2842" xr:uid="{00000000-0004-0000-0000-0000230B0000}"/>
+    <hyperlink ref="E692" r:id="rId2843" xr:uid="{00000000-0004-0000-0000-0000240B0000}"/>
+    <hyperlink ref="I692" r:id="rId2844" xr:uid="{00000000-0004-0000-0000-0000250B0000}"/>
+    <hyperlink ref="K692" r:id="rId2845" xr:uid="{00000000-0004-0000-0000-0000260B0000}"/>
+    <hyperlink ref="L692" r:id="rId2846" xr:uid="{00000000-0004-0000-0000-0000270B0000}"/>
+    <hyperlink ref="A693" r:id="rId2847" xr:uid="{00000000-0004-0000-0000-0000280B0000}"/>
+    <hyperlink ref="E693" r:id="rId2848" xr:uid="{00000000-0004-0000-0000-0000290B0000}"/>
+    <hyperlink ref="I693" r:id="rId2849" xr:uid="{00000000-0004-0000-0000-00002A0B0000}"/>
+    <hyperlink ref="K693" r:id="rId2850" xr:uid="{00000000-0004-0000-0000-00002B0B0000}"/>
+    <hyperlink ref="L693" r:id="rId2851" xr:uid="{00000000-0004-0000-0000-00002C0B0000}"/>
+    <hyperlink ref="A694" r:id="rId2852" xr:uid="{00000000-0004-0000-0000-00002D0B0000}"/>
+    <hyperlink ref="E694" r:id="rId2853" xr:uid="{00000000-0004-0000-0000-00002E0B0000}"/>
+    <hyperlink ref="I694" r:id="rId2854" xr:uid="{00000000-0004-0000-0000-00002F0B0000}"/>
+    <hyperlink ref="L694" r:id="rId2855" xr:uid="{00000000-0004-0000-0000-0000300B0000}"/>
+    <hyperlink ref="A695" r:id="rId2856" xr:uid="{00000000-0004-0000-0000-0000310B0000}"/>
+    <hyperlink ref="I695" r:id="rId2857" xr:uid="{00000000-0004-0000-0000-0000320B0000}"/>
+    <hyperlink ref="L695" r:id="rId2858" xr:uid="{00000000-0004-0000-0000-0000330B0000}"/>
+    <hyperlink ref="A696" r:id="rId2859" xr:uid="{00000000-0004-0000-0000-0000340B0000}"/>
+    <hyperlink ref="I696" r:id="rId2860" xr:uid="{00000000-0004-0000-0000-0000350B0000}"/>
+    <hyperlink ref="K696" r:id="rId2861" xr:uid="{00000000-0004-0000-0000-0000360B0000}"/>
+    <hyperlink ref="L696" r:id="rId2862" xr:uid="{00000000-0004-0000-0000-0000370B0000}"/>
+    <hyperlink ref="A697" r:id="rId2863" xr:uid="{00000000-0004-0000-0000-0000380B0000}"/>
+    <hyperlink ref="E697" r:id="rId2864" xr:uid="{00000000-0004-0000-0000-0000390B0000}"/>
+    <hyperlink ref="I697" r:id="rId2865" xr:uid="{00000000-0004-0000-0000-00003A0B0000}"/>
+    <hyperlink ref="L697" r:id="rId2866" xr:uid="{00000000-0004-0000-0000-00003B0B0000}"/>
+    <hyperlink ref="A698" r:id="rId2867" xr:uid="{00000000-0004-0000-0000-00003C0B0000}"/>
+    <hyperlink ref="I698" r:id="rId2868" xr:uid="{00000000-0004-0000-0000-00003D0B0000}"/>
+    <hyperlink ref="A699" r:id="rId2869" xr:uid="{00000000-0004-0000-0000-00003E0B0000}"/>
+    <hyperlink ref="I699" r:id="rId2870" xr:uid="{00000000-0004-0000-0000-00003F0B0000}"/>
+    <hyperlink ref="L699" r:id="rId2871" xr:uid="{00000000-0004-0000-0000-0000400B0000}"/>
+    <hyperlink ref="A700" r:id="rId2872" xr:uid="{00000000-0004-0000-0000-0000410B0000}"/>
+    <hyperlink ref="E700" r:id="rId2873" xr:uid="{00000000-0004-0000-0000-0000420B0000}"/>
+    <hyperlink ref="I700" r:id="rId2874" xr:uid="{00000000-0004-0000-0000-0000430B0000}"/>
+    <hyperlink ref="L700" r:id="rId2875" xr:uid="{00000000-0004-0000-0000-0000440B0000}"/>
+    <hyperlink ref="A701" r:id="rId2876" xr:uid="{00000000-0004-0000-0000-0000450B0000}"/>
+    <hyperlink ref="E701" r:id="rId2877" xr:uid="{00000000-0004-0000-0000-0000460B0000}"/>
+    <hyperlink ref="I701" r:id="rId2878" xr:uid="{00000000-0004-0000-0000-0000470B0000}"/>
+    <hyperlink ref="K701" r:id="rId2879" xr:uid="{00000000-0004-0000-0000-0000480B0000}"/>
+    <hyperlink ref="L701" r:id="rId2880" xr:uid="{00000000-0004-0000-0000-0000490B0000}"/>
+    <hyperlink ref="A702" r:id="rId2881" xr:uid="{00000000-0004-0000-0000-00004A0B0000}"/>
+    <hyperlink ref="E702" r:id="rId2882" xr:uid="{00000000-0004-0000-0000-00004B0B0000}"/>
+    <hyperlink ref="K702" r:id="rId2883" xr:uid="{00000000-0004-0000-0000-00004C0B0000}"/>
+    <hyperlink ref="L702" r:id="rId2884" xr:uid="{00000000-0004-0000-0000-00004D0B0000}"/>
+    <hyperlink ref="A703" r:id="rId2885" xr:uid="{00000000-0004-0000-0000-00004E0B0000}"/>
+    <hyperlink ref="I703" r:id="rId2886" xr:uid="{00000000-0004-0000-0000-00004F0B0000}"/>
+    <hyperlink ref="L703" r:id="rId2887" xr:uid="{00000000-0004-0000-0000-0000500B0000}"/>
+    <hyperlink ref="E71" r:id="rId2888" xr:uid="{DCB82BA1-420F-4E95-934E-340605C270B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2890"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2889"/>
 </worksheet>
 </file>